--- a/data/人口就业.xlsx
+++ b/data/人口就业.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="229">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">中华人民共和国国家统计局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-05</t>
   </si>
   <si>
     <t xml:space="preserve">2024-04</t>
@@ -1253,16 +1256,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E7" s="7">
         <v>5.1</v>
       </c>
       <c r="F7" s="7">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I7" s="7">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="8">
@@ -1273,19 +1276,19 @@
         <v>61</v>
       </c>
       <c r="C8" s="7">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="7">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7">
         <v>5.1</v>
       </c>
-      <c r="E8" s="7">
-        <v>5.3</v>
-      </c>
       <c r="F8" s="7">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I8" s="7">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1299,19 @@
         <v>62</v>
       </c>
       <c r="C9" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D9" s="7">
         <v>5.1</v>
       </c>
       <c r="E9" s="7">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F9" s="7">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I9" s="7">
-        <v>48</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="10">
@@ -1319,19 +1322,19 @@
         <v>63</v>
       </c>
       <c r="C10" s="7">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D10" s="7">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="E10" s="7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F10" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I10" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
@@ -1342,49 +1345,19 @@
         <v>64</v>
       </c>
       <c r="C11" s="7">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D11" s="7">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E11" s="7">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F11" s="7">
         <v>4.7</v>
       </c>
       <c r="I11" s="7">
         <v>49</v>
-      </c>
-      <c r="N11" s="7">
-        <v>140967</v>
-      </c>
-      <c r="O11" s="7">
-        <v>93267</v>
-      </c>
-      <c r="P11" s="7">
-        <v>47700</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>-208</v>
-      </c>
-      <c r="R11" s="7">
-        <v>1196</v>
-      </c>
-      <c r="S11" s="7">
-        <v>-1404</v>
-      </c>
-      <c r="T11" s="7">
-        <v>6.39</v>
-      </c>
-      <c r="U11" s="7">
-        <v>7.87</v>
-      </c>
-      <c r="V11" s="7">
-        <v>-1.48</v>
-      </c>
-      <c r="W11" s="7">
-        <v>66.16</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1368,49 @@
         <v>65</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D12" s="7">
         <v>5</v>
       </c>
       <c r="E12" s="7">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="F12" s="7">
         <v>4.7</v>
       </c>
       <c r="I12" s="7">
-        <v>48.9</v>
+        <v>49</v>
+      </c>
+      <c r="N12" s="7">
+        <v>140967</v>
+      </c>
+      <c r="O12" s="7">
+        <v>93267</v>
+      </c>
+      <c r="P12" s="7">
+        <v>47700</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>-208</v>
+      </c>
+      <c r="R12" s="7">
+        <v>1196</v>
+      </c>
+      <c r="S12" s="7">
+        <v>-1404</v>
+      </c>
+      <c r="T12" s="7">
+        <v>6.39</v>
+      </c>
+      <c r="U12" s="7">
+        <v>7.87</v>
+      </c>
+      <c r="V12" s="7">
+        <v>-1.48</v>
+      </c>
+      <c r="W12" s="7">
+        <v>66.16</v>
       </c>
     </row>
     <row r="13">
@@ -1424,13 +1427,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F13" s="7">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I13" s="7">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="14">
@@ -1444,16 +1447,16 @@
         <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="7">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="7">
         <v>4.9</v>
       </c>
       <c r="I14" s="7">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="15">
@@ -1464,19 +1467,19 @@
         <v>68</v>
       </c>
       <c r="C15" s="7">
+        <v>5</v>
+      </c>
+      <c r="D15" s="7">
         <v>5.2</v>
       </c>
-      <c r="D15" s="7">
-        <v>5.3</v>
-      </c>
       <c r="E15" s="7">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="F15" s="7">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I15" s="7">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="16">
@@ -1487,16 +1490,16 @@
         <v>69</v>
       </c>
       <c r="C16" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="D16" s="7">
         <v>5.3</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5.4</v>
       </c>
       <c r="E16" s="7">
         <v>5.3</v>
       </c>
       <c r="F16" s="7">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I16" s="7">
         <v>48.7</v>
@@ -1510,37 +1513,19 @@
         <v>70</v>
       </c>
       <c r="C17" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D17" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="E17" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="F17" s="7">
         <v>5.2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="E17" s="7">
-        <v>5.1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>5.3</v>
-      </c>
-      <c r="G17" s="7">
-        <v>21.3</v>
-      </c>
-      <c r="H17" s="7">
-        <v>4.1</v>
       </c>
       <c r="I17" s="7">
         <v>48.7</v>
-      </c>
-      <c r="J17" s="7">
-        <v>4.4</v>
-      </c>
-      <c r="K17" s="7">
-        <v>4.4</v>
-      </c>
-      <c r="L17" s="7">
-        <v>3.9</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3.2</v>
       </c>
     </row>
     <row r="18">
@@ -1560,16 +1545,16 @@
         <v>5.1</v>
       </c>
       <c r="F18" s="7">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G18" s="7">
-        <v>20.8</v>
+        <v>21.3</v>
       </c>
       <c r="H18" s="7">
         <v>4.1</v>
       </c>
       <c r="I18" s="7">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="J18" s="7">
         <v>4.4</v>
@@ -1578,7 +1563,7 @@
         <v>4.4</v>
       </c>
       <c r="L18" s="7">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="M18" s="7">
         <v>3.2</v>
@@ -1604,25 +1589,25 @@
         <v>5.4</v>
       </c>
       <c r="G19" s="7">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="H19" s="7">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I19" s="7">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="J19" s="7">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K19" s="7">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L19" s="7">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M19" s="7">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20">
@@ -1633,7 +1618,7 @@
         <v>73</v>
       </c>
       <c r="C20" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D20" s="7">
         <v>5.5</v>
@@ -1642,22 +1627,22 @@
         <v>5.1</v>
       </c>
       <c r="F20" s="7">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="G20" s="7">
-        <v>19.6</v>
+        <v>20.4</v>
       </c>
       <c r="H20" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I20" s="7">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="J20" s="7">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="K20" s="7">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L20" s="7">
         <v>4</v>
@@ -1674,37 +1659,37 @@
         <v>74</v>
       </c>
       <c r="C21" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D21" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="E21" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="F21" s="7">
         <v>5.6</v>
       </c>
-      <c r="D21" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="E21" s="7">
-        <v>5.4</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5.9</v>
-      </c>
       <c r="G21" s="7">
-        <v>18.1</v>
+        <v>19.6</v>
       </c>
       <c r="H21" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="I21" s="7">
+        <v>48.7</v>
+      </c>
+      <c r="J21" s="7">
         <v>4.8</v>
       </c>
-      <c r="I21" s="7">
-        <v>47.9</v>
-      </c>
-      <c r="J21" s="7">
-        <v>5.7</v>
-      </c>
       <c r="K21" s="7">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="L21" s="7">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M21" s="7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="22">
@@ -1715,25 +1700,37 @@
         <v>75</v>
       </c>
       <c r="C22" s="7">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D22" s="7">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="E22" s="7">
         <v>5.4</v>
       </c>
       <c r="F22" s="7">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="G22" s="7">
-        <v>17.3</v>
+        <v>18.1</v>
       </c>
       <c r="H22" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I22" s="7">
         <v>47.9</v>
+      </c>
+      <c r="J22" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="K22" s="7">
+        <v>5.2</v>
+      </c>
+      <c r="L22" s="7">
+        <v>4.1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1747,55 +1744,22 @@
         <v>5.5</v>
       </c>
       <c r="D23" s="7">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="E23" s="7">
         <v>5.4</v>
       </c>
       <c r="F23" s="7">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="G23" s="7">
-        <v>16.7</v>
+        <v>17.3</v>
       </c>
       <c r="H23" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I23" s="7">
         <v>47.9</v>
-      </c>
-      <c r="N23" s="7">
-        <v>141175</v>
-      </c>
-      <c r="O23" s="7">
-        <v>92071</v>
-      </c>
-      <c r="P23" s="7">
-        <v>49104</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>-85</v>
-      </c>
-      <c r="R23" s="7">
-        <v>646</v>
-      </c>
-      <c r="S23" s="7">
-        <v>-731</v>
-      </c>
-      <c r="T23" s="7">
-        <v>6.77</v>
-      </c>
-      <c r="U23" s="7">
-        <v>7.37</v>
-      </c>
-      <c r="V23" s="7">
-        <v>-0.6</v>
-      </c>
-      <c r="W23" s="7">
-        <v>65.22</v>
-      </c>
-      <c r="X23" s="7">
-        <v>9672565</v>
       </c>
     </row>
     <row r="24">
@@ -1806,25 +1770,58 @@
         <v>77</v>
       </c>
       <c r="C24" s="7">
+        <v>5.5</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F24" s="7">
         <v>5.7</v>
       </c>
-      <c r="D24" s="7">
-        <v>6.7</v>
-      </c>
-      <c r="E24" s="7">
-        <v>5.5</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6.2</v>
-      </c>
       <c r="G24" s="7">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I24" s="7">
-        <v>47.7</v>
+        <v>47.9</v>
+      </c>
+      <c r="N24" s="7">
+        <v>141175</v>
+      </c>
+      <c r="O24" s="7">
+        <v>92071</v>
+      </c>
+      <c r="P24" s="7">
+        <v>49104</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>-85</v>
+      </c>
+      <c r="R24" s="7">
+        <v>646</v>
+      </c>
+      <c r="S24" s="7">
+        <v>-731</v>
+      </c>
+      <c r="T24" s="7">
+        <v>6.77</v>
+      </c>
+      <c r="U24" s="7">
+        <v>7.37</v>
+      </c>
+      <c r="V24" s="7">
+        <v>-0.6</v>
+      </c>
+      <c r="W24" s="7">
+        <v>65.22</v>
+      </c>
+      <c r="X24" s="7">
+        <v>9672565</v>
       </c>
     </row>
     <row r="25">
@@ -1835,25 +1832,25 @@
         <v>78</v>
       </c>
       <c r="C25" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="E25" s="7">
         <v>5.5</v>
       </c>
-      <c r="D25" s="7">
-        <v>6</v>
-      </c>
-      <c r="E25" s="7">
-        <v>5.4</v>
-      </c>
       <c r="F25" s="7">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="G25" s="7">
-        <v>17.9</v>
+        <v>17.1</v>
       </c>
       <c r="H25" s="7">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>47.9</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="26">
@@ -1867,13 +1864,13 @@
         <v>5.5</v>
       </c>
       <c r="D26" s="7">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="E26" s="7">
         <v>5.4</v>
       </c>
       <c r="F26" s="7">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G26" s="7">
         <v>17.9</v>
@@ -1882,7 +1879,7 @@
         <v>4.7</v>
       </c>
       <c r="I26" s="7">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="27">
@@ -1893,25 +1890,25 @@
         <v>80</v>
       </c>
       <c r="C27" s="7">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D27" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="E27" s="7">
         <v>5.4</v>
       </c>
-      <c r="E27" s="7">
-        <v>5.3</v>
-      </c>
       <c r="F27" s="7">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="G27" s="7">
-        <v>18.7</v>
+        <v>17.9</v>
       </c>
       <c r="H27" s="7">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I27" s="7">
-        <v>48</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="28">
@@ -1922,19 +1919,19 @@
         <v>81</v>
       </c>
       <c r="C28" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="D28" s="7">
         <v>5.4</v>
-      </c>
-      <c r="D28" s="7">
-        <v>5.6</v>
       </c>
       <c r="E28" s="7">
         <v>5.3</v>
       </c>
       <c r="F28" s="7">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G28" s="7">
-        <v>19.9</v>
+        <v>18.7</v>
       </c>
       <c r="H28" s="7">
         <v>4.3</v>
@@ -1951,25 +1948,25 @@
         <v>82</v>
       </c>
       <c r="C29" s="7">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="D29" s="7">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="E29" s="7">
         <v>5.3</v>
       </c>
       <c r="F29" s="7">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="G29" s="7">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="H29" s="7">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I29" s="7">
-        <v>47.7</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
@@ -1980,25 +1977,25 @@
         <v>83</v>
       </c>
       <c r="C30" s="7">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="D30" s="7">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="E30" s="7">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F30" s="7">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="G30" s="7">
-        <v>18.4</v>
+        <v>19.3</v>
       </c>
       <c r="H30" s="7">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="I30" s="7">
-        <v>47.2</v>
+        <v>47.7</v>
       </c>
     </row>
     <row r="31">
@@ -2009,25 +2006,25 @@
         <v>84</v>
       </c>
       <c r="C31" s="7">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="D31" s="7">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="E31" s="7">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="F31" s="7">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="G31" s="7">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="H31" s="7">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I31" s="7">
-        <v>46.2</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="32">
@@ -2038,25 +2035,25 @@
         <v>85</v>
       </c>
       <c r="C32" s="7">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="D32" s="7">
-        <v>6</v>
+        <v>6.7</v>
       </c>
       <c r="E32" s="7">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F32" s="7">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="G32" s="7">
-        <v>16</v>
+        <v>18.2</v>
       </c>
       <c r="H32" s="7">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I32" s="7">
-        <v>47.3</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="33">
@@ -2067,25 +2064,25 @@
         <v>86</v>
       </c>
       <c r="C33" s="7">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="D33" s="7">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="E33" s="7">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="F33" s="7">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="G33" s="7">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="H33" s="7">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="I33" s="7">
-        <v>46.7</v>
+        <v>47.3</v>
       </c>
     </row>
     <row r="34">
@@ -2096,22 +2093,25 @@
         <v>87</v>
       </c>
       <c r="C34" s="7">
-        <v>5.3</v>
+        <v>5.5</v>
+      </c>
+      <c r="D34" s="7">
+        <v>5.4</v>
       </c>
       <c r="E34" s="7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F34" s="7">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="G34" s="7">
         <v>15.3</v>
       </c>
       <c r="H34" s="7">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I34" s="7">
-        <v>47.5</v>
+        <v>46.7</v>
       </c>
     </row>
     <row r="35">
@@ -2122,55 +2122,22 @@
         <v>88</v>
       </c>
       <c r="C35" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E35" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="F35" s="7">
         <v>5.1</v>
       </c>
-      <c r="D35" s="7">
-        <v>5.1</v>
-      </c>
-      <c r="E35" s="7">
-        <v>5.1</v>
-      </c>
-      <c r="F35" s="7">
-        <v>4.9</v>
-      </c>
       <c r="G35" s="7">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="H35" s="7">
-        <v>4.4</v>
-      </c>
-      <c r="N35" s="7">
-        <v>141260</v>
-      </c>
-      <c r="O35" s="7">
-        <v>91425</v>
-      </c>
-      <c r="P35" s="7">
-        <v>49835</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>48</v>
-      </c>
-      <c r="R35" s="7">
-        <v>1205</v>
-      </c>
-      <c r="S35" s="7">
-        <v>-1157</v>
-      </c>
-      <c r="T35" s="7">
-        <v>7.52</v>
-      </c>
-      <c r="U35" s="7">
-        <v>7.18</v>
-      </c>
-      <c r="V35" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="W35" s="7">
-        <v>64.72</v>
-      </c>
-      <c r="X35" s="7">
-        <v>8265064</v>
+        <v>4.6</v>
+      </c>
+      <c r="I35" s="7">
+        <v>47.5</v>
       </c>
     </row>
     <row r="36">
@@ -2181,7 +2148,7 @@
         <v>89</v>
       </c>
       <c r="C36" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D36" s="7">
         <v>5.1</v>
@@ -2190,13 +2157,46 @@
         <v>5.1</v>
       </c>
       <c r="F36" s="7">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G36" s="7">
         <v>14.3</v>
       </c>
       <c r="H36" s="7">
-        <v>4.3</v>
+        <v>4.4</v>
+      </c>
+      <c r="N36" s="7">
+        <v>141260</v>
+      </c>
+      <c r="O36" s="7">
+        <v>91425</v>
+      </c>
+      <c r="P36" s="7">
+        <v>49835</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>48</v>
+      </c>
+      <c r="R36" s="7">
+        <v>1205</v>
+      </c>
+      <c r="S36" s="7">
+        <v>-1157</v>
+      </c>
+      <c r="T36" s="7">
+        <v>7.52</v>
+      </c>
+      <c r="U36" s="7">
+        <v>7.18</v>
+      </c>
+      <c r="V36" s="7">
+        <v>0.34</v>
+      </c>
+      <c r="W36" s="7">
+        <v>64.72</v>
+      </c>
+      <c r="X36" s="7">
+        <v>8265064</v>
       </c>
     </row>
     <row r="37">
@@ -2207,22 +2207,22 @@
         <v>90</v>
       </c>
       <c r="C37" s="7">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="D37" s="7">
         <v>5.1</v>
       </c>
       <c r="E37" s="7">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="F37" s="7">
         <v>4.8</v>
       </c>
       <c r="G37" s="7">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="H37" s="7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="38">
@@ -2236,16 +2236,16 @@
         <v>4.9</v>
       </c>
       <c r="D38" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="E38" s="7">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="F38" s="7">
         <v>4.8</v>
       </c>
       <c r="G38" s="7">
-        <v>14.6</v>
+        <v>14.2</v>
       </c>
       <c r="H38" s="7">
         <v>4.2</v>
@@ -2259,22 +2259,22 @@
         <v>92</v>
       </c>
       <c r="C39" s="7">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="D39" s="7">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="E39" s="7">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="F39" s="7">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G39" s="7">
-        <v>15.3</v>
+        <v>14.6</v>
       </c>
       <c r="H39" s="7">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="40">
@@ -2288,19 +2288,19 @@
         <v>5.1</v>
       </c>
       <c r="D40" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="E40" s="7">
         <v>5.2</v>
-      </c>
-      <c r="E40" s="7">
-        <v>5.1</v>
       </c>
       <c r="F40" s="7">
         <v>5</v>
       </c>
       <c r="G40" s="7">
-        <v>16.2</v>
+        <v>15.3</v>
       </c>
       <c r="H40" s="7">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="41">
@@ -2311,19 +2311,19 @@
         <v>94</v>
       </c>
       <c r="C41" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D41" s="7">
         <v>5.2</v>
       </c>
       <c r="E41" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="F41" s="7">
         <v>5</v>
       </c>
-      <c r="F41" s="7">
-        <v>5.1</v>
-      </c>
       <c r="G41" s="7">
-        <v>15.4</v>
+        <v>16.2</v>
       </c>
       <c r="H41" s="7">
         <v>4.2</v>
@@ -2343,16 +2343,16 @@
         <v>5.2</v>
       </c>
       <c r="E42" s="7">
+        <v>5</v>
+      </c>
+      <c r="F42" s="7">
         <v>5.1</v>
       </c>
-      <c r="F42" s="7">
-        <v>5</v>
-      </c>
       <c r="G42" s="7">
-        <v>13.8</v>
+        <v>15.4</v>
       </c>
       <c r="H42" s="7">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="43">
@@ -2363,7 +2363,7 @@
         <v>96</v>
       </c>
       <c r="C43" s="7">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="D43" s="7">
         <v>5.2</v>
@@ -2372,13 +2372,13 @@
         <v>5.1</v>
       </c>
       <c r="F43" s="7">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G43" s="7">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H43" s="7">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="44">
@@ -2389,22 +2389,22 @@
         <v>97</v>
       </c>
       <c r="C44" s="7">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="D44" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="E44" s="7">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="F44" s="7">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="G44" s="7">
         <v>13.6</v>
       </c>
       <c r="H44" s="7">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="45">
@@ -2415,22 +2415,22 @@
         <v>98</v>
       </c>
       <c r="C45" s="7">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="D45" s="7">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="E45" s="7">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="F45" s="7">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G45" s="7">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="H45" s="7">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="46">
@@ -2441,22 +2441,22 @@
         <v>99</v>
       </c>
       <c r="C46" s="7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="D46" s="7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="E46" s="7">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="F46" s="7">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G46" s="7">
-        <v>12.7</v>
+        <v>13.1</v>
       </c>
       <c r="H46" s="7">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2467,43 +2467,22 @@
         <v>100</v>
       </c>
       <c r="C47" s="7">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D47" s="7">
+        <v>5.4</v>
+      </c>
+      <c r="E47" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="F47" s="7">
         <v>5.1</v>
       </c>
       <c r="G47" s="7">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="H47" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="N47" s="7">
-        <v>141212</v>
-      </c>
-      <c r="O47" s="7">
-        <v>90220</v>
-      </c>
-      <c r="P47" s="7">
-        <v>50992</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>204</v>
-      </c>
-      <c r="T47" s="7">
-        <v>8.52</v>
-      </c>
-      <c r="U47" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="V47" s="7">
-        <v>1.45</v>
-      </c>
-      <c r="W47" s="7">
-        <v>63.89</v>
-      </c>
-      <c r="X47" s="7">
-        <v>7971991</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="48">
@@ -2517,13 +2496,40 @@
         <v>5.2</v>
       </c>
       <c r="D48" s="7">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G48" s="7">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="H48" s="7">
         <v>4.7</v>
+      </c>
+      <c r="N48" s="7">
+        <v>141212</v>
+      </c>
+      <c r="O48" s="7">
+        <v>90220</v>
+      </c>
+      <c r="P48" s="7">
+        <v>50992</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>204</v>
+      </c>
+      <c r="T48" s="7">
+        <v>8.52</v>
+      </c>
+      <c r="U48" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="V48" s="7">
+        <v>1.45</v>
+      </c>
+      <c r="W48" s="7">
+        <v>63.89</v>
+      </c>
+      <c r="X48" s="7">
+        <v>7971991</v>
       </c>
     </row>
     <row r="49">
@@ -2534,16 +2540,16 @@
         <v>102</v>
       </c>
       <c r="C49" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D49" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G49" s="7">
-        <v>13.2</v>
+        <v>12.8</v>
       </c>
       <c r="H49" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="50">
@@ -2554,13 +2560,13 @@
         <v>103</v>
       </c>
       <c r="C50" s="7">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="D50" s="7">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="G50" s="7">
-        <v>15</v>
+        <v>13.2</v>
       </c>
       <c r="H50" s="7">
         <v>4.8</v>
@@ -2574,13 +2580,13 @@
         <v>104</v>
       </c>
       <c r="C51" s="7">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="D51" s="7">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="G51" s="7">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="H51" s="7">
         <v>4.8</v>
@@ -2594,16 +2600,16 @@
         <v>105</v>
       </c>
       <c r="C52" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="D52" s="7">
         <v>5.7</v>
-      </c>
-      <c r="D52" s="7">
-        <v>5.8</v>
       </c>
       <c r="G52" s="7">
         <v>16.8</v>
       </c>
       <c r="H52" s="7">
-        <v>5</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="53">
@@ -2620,10 +2626,10 @@
         <v>5.8</v>
       </c>
       <c r="G53" s="7">
-        <v>15.4</v>
+        <v>16.8</v>
       </c>
       <c r="H53" s="7">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2634,16 +2640,16 @@
         <v>107</v>
       </c>
       <c r="C54" s="7">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="D54" s="7">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G54" s="7">
-        <v>14.8</v>
+        <v>15.4</v>
       </c>
       <c r="H54" s="7">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="55">
@@ -2654,16 +2660,16 @@
         <v>108</v>
       </c>
       <c r="C55" s="7">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="D55" s="7">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G55" s="7">
-        <v>13.8</v>
+        <v>14.8</v>
       </c>
       <c r="H55" s="7">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="56">
@@ -2674,16 +2680,16 @@
         <v>109</v>
       </c>
       <c r="C56" s="7">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="D56" s="7">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G56" s="7">
-        <v>13.3</v>
+        <v>13.8</v>
       </c>
       <c r="H56" s="7">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="57">
@@ -2694,16 +2700,16 @@
         <v>110</v>
       </c>
       <c r="C57" s="7">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="D57" s="7">
         <v>5.7</v>
       </c>
       <c r="G57" s="7">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="H57" s="7">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="58">
@@ -2714,16 +2720,16 @@
         <v>111</v>
       </c>
       <c r="C58" s="7">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="D58" s="7">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G58" s="7">
-        <v>12.5</v>
+        <v>13.6</v>
       </c>
       <c r="H58" s="7">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="59">
@@ -2734,49 +2740,16 @@
         <v>112</v>
       </c>
       <c r="C59" s="7">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D59" s="7">
         <v>5.2</v>
       </c>
       <c r="G59" s="7">
-        <v>12.2</v>
+        <v>12.5</v>
       </c>
       <c r="H59" s="7">
         <v>4.7</v>
-      </c>
-      <c r="N59" s="7">
-        <v>141008</v>
-      </c>
-      <c r="O59" s="7">
-        <v>88426</v>
-      </c>
-      <c r="P59" s="7">
-        <v>52582</v>
-      </c>
-      <c r="Q59" s="7">
-        <v>467</v>
-      </c>
-      <c r="R59" s="7">
-        <v>1706</v>
-      </c>
-      <c r="S59" s="7">
-        <v>-1239</v>
-      </c>
-      <c r="T59" s="7">
-        <v>10.41</v>
-      </c>
-      <c r="U59" s="7">
-        <v>7.09</v>
-      </c>
-      <c r="V59" s="7">
-        <v>3.32</v>
-      </c>
-      <c r="W59" s="7">
-        <v>60.6</v>
-      </c>
-      <c r="X59" s="7">
-        <v>7585298</v>
       </c>
     </row>
     <row r="60">
@@ -2787,16 +2760,49 @@
         <v>113</v>
       </c>
       <c r="C60" s="7">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D60" s="7">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G60" s="7">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="H60" s="7">
-        <v>4.6</v>
+        <v>4.7</v>
+      </c>
+      <c r="N60" s="7">
+        <v>141008</v>
+      </c>
+      <c r="O60" s="7">
+        <v>88426</v>
+      </c>
+      <c r="P60" s="7">
+        <v>52582</v>
+      </c>
+      <c r="Q60" s="7">
+        <v>467</v>
+      </c>
+      <c r="R60" s="7">
+        <v>1706</v>
+      </c>
+      <c r="S60" s="7">
+        <v>-1239</v>
+      </c>
+      <c r="T60" s="7">
+        <v>10.41</v>
+      </c>
+      <c r="U60" s="7">
+        <v>7.09</v>
+      </c>
+      <c r="V60" s="7">
+        <v>3.32</v>
+      </c>
+      <c r="W60" s="7">
+        <v>60.6</v>
+      </c>
+      <c r="X60" s="7">
+        <v>7585298</v>
       </c>
     </row>
     <row r="61">
@@ -2813,7 +2819,7 @@
         <v>5.1</v>
       </c>
       <c r="G61" s="7">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="H61" s="7">
         <v>4.6</v>
@@ -2827,13 +2833,13 @@
         <v>115</v>
       </c>
       <c r="C62" s="7">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="D62" s="7">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G62" s="7">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="H62" s="7">
         <v>4.6</v>
@@ -2853,10 +2859,10 @@
         <v>5.2</v>
       </c>
       <c r="G63" s="7">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="H63" s="7">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="64">
@@ -2867,16 +2873,16 @@
         <v>117</v>
       </c>
       <c r="C64" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D64" s="7">
         <v>5.2</v>
       </c>
       <c r="G64" s="7">
-        <v>13.9</v>
+        <v>13.1</v>
       </c>
       <c r="H64" s="7">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="65">
@@ -2887,13 +2893,13 @@
         <v>118</v>
       </c>
       <c r="C65" s="7">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D65" s="7">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G65" s="7">
-        <v>11.6</v>
+        <v>13.9</v>
       </c>
       <c r="H65" s="7">
         <v>4.6</v>
@@ -2907,16 +2913,16 @@
         <v>119</v>
       </c>
       <c r="C66" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D66" s="7">
         <v>5</v>
       </c>
       <c r="G66" s="7">
-        <v>10.5</v>
+        <v>11.6</v>
       </c>
       <c r="H66" s="7">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="67">
@@ -2933,10 +2939,10 @@
         <v>5</v>
       </c>
       <c r="G67" s="7">
-        <v>9.9</v>
+        <v>10.5</v>
       </c>
       <c r="H67" s="7">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="68">
@@ -2947,16 +2953,16 @@
         <v>121</v>
       </c>
       <c r="C68" s="7">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D68" s="7">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G68" s="7">
-        <v>11.3</v>
+        <v>9.9</v>
       </c>
       <c r="H68" s="7">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="69">
@@ -2967,16 +2973,16 @@
         <v>122</v>
       </c>
       <c r="C69" s="7">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D69" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G69" s="7">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="H69" s="7">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="70">
@@ -2987,16 +2993,16 @@
         <v>123</v>
       </c>
       <c r="C70" s="7">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D70" s="7">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G70" s="7">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="H70" s="7">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="71">
@@ -3007,49 +3013,16 @@
         <v>124</v>
       </c>
       <c r="C71" s="7">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D71" s="7">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G71" s="7">
-        <v>10.1</v>
+        <v>11.2</v>
       </c>
       <c r="H71" s="7">
-        <v>4.4</v>
-      </c>
-      <c r="N71" s="7">
-        <v>140541</v>
-      </c>
-      <c r="O71" s="7">
-        <v>86433</v>
-      </c>
-      <c r="P71" s="7">
-        <v>54108</v>
-      </c>
-      <c r="Q71" s="7">
-        <v>530</v>
-      </c>
-      <c r="R71" s="7">
-        <v>1790</v>
-      </c>
-      <c r="S71" s="7">
-        <v>-1260</v>
-      </c>
-      <c r="T71" s="7">
-        <v>10.86</v>
-      </c>
-      <c r="U71" s="7">
-        <v>7.08</v>
-      </c>
-      <c r="V71" s="7">
-        <v>3.78</v>
-      </c>
-      <c r="W71" s="7">
-        <v>59.58</v>
-      </c>
-      <c r="X71" s="7">
-        <v>7533087</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="72">
@@ -3060,16 +3033,49 @@
         <v>125</v>
       </c>
       <c r="C72" s="7">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="D72" s="7">
         <v>4.7</v>
       </c>
       <c r="G72" s="7">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="H72" s="7">
         <v>4.4</v>
+      </c>
+      <c r="N72" s="7">
+        <v>140541</v>
+      </c>
+      <c r="O72" s="7">
+        <v>86433</v>
+      </c>
+      <c r="P72" s="7">
+        <v>54108</v>
+      </c>
+      <c r="Q72" s="7">
+        <v>530</v>
+      </c>
+      <c r="R72" s="7">
+        <v>1790</v>
+      </c>
+      <c r="S72" s="7">
+        <v>-1260</v>
+      </c>
+      <c r="T72" s="7">
+        <v>10.86</v>
+      </c>
+      <c r="U72" s="7">
+        <v>7.08</v>
+      </c>
+      <c r="V72" s="7">
+        <v>3.78</v>
+      </c>
+      <c r="W72" s="7">
+        <v>59.58</v>
+      </c>
+      <c r="X72" s="7">
+        <v>7533087</v>
       </c>
     </row>
     <row r="73">
@@ -3080,13 +3086,13 @@
         <v>126</v>
       </c>
       <c r="C73" s="7">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D73" s="7">
         <v>4.7</v>
       </c>
       <c r="G73" s="7">
-        <v>9.8</v>
+        <v>10</v>
       </c>
       <c r="H73" s="7">
         <v>4.4</v>
@@ -3106,10 +3112,10 @@
         <v>4.7</v>
       </c>
       <c r="G74" s="7">
-        <v>11.2</v>
+        <v>9.8</v>
       </c>
       <c r="H74" s="7">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="75">
@@ -3120,13 +3126,13 @@
         <v>128</v>
       </c>
       <c r="C75" s="7">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D75" s="7">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G75" s="7">
-        <v>13.1</v>
+        <v>11.2</v>
       </c>
       <c r="H75" s="7">
         <v>4.3</v>
@@ -3140,16 +3146,16 @@
         <v>129</v>
       </c>
       <c r="C76" s="7">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="D76" s="7">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="G76" s="7">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="H76" s="7">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="77">
@@ -3160,13 +3166,13 @@
         <v>130</v>
       </c>
       <c r="C77" s="7">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D77" s="7">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G77" s="7">
-        <v>10</v>
+        <v>13.3</v>
       </c>
       <c r="H77" s="7">
         <v>4.4</v>
@@ -3186,7 +3192,7 @@
         <v>4.7</v>
       </c>
       <c r="G78" s="7">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="H78" s="7">
         <v>4.4</v>
@@ -3200,13 +3206,13 @@
         <v>132</v>
       </c>
       <c r="C79" s="7">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D79" s="7">
         <v>4.7</v>
       </c>
       <c r="G79" s="7">
-        <v>10.1</v>
+        <v>9.6</v>
       </c>
       <c r="H79" s="7">
         <v>4.4</v>
@@ -3220,16 +3226,16 @@
         <v>133</v>
       </c>
       <c r="C80" s="7">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="D80" s="7">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G80" s="7">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="H80" s="7">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="81">
@@ -3240,16 +3246,16 @@
         <v>134</v>
       </c>
       <c r="C81" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D81" s="7">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G81" s="7">
-        <v>11</v>
+        <v>10.4</v>
       </c>
       <c r="H81" s="7">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="82">
@@ -3263,13 +3269,13 @@
         <v>5</v>
       </c>
       <c r="D82" s="7">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="G82" s="7">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="H82" s="7">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="83">
@@ -3282,38 +3288,14 @@
       <c r="C83" s="7">
         <v>5</v>
       </c>
-      <c r="N83" s="7">
-        <v>140011</v>
-      </c>
-      <c r="O83" s="7">
-        <v>84343</v>
-      </c>
-      <c r="P83" s="7">
-        <v>55668</v>
-      </c>
-      <c r="Q83" s="7">
-        <v>737</v>
-      </c>
-      <c r="R83" s="7">
-        <v>2049</v>
-      </c>
-      <c r="S83" s="7">
-        <v>-1312</v>
-      </c>
-      <c r="T83" s="7">
-        <v>12.64</v>
-      </c>
-      <c r="U83" s="7">
-        <v>7.06</v>
-      </c>
-      <c r="V83" s="7">
-        <v>5.58</v>
-      </c>
-      <c r="W83" s="7">
-        <v>58.52</v>
-      </c>
-      <c r="X83" s="7">
-        <v>7358287</v>
+      <c r="D83" s="7">
+        <v>4.9</v>
+      </c>
+      <c r="G83" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="H83" s="7">
+        <v>4.4</v>
       </c>
     </row>
     <row r="84">
@@ -3324,7 +3306,40 @@
         <v>137</v>
       </c>
       <c r="C84" s="7">
-        <v>4.9</v>
+        <v>5</v>
+      </c>
+      <c r="N84" s="7">
+        <v>140011</v>
+      </c>
+      <c r="O84" s="7">
+        <v>84343</v>
+      </c>
+      <c r="P84" s="7">
+        <v>55668</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>737</v>
+      </c>
+      <c r="R84" s="7">
+        <v>2049</v>
+      </c>
+      <c r="S84" s="7">
+        <v>-1312</v>
+      </c>
+      <c r="T84" s="7">
+        <v>12.64</v>
+      </c>
+      <c r="U84" s="7">
+        <v>7.06</v>
+      </c>
+      <c r="V84" s="7">
+        <v>5.58</v>
+      </c>
+      <c r="W84" s="7">
+        <v>58.52</v>
+      </c>
+      <c r="X84" s="7">
+        <v>7358287</v>
       </c>
     </row>
     <row r="85">
@@ -3335,7 +3350,7 @@
         <v>138</v>
       </c>
       <c r="C85" s="7">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="86">
@@ -3368,7 +3383,7 @@
         <v>141</v>
       </c>
       <c r="C88" s="7">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89">
@@ -3379,10 +3394,7 @@
         <v>142</v>
       </c>
       <c r="C89" s="7">
-        <v>5</v>
-      </c>
-      <c r="D89" s="7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="90">
@@ -3395,6 +3407,9 @@
       <c r="C90" s="7">
         <v>5</v>
       </c>
+      <c r="D90" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="6">
@@ -3414,7 +3429,7 @@
       <c r="B92" t="s">
         <v>145</v>
       </c>
-      <c r="D92" s="7">
+      <c r="C92" s="7">
         <v>5</v>
       </c>
     </row>
@@ -3425,7 +3440,7 @@
       <c r="B93" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="7">
+      <c r="D93" s="7">
         <v>5</v>
       </c>
     </row>
@@ -3436,41 +3451,8 @@
       <c r="B94" t="s">
         <v>147</v>
       </c>
-      <c r="D94" s="7">
-        <v>5.1</v>
-      </c>
-      <c r="N94" s="7">
-        <v>139232</v>
-      </c>
-      <c r="O94" s="7">
-        <v>81924</v>
-      </c>
-      <c r="P94" s="7">
-        <v>57308</v>
-      </c>
-      <c r="Q94" s="7">
-        <v>809</v>
-      </c>
-      <c r="R94" s="7">
-        <v>2182</v>
-      </c>
-      <c r="S94" s="7">
-        <v>-1373</v>
-      </c>
-      <c r="T94" s="7">
-        <v>13.57</v>
-      </c>
-      <c r="U94" s="7">
-        <v>7.04</v>
-      </c>
-      <c r="V94" s="7">
-        <v>6.53</v>
-      </c>
-      <c r="W94" s="7">
-        <v>57.35</v>
-      </c>
-      <c r="X94" s="7">
-        <v>7041800</v>
+      <c r="C94" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="95">
@@ -3480,8 +3462,41 @@
       <c r="B95" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="7">
-        <v>5</v>
+      <c r="D95" s="7">
+        <v>5.1</v>
+      </c>
+      <c r="N95" s="7">
+        <v>139232</v>
+      </c>
+      <c r="O95" s="7">
+        <v>81924</v>
+      </c>
+      <c r="P95" s="7">
+        <v>57308</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>809</v>
+      </c>
+      <c r="R95" s="7">
+        <v>2182</v>
+      </c>
+      <c r="S95" s="7">
+        <v>-1373</v>
+      </c>
+      <c r="T95" s="7">
+        <v>13.57</v>
+      </c>
+      <c r="U95" s="7">
+        <v>7.04</v>
+      </c>
+      <c r="V95" s="7">
+        <v>6.53</v>
+      </c>
+      <c r="W95" s="7">
+        <v>57.35</v>
+      </c>
+      <c r="X95" s="7">
+        <v>7041800</v>
       </c>
     </row>
     <row r="96">
@@ -3505,9 +3520,6 @@
       <c r="C97" s="7">
         <v>5</v>
       </c>
-      <c r="D97" s="7">
-        <v>5</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="6">
@@ -3517,7 +3529,10 @@
         <v>151</v>
       </c>
       <c r="C98" s="7">
-        <v>5.1</v>
+        <v>5</v>
+      </c>
+      <c r="D98" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="99">
@@ -3528,10 +3543,7 @@
         <v>152</v>
       </c>
       <c r="C99" s="7">
-        <v>5.2</v>
-      </c>
-      <c r="D99" s="7">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="100">
@@ -3542,7 +3554,10 @@
         <v>153</v>
       </c>
       <c r="C100" s="7">
-        <v>5.1</v>
+        <v>5.2</v>
+      </c>
+      <c r="D100" s="7">
+        <v>5.2</v>
       </c>
     </row>
     <row r="101">
@@ -3553,10 +3568,7 @@
         <v>154</v>
       </c>
       <c r="C101" s="7">
-        <v>5.12</v>
-      </c>
-      <c r="D101" s="7">
-        <v>5.12</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="102">
@@ -3567,7 +3579,10 @@
         <v>155</v>
       </c>
       <c r="C102" s="7">
-        <v>5.1</v>
+        <v>5.12</v>
+      </c>
+      <c r="D102" s="7">
+        <v>5.12</v>
       </c>
     </row>
     <row r="103">
@@ -3578,7 +3593,7 @@
         <v>156</v>
       </c>
       <c r="C103" s="7">
-        <v>4.99</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="104">
@@ -3588,38 +3603,8 @@
       <c r="B104" t="s">
         <v>157</v>
       </c>
-      <c r="N104" s="7">
-        <v>138326</v>
-      </c>
-      <c r="O104" s="7">
-        <v>79302</v>
-      </c>
-      <c r="P104" s="7">
-        <v>59024</v>
-      </c>
-      <c r="Q104" s="7">
-        <v>680</v>
-      </c>
-      <c r="R104" s="7">
-        <v>2200</v>
-      </c>
-      <c r="S104" s="7">
-        <v>-1520</v>
-      </c>
-      <c r="T104" s="7">
-        <v>11.99</v>
-      </c>
-      <c r="U104" s="7">
-        <v>7.07</v>
-      </c>
-      <c r="V104" s="7">
-        <v>4.93</v>
-      </c>
-      <c r="W104" s="7">
-        <v>56.1</v>
-      </c>
-      <c r="X104" s="7">
-        <v>6808866</v>
+      <c r="C104" s="7">
+        <v>4.99</v>
       </c>
     </row>
     <row r="105">
@@ -3629,8 +3614,38 @@
       <c r="B105" t="s">
         <v>158</v>
       </c>
-      <c r="D105" s="7">
-        <v>5</v>
+      <c r="N105" s="7">
+        <v>138326</v>
+      </c>
+      <c r="O105" s="7">
+        <v>79302</v>
+      </c>
+      <c r="P105" s="7">
+        <v>59024</v>
+      </c>
+      <c r="Q105" s="7">
+        <v>680</v>
+      </c>
+      <c r="R105" s="7">
+        <v>2200</v>
+      </c>
+      <c r="S105" s="7">
+        <v>-1520</v>
+      </c>
+      <c r="T105" s="7">
+        <v>11.99</v>
+      </c>
+      <c r="U105" s="7">
+        <v>7.07</v>
+      </c>
+      <c r="V105" s="7">
+        <v>4.93</v>
+      </c>
+      <c r="W105" s="7">
+        <v>56.1</v>
+      </c>
+      <c r="X105" s="7">
+        <v>6808866</v>
       </c>
     </row>
     <row r="106">
@@ -3641,7 +3656,7 @@
         <v>159</v>
       </c>
       <c r="D106" s="7">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -3662,38 +3677,8 @@
       <c r="B108" t="s">
         <v>161</v>
       </c>
-      <c r="N108" s="7">
-        <v>137646</v>
-      </c>
-      <c r="O108" s="7">
-        <v>76738</v>
-      </c>
-      <c r="P108" s="7">
-        <v>60908</v>
-      </c>
-      <c r="Q108" s="7">
-        <v>710</v>
-      </c>
-      <c r="R108" s="7">
-        <v>1805</v>
-      </c>
-      <c r="S108" s="7">
-        <v>-1095</v>
-      </c>
-      <c r="T108" s="7">
-        <v>13.83</v>
-      </c>
-      <c r="U108" s="7">
-        <v>7.12</v>
-      </c>
-      <c r="V108" s="7">
-        <v>6.71</v>
-      </c>
-      <c r="W108" s="7">
-        <v>54.77</v>
-      </c>
-      <c r="X108" s="7">
-        <v>6593671</v>
+      <c r="D108" s="7">
+        <v>5.1</v>
       </c>
     </row>
     <row r="109">
@@ -3704,37 +3689,37 @@
         <v>162</v>
       </c>
       <c r="N109" s="7">
-        <v>136726</v>
+        <v>137646</v>
       </c>
       <c r="O109" s="7">
-        <v>74502</v>
+        <v>76738</v>
       </c>
       <c r="P109" s="7">
-        <v>62224</v>
+        <v>60908</v>
       </c>
       <c r="Q109" s="7">
-        <v>668</v>
+        <v>710</v>
       </c>
       <c r="R109" s="7">
-        <v>1929</v>
+        <v>1805</v>
       </c>
       <c r="S109" s="7">
-        <v>-1261</v>
+        <v>-1095</v>
       </c>
       <c r="T109" s="7">
-        <v>13.03</v>
+        <v>13.83</v>
       </c>
       <c r="U109" s="7">
-        <v>7.13</v>
+        <v>7.12</v>
       </c>
       <c r="V109" s="7">
-        <v>5.9</v>
+        <v>6.71</v>
       </c>
       <c r="W109" s="7">
-        <v>53.7</v>
+        <v>54.77</v>
       </c>
       <c r="X109" s="7">
-        <v>6387210</v>
+        <v>6593671</v>
       </c>
     </row>
     <row r="110">
@@ -3745,37 +3730,37 @@
         <v>163</v>
       </c>
       <c r="N110" s="7">
-        <v>135922</v>
+        <v>136726</v>
       </c>
       <c r="O110" s="7">
-        <v>72175</v>
+        <v>74502</v>
       </c>
       <c r="P110" s="7">
-        <v>63747</v>
+        <v>62224</v>
       </c>
       <c r="Q110" s="7">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="R110" s="7">
-        <v>2103</v>
+        <v>1929</v>
       </c>
       <c r="S110" s="7">
-        <v>-1434</v>
+        <v>-1261</v>
       </c>
       <c r="T110" s="7">
-        <v>14.57</v>
+        <v>13.03</v>
       </c>
       <c r="U110" s="7">
         <v>7.13</v>
       </c>
       <c r="V110" s="7">
-        <v>7.43</v>
+        <v>5.9</v>
       </c>
       <c r="W110" s="7">
-        <v>52.57</v>
+        <v>53.7</v>
       </c>
       <c r="X110" s="7">
-        <v>6247338</v>
+        <v>6387210</v>
       </c>
     </row>
     <row r="111">
@@ -3786,37 +3771,37 @@
         <v>164</v>
       </c>
       <c r="N111" s="7">
-        <v>134916</v>
+        <v>135922</v>
       </c>
       <c r="O111" s="7">
-        <v>69927</v>
+        <v>72175</v>
       </c>
       <c r="P111" s="7">
-        <v>64989</v>
+        <v>63747</v>
       </c>
       <c r="Q111" s="7">
-        <v>644</v>
+        <v>669</v>
       </c>
       <c r="R111" s="7">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="S111" s="7">
-        <v>-1456</v>
+        <v>-1434</v>
       </c>
       <c r="T111" s="7">
-        <v>13.27</v>
+        <v>14.57</v>
       </c>
       <c r="U111" s="7">
-        <v>7.14</v>
+        <v>7.13</v>
       </c>
       <c r="V111" s="7">
-        <v>6.13</v>
+        <v>7.43</v>
       </c>
       <c r="W111" s="7">
-        <v>51.27</v>
+        <v>52.57</v>
       </c>
       <c r="X111" s="7">
-        <v>6081565</v>
+        <v>6247338</v>
       </c>
     </row>
     <row r="112">
@@ -3827,31 +3812,37 @@
         <v>165</v>
       </c>
       <c r="N112" s="7">
-        <v>134091</v>
+        <v>134916</v>
       </c>
       <c r="O112" s="7">
-        <v>66978</v>
+        <v>69927</v>
       </c>
       <c r="P112" s="7">
-        <v>67113</v>
+        <v>64989</v>
       </c>
       <c r="Q112" s="7">
-        <v>649</v>
+        <v>644</v>
+      </c>
+      <c r="R112" s="7">
+        <v>2100</v>
+      </c>
+      <c r="S112" s="7">
+        <v>-1456</v>
       </c>
       <c r="T112" s="7">
-        <v>11.9</v>
+        <v>13.27</v>
       </c>
       <c r="U112" s="7">
-        <v>7.11</v>
+        <v>7.14</v>
       </c>
       <c r="V112" s="7">
-        <v>4.79</v>
+        <v>6.13</v>
       </c>
       <c r="W112" s="7">
-        <v>49.95</v>
+        <v>51.27</v>
       </c>
       <c r="X112" s="7">
-        <v>5754245</v>
+        <v>6081565</v>
       </c>
     </row>
     <row r="113">
@@ -3862,31 +3853,31 @@
         <v>166</v>
       </c>
       <c r="N113" s="7">
-        <v>133450</v>
+        <v>134091</v>
       </c>
       <c r="O113" s="7">
-        <v>64512</v>
+        <v>66978</v>
       </c>
       <c r="P113" s="7">
-        <v>68938</v>
+        <v>67113</v>
       </c>
       <c r="Q113" s="7">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="T113" s="7">
-        <v>11.95</v>
+        <v>11.9</v>
       </c>
       <c r="U113" s="7">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="V113" s="7">
-        <v>4.87</v>
+        <v>4.79</v>
       </c>
       <c r="W113" s="7">
-        <v>48.34</v>
+        <v>49.95</v>
       </c>
       <c r="X113" s="7">
-        <v>5311023</v>
+        <v>5754245</v>
       </c>
     </row>
     <row r="114">
@@ -3897,31 +3888,31 @@
         <v>167</v>
       </c>
       <c r="N114" s="7">
-        <v>132802</v>
+        <v>133450</v>
       </c>
       <c r="O114" s="7">
-        <v>62403</v>
+        <v>64512</v>
       </c>
       <c r="P114" s="7">
-        <v>70399</v>
+        <v>68938</v>
       </c>
       <c r="Q114" s="7">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T114" s="7">
-        <v>12.14</v>
+        <v>11.95</v>
       </c>
       <c r="U114" s="7">
-        <v>7.06</v>
+        <v>7.08</v>
       </c>
       <c r="V114" s="7">
-        <v>5.08</v>
+        <v>4.87</v>
       </c>
       <c r="W114" s="7">
-        <v>46.99</v>
+        <v>48.34</v>
       </c>
       <c r="X114" s="7">
-        <v>5119498</v>
+        <v>5311023</v>
       </c>
     </row>
     <row r="115">
@@ -3932,31 +3923,31 @@
         <v>168</v>
       </c>
       <c r="N115" s="7">
-        <v>132129</v>
+        <v>132802</v>
       </c>
       <c r="O115" s="7">
-        <v>60633</v>
+        <v>62403</v>
       </c>
       <c r="P115" s="7">
-        <v>71496</v>
+        <v>70399</v>
       </c>
       <c r="Q115" s="7">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="T115" s="7">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="U115" s="7">
-        <v>6.93</v>
+        <v>7.06</v>
       </c>
       <c r="V115" s="7">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="W115" s="7">
-        <v>45.89</v>
+        <v>46.99</v>
       </c>
       <c r="X115" s="7">
-        <v>4477907</v>
+        <v>5119498</v>
       </c>
     </row>
     <row r="116">
@@ -3967,34 +3958,31 @@
         <v>169</v>
       </c>
       <c r="N116" s="7">
-        <v>131448</v>
+        <v>132129</v>
       </c>
       <c r="O116" s="7">
-        <v>58288</v>
+        <v>60633</v>
       </c>
       <c r="P116" s="7">
-        <v>73160</v>
+        <v>71496</v>
       </c>
       <c r="Q116" s="7">
-        <v>692</v>
-      </c>
-      <c r="S116" s="7">
-        <v>56.1</v>
+        <v>681</v>
       </c>
       <c r="T116" s="7">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="U116" s="7">
-        <v>6.81</v>
+        <v>6.93</v>
       </c>
       <c r="V116" s="7">
-        <v>5.28</v>
+        <v>5.17</v>
       </c>
       <c r="W116" s="7">
-        <v>44.34</v>
+        <v>45.89</v>
       </c>
       <c r="X116" s="7">
-        <v>3774708</v>
+        <v>4477907</v>
       </c>
     </row>
     <row r="117">
@@ -4005,31 +3993,34 @@
         <v>170</v>
       </c>
       <c r="N117" s="7">
-        <v>130756</v>
+        <v>131448</v>
       </c>
       <c r="O117" s="7">
-        <v>56212</v>
+        <v>58288</v>
       </c>
       <c r="P117" s="7">
-        <v>74544</v>
+        <v>73160</v>
       </c>
       <c r="Q117" s="7">
-        <v>768</v>
+        <v>692</v>
+      </c>
+      <c r="S117" s="7">
+        <v>56.1</v>
       </c>
       <c r="T117" s="7">
-        <v>12.4</v>
+        <v>12.09</v>
       </c>
       <c r="U117" s="7">
-        <v>6.51</v>
+        <v>6.81</v>
       </c>
       <c r="V117" s="7">
-        <v>5.89</v>
+        <v>5.28</v>
       </c>
       <c r="W117" s="7">
-        <v>42.99</v>
+        <v>44.34</v>
       </c>
       <c r="X117" s="7">
-        <v>3067956</v>
+        <v>3774708</v>
       </c>
     </row>
     <row r="118">
@@ -4040,31 +4031,31 @@
         <v>171</v>
       </c>
       <c r="N118" s="7">
-        <v>129988</v>
+        <v>130756</v>
       </c>
       <c r="O118" s="7">
-        <v>54283</v>
+        <v>56212</v>
       </c>
       <c r="P118" s="7">
-        <v>75705</v>
+        <v>74544</v>
       </c>
       <c r="Q118" s="7">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="T118" s="7">
-        <v>12.29</v>
+        <v>12.4</v>
       </c>
       <c r="U118" s="7">
-        <v>6.42</v>
+        <v>6.51</v>
       </c>
       <c r="V118" s="7">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="W118" s="7">
-        <v>41.76</v>
+        <v>42.99</v>
       </c>
       <c r="X118" s="7">
-        <v>2391200</v>
+        <v>3067956</v>
       </c>
     </row>
     <row r="119">
@@ -4075,31 +4066,31 @@
         <v>172</v>
       </c>
       <c r="N119" s="7">
-        <v>129227</v>
+        <v>129988</v>
       </c>
       <c r="O119" s="7">
-        <v>52376</v>
+        <v>54283</v>
       </c>
       <c r="P119" s="7">
-        <v>76851</v>
+        <v>75705</v>
       </c>
       <c r="Q119" s="7">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="T119" s="7">
-        <v>12.41</v>
+        <v>12.29</v>
       </c>
       <c r="U119" s="7">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="V119" s="7">
-        <v>6.01</v>
+        <v>5.87</v>
       </c>
       <c r="W119" s="7">
-        <v>40.53</v>
+        <v>41.76</v>
       </c>
       <c r="X119" s="7">
-        <v>1877000</v>
+        <v>2391200</v>
       </c>
     </row>
     <row r="120">
@@ -4110,31 +4101,31 @@
         <v>173</v>
       </c>
       <c r="N120" s="7">
-        <v>128453</v>
+        <v>129227</v>
       </c>
       <c r="O120" s="7">
-        <v>50212</v>
+        <v>52376</v>
       </c>
       <c r="P120" s="7">
-        <v>78241</v>
+        <v>76851</v>
       </c>
       <c r="Q120" s="7">
-        <v>826</v>
+        <v>774</v>
       </c>
       <c r="T120" s="7">
-        <v>12.86</v>
+        <v>12.41</v>
       </c>
       <c r="U120" s="7">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="V120" s="7">
-        <v>6.45</v>
+        <v>6.01</v>
       </c>
       <c r="W120" s="7">
-        <v>39.09</v>
+        <v>40.53</v>
       </c>
       <c r="X120" s="7">
-        <v>1337300</v>
+        <v>1877000</v>
       </c>
     </row>
     <row r="121">
@@ -4145,31 +4136,31 @@
         <v>174</v>
       </c>
       <c r="N121" s="7">
-        <v>127627</v>
+        <v>128453</v>
       </c>
       <c r="O121" s="7">
-        <v>48064</v>
+        <v>50212</v>
       </c>
       <c r="P121" s="7">
-        <v>79563</v>
+        <v>78241</v>
       </c>
       <c r="Q121" s="7">
-        <v>884</v>
+        <v>826</v>
       </c>
       <c r="T121" s="7">
-        <v>13.38</v>
+        <v>12.86</v>
       </c>
       <c r="U121" s="7">
-        <v>6.43</v>
+        <v>6.41</v>
       </c>
       <c r="V121" s="7">
-        <v>6.95</v>
+        <v>6.45</v>
       </c>
       <c r="W121" s="7">
-        <v>37.66</v>
+        <v>39.09</v>
       </c>
       <c r="X121" s="7">
-        <v>1036300</v>
+        <v>1337300</v>
       </c>
     </row>
     <row r="122">
@@ -4180,31 +4171,31 @@
         <v>175</v>
       </c>
       <c r="N122" s="7">
-        <v>126743</v>
+        <v>127627</v>
       </c>
       <c r="O122" s="7">
-        <v>45906</v>
+        <v>48064</v>
       </c>
       <c r="P122" s="7">
-        <v>80837</v>
+        <v>79563</v>
       </c>
       <c r="Q122" s="7">
-        <v>961</v>
+        <v>884</v>
       </c>
       <c r="T122" s="7">
-        <v>14.03</v>
+        <v>13.38</v>
       </c>
       <c r="U122" s="7">
-        <v>6.45</v>
+        <v>6.43</v>
       </c>
       <c r="V122" s="7">
-        <v>7.58</v>
+        <v>6.95</v>
       </c>
       <c r="W122" s="7">
-        <v>36.22</v>
+        <v>37.66</v>
       </c>
       <c r="X122" s="7">
-        <v>949800</v>
+        <v>1036300</v>
       </c>
     </row>
     <row r="123">
@@ -4215,31 +4206,31 @@
         <v>176</v>
       </c>
       <c r="N123" s="7">
-        <v>125786</v>
+        <v>126743</v>
       </c>
       <c r="O123" s="7">
-        <v>43748</v>
+        <v>45906</v>
       </c>
       <c r="P123" s="7">
-        <v>82038</v>
+        <v>80837</v>
       </c>
       <c r="Q123" s="7">
-        <v>1099</v>
+        <v>961</v>
       </c>
       <c r="T123" s="7">
-        <v>14.64</v>
+        <v>14.03</v>
       </c>
       <c r="U123" s="7">
-        <v>6.46</v>
+        <v>6.45</v>
       </c>
       <c r="V123" s="7">
-        <v>8.18</v>
+        <v>7.58</v>
       </c>
       <c r="W123" s="7">
-        <v>34.78</v>
+        <v>36.22</v>
       </c>
       <c r="X123" s="7">
-        <v>847600</v>
+        <v>949800</v>
       </c>
     </row>
     <row r="124">
@@ -4250,31 +4241,31 @@
         <v>177</v>
       </c>
       <c r="N124" s="7">
-        <v>124761</v>
+        <v>125786</v>
       </c>
       <c r="O124" s="7">
-        <v>41608</v>
+        <v>43748</v>
       </c>
       <c r="P124" s="7">
-        <v>83153</v>
+        <v>82038</v>
       </c>
       <c r="Q124" s="7">
-        <v>1184</v>
+        <v>1099</v>
       </c>
       <c r="T124" s="7">
-        <v>15.64</v>
+        <v>14.64</v>
       </c>
       <c r="U124" s="7">
-        <v>6.5</v>
+        <v>6.46</v>
       </c>
       <c r="V124" s="7">
-        <v>9.14</v>
+        <v>8.18</v>
       </c>
       <c r="W124" s="7">
-        <v>33.35</v>
+        <v>34.78</v>
       </c>
       <c r="X124" s="7">
-        <v>830000</v>
+        <v>847600</v>
       </c>
     </row>
     <row r="125">
@@ -4285,31 +4276,31 @@
         <v>178</v>
       </c>
       <c r="N125" s="7">
-        <v>123626</v>
+        <v>124761</v>
       </c>
       <c r="O125" s="7">
-        <v>39449</v>
+        <v>41608</v>
       </c>
       <c r="P125" s="7">
-        <v>84177</v>
+        <v>83153</v>
       </c>
       <c r="Q125" s="7">
-        <v>1237</v>
+        <v>1184</v>
       </c>
       <c r="T125" s="7">
-        <v>16.57</v>
+        <v>15.64</v>
       </c>
       <c r="U125" s="7">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="V125" s="7">
-        <v>10.06</v>
+        <v>9.14</v>
       </c>
       <c r="W125" s="7">
-        <v>31.91</v>
+        <v>33.35</v>
       </c>
       <c r="X125" s="7">
-        <v>829000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="126">
@@ -4320,31 +4311,31 @@
         <v>179</v>
       </c>
       <c r="N126" s="7">
-        <v>122389</v>
+        <v>123626</v>
       </c>
       <c r="O126" s="7">
-        <v>37304</v>
+        <v>39449</v>
       </c>
       <c r="P126" s="7">
-        <v>85085</v>
+        <v>84177</v>
       </c>
       <c r="Q126" s="7">
-        <v>1275</v>
+        <v>1237</v>
       </c>
       <c r="T126" s="7">
-        <v>16.98</v>
+        <v>16.57</v>
       </c>
       <c r="U126" s="7">
-        <v>6.56</v>
+        <v>6.51</v>
       </c>
       <c r="V126" s="7">
-        <v>10.42</v>
+        <v>10.06</v>
       </c>
       <c r="W126" s="7">
-        <v>30.48</v>
+        <v>31.91</v>
       </c>
       <c r="X126" s="7">
-        <v>839000</v>
+        <v>829000</v>
       </c>
     </row>
     <row r="127">
@@ -4355,31 +4346,31 @@
         <v>180</v>
       </c>
       <c r="N127" s="7">
-        <v>121121</v>
+        <v>122389</v>
       </c>
       <c r="O127" s="7">
-        <v>35174</v>
+        <v>37304</v>
       </c>
       <c r="P127" s="7">
-        <v>85947</v>
+        <v>85085</v>
       </c>
       <c r="Q127" s="7">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="T127" s="7">
-        <v>17.12</v>
+        <v>16.98</v>
       </c>
       <c r="U127" s="7">
-        <v>6.57</v>
+        <v>6.56</v>
       </c>
       <c r="V127" s="7">
-        <v>10.55</v>
+        <v>10.42</v>
       </c>
       <c r="W127" s="7">
-        <v>29.04</v>
+        <v>30.48</v>
       </c>
       <c r="X127" s="7">
-        <v>805000</v>
+        <v>839000</v>
       </c>
     </row>
     <row r="128">
@@ -4390,31 +4381,31 @@
         <v>181</v>
       </c>
       <c r="N128" s="7">
-        <v>119850</v>
+        <v>121121</v>
       </c>
       <c r="O128" s="7">
-        <v>34169</v>
+        <v>35174</v>
       </c>
       <c r="P128" s="7">
-        <v>85681</v>
+        <v>85947</v>
       </c>
       <c r="Q128" s="7">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="T128" s="7">
-        <v>17.7</v>
+        <v>17.12</v>
       </c>
       <c r="U128" s="7">
-        <v>6.49</v>
+        <v>6.57</v>
       </c>
       <c r="V128" s="7">
-        <v>11.21</v>
+        <v>10.55</v>
       </c>
       <c r="W128" s="7">
-        <v>28.51</v>
+        <v>29.04</v>
       </c>
       <c r="X128" s="7">
-        <v>637000</v>
+        <v>805000</v>
       </c>
     </row>
     <row r="129">
@@ -4425,31 +4416,31 @@
         <v>182</v>
       </c>
       <c r="N129" s="7">
-        <v>118517</v>
+        <v>119850</v>
       </c>
       <c r="O129" s="7">
-        <v>33173</v>
+        <v>34169</v>
       </c>
       <c r="P129" s="7">
-        <v>85344</v>
+        <v>85681</v>
       </c>
       <c r="Q129" s="7">
-        <v>1357</v>
+        <v>1344</v>
       </c>
       <c r="T129" s="7">
-        <v>18.09</v>
+        <v>17.7</v>
       </c>
       <c r="U129" s="7">
-        <v>6.64</v>
+        <v>6.49</v>
       </c>
       <c r="V129" s="7">
-        <v>11.45</v>
+        <v>11.21</v>
       </c>
       <c r="W129" s="7">
-        <v>27.99</v>
+        <v>28.51</v>
       </c>
       <c r="X129" s="7">
-        <v>571000</v>
+        <v>637000</v>
       </c>
     </row>
     <row r="130">
@@ -4460,31 +4451,31 @@
         <v>183</v>
       </c>
       <c r="N130" s="7">
-        <v>117171</v>
+        <v>118517</v>
       </c>
       <c r="O130" s="7">
-        <v>32175</v>
+        <v>33173</v>
       </c>
       <c r="P130" s="7">
-        <v>84996</v>
+        <v>85344</v>
       </c>
       <c r="Q130" s="7">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="T130" s="7">
-        <v>18.24</v>
+        <v>18.09</v>
       </c>
       <c r="U130" s="7">
         <v>6.64</v>
       </c>
       <c r="V130" s="7">
-        <v>11.6</v>
+        <v>11.45</v>
       </c>
       <c r="W130" s="7">
-        <v>27.46</v>
+        <v>27.99</v>
       </c>
       <c r="X130" s="7">
-        <v>604000</v>
+        <v>571000</v>
       </c>
     </row>
     <row r="131">
@@ -4495,31 +4486,31 @@
         <v>184</v>
       </c>
       <c r="N131" s="7">
-        <v>115823</v>
+        <v>117171</v>
       </c>
       <c r="O131" s="7">
-        <v>31203</v>
+        <v>32175</v>
       </c>
       <c r="P131" s="7">
-        <v>84620</v>
+        <v>84996</v>
       </c>
       <c r="Q131" s="7">
-        <v>1503</v>
+        <v>1359</v>
       </c>
       <c r="T131" s="7">
-        <v>19.68</v>
+        <v>18.24</v>
       </c>
       <c r="U131" s="7">
-        <v>6.7</v>
+        <v>6.64</v>
       </c>
       <c r="V131" s="7">
-        <v>12.98</v>
+        <v>11.6</v>
       </c>
       <c r="W131" s="7">
-        <v>26.94</v>
+        <v>27.46</v>
       </c>
       <c r="X131" s="7">
-        <v>614000</v>
+        <v>604000</v>
       </c>
     </row>
     <row r="132">
@@ -4530,28 +4521,28 @@
         <v>185</v>
       </c>
       <c r="N132" s="7">
-        <v>114333</v>
+        <v>115823</v>
       </c>
       <c r="O132" s="7">
-        <v>30195</v>
+        <v>31203</v>
       </c>
       <c r="P132" s="7">
-        <v>84138</v>
+        <v>84620</v>
       </c>
       <c r="Q132" s="7">
-        <v>1645</v>
+        <v>1503</v>
       </c>
       <c r="T132" s="7">
-        <v>21.06</v>
+        <v>19.68</v>
       </c>
       <c r="U132" s="7">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="V132" s="7">
-        <v>14.39</v>
+        <v>12.98</v>
       </c>
       <c r="W132" s="7">
-        <v>26.41</v>
+        <v>26.94</v>
       </c>
       <c r="X132" s="7">
         <v>614000</v>
@@ -4565,31 +4556,31 @@
         <v>186</v>
       </c>
       <c r="N133" s="7">
-        <v>112704</v>
+        <v>114333</v>
       </c>
       <c r="O133" s="7">
-        <v>29540</v>
+        <v>30195</v>
       </c>
       <c r="P133" s="7">
-        <v>83164</v>
+        <v>84138</v>
       </c>
       <c r="Q133" s="7">
-        <v>1695</v>
+        <v>1645</v>
       </c>
       <c r="T133" s="7">
-        <v>21.58</v>
+        <v>21.06</v>
       </c>
       <c r="U133" s="7">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="V133" s="7">
-        <v>15.04</v>
+        <v>14.39</v>
       </c>
       <c r="W133" s="7">
-        <v>26.21</v>
+        <v>26.41</v>
       </c>
       <c r="X133" s="7">
-        <v>576000</v>
+        <v>614000</v>
       </c>
     </row>
     <row r="134">
@@ -4600,31 +4591,31 @@
         <v>187</v>
       </c>
       <c r="N134" s="7">
-        <v>111026</v>
+        <v>112704</v>
       </c>
       <c r="O134" s="7">
-        <v>28661</v>
+        <v>29540</v>
       </c>
       <c r="P134" s="7">
-        <v>82365</v>
+        <v>83164</v>
       </c>
       <c r="Q134" s="7">
-        <v>1576</v>
+        <v>1695</v>
       </c>
       <c r="T134" s="7">
-        <v>22.37</v>
+        <v>21.58</v>
       </c>
       <c r="U134" s="7">
-        <v>6.64</v>
+        <v>6.54</v>
       </c>
       <c r="V134" s="7">
-        <v>15.73</v>
+        <v>15.04</v>
       </c>
       <c r="W134" s="7">
-        <v>25.81</v>
+        <v>26.21</v>
       </c>
       <c r="X134" s="7">
-        <v>553000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="135">
@@ -4635,31 +4626,31 @@
         <v>188</v>
       </c>
       <c r="N135" s="7">
-        <v>109300</v>
+        <v>111026</v>
       </c>
       <c r="O135" s="7">
-        <v>27674</v>
+        <v>28661</v>
       </c>
       <c r="P135" s="7">
-        <v>81626</v>
+        <v>82365</v>
       </c>
       <c r="Q135" s="7">
-        <v>1816</v>
+        <v>1576</v>
       </c>
       <c r="T135" s="7">
-        <v>23.33</v>
+        <v>22.37</v>
       </c>
       <c r="U135" s="7">
-        <v>6.72</v>
+        <v>6.64</v>
       </c>
       <c r="V135" s="7">
-        <v>16.61</v>
+        <v>15.73</v>
       </c>
       <c r="W135" s="7">
-        <v>25.32</v>
+        <v>25.81</v>
       </c>
       <c r="X135" s="7">
-        <v>532000</v>
+        <v>553000</v>
       </c>
     </row>
     <row r="136">
@@ -4670,31 +4661,31 @@
         <v>189</v>
       </c>
       <c r="N136" s="7">
-        <v>107507</v>
+        <v>109300</v>
       </c>
       <c r="O136" s="7">
-        <v>26366</v>
+        <v>27674</v>
       </c>
       <c r="P136" s="7">
-        <v>81141</v>
+        <v>81626</v>
       </c>
       <c r="Q136" s="7">
-        <v>1674</v>
+        <v>1816</v>
       </c>
       <c r="T136" s="7">
-        <v>22.43</v>
+        <v>23.33</v>
       </c>
       <c r="U136" s="7">
-        <v>6.86</v>
+        <v>6.72</v>
       </c>
       <c r="V136" s="7">
-        <v>15.57</v>
+        <v>16.61</v>
       </c>
       <c r="W136" s="7">
-        <v>24.52</v>
+        <v>25.32</v>
       </c>
       <c r="X136" s="7">
-        <v>393000</v>
+        <v>532000</v>
       </c>
     </row>
     <row r="137">
@@ -4705,31 +4696,31 @@
         <v>190</v>
       </c>
       <c r="N137" s="7">
-        <v>105851</v>
+        <v>107507</v>
       </c>
       <c r="O137" s="7">
-        <v>25094</v>
+        <v>26366</v>
       </c>
       <c r="P137" s="7">
-        <v>80757</v>
+        <v>81141</v>
       </c>
       <c r="Q137" s="7">
-        <v>1509</v>
+        <v>1674</v>
       </c>
       <c r="T137" s="7">
-        <v>21.04</v>
+        <v>22.43</v>
       </c>
       <c r="U137" s="7">
-        <v>6.78</v>
+        <v>6.86</v>
       </c>
       <c r="V137" s="7">
-        <v>14.26</v>
+        <v>15.57</v>
       </c>
       <c r="W137" s="7">
-        <v>23.71</v>
+        <v>24.52</v>
       </c>
       <c r="X137" s="7">
-        <v>316000</v>
+        <v>393000</v>
       </c>
     </row>
     <row r="138">
@@ -4740,31 +4731,31 @@
         <v>191</v>
       </c>
       <c r="N138" s="7">
-        <v>104357</v>
+        <v>105851</v>
       </c>
       <c r="O138" s="7">
-        <v>24017</v>
+        <v>25094</v>
       </c>
       <c r="P138" s="7">
-        <v>80340</v>
+        <v>80757</v>
       </c>
       <c r="Q138" s="7">
-        <v>1365</v>
+        <v>1509</v>
       </c>
       <c r="T138" s="7">
-        <v>19.9</v>
+        <v>21.04</v>
       </c>
       <c r="U138" s="7">
-        <v>6.82</v>
+        <v>6.78</v>
       </c>
       <c r="V138" s="7">
-        <v>13.08</v>
+        <v>14.26</v>
       </c>
       <c r="W138" s="7">
-        <v>23.01</v>
+        <v>23.71</v>
       </c>
       <c r="X138" s="7">
-        <v>287000</v>
+        <v>316000</v>
       </c>
     </row>
     <row r="139">
@@ -4775,31 +4766,31 @@
         <v>192</v>
       </c>
       <c r="N139" s="7">
-        <v>103008</v>
+        <v>104357</v>
       </c>
       <c r="O139" s="7">
-        <v>22274</v>
+        <v>24017</v>
       </c>
       <c r="P139" s="7">
-        <v>80734</v>
+        <v>80340</v>
       </c>
       <c r="Q139" s="7">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="T139" s="7">
-        <v>20.19</v>
+        <v>19.9</v>
       </c>
       <c r="U139" s="7">
-        <v>6.9</v>
+        <v>6.82</v>
       </c>
       <c r="V139" s="7">
-        <v>13.29</v>
+        <v>13.08</v>
       </c>
       <c r="W139" s="7">
-        <v>21.62</v>
+        <v>23.01</v>
       </c>
       <c r="X139" s="7">
-        <v>335000</v>
+        <v>287000</v>
       </c>
     </row>
     <row r="140">
@@ -4810,31 +4801,31 @@
         <v>193</v>
       </c>
       <c r="N140" s="7">
-        <v>101654</v>
+        <v>103008</v>
       </c>
       <c r="O140" s="7">
-        <v>21480</v>
+        <v>22274</v>
       </c>
       <c r="P140" s="7">
-        <v>80174</v>
+        <v>80734</v>
       </c>
       <c r="Q140" s="7">
-        <v>1594</v>
+        <v>1369</v>
       </c>
       <c r="T140" s="7">
-        <v>22.28</v>
+        <v>20.19</v>
       </c>
       <c r="U140" s="7">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="V140" s="7">
-        <v>15.68</v>
+        <v>13.29</v>
       </c>
       <c r="W140" s="7">
-        <v>21.13</v>
+        <v>21.62</v>
       </c>
       <c r="X140" s="7">
-        <v>457000</v>
+        <v>335000</v>
       </c>
     </row>
     <row r="141">
@@ -4845,31 +4836,31 @@
         <v>194</v>
       </c>
       <c r="N141" s="7">
-        <v>100072</v>
+        <v>101654</v>
       </c>
       <c r="O141" s="7">
-        <v>20171</v>
+        <v>21480</v>
       </c>
       <c r="P141" s="7">
-        <v>79901</v>
+        <v>80174</v>
       </c>
       <c r="Q141" s="7">
-        <v>1456</v>
+        <v>1594</v>
       </c>
       <c r="T141" s="7">
-        <v>20.91</v>
+        <v>22.28</v>
       </c>
       <c r="U141" s="7">
-        <v>6.36</v>
+        <v>6.6</v>
       </c>
       <c r="V141" s="7">
-        <v>14.55</v>
+        <v>15.68</v>
       </c>
       <c r="W141" s="7">
-        <v>20.16</v>
+        <v>21.13</v>
       </c>
       <c r="X141" s="7">
-        <v>140000</v>
+        <v>457000</v>
       </c>
     </row>
     <row r="142">
@@ -4880,31 +4871,31 @@
         <v>195</v>
       </c>
       <c r="N142" s="7">
-        <v>98705</v>
+        <v>100072</v>
       </c>
       <c r="O142" s="7">
-        <v>19140</v>
+        <v>20171</v>
       </c>
       <c r="P142" s="7">
-        <v>79565</v>
+        <v>79901</v>
       </c>
       <c r="Q142" s="7">
-        <v>1171</v>
+        <v>1456</v>
       </c>
       <c r="T142" s="7">
-        <v>18.21</v>
+        <v>20.91</v>
       </c>
       <c r="U142" s="7">
-        <v>6.34</v>
+        <v>6.36</v>
       </c>
       <c r="V142" s="7">
-        <v>11.87</v>
+        <v>14.55</v>
       </c>
       <c r="W142" s="7">
-        <v>19.39</v>
+        <v>20.16</v>
       </c>
       <c r="X142" s="7">
-        <v>147000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="143">
@@ -4915,31 +4906,31 @@
         <v>196</v>
       </c>
       <c r="N143" s="7">
-        <v>97542</v>
+        <v>98705</v>
       </c>
       <c r="O143" s="7">
-        <v>18495</v>
+        <v>19140</v>
       </c>
       <c r="P143" s="7">
-        <v>79047</v>
+        <v>79565</v>
       </c>
       <c r="Q143" s="7">
-        <v>1132</v>
+        <v>1171</v>
       </c>
       <c r="T143" s="7">
-        <v>17.82</v>
+        <v>18.21</v>
       </c>
       <c r="U143" s="7">
-        <v>6.21</v>
+        <v>6.34</v>
       </c>
       <c r="V143" s="7">
-        <v>11.61</v>
+        <v>11.87</v>
       </c>
       <c r="W143" s="7">
-        <v>18.96</v>
+        <v>19.39</v>
       </c>
       <c r="X143" s="7">
-        <v>85000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="144">
@@ -4950,31 +4941,31 @@
         <v>197</v>
       </c>
       <c r="N144" s="7">
-        <v>96259</v>
+        <v>97542</v>
       </c>
       <c r="O144" s="7">
-        <v>17245</v>
+        <v>18495</v>
       </c>
       <c r="P144" s="7">
-        <v>79014</v>
+        <v>79047</v>
       </c>
       <c r="Q144" s="7">
-        <v>1155</v>
+        <v>1132</v>
       </c>
       <c r="T144" s="7">
-        <v>18.25</v>
+        <v>17.82</v>
       </c>
       <c r="U144" s="7">
-        <v>6.25</v>
+        <v>6.21</v>
       </c>
       <c r="V144" s="7">
-        <v>12</v>
+        <v>11.61</v>
       </c>
       <c r="W144" s="7">
-        <v>17.95</v>
+        <v>18.96</v>
       </c>
       <c r="X144" s="7">
-        <v>165000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="145">
@@ -4985,31 +4976,31 @@
         <v>198</v>
       </c>
       <c r="N145" s="7">
-        <v>94974</v>
+        <v>96259</v>
       </c>
       <c r="O145" s="7">
-        <v>16669</v>
+        <v>17245</v>
       </c>
       <c r="P145" s="7">
-        <v>78305</v>
+        <v>79014</v>
       </c>
       <c r="Q145" s="7">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="T145" s="7">
-        <v>19.03</v>
+        <v>18.25</v>
       </c>
       <c r="U145" s="7">
-        <v>6.91</v>
+        <v>6.25</v>
       </c>
       <c r="V145" s="7">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="W145" s="7">
-        <v>17.55</v>
+        <v>17.95</v>
       </c>
       <c r="X145" s="7">
-        <v>194000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="146">
@@ -5020,31 +5011,31 @@
         <v>199</v>
       </c>
       <c r="N146" s="7">
-        <v>93717</v>
+        <v>94974</v>
       </c>
       <c r="O146" s="7">
-        <v>16341</v>
+        <v>16669</v>
       </c>
       <c r="P146" s="7">
-        <v>77376</v>
+        <v>78305</v>
       </c>
       <c r="Q146" s="7">
-        <v>1192</v>
+        <v>1151</v>
       </c>
       <c r="T146" s="7">
-        <v>20.01</v>
+        <v>19.03</v>
       </c>
       <c r="U146" s="7">
-        <v>7.29</v>
+        <v>6.91</v>
       </c>
       <c r="V146" s="7">
-        <v>12.72</v>
+        <v>12.12</v>
       </c>
       <c r="W146" s="7">
-        <v>17.44</v>
+        <v>17.55</v>
       </c>
       <c r="X146" s="7">
-        <v>149000</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="147">
@@ -5055,31 +5046,31 @@
         <v>200</v>
       </c>
       <c r="N147" s="7">
-        <v>92420</v>
+        <v>93717</v>
       </c>
       <c r="O147" s="7">
-        <v>16030</v>
+        <v>16341</v>
       </c>
       <c r="P147" s="7">
-        <v>76390</v>
+        <v>77376</v>
       </c>
       <c r="Q147" s="7">
-        <v>1458</v>
+        <v>1192</v>
       </c>
       <c r="T147" s="7">
-        <v>23.13</v>
+        <v>20.01</v>
       </c>
       <c r="U147" s="7">
-        <v>7.36</v>
+        <v>7.29</v>
       </c>
       <c r="V147" s="7">
-        <v>15.77</v>
+        <v>12.72</v>
       </c>
       <c r="W147" s="7">
-        <v>17.34</v>
+        <v>17.44</v>
       </c>
       <c r="X147" s="7">
-        <v>119000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="148">
@@ -5090,31 +5081,31 @@
         <v>201</v>
       </c>
       <c r="N148" s="7">
-        <v>90859</v>
+        <v>92420</v>
       </c>
       <c r="O148" s="7">
-        <v>15595</v>
+        <v>16030</v>
       </c>
       <c r="P148" s="7">
-        <v>75264</v>
+        <v>76390</v>
       </c>
       <c r="Q148" s="7">
-        <v>1596</v>
+        <v>1458</v>
       </c>
       <c r="T148" s="7">
-        <v>24.95</v>
+        <v>23.13</v>
       </c>
       <c r="U148" s="7">
-        <v>7.38</v>
+        <v>7.36</v>
       </c>
       <c r="V148" s="7">
-        <v>17.57</v>
+        <v>15.77</v>
       </c>
       <c r="W148" s="7">
-        <v>17.16</v>
+        <v>17.34</v>
       </c>
       <c r="X148" s="7">
-        <v>43000</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="149">
@@ -5125,31 +5116,31 @@
         <v>202</v>
       </c>
       <c r="N149" s="7">
-        <v>89211</v>
+        <v>90859</v>
       </c>
       <c r="O149" s="7">
-        <v>15345</v>
+        <v>15595</v>
       </c>
       <c r="P149" s="7">
-        <v>73866</v>
+        <v>75264</v>
       </c>
       <c r="Q149" s="7">
-        <v>1872</v>
+        <v>1596</v>
       </c>
       <c r="T149" s="7">
-        <v>28.07</v>
+        <v>24.95</v>
       </c>
       <c r="U149" s="7">
-        <v>7.08</v>
+        <v>7.38</v>
       </c>
       <c r="V149" s="7">
-        <v>20.99</v>
+        <v>17.57</v>
       </c>
       <c r="W149" s="7">
-        <v>17.2</v>
+        <v>17.16</v>
       </c>
       <c r="X149" s="7">
-        <v>30000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="150">
@@ -5160,31 +5151,31 @@
         <v>203</v>
       </c>
       <c r="N150" s="7">
-        <v>87177</v>
+        <v>89211</v>
       </c>
       <c r="O150" s="7">
-        <v>14935</v>
+        <v>15345</v>
       </c>
       <c r="P150" s="7">
-        <v>72242</v>
+        <v>73866</v>
       </c>
       <c r="Q150" s="7">
-        <v>1941</v>
+        <v>1872</v>
       </c>
       <c r="T150" s="7">
-        <v>29.92</v>
+        <v>28.07</v>
       </c>
       <c r="U150" s="7">
-        <v>7.65</v>
+        <v>7.08</v>
       </c>
       <c r="V150" s="7">
-        <v>22.27</v>
+        <v>20.99</v>
       </c>
       <c r="W150" s="7">
-        <v>17.13</v>
+        <v>17.2</v>
       </c>
       <c r="X150" s="7">
-        <v>17000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="151">
@@ -5195,31 +5186,31 @@
         <v>204</v>
       </c>
       <c r="N151" s="7">
-        <v>85229</v>
+        <v>87177</v>
       </c>
       <c r="O151" s="7">
-        <v>14711</v>
+        <v>14935</v>
       </c>
       <c r="P151" s="7">
-        <v>70518</v>
+        <v>72242</v>
       </c>
       <c r="Q151" s="7">
-        <v>1994</v>
+        <v>1941</v>
       </c>
       <c r="T151" s="7">
-        <v>30.74</v>
+        <v>29.92</v>
       </c>
       <c r="U151" s="7">
-        <v>7.34</v>
+        <v>7.65</v>
       </c>
       <c r="V151" s="7">
-        <v>23.4</v>
+        <v>22.27</v>
       </c>
       <c r="W151" s="7">
-        <v>17.26</v>
+        <v>17.13</v>
       </c>
       <c r="X151" s="7">
-        <v>6000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="152">
@@ -5230,31 +5221,31 @@
         <v>205</v>
       </c>
       <c r="N152" s="7">
-        <v>82992</v>
+        <v>85229</v>
       </c>
       <c r="O152" s="7">
-        <v>14424</v>
+        <v>14711</v>
       </c>
       <c r="P152" s="7">
-        <v>68568</v>
+        <v>70518</v>
       </c>
       <c r="Q152" s="7">
-        <v>2154</v>
+        <v>1994</v>
       </c>
       <c r="T152" s="7">
-        <v>33.59</v>
+        <v>30.74</v>
       </c>
       <c r="U152" s="7">
-        <v>7.64</v>
+        <v>7.34</v>
       </c>
       <c r="V152" s="7">
-        <v>25.95</v>
+        <v>23.4</v>
       </c>
       <c r="W152" s="7">
-        <v>17.38</v>
+        <v>17.26</v>
       </c>
       <c r="X152" s="7">
-        <v>103000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="153">
@@ -5265,28 +5256,31 @@
         <v>206</v>
       </c>
       <c r="N153" s="7">
-        <v>80671</v>
+        <v>82992</v>
       </c>
       <c r="O153" s="7">
-        <v>14117</v>
+        <v>14424</v>
       </c>
       <c r="P153" s="7">
-        <v>66554</v>
+        <v>68568</v>
+      </c>
+      <c r="Q153" s="7">
+        <v>2154</v>
       </c>
       <c r="T153" s="7">
-        <v>34.25</v>
+        <v>33.59</v>
       </c>
       <c r="U153" s="7">
-        <v>8.06</v>
+        <v>7.64</v>
       </c>
       <c r="V153" s="7">
-        <v>26.19</v>
+        <v>25.95</v>
       </c>
       <c r="W153" s="7">
-        <v>17.5</v>
+        <v>17.38</v>
       </c>
       <c r="X153" s="7">
-        <v>150000</v>
+        <v>103000</v>
       </c>
     </row>
     <row r="154">
@@ -5297,25 +5291,25 @@
         <v>207</v>
       </c>
       <c r="N154" s="7">
-        <v>78534</v>
+        <v>80671</v>
       </c>
       <c r="O154" s="7">
-        <v>13838</v>
+        <v>14117</v>
       </c>
       <c r="P154" s="7">
-        <v>64696</v>
+        <v>66554</v>
       </c>
       <c r="T154" s="7">
-        <v>35.75</v>
+        <v>34.25</v>
       </c>
       <c r="U154" s="7">
-        <v>8.25</v>
+        <v>8.06</v>
       </c>
       <c r="V154" s="7">
-        <v>27.5</v>
+        <v>26.19</v>
       </c>
       <c r="W154" s="7">
-        <v>17.62</v>
+        <v>17.5</v>
       </c>
       <c r="X154" s="7">
         <v>150000</v>
@@ -5329,28 +5323,28 @@
         <v>208</v>
       </c>
       <c r="N155" s="7">
-        <v>76368</v>
+        <v>78534</v>
       </c>
       <c r="O155" s="7">
-        <v>13548</v>
+        <v>13838</v>
       </c>
       <c r="P155" s="7">
-        <v>62820</v>
+        <v>64696</v>
       </c>
       <c r="T155" s="7">
-        <v>34.12</v>
+        <v>35.75</v>
       </c>
       <c r="U155" s="7">
-        <v>8.47</v>
+        <v>8.25</v>
       </c>
       <c r="V155" s="7">
-        <v>25.65</v>
+        <v>27.5</v>
       </c>
       <c r="W155" s="7">
-        <v>17.74</v>
+        <v>17.62</v>
       </c>
       <c r="X155" s="7">
-        <v>125000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="156">
@@ -5361,28 +5355,28 @@
         <v>209</v>
       </c>
       <c r="N156" s="7">
-        <v>74542</v>
+        <v>76368</v>
       </c>
       <c r="O156" s="7">
-        <v>13313</v>
+        <v>13548</v>
       </c>
       <c r="P156" s="7">
-        <v>61229</v>
+        <v>62820</v>
       </c>
       <c r="T156" s="7">
-        <v>35.21</v>
+        <v>34.12</v>
       </c>
       <c r="U156" s="7">
-        <v>8.87</v>
+        <v>8.47</v>
       </c>
       <c r="V156" s="7">
-        <v>26.34</v>
+        <v>25.65</v>
       </c>
       <c r="W156" s="7">
-        <v>17.86</v>
+        <v>17.74</v>
       </c>
       <c r="X156" s="7">
-        <v>141000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="157">
@@ -5393,28 +5387,28 @@
         <v>210</v>
       </c>
       <c r="N157" s="7">
-        <v>72538</v>
+        <v>74542</v>
       </c>
       <c r="O157" s="7">
-        <v>13045</v>
+        <v>13313</v>
       </c>
       <c r="P157" s="7">
-        <v>59493</v>
+        <v>61229</v>
       </c>
       <c r="T157" s="7">
-        <v>38</v>
+        <v>35.21</v>
       </c>
       <c r="U157" s="7">
-        <v>9.5</v>
+        <v>8.87</v>
       </c>
       <c r="V157" s="7">
-        <v>28.5</v>
+        <v>26.34</v>
       </c>
       <c r="W157" s="7">
-        <v>17.98</v>
+        <v>17.86</v>
       </c>
       <c r="X157" s="7">
-        <v>186000</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="158">
@@ -5425,28 +5419,28 @@
         <v>211</v>
       </c>
       <c r="N158" s="7">
-        <v>70499</v>
+        <v>72538</v>
       </c>
       <c r="O158" s="7">
-        <v>12950</v>
+        <v>13045</v>
       </c>
       <c r="P158" s="7">
-        <v>57549</v>
+        <v>59493</v>
       </c>
       <c r="T158" s="7">
-        <v>39.34</v>
+        <v>38</v>
       </c>
       <c r="U158" s="7">
-        <v>11.56</v>
+        <v>9.5</v>
       </c>
       <c r="V158" s="7">
-        <v>27.78</v>
+        <v>28.5</v>
       </c>
       <c r="W158" s="7">
-        <v>18.37</v>
+        <v>17.98</v>
       </c>
       <c r="X158" s="7">
-        <v>204000</v>
+        <v>186000</v>
       </c>
     </row>
     <row r="159">
@@ -5457,28 +5451,28 @@
         <v>212</v>
       </c>
       <c r="N159" s="7">
-        <v>69172</v>
+        <v>70499</v>
       </c>
       <c r="O159" s="7">
-        <v>11646</v>
+        <v>12950</v>
       </c>
       <c r="P159" s="7">
-        <v>57526</v>
+        <v>57549</v>
       </c>
       <c r="T159" s="7">
-        <v>43.6</v>
+        <v>39.34</v>
       </c>
       <c r="U159" s="7">
-        <v>10.1</v>
+        <v>11.56</v>
       </c>
       <c r="V159" s="7">
-        <v>33.5</v>
+        <v>27.78</v>
       </c>
       <c r="W159" s="7">
-        <v>16.84</v>
+        <v>18.37</v>
       </c>
       <c r="X159" s="7">
-        <v>199000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="160">
@@ -5489,28 +5483,28 @@
         <v>213</v>
       </c>
       <c r="N160" s="7">
-        <v>67296</v>
+        <v>69172</v>
       </c>
       <c r="O160" s="7">
-        <v>11659</v>
+        <v>11646</v>
       </c>
       <c r="P160" s="7">
-        <v>55636</v>
+        <v>57526</v>
       </c>
       <c r="T160" s="7">
-        <v>37.22</v>
+        <v>43.6</v>
       </c>
       <c r="U160" s="7">
-        <v>10.08</v>
+        <v>10.1</v>
       </c>
       <c r="V160" s="7">
-        <v>27.14</v>
+        <v>33.5</v>
       </c>
       <c r="W160" s="7">
-        <v>17.33</v>
+        <v>16.84</v>
       </c>
       <c r="X160" s="7">
-        <v>177000</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="161">
@@ -5521,28 +5515,28 @@
         <v>214</v>
       </c>
       <c r="N161" s="7">
-        <v>65859</v>
+        <v>67296</v>
       </c>
       <c r="O161" s="7">
-        <v>12707</v>
+        <v>11659</v>
       </c>
       <c r="P161" s="7">
-        <v>53152</v>
+        <v>55636</v>
       </c>
       <c r="T161" s="7">
-        <v>18.13</v>
+        <v>37.22</v>
       </c>
       <c r="U161" s="7">
-        <v>14.33</v>
+        <v>10.08</v>
       </c>
       <c r="V161" s="7">
-        <v>3.8</v>
+        <v>27.14</v>
       </c>
       <c r="W161" s="7">
-        <v>19.29</v>
+        <v>17.33</v>
       </c>
       <c r="X161" s="7">
-        <v>151000</v>
+        <v>177000</v>
       </c>
     </row>
     <row r="162">
@@ -5553,28 +5547,28 @@
         <v>215</v>
       </c>
       <c r="N162" s="7">
-        <v>66207</v>
+        <v>65859</v>
       </c>
       <c r="O162" s="7">
-        <v>13073</v>
+        <v>12707</v>
       </c>
       <c r="P162" s="7">
-        <v>53134</v>
+        <v>53152</v>
       </c>
       <c r="T162" s="7">
-        <v>20.86</v>
+        <v>18.13</v>
       </c>
       <c r="U162" s="7">
-        <v>25.43</v>
+        <v>14.33</v>
       </c>
       <c r="V162" s="7">
-        <v>-4.57</v>
+        <v>3.8</v>
       </c>
       <c r="W162" s="7">
-        <v>19.75</v>
+        <v>19.29</v>
       </c>
       <c r="X162" s="7">
-        <v>136000</v>
+        <v>151000</v>
       </c>
     </row>
     <row r="163">
@@ -5585,25 +5579,28 @@
         <v>216</v>
       </c>
       <c r="N163" s="7">
-        <v>67207</v>
+        <v>66207</v>
       </c>
       <c r="O163" s="7">
-        <v>12371</v>
+        <v>13073</v>
       </c>
       <c r="P163" s="7">
-        <v>54836</v>
+        <v>53134</v>
       </c>
       <c r="T163" s="7">
-        <v>24.78</v>
+        <v>20.86</v>
       </c>
       <c r="U163" s="7">
-        <v>14.59</v>
+        <v>25.43</v>
       </c>
       <c r="V163" s="7">
-        <v>10.19</v>
+        <v>-4.57</v>
+      </c>
+      <c r="W163" s="7">
+        <v>19.75</v>
       </c>
       <c r="X163" s="7">
-        <v>70000</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="164">
@@ -5614,25 +5611,25 @@
         <v>217</v>
       </c>
       <c r="N164" s="7">
-        <v>65994</v>
+        <v>67207</v>
       </c>
       <c r="O164" s="7">
-        <v>10721</v>
+        <v>12371</v>
       </c>
       <c r="P164" s="7">
-        <v>55273</v>
+        <v>54836</v>
       </c>
       <c r="T164" s="7">
-        <v>29.22</v>
+        <v>24.78</v>
       </c>
       <c r="U164" s="7">
-        <v>11.98</v>
+        <v>14.59</v>
       </c>
       <c r="V164" s="7">
-        <v>17.24</v>
+        <v>10.19</v>
       </c>
       <c r="X164" s="7">
-        <v>72000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="165">
@@ -5643,28 +5640,25 @@
         <v>218</v>
       </c>
       <c r="N165" s="7">
-        <v>64653</v>
+        <v>65994</v>
       </c>
       <c r="O165" s="7">
-        <v>9949</v>
+        <v>10721</v>
       </c>
       <c r="P165" s="7">
-        <v>54704</v>
+        <v>55273</v>
       </c>
       <c r="T165" s="7">
-        <v>34.03</v>
+        <v>29.22</v>
       </c>
       <c r="U165" s="7">
-        <v>10.8</v>
+        <v>11.98</v>
       </c>
       <c r="V165" s="7">
-        <v>23.23</v>
-      </c>
-      <c r="W165" s="7">
-        <v>15.4</v>
+        <v>17.24</v>
       </c>
       <c r="X165" s="7">
-        <v>56000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="166">
@@ -5675,25 +5669,28 @@
         <v>219</v>
       </c>
       <c r="N166" s="7">
-        <v>62828</v>
+        <v>64653</v>
       </c>
       <c r="O166" s="7">
-        <v>9185</v>
+        <v>9949</v>
       </c>
       <c r="P166" s="7">
-        <v>53643</v>
+        <v>54704</v>
       </c>
       <c r="T166" s="7">
-        <v>31.9</v>
+        <v>34.03</v>
       </c>
       <c r="U166" s="7">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="V166" s="7">
-        <v>20.5</v>
+        <v>23.23</v>
+      </c>
+      <c r="W166" s="7">
+        <v>15.4</v>
       </c>
       <c r="X166" s="7">
-        <v>63000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="167">
@@ -5704,28 +5701,25 @@
         <v>220</v>
       </c>
       <c r="N167" s="7">
-        <v>61465</v>
+        <v>62828</v>
       </c>
       <c r="O167" s="7">
-        <v>8285</v>
+        <v>9185</v>
       </c>
       <c r="P167" s="7">
-        <v>53180</v>
+        <v>53643</v>
       </c>
       <c r="T167" s="7">
-        <v>32.6</v>
+        <v>31.9</v>
       </c>
       <c r="U167" s="7">
-        <v>12.28</v>
+        <v>11.4</v>
       </c>
       <c r="V167" s="7">
-        <v>20.32</v>
-      </c>
-      <c r="W167" s="7">
-        <v>13.48</v>
+        <v>20.5</v>
       </c>
       <c r="X167" s="7">
-        <v>55000</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="168">
@@ -5736,25 +5730,28 @@
         <v>221</v>
       </c>
       <c r="N168" s="7">
-        <v>60266</v>
+        <v>61465</v>
       </c>
       <c r="O168" s="7">
-        <v>8249</v>
+        <v>8285</v>
       </c>
       <c r="P168" s="7">
-        <v>52017</v>
+        <v>53180</v>
       </c>
       <c r="T168" s="7">
-        <v>37.97</v>
+        <v>32.6</v>
       </c>
       <c r="U168" s="7">
-        <v>13.18</v>
+        <v>12.28</v>
       </c>
       <c r="V168" s="7">
-        <v>24.79</v>
+        <v>20.32</v>
+      </c>
+      <c r="W168" s="7">
+        <v>13.48</v>
       </c>
       <c r="X168" s="7">
-        <v>47000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="169">
@@ -5765,28 +5762,25 @@
         <v>222</v>
       </c>
       <c r="N169" s="7">
-        <v>58796</v>
+        <v>60266</v>
       </c>
       <c r="O169" s="7">
-        <v>7826</v>
+        <v>8249</v>
       </c>
       <c r="P169" s="7">
-        <v>50970</v>
+        <v>52017</v>
       </c>
       <c r="T169" s="7">
-        <v>37</v>
+        <v>37.97</v>
       </c>
       <c r="U169" s="7">
-        <v>14</v>
+        <v>13.18</v>
       </c>
       <c r="V169" s="7">
-        <v>23</v>
-      </c>
-      <c r="W169" s="7">
-        <v>13.26</v>
+        <v>24.79</v>
       </c>
       <c r="X169" s="7">
-        <v>48000</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="170">
@@ -5797,28 +5791,28 @@
         <v>223</v>
       </c>
       <c r="N170" s="7">
-        <v>57482</v>
+        <v>58796</v>
       </c>
       <c r="O170" s="7">
-        <v>7163</v>
+        <v>7826</v>
       </c>
       <c r="P170" s="7">
-        <v>50319</v>
+        <v>50970</v>
       </c>
       <c r="T170" s="7">
         <v>37</v>
       </c>
       <c r="U170" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="V170" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="W170" s="7">
-        <v>12.5</v>
+        <v>13.26</v>
       </c>
       <c r="X170" s="7">
-        <v>32000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="171">
@@ -5829,28 +5823,28 @@
         <v>224</v>
       </c>
       <c r="N171" s="7">
-        <v>56300</v>
+        <v>57482</v>
       </c>
       <c r="O171" s="7">
-        <v>6632</v>
+        <v>7163</v>
       </c>
       <c r="P171" s="7">
-        <v>49668</v>
+        <v>50319</v>
       </c>
       <c r="T171" s="7">
-        <v>37.8</v>
+        <v>37</v>
       </c>
       <c r="U171" s="7">
-        <v>17.8</v>
+        <v>17</v>
       </c>
       <c r="V171" s="7">
         <v>20</v>
       </c>
       <c r="W171" s="7">
-        <v>11.78</v>
+        <v>12.5</v>
       </c>
       <c r="X171" s="7">
-        <v>19000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="172">
@@ -5861,28 +5855,28 @@
         <v>225</v>
       </c>
       <c r="N172" s="7">
-        <v>55196</v>
+        <v>56300</v>
       </c>
       <c r="O172" s="7">
-        <v>6169</v>
+        <v>6632</v>
       </c>
       <c r="P172" s="7">
-        <v>49027</v>
+        <v>49668</v>
       </c>
       <c r="T172" s="7">
-        <v>37</v>
+        <v>37.8</v>
       </c>
       <c r="U172" s="7">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="V172" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W172" s="7">
-        <v>11.18</v>
+        <v>11.78</v>
       </c>
       <c r="X172" s="7">
-        <v>18000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="173">
@@ -5893,33 +5887,65 @@
         <v>226</v>
       </c>
       <c r="N173" s="7">
+        <v>55196</v>
+      </c>
+      <c r="O173" s="7">
+        <v>6169</v>
+      </c>
+      <c r="P173" s="7">
+        <v>49027</v>
+      </c>
+      <c r="T173" s="7">
+        <v>37</v>
+      </c>
+      <c r="U173" s="7">
+        <v>18</v>
+      </c>
+      <c r="V173" s="7">
+        <v>19</v>
+      </c>
+      <c r="W173" s="7">
+        <v>11.18</v>
+      </c>
+      <c r="X173" s="7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="6">
+        <v>168</v>
+      </c>
+      <c r="B174" t="s">
+        <v>227</v>
+      </c>
+      <c r="N174" s="7">
         <v>54167</v>
       </c>
-      <c r="O173" s="7">
+      <c r="O174" s="7">
         <v>5765</v>
       </c>
-      <c r="P173" s="7">
+      <c r="P174" s="7">
         <v>48402</v>
       </c>
-      <c r="T173" s="7">
+      <c r="T174" s="7">
         <v>36</v>
       </c>
-      <c r="U173" s="7">
+      <c r="U174" s="7">
         <v>20</v>
       </c>
-      <c r="V173" s="7">
+      <c r="V174" s="7">
         <v>16</v>
       </c>
-      <c r="W173" s="7">
+      <c r="W174" s="7">
         <v>10.64</v>
       </c>
-      <c r="X173" s="7">
+      <c r="X174" s="7">
         <v>21000</v>
       </c>
     </row>
-    <row r="180" ht="25" customHeight="1">
-      <c r="A180" s="8" t="s">
-        <v>227</v>
+    <row r="181" ht="25" customHeight="1">
+      <c r="A181" s="8" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/data/人口就业.xlsx
+++ b/data/人口就业.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="231">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t xml:space="preserve">中华人民共和国国家统计局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07</t>
   </si>
   <si>
     <t xml:space="preserve">2024-06</t>
@@ -755,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2592">
+  <cellXfs count="2604">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -775,6 +778,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3833,19 +3848,19 @@
         <v>60</v>
       </c>
       <c r="C7" s="12">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D7" s="14">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="E7" s="16">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F7" s="18">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I7" s="20">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="8">
@@ -3862,13 +3877,13 @@
         <v>4.9</v>
       </c>
       <c r="E8" s="28">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="30">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I8" s="32">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="9">
@@ -3882,16 +3897,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="38">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E9" s="40">
         <v>5.1</v>
       </c>
       <c r="F9" s="42">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I9" s="44">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="10">
@@ -3902,19 +3917,19 @@
         <v>63</v>
       </c>
       <c r="C10" s="48">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="50">
+        <v>5</v>
+      </c>
+      <c r="E10" s="52">
         <v>5.1</v>
       </c>
-      <c r="E10" s="52">
-        <v>5.3</v>
-      </c>
       <c r="F10" s="54">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I10" s="56">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="11">
@@ -3925,19 +3940,19 @@
         <v>64</v>
       </c>
       <c r="C11" s="60">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D11" s="62">
         <v>5.1</v>
       </c>
       <c r="E11" s="64">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F11" s="66">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I11" s="68">
-        <v>48</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="12">
@@ -3948,19 +3963,19 @@
         <v>65</v>
       </c>
       <c r="C12" s="72">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D12" s="74">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="E12" s="76">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F12" s="78">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I12" s="80">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
@@ -3971,13 +3986,13 @@
         <v>66</v>
       </c>
       <c r="C13" s="84">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D13" s="86">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E13" s="88">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F13" s="90">
         <v>4.7</v>
@@ -3985,58 +4000,58 @@
       <c r="I13" s="92">
         <v>49</v>
       </c>
-      <c r="N13" s="94">
-        <v>140967</v>
-      </c>
-      <c r="O13" s="96">
-        <v>93267</v>
-      </c>
-      <c r="P13" s="98">
-        <v>47700</v>
-      </c>
-      <c r="Q13" s="100">
-        <v>-208</v>
-      </c>
-      <c r="R13" s="102">
-        <v>1196</v>
-      </c>
-      <c r="S13" s="104">
-        <v>-1404</v>
-      </c>
-      <c r="T13" s="106">
-        <v>6.39</v>
-      </c>
-      <c r="U13" s="108">
-        <v>7.87</v>
-      </c>
-      <c r="V13" s="110">
-        <v>-1.48</v>
-      </c>
-      <c r="W13" s="112">
-        <v>66.16</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" s="114">
+      <c r="A14" s="94">
         <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="116">
+      <c r="C14" s="96">
+        <v>5.1</v>
+      </c>
+      <c r="D14" s="98">
         <v>5</v>
       </c>
-      <c r="D14" s="118">
-        <v>5</v>
-      </c>
-      <c r="E14" s="120">
-        <v>5.1</v>
-      </c>
-      <c r="F14" s="122">
+      <c r="E14" s="100">
+        <v>5.2</v>
+      </c>
+      <c r="F14" s="102">
         <v>4.7</v>
       </c>
-      <c r="I14" s="124">
-        <v>48.9</v>
+      <c r="I14" s="104">
+        <v>49</v>
+      </c>
+      <c r="N14" s="106">
+        <v>140967</v>
+      </c>
+      <c r="O14" s="108">
+        <v>93267</v>
+      </c>
+      <c r="P14" s="110">
+        <v>47700</v>
+      </c>
+      <c r="Q14" s="112">
+        <v>-208</v>
+      </c>
+      <c r="R14" s="114">
+        <v>1196</v>
+      </c>
+      <c r="S14" s="116">
+        <v>-1404</v>
+      </c>
+      <c r="T14" s="118">
+        <v>6.39</v>
+      </c>
+      <c r="U14" s="120">
+        <v>7.87</v>
+      </c>
+      <c r="V14" s="122">
+        <v>-1.48</v>
+      </c>
+      <c r="W14" s="124">
+        <v>66.16</v>
       </c>
     </row>
     <row r="15">
@@ -4053,13 +4068,13 @@
         <v>5</v>
       </c>
       <c r="E15" s="132">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F15" s="134">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I15" s="136">
-        <v>48.7</v>
+        <v>48.9</v>
       </c>
     </row>
     <row r="16">
@@ -4073,16 +4088,16 @@
         <v>5</v>
       </c>
       <c r="D16" s="142">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="E16" s="144">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F16" s="146">
         <v>4.9</v>
       </c>
       <c r="I16" s="148">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="17">
@@ -4093,19 +4108,19 @@
         <v>70</v>
       </c>
       <c r="C17" s="152">
+        <v>5</v>
+      </c>
+      <c r="D17" s="154">
         <v>5.2</v>
       </c>
-      <c r="D17" s="154">
-        <v>5.3</v>
-      </c>
       <c r="E17" s="156">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="F17" s="158">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I17" s="160">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="18">
@@ -4116,16 +4131,16 @@
         <v>71</v>
       </c>
       <c r="C18" s="164">
+        <v>5.2</v>
+      </c>
+      <c r="D18" s="166">
         <v>5.3</v>
-      </c>
-      <c r="D18" s="166">
-        <v>5.4</v>
       </c>
       <c r="E18" s="168">
         <v>5.3</v>
       </c>
       <c r="F18" s="170">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="I18" s="172">
         <v>48.7</v>
@@ -4139,4413 +4154,4436 @@
         <v>72</v>
       </c>
       <c r="C19" s="176">
+        <v>5.3</v>
+      </c>
+      <c r="D19" s="178">
+        <v>5.4</v>
+      </c>
+      <c r="E19" s="180">
+        <v>5.3</v>
+      </c>
+      <c r="F19" s="182">
         <v>5.2</v>
       </c>
-      <c r="D19" s="178">
-        <v>5.5</v>
-      </c>
-      <c r="E19" s="180">
-        <v>5.1</v>
-      </c>
-      <c r="F19" s="182">
-        <v>5.3</v>
-      </c>
-      <c r="G19" s="184">
-        <v>21.3</v>
-      </c>
-      <c r="H19" s="186">
-        <v>4.1</v>
-      </c>
-      <c r="I19" s="188">
+      <c r="I19" s="184">
         <v>48.7</v>
       </c>
-      <c r="J19" s="190">
-        <v>4.4</v>
-      </c>
-      <c r="K19" s="192">
-        <v>4.4</v>
-      </c>
-      <c r="L19" s="194">
-        <v>3.9</v>
-      </c>
-      <c r="M19" s="196">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="198">
+      <c r="A20" s="186">
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="200">
+      <c r="C20" s="188">
         <v>5.2</v>
       </c>
-      <c r="D20" s="202">
+      <c r="D20" s="190">
         <v>5.5</v>
       </c>
-      <c r="E20" s="204">
+      <c r="E20" s="192">
         <v>5.1</v>
       </c>
-      <c r="F20" s="206">
-        <v>5.4</v>
-      </c>
-      <c r="G20" s="208">
-        <v>20.8</v>
-      </c>
-      <c r="H20" s="210">
+      <c r="F20" s="194">
+        <v>5.3</v>
+      </c>
+      <c r="G20" s="196">
+        <v>21.3</v>
+      </c>
+      <c r="H20" s="198">
         <v>4.1</v>
       </c>
-      <c r="I20" s="212">
-        <v>48.6</v>
-      </c>
-      <c r="J20" s="214">
+      <c r="I20" s="200">
+        <v>48.7</v>
+      </c>
+      <c r="J20" s="202">
         <v>4.4</v>
       </c>
-      <c r="K20" s="216">
+      <c r="K20" s="204">
         <v>4.4</v>
       </c>
-      <c r="L20" s="218">
-        <v>4.1</v>
-      </c>
-      <c r="M20" s="220">
+      <c r="L20" s="206">
+        <v>3.9</v>
+      </c>
+      <c r="M20" s="208">
         <v>3.2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="222">
+      <c r="A21" s="210">
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="224">
+      <c r="C21" s="212">
         <v>5.2</v>
       </c>
-      <c r="D21" s="226">
+      <c r="D21" s="214">
         <v>5.5</v>
       </c>
-      <c r="E21" s="228">
+      <c r="E21" s="216">
         <v>5.1</v>
       </c>
-      <c r="F21" s="230">
+      <c r="F21" s="218">
         <v>5.4</v>
       </c>
-      <c r="G21" s="232">
-        <v>20.4</v>
-      </c>
-      <c r="H21" s="234">
-        <v>4.2</v>
-      </c>
-      <c r="I21" s="236">
-        <v>48.8</v>
-      </c>
-      <c r="J21" s="238">
-        <v>4.5</v>
-      </c>
-      <c r="K21" s="240">
-        <v>4.6</v>
-      </c>
-      <c r="L21" s="242">
-        <v>4</v>
-      </c>
-      <c r="M21" s="244">
-        <v>3.1</v>
+      <c r="G21" s="220">
+        <v>20.8</v>
+      </c>
+      <c r="H21" s="222">
+        <v>4.1</v>
+      </c>
+      <c r="I21" s="224">
+        <v>48.6</v>
+      </c>
+      <c r="J21" s="226">
+        <v>4.4</v>
+      </c>
+      <c r="K21" s="228">
+        <v>4.4</v>
+      </c>
+      <c r="L21" s="230">
+        <v>4.1</v>
+      </c>
+      <c r="M21" s="232">
+        <v>3.2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="246">
+      <c r="A22" s="234">
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="248">
-        <v>5.3</v>
-      </c>
-      <c r="D22" s="250">
+      <c r="C22" s="236">
+        <v>5.2</v>
+      </c>
+      <c r="D22" s="238">
         <v>5.5</v>
       </c>
-      <c r="E22" s="252">
+      <c r="E22" s="240">
         <v>5.1</v>
       </c>
-      <c r="F22" s="254">
-        <v>5.6</v>
-      </c>
-      <c r="G22" s="256">
-        <v>19.6</v>
-      </c>
-      <c r="H22" s="258">
-        <v>4.3</v>
-      </c>
-      <c r="I22" s="260">
-        <v>48.7</v>
-      </c>
-      <c r="J22" s="262">
-        <v>4.8</v>
-      </c>
-      <c r="K22" s="264">
-        <v>4.8</v>
-      </c>
-      <c r="L22" s="266">
+      <c r="F22" s="242">
+        <v>5.4</v>
+      </c>
+      <c r="G22" s="244">
+        <v>20.4</v>
+      </c>
+      <c r="H22" s="246">
+        <v>4.2</v>
+      </c>
+      <c r="I22" s="248">
+        <v>48.8</v>
+      </c>
+      <c r="J22" s="250">
+        <v>4.5</v>
+      </c>
+      <c r="K22" s="252">
+        <v>4.6</v>
+      </c>
+      <c r="L22" s="254">
         <v>4</v>
       </c>
-      <c r="M22" s="268">
+      <c r="M22" s="256">
         <v>3.1</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="270">
+      <c r="A23" s="258">
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="272">
+      <c r="C23" s="260">
+        <v>5.3</v>
+      </c>
+      <c r="D23" s="262">
+        <v>5.5</v>
+      </c>
+      <c r="E23" s="264">
+        <v>5.1</v>
+      </c>
+      <c r="F23" s="266">
         <v>5.6</v>
       </c>
-      <c r="D23" s="274">
-        <v>5.7</v>
-      </c>
-      <c r="E23" s="276">
-        <v>5.4</v>
-      </c>
-      <c r="F23" s="278">
-        <v>5.9</v>
-      </c>
-      <c r="G23" s="280">
-        <v>18.1</v>
-      </c>
-      <c r="H23" s="282">
+      <c r="G23" s="268">
+        <v>19.6</v>
+      </c>
+      <c r="H23" s="270">
+        <v>4.3</v>
+      </c>
+      <c r="I23" s="272">
+        <v>48.7</v>
+      </c>
+      <c r="J23" s="274">
         <v>4.8</v>
       </c>
-      <c r="I23" s="284">
-        <v>47.9</v>
-      </c>
-      <c r="J23" s="286">
-        <v>5.7</v>
-      </c>
-      <c r="K23" s="288">
-        <v>5.2</v>
-      </c>
-      <c r="L23" s="290">
-        <v>4.1</v>
-      </c>
-      <c r="M23" s="292">
-        <v>3</v>
+      <c r="K23" s="276">
+        <v>4.8</v>
+      </c>
+      <c r="L23" s="278">
+        <v>4</v>
+      </c>
+      <c r="M23" s="280">
+        <v>3.1</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="294">
+      <c r="A24" s="282">
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="296">
-        <v>5.5</v>
-      </c>
-      <c r="D24" s="298">
-        <v>5.8</v>
-      </c>
-      <c r="E24" s="300">
+      <c r="C24" s="284">
+        <v>5.6</v>
+      </c>
+      <c r="D24" s="286">
+        <v>5.7</v>
+      </c>
+      <c r="E24" s="288">
         <v>5.4</v>
       </c>
-      <c r="F24" s="302">
-        <v>5.6</v>
-      </c>
-      <c r="G24" s="304">
-        <v>17.3</v>
-      </c>
-      <c r="H24" s="306">
-        <v>4.7</v>
-      </c>
-      <c r="I24" s="308">
+      <c r="F24" s="290">
+        <v>5.9</v>
+      </c>
+      <c r="G24" s="292">
+        <v>18.1</v>
+      </c>
+      <c r="H24" s="294">
+        <v>4.8</v>
+      </c>
+      <c r="I24" s="296">
         <v>47.9</v>
       </c>
+      <c r="J24" s="298">
+        <v>5.7</v>
+      </c>
+      <c r="K24" s="300">
+        <v>5.2</v>
+      </c>
+      <c r="L24" s="302">
+        <v>4.1</v>
+      </c>
+      <c r="M24" s="304">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="310">
+      <c r="A25" s="306">
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="312">
+      <c r="C25" s="308">
         <v>5.5</v>
       </c>
-      <c r="D25" s="314">
-        <v>6.1</v>
-      </c>
-      <c r="E25" s="316">
+      <c r="D25" s="310">
+        <v>5.8</v>
+      </c>
+      <c r="E25" s="312">
         <v>5.4</v>
       </c>
-      <c r="F25" s="318">
-        <v>5.7</v>
-      </c>
-      <c r="G25" s="320">
-        <v>16.7</v>
-      </c>
-      <c r="H25" s="322">
-        <v>4.8</v>
-      </c>
-      <c r="I25" s="324">
+      <c r="F25" s="314">
+        <v>5.6</v>
+      </c>
+      <c r="G25" s="316">
+        <v>17.3</v>
+      </c>
+      <c r="H25" s="318">
+        <v>4.7</v>
+      </c>
+      <c r="I25" s="320">
         <v>47.9</v>
       </c>
-      <c r="N25" s="326">
-        <v>141175</v>
-      </c>
-      <c r="O25" s="328">
-        <v>92071</v>
-      </c>
-      <c r="P25" s="330">
-        <v>49104</v>
-      </c>
-      <c r="Q25" s="332">
-        <v>-85</v>
-      </c>
-      <c r="R25" s="334">
-        <v>646</v>
-      </c>
-      <c r="S25" s="336">
-        <v>-731</v>
-      </c>
-      <c r="T25" s="338">
-        <v>6.77</v>
-      </c>
-      <c r="U25" s="340">
-        <v>7.37</v>
-      </c>
-      <c r="V25" s="342">
-        <v>-0.6</v>
-      </c>
-      <c r="W25" s="344">
-        <v>65.22</v>
-      </c>
-      <c r="X25" s="346">
-        <v>9672565</v>
-      </c>
     </row>
     <row r="26">
-      <c r="A26" s="348">
+      <c r="A26" s="322">
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="350">
+      <c r="C26" s="324">
+        <v>5.5</v>
+      </c>
+      <c r="D26" s="326">
+        <v>6.1</v>
+      </c>
+      <c r="E26" s="328">
+        <v>5.4</v>
+      </c>
+      <c r="F26" s="330">
         <v>5.7</v>
       </c>
-      <c r="D26" s="352">
-        <v>6.7</v>
-      </c>
-      <c r="E26" s="354">
-        <v>5.5</v>
-      </c>
-      <c r="F26" s="356">
-        <v>6.2</v>
-      </c>
-      <c r="G26" s="358">
-        <v>17.1</v>
-      </c>
-      <c r="H26" s="360">
-        <v>5</v>
-      </c>
-      <c r="I26" s="362">
-        <v>47.7</v>
+      <c r="G26" s="332">
+        <v>16.7</v>
+      </c>
+      <c r="H26" s="334">
+        <v>4.8</v>
+      </c>
+      <c r="I26" s="336">
+        <v>47.9</v>
+      </c>
+      <c r="N26" s="338">
+        <v>141175</v>
+      </c>
+      <c r="O26" s="340">
+        <v>92071</v>
+      </c>
+      <c r="P26" s="342">
+        <v>49104</v>
+      </c>
+      <c r="Q26" s="344">
+        <v>-85</v>
+      </c>
+      <c r="R26" s="346">
+        <v>646</v>
+      </c>
+      <c r="S26" s="348">
+        <v>-731</v>
+      </c>
+      <c r="T26" s="350">
+        <v>6.77</v>
+      </c>
+      <c r="U26" s="352">
+        <v>7.37</v>
+      </c>
+      <c r="V26" s="354">
+        <v>-0.6</v>
+      </c>
+      <c r="W26" s="356">
+        <v>65.22</v>
+      </c>
+      <c r="X26" s="358">
+        <v>9672565</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="364">
+      <c r="A27" s="360">
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="366">
+      <c r="C27" s="362">
+        <v>5.7</v>
+      </c>
+      <c r="D27" s="364">
+        <v>6.7</v>
+      </c>
+      <c r="E27" s="366">
         <v>5.5</v>
       </c>
-      <c r="D27" s="368">
-        <v>6</v>
-      </c>
-      <c r="E27" s="370">
-        <v>5.4</v>
-      </c>
-      <c r="F27" s="372">
-        <v>5.7</v>
-      </c>
-      <c r="G27" s="374">
-        <v>17.9</v>
-      </c>
-      <c r="H27" s="376">
-        <v>4.7</v>
-      </c>
-      <c r="I27" s="378">
-        <v>47.9</v>
+      <c r="F27" s="368">
+        <v>6.2</v>
+      </c>
+      <c r="G27" s="370">
+        <v>17.1</v>
+      </c>
+      <c r="H27" s="372">
+        <v>5</v>
+      </c>
+      <c r="I27" s="374">
+        <v>47.7</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="380">
+      <c r="A28" s="376">
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C28" s="382">
+      <c r="C28" s="378">
         <v>5.5</v>
       </c>
-      <c r="D28" s="384">
-        <v>5.8</v>
-      </c>
-      <c r="E28" s="386">
+      <c r="D28" s="380">
+        <v>6</v>
+      </c>
+      <c r="E28" s="382">
         <v>5.4</v>
       </c>
-      <c r="F28" s="388">
-        <v>5.6</v>
-      </c>
-      <c r="G28" s="390">
+      <c r="F28" s="384">
+        <v>5.7</v>
+      </c>
+      <c r="G28" s="386">
         <v>17.9</v>
       </c>
-      <c r="H28" s="392">
+      <c r="H28" s="388">
         <v>4.7</v>
       </c>
-      <c r="I28" s="394">
-        <v>47.8</v>
+      <c r="I28" s="390">
+        <v>47.9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="396">
+      <c r="A29" s="392">
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="398">
-        <v>5.3</v>
-      </c>
-      <c r="D29" s="400">
+      <c r="C29" s="394">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="396">
+        <v>5.8</v>
+      </c>
+      <c r="E29" s="398">
         <v>5.4</v>
       </c>
-      <c r="E29" s="402">
-        <v>5.3</v>
-      </c>
-      <c r="F29" s="404">
-        <v>5.3</v>
-      </c>
-      <c r="G29" s="406">
-        <v>18.7</v>
-      </c>
-      <c r="H29" s="408">
-        <v>4.3</v>
-      </c>
-      <c r="I29" s="410">
-        <v>48</v>
+      <c r="F29" s="400">
+        <v>5.6</v>
+      </c>
+      <c r="G29" s="402">
+        <v>17.9</v>
+      </c>
+      <c r="H29" s="404">
+        <v>4.7</v>
+      </c>
+      <c r="I29" s="406">
+        <v>47.8</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="412">
+      <c r="A30" s="408">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="414">
+      <c r="C30" s="410">
+        <v>5.3</v>
+      </c>
+      <c r="D30" s="412">
         <v>5.4</v>
       </c>
-      <c r="D30" s="416">
-        <v>5.6</v>
-      </c>
-      <c r="E30" s="418">
+      <c r="E30" s="414">
         <v>5.3</v>
       </c>
-      <c r="F30" s="420">
-        <v>5.5</v>
-      </c>
-      <c r="G30" s="422">
-        <v>19.9</v>
-      </c>
-      <c r="H30" s="424">
+      <c r="F30" s="416">
+        <v>5.3</v>
+      </c>
+      <c r="G30" s="418">
+        <v>18.7</v>
+      </c>
+      <c r="H30" s="420">
         <v>4.3</v>
       </c>
-      <c r="I30" s="426">
+      <c r="I30" s="422">
         <v>48</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="428">
+      <c r="A31" s="424">
         <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C31" s="430">
+      <c r="C31" s="426">
+        <v>5.4</v>
+      </c>
+      <c r="D31" s="428">
+        <v>5.6</v>
+      </c>
+      <c r="E31" s="430">
+        <v>5.3</v>
+      </c>
+      <c r="F31" s="432">
         <v>5.5</v>
       </c>
-      <c r="D31" s="432">
-        <v>5.8</v>
-      </c>
-      <c r="E31" s="434">
-        <v>5.3</v>
-      </c>
-      <c r="F31" s="436">
-        <v>5.8</v>
-      </c>
-      <c r="G31" s="438">
-        <v>19.3</v>
-      </c>
-      <c r="H31" s="440">
-        <v>4.5</v>
-      </c>
-      <c r="I31" s="442">
-        <v>47.7</v>
+      <c r="G31" s="434">
+        <v>19.9</v>
+      </c>
+      <c r="H31" s="436">
+        <v>4.3</v>
+      </c>
+      <c r="I31" s="438">
+        <v>48</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="444">
+      <c r="A32" s="440">
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="446">
-        <v>5.9</v>
-      </c>
-      <c r="D32" s="448">
-        <v>6.9</v>
-      </c>
-      <c r="E32" s="450">
+      <c r="C32" s="442">
         <v>5.5</v>
       </c>
-      <c r="F32" s="452">
-        <v>6.6</v>
-      </c>
-      <c r="G32" s="454">
-        <v>18.4</v>
-      </c>
-      <c r="H32" s="456">
-        <v>5.1</v>
-      </c>
-      <c r="I32" s="458">
-        <v>47.2</v>
+      <c r="D32" s="444">
+        <v>5.8</v>
+      </c>
+      <c r="E32" s="446">
+        <v>5.3</v>
+      </c>
+      <c r="F32" s="448">
+        <v>5.8</v>
+      </c>
+      <c r="G32" s="450">
+        <v>19.3</v>
+      </c>
+      <c r="H32" s="452">
+        <v>4.5</v>
+      </c>
+      <c r="I32" s="454">
+        <v>47.7</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="460">
+      <c r="A33" s="456">
         <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C33" s="462">
-        <v>6.1</v>
-      </c>
-      <c r="D33" s="464">
-        <v>6.7</v>
-      </c>
-      <c r="E33" s="466">
-        <v>5.7</v>
-      </c>
-      <c r="F33" s="468">
+      <c r="C33" s="458">
+        <v>5.9</v>
+      </c>
+      <c r="D33" s="460">
         <v>6.9</v>
       </c>
-      <c r="G33" s="470">
-        <v>18.2</v>
-      </c>
-      <c r="H33" s="472">
-        <v>5.3</v>
-      </c>
-      <c r="I33" s="474">
-        <v>46.2</v>
+      <c r="E33" s="462">
+        <v>5.5</v>
+      </c>
+      <c r="F33" s="464">
+        <v>6.6</v>
+      </c>
+      <c r="G33" s="466">
+        <v>18.4</v>
+      </c>
+      <c r="H33" s="468">
+        <v>5.1</v>
+      </c>
+      <c r="I33" s="470">
+        <v>47.2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="476">
+      <c r="A34" s="472">
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="478">
-        <v>5.8</v>
-      </c>
-      <c r="D34" s="480">
-        <v>6</v>
-      </c>
-      <c r="E34" s="482">
-        <v>5.6</v>
-      </c>
-      <c r="F34" s="484">
-        <v>6.3</v>
-      </c>
-      <c r="G34" s="486">
-        <v>16</v>
-      </c>
-      <c r="H34" s="488">
-        <v>5.2</v>
-      </c>
-      <c r="I34" s="490">
-        <v>47.3</v>
+      <c r="C34" s="474">
+        <v>6.1</v>
+      </c>
+      <c r="D34" s="476">
+        <v>6.7</v>
+      </c>
+      <c r="E34" s="478">
+        <v>5.7</v>
+      </c>
+      <c r="F34" s="480">
+        <v>6.9</v>
+      </c>
+      <c r="G34" s="482">
+        <v>18.2</v>
+      </c>
+      <c r="H34" s="484">
+        <v>5.3</v>
+      </c>
+      <c r="I34" s="486">
+        <v>46.2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="492">
+      <c r="A35" s="488">
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="494">
-        <v>5.5</v>
-      </c>
-      <c r="D35" s="496">
-        <v>5.4</v>
-      </c>
-      <c r="E35" s="498">
-        <v>5.5</v>
-      </c>
-      <c r="F35" s="500">
+      <c r="C35" s="490">
+        <v>5.8</v>
+      </c>
+      <c r="D35" s="492">
+        <v>6</v>
+      </c>
+      <c r="E35" s="494">
         <v>5.6</v>
       </c>
-      <c r="G35" s="502">
-        <v>15.3</v>
-      </c>
-      <c r="H35" s="504">
-        <v>4.8</v>
-      </c>
-      <c r="I35" s="506">
-        <v>46.7</v>
+      <c r="F35" s="496">
+        <v>6.3</v>
+      </c>
+      <c r="G35" s="498">
+        <v>16</v>
+      </c>
+      <c r="H35" s="500">
+        <v>5.2</v>
+      </c>
+      <c r="I35" s="502">
+        <v>47.3</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="508">
+      <c r="A36" s="504">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="510">
-        <v>5.3</v>
-      </c>
-      <c r="E36" s="512">
+      <c r="C36" s="506">
+        <v>5.5</v>
+      </c>
+      <c r="D36" s="508">
         <v>5.4</v>
       </c>
-      <c r="F36" s="514">
-        <v>5.1</v>
-      </c>
-      <c r="G36" s="516">
+      <c r="E36" s="510">
+        <v>5.5</v>
+      </c>
+      <c r="F36" s="512">
+        <v>5.6</v>
+      </c>
+      <c r="G36" s="514">
         <v>15.3</v>
       </c>
-      <c r="H36" s="518">
-        <v>4.6</v>
-      </c>
-      <c r="I36" s="520">
-        <v>47.5</v>
+      <c r="H36" s="516">
+        <v>4.8</v>
+      </c>
+      <c r="I36" s="518">
+        <v>46.7</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="522">
+      <c r="A37" s="520">
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="524">
+      <c r="C37" s="522">
+        <v>5.3</v>
+      </c>
+      <c r="E37" s="524">
+        <v>5.4</v>
+      </c>
+      <c r="F37" s="526">
         <v>5.1</v>
       </c>
-      <c r="D37" s="526">
-        <v>5.1</v>
-      </c>
-      <c r="E37" s="528">
-        <v>5.1</v>
-      </c>
-      <c r="F37" s="530">
-        <v>4.9</v>
-      </c>
-      <c r="G37" s="532">
-        <v>14.3</v>
-      </c>
-      <c r="H37" s="534">
-        <v>4.4</v>
-      </c>
-      <c r="N37" s="536">
-        <v>141260</v>
-      </c>
-      <c r="O37" s="538">
-        <v>91425</v>
-      </c>
-      <c r="P37" s="540">
-        <v>49835</v>
-      </c>
-      <c r="Q37" s="542">
-        <v>48</v>
-      </c>
-      <c r="R37" s="544">
-        <v>1205</v>
-      </c>
-      <c r="S37" s="546">
-        <v>-1157</v>
-      </c>
-      <c r="T37" s="548">
-        <v>7.52</v>
-      </c>
-      <c r="U37" s="550">
-        <v>7.18</v>
-      </c>
-      <c r="V37" s="552">
-        <v>0.34</v>
-      </c>
-      <c r="W37" s="554">
-        <v>64.72</v>
-      </c>
-      <c r="X37" s="556">
-        <v>8265064</v>
+      <c r="G37" s="528">
+        <v>15.3</v>
+      </c>
+      <c r="H37" s="530">
+        <v>4.6</v>
+      </c>
+      <c r="I37" s="532">
+        <v>47.5</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="558">
+      <c r="A38" s="534">
         <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="560">
-        <v>5</v>
-      </c>
-      <c r="D38" s="562">
+      <c r="C38" s="536">
         <v>5.1</v>
       </c>
-      <c r="E38" s="564">
+      <c r="D38" s="538">
         <v>5.1</v>
       </c>
-      <c r="F38" s="566">
-        <v>4.8</v>
-      </c>
-      <c r="G38" s="568">
+      <c r="E38" s="540">
+        <v>5.1</v>
+      </c>
+      <c r="F38" s="542">
+        <v>4.9</v>
+      </c>
+      <c r="G38" s="544">
         <v>14.3</v>
       </c>
-      <c r="H38" s="570">
-        <v>4.3</v>
+      <c r="H38" s="546">
+        <v>4.4</v>
+      </c>
+      <c r="N38" s="548">
+        <v>141260</v>
+      </c>
+      <c r="O38" s="550">
+        <v>91425</v>
+      </c>
+      <c r="P38" s="552">
+        <v>49835</v>
+      </c>
+      <c r="Q38" s="554">
+        <v>48</v>
+      </c>
+      <c r="R38" s="556">
+        <v>1205</v>
+      </c>
+      <c r="S38" s="558">
+        <v>-1157</v>
+      </c>
+      <c r="T38" s="560">
+        <v>7.52</v>
+      </c>
+      <c r="U38" s="562">
+        <v>7.18</v>
+      </c>
+      <c r="V38" s="564">
+        <v>0.34</v>
+      </c>
+      <c r="W38" s="566">
+        <v>64.72</v>
+      </c>
+      <c r="X38" s="568">
+        <v>8265064</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="572">
+      <c r="A39" s="570">
         <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="574">
-        <v>4.9</v>
-      </c>
-      <c r="D39" s="576">
+      <c r="C39" s="572">
+        <v>5</v>
+      </c>
+      <c r="D39" s="574">
         <v>5.1</v>
       </c>
-      <c r="E39" s="578">
-        <v>4.9</v>
-      </c>
-      <c r="F39" s="580">
+      <c r="E39" s="576">
+        <v>5.1</v>
+      </c>
+      <c r="F39" s="578">
         <v>4.8</v>
       </c>
-      <c r="G39" s="582">
-        <v>14.2</v>
-      </c>
-      <c r="H39" s="584">
-        <v>4.2</v>
+      <c r="G39" s="580">
+        <v>14.3</v>
+      </c>
+      <c r="H39" s="582">
+        <v>4.3</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="586">
+      <c r="A40" s="584">
         <v>34</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="588">
+      <c r="C40" s="586">
         <v>4.9</v>
       </c>
-      <c r="D40" s="590">
-        <v>5</v>
-      </c>
-      <c r="E40" s="592">
-        <v>5</v>
-      </c>
-      <c r="F40" s="594">
+      <c r="D40" s="588">
+        <v>5.1</v>
+      </c>
+      <c r="E40" s="590">
+        <v>4.9</v>
+      </c>
+      <c r="F40" s="592">
         <v>4.8</v>
       </c>
-      <c r="G40" s="596">
-        <v>14.6</v>
-      </c>
-      <c r="H40" s="598">
+      <c r="G40" s="594">
+        <v>14.2</v>
+      </c>
+      <c r="H40" s="596">
         <v>4.2</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="600">
+      <c r="A41" s="598">
         <v>35</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="602">
-        <v>5.1</v>
-      </c>
-      <c r="D41" s="604">
-        <v>5.3</v>
-      </c>
-      <c r="E41" s="606">
-        <v>5.2</v>
-      </c>
-      <c r="F41" s="608">
+      <c r="C41" s="600">
+        <v>4.9</v>
+      </c>
+      <c r="D41" s="602">
         <v>5</v>
       </c>
-      <c r="G41" s="610">
-        <v>15.3</v>
-      </c>
-      <c r="H41" s="612">
-        <v>4.3</v>
+      <c r="E41" s="604">
+        <v>5</v>
+      </c>
+      <c r="F41" s="606">
+        <v>4.8</v>
+      </c>
+      <c r="G41" s="608">
+        <v>14.6</v>
+      </c>
+      <c r="H41" s="610">
+        <v>4.2</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="614">
+      <c r="A42" s="612">
         <v>36</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="616">
+      <c r="C42" s="614">
         <v>5.1</v>
       </c>
-      <c r="D42" s="618">
+      <c r="D42" s="616">
+        <v>5.3</v>
+      </c>
+      <c r="E42" s="618">
         <v>5.2</v>
       </c>
-      <c r="E42" s="620">
-        <v>5.1</v>
-      </c>
-      <c r="F42" s="622">
+      <c r="F42" s="620">
         <v>5</v>
       </c>
-      <c r="G42" s="624">
-        <v>16.2</v>
-      </c>
-      <c r="H42" s="626">
-        <v>4.2</v>
+      <c r="G42" s="622">
+        <v>15.3</v>
+      </c>
+      <c r="H42" s="624">
+        <v>4.3</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="628">
+      <c r="A43" s="626">
         <v>37</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="630">
+      <c r="C43" s="628">
+        <v>5.1</v>
+      </c>
+      <c r="D43" s="630">
+        <v>5.2</v>
+      </c>
+      <c r="E43" s="632">
+        <v>5.1</v>
+      </c>
+      <c r="F43" s="634">
         <v>5</v>
       </c>
-      <c r="D43" s="632">
-        <v>5.2</v>
-      </c>
-      <c r="E43" s="634">
-        <v>5</v>
-      </c>
-      <c r="F43" s="636">
-        <v>5.1</v>
-      </c>
-      <c r="G43" s="638">
-        <v>15.4</v>
-      </c>
-      <c r="H43" s="640">
+      <c r="G43" s="636">
+        <v>16.2</v>
+      </c>
+      <c r="H43" s="638">
         <v>4.2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="642">
+      <c r="A44" s="640">
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C44" s="644">
+      <c r="C44" s="642">
         <v>5</v>
       </c>
-      <c r="D44" s="646">
+      <c r="D44" s="644">
         <v>5.2</v>
       </c>
-      <c r="E44" s="648">
+      <c r="E44" s="646">
+        <v>5</v>
+      </c>
+      <c r="F44" s="648">
         <v>5.1</v>
       </c>
-      <c r="F44" s="650">
-        <v>5</v>
-      </c>
-      <c r="G44" s="652">
-        <v>13.8</v>
-      </c>
-      <c r="H44" s="654">
-        <v>4.4</v>
+      <c r="G44" s="650">
+        <v>15.4</v>
+      </c>
+      <c r="H44" s="652">
+        <v>4.2</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="656">
+      <c r="A45" s="654">
         <v>39</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="658">
+      <c r="C45" s="656">
+        <v>5</v>
+      </c>
+      <c r="D45" s="658">
+        <v>5.2</v>
+      </c>
+      <c r="E45" s="660">
         <v>5.1</v>
       </c>
-      <c r="D45" s="660">
-        <v>5.2</v>
-      </c>
-      <c r="E45" s="662">
-        <v>5.1</v>
-      </c>
-      <c r="F45" s="664">
-        <v>5.1</v>
-      </c>
-      <c r="G45" s="666">
-        <v>13.6</v>
-      </c>
-      <c r="H45" s="668">
-        <v>4.6</v>
+      <c r="F45" s="662">
+        <v>5</v>
+      </c>
+      <c r="G45" s="664">
+        <v>13.8</v>
+      </c>
+      <c r="H45" s="666">
+        <v>4.4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="670">
+      <c r="A46" s="668">
         <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="672">
-        <v>5.3</v>
-      </c>
-      <c r="D46" s="674">
-        <v>5.3</v>
-      </c>
-      <c r="E46" s="676">
-        <v>5.3</v>
-      </c>
-      <c r="F46" s="678">
-        <v>5.4</v>
-      </c>
-      <c r="G46" s="680">
+      <c r="C46" s="670">
+        <v>5.1</v>
+      </c>
+      <c r="D46" s="672">
+        <v>5.2</v>
+      </c>
+      <c r="E46" s="674">
+        <v>5.1</v>
+      </c>
+      <c r="F46" s="676">
+        <v>5.1</v>
+      </c>
+      <c r="G46" s="678">
         <v>13.6</v>
       </c>
-      <c r="H46" s="682">
-        <v>4.8</v>
+      <c r="H46" s="680">
+        <v>4.6</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="684">
+      <c r="A47" s="682">
         <v>41</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="686">
-        <v>5.5</v>
-      </c>
-      <c r="D47" s="688">
-        <v>5.5</v>
-      </c>
-      <c r="E47" s="690">
-        <v>5.7</v>
-      </c>
-      <c r="F47" s="692">
-        <v>5.2</v>
-      </c>
-      <c r="G47" s="694">
-        <v>13.1</v>
-      </c>
-      <c r="H47" s="696">
-        <v>5</v>
+      <c r="C47" s="684">
+        <v>5.3</v>
+      </c>
+      <c r="D47" s="686">
+        <v>5.3</v>
+      </c>
+      <c r="E47" s="688">
+        <v>5.3</v>
+      </c>
+      <c r="F47" s="690">
+        <v>5.4</v>
+      </c>
+      <c r="G47" s="692">
+        <v>13.6</v>
+      </c>
+      <c r="H47" s="694">
+        <v>4.8</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="698">
+      <c r="A48" s="696">
         <v>42</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C48" s="700">
-        <v>5.4</v>
-      </c>
-      <c r="D48" s="702">
-        <v>5.4</v>
-      </c>
-      <c r="E48" s="704">
-        <v>5.6</v>
-      </c>
-      <c r="F48" s="706">
-        <v>5.1</v>
-      </c>
-      <c r="G48" s="708">
-        <v>12.7</v>
-      </c>
-      <c r="H48" s="710">
-        <v>4.9</v>
+      <c r="C48" s="698">
+        <v>5.5</v>
+      </c>
+      <c r="D48" s="700">
+        <v>5.5</v>
+      </c>
+      <c r="E48" s="702">
+        <v>5.7</v>
+      </c>
+      <c r="F48" s="704">
+        <v>5.2</v>
+      </c>
+      <c r="G48" s="706">
+        <v>13.1</v>
+      </c>
+      <c r="H48" s="708">
+        <v>5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="712">
+      <c r="A49" s="710">
         <v>43</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="714">
-        <v>5.2</v>
-      </c>
-      <c r="D49" s="716">
+      <c r="C49" s="712">
+        <v>5.4</v>
+      </c>
+      <c r="D49" s="714">
+        <v>5.4</v>
+      </c>
+      <c r="E49" s="716">
+        <v>5.6</v>
+      </c>
+      <c r="F49" s="718">
         <v>5.1</v>
       </c>
-      <c r="G49" s="718">
-        <v>12.3</v>
-      </c>
-      <c r="H49" s="720">
-        <v>4.7</v>
-      </c>
-      <c r="N49" s="722">
-        <v>141212</v>
-      </c>
-      <c r="O49" s="724">
-        <v>90220</v>
-      </c>
-      <c r="P49" s="726">
-        <v>50992</v>
-      </c>
-      <c r="Q49" s="728">
-        <v>204</v>
-      </c>
-      <c r="T49" s="730">
-        <v>8.52</v>
-      </c>
-      <c r="U49" s="732">
-        <v>7.07</v>
-      </c>
-      <c r="V49" s="734">
-        <v>1.45</v>
-      </c>
-      <c r="W49" s="736">
-        <v>63.89</v>
-      </c>
-      <c r="X49" s="738">
-        <v>7971991</v>
+      <c r="G49" s="720">
+        <v>12.7</v>
+      </c>
+      <c r="H49" s="722">
+        <v>4.9</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="740">
+      <c r="A50" s="724">
         <v>44</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="742">
+      <c r="C50" s="726">
         <v>5.2</v>
       </c>
-      <c r="D50" s="744">
-        <v>5.2</v>
-      </c>
-      <c r="G50" s="746">
-        <v>12.8</v>
-      </c>
-      <c r="H50" s="748">
+      <c r="D50" s="728">
+        <v>5.1</v>
+      </c>
+      <c r="G50" s="730">
+        <v>12.3</v>
+      </c>
+      <c r="H50" s="732">
         <v>4.7</v>
       </c>
+      <c r="N50" s="734">
+        <v>141212</v>
+      </c>
+      <c r="O50" s="736">
+        <v>90220</v>
+      </c>
+      <c r="P50" s="738">
+        <v>50992</v>
+      </c>
+      <c r="Q50" s="740">
+        <v>204</v>
+      </c>
+      <c r="T50" s="742">
+        <v>8.52</v>
+      </c>
+      <c r="U50" s="744">
+        <v>7.07</v>
+      </c>
+      <c r="V50" s="746">
+        <v>1.45</v>
+      </c>
+      <c r="W50" s="748">
+        <v>63.89</v>
+      </c>
+      <c r="X50" s="750">
+        <v>7971991</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="750">
+      <c r="A51" s="752">
         <v>45</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="752">
-        <v>5.3</v>
-      </c>
-      <c r="D51" s="754">
-        <v>5.3</v>
-      </c>
-      <c r="G51" s="756">
-        <v>13.2</v>
-      </c>
-      <c r="H51" s="758">
-        <v>4.8</v>
+      <c r="C51" s="754">
+        <v>5.2</v>
+      </c>
+      <c r="D51" s="756">
+        <v>5.2</v>
+      </c>
+      <c r="G51" s="758">
+        <v>12.8</v>
+      </c>
+      <c r="H51" s="760">
+        <v>4.7</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="760">
+      <c r="A52" s="762">
         <v>46</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="762">
-        <v>5.4</v>
-      </c>
-      <c r="D52" s="764">
-        <v>5.5</v>
-      </c>
-      <c r="G52" s="766">
-        <v>15</v>
-      </c>
-      <c r="H52" s="768">
+      <c r="C52" s="764">
+        <v>5.3</v>
+      </c>
+      <c r="D52" s="766">
+        <v>5.3</v>
+      </c>
+      <c r="G52" s="768">
+        <v>13.2</v>
+      </c>
+      <c r="H52" s="770">
         <v>4.8</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="770">
+      <c r="A53" s="772">
         <v>47</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="772">
-        <v>5.6</v>
-      </c>
-      <c r="D53" s="774">
-        <v>5.7</v>
-      </c>
-      <c r="G53" s="776">
-        <v>16.8</v>
-      </c>
-      <c r="H53" s="778">
+      <c r="C53" s="774">
+        <v>5.4</v>
+      </c>
+      <c r="D53" s="776">
+        <v>5.5</v>
+      </c>
+      <c r="G53" s="778">
+        <v>15</v>
+      </c>
+      <c r="H53" s="780">
         <v>4.8</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="780">
+      <c r="A54" s="782">
         <v>48</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C54" s="782">
+      <c r="C54" s="784">
+        <v>5.6</v>
+      </c>
+      <c r="D54" s="786">
         <v>5.7</v>
       </c>
-      <c r="D54" s="784">
-        <v>5.8</v>
-      </c>
-      <c r="G54" s="786">
+      <c r="G54" s="788">
         <v>16.8</v>
       </c>
-      <c r="H54" s="788">
-        <v>5</v>
+      <c r="H54" s="790">
+        <v>4.8</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="790">
+      <c r="A55" s="792">
         <v>49</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="792">
+      <c r="C55" s="794">
         <v>5.7</v>
       </c>
-      <c r="D55" s="794">
+      <c r="D55" s="796">
         <v>5.8</v>
       </c>
-      <c r="G55" s="796">
-        <v>15.4</v>
-      </c>
-      <c r="H55" s="798">
-        <v>5.2</v>
+      <c r="G55" s="798">
+        <v>16.8</v>
+      </c>
+      <c r="H55" s="800">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="800">
+      <c r="A56" s="802">
         <v>50</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="802">
-        <v>5.9</v>
-      </c>
-      <c r="D56" s="804">
-        <v>5.9</v>
-      </c>
-      <c r="G56" s="806">
-        <v>14.8</v>
-      </c>
-      <c r="H56" s="808">
-        <v>5.4</v>
+      <c r="C56" s="804">
+        <v>5.7</v>
+      </c>
+      <c r="D56" s="806">
+        <v>5.8</v>
+      </c>
+      <c r="G56" s="808">
+        <v>15.4</v>
+      </c>
+      <c r="H56" s="810">
+        <v>5.2</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="810">
+      <c r="A57" s="812">
         <v>51</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C57" s="812">
-        <v>6</v>
-      </c>
-      <c r="D57" s="814">
-        <v>5.8</v>
-      </c>
-      <c r="G57" s="816">
-        <v>13.8</v>
-      </c>
-      <c r="H57" s="818">
-        <v>5.5</v>
+      <c r="C57" s="814">
+        <v>5.9</v>
+      </c>
+      <c r="D57" s="816">
+        <v>5.9</v>
+      </c>
+      <c r="G57" s="818">
+        <v>14.8</v>
+      </c>
+      <c r="H57" s="820">
+        <v>5.4</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="820">
+      <c r="A58" s="822">
         <v>52</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="822">
-        <v>5.9</v>
-      </c>
-      <c r="D58" s="824">
-        <v>5.7</v>
-      </c>
-      <c r="G58" s="826">
-        <v>13.3</v>
-      </c>
-      <c r="H58" s="828">
-        <v>5.4</v>
+      <c r="C58" s="824">
+        <v>6</v>
+      </c>
+      <c r="D58" s="826">
+        <v>5.8</v>
+      </c>
+      <c r="G58" s="828">
+        <v>13.8</v>
+      </c>
+      <c r="H58" s="830">
+        <v>5.5</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="830">
+      <c r="A59" s="832">
         <v>53</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="832">
-        <v>6.2</v>
-      </c>
-      <c r="D59" s="834">
+      <c r="C59" s="834">
+        <v>5.9</v>
+      </c>
+      <c r="D59" s="836">
         <v>5.7</v>
       </c>
-      <c r="G59" s="836">
-        <v>13.6</v>
-      </c>
-      <c r="H59" s="838">
-        <v>5.6</v>
+      <c r="G59" s="838">
+        <v>13.3</v>
+      </c>
+      <c r="H59" s="840">
+        <v>5.4</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="840">
+      <c r="A60" s="842">
         <v>54</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C60" s="842">
-        <v>5.3</v>
-      </c>
-      <c r="D60" s="844">
-        <v>5.2</v>
-      </c>
-      <c r="G60" s="846">
-        <v>12.5</v>
-      </c>
-      <c r="H60" s="848">
-        <v>4.7</v>
+      <c r="C60" s="844">
+        <v>6.2</v>
+      </c>
+      <c r="D60" s="846">
+        <v>5.7</v>
+      </c>
+      <c r="G60" s="848">
+        <v>13.6</v>
+      </c>
+      <c r="H60" s="850">
+        <v>5.6</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="850">
+      <c r="A61" s="852">
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C61" s="852">
+      <c r="C61" s="854">
+        <v>5.3</v>
+      </c>
+      <c r="D61" s="856">
         <v>5.2</v>
       </c>
-      <c r="D61" s="854">
-        <v>5.2</v>
-      </c>
-      <c r="G61" s="856">
-        <v>12.2</v>
-      </c>
-      <c r="H61" s="858">
+      <c r="G61" s="858">
+        <v>12.5</v>
+      </c>
+      <c r="H61" s="860">
         <v>4.7</v>
       </c>
-      <c r="N61" s="860">
-        <v>141008</v>
-      </c>
-      <c r="O61" s="862">
-        <v>88426</v>
-      </c>
-      <c r="P61" s="864">
-        <v>52582</v>
-      </c>
-      <c r="Q61" s="866">
-        <v>467</v>
-      </c>
-      <c r="R61" s="868">
-        <v>1706</v>
-      </c>
-      <c r="S61" s="870">
-        <v>-1239</v>
-      </c>
-      <c r="T61" s="872">
-        <v>10.41</v>
-      </c>
-      <c r="U61" s="874">
-        <v>7.09</v>
-      </c>
-      <c r="V61" s="876">
-        <v>3.32</v>
-      </c>
-      <c r="W61" s="878">
-        <v>60.6</v>
-      </c>
-      <c r="X61" s="880">
-        <v>7585298</v>
-      </c>
     </row>
     <row r="62">
-      <c r="A62" s="882">
+      <c r="A62" s="862">
         <v>56</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="884">
-        <v>5.1</v>
-      </c>
-      <c r="D62" s="886">
-        <v>5.1</v>
-      </c>
-      <c r="G62" s="888">
-        <v>12.5</v>
-      </c>
-      <c r="H62" s="890">
-        <v>4.6</v>
+      <c r="C62" s="864">
+        <v>5.2</v>
+      </c>
+      <c r="D62" s="866">
+        <v>5.2</v>
+      </c>
+      <c r="G62" s="868">
+        <v>12.2</v>
+      </c>
+      <c r="H62" s="870">
+        <v>4.7</v>
+      </c>
+      <c r="N62" s="872">
+        <v>141008</v>
+      </c>
+      <c r="O62" s="874">
+        <v>88426</v>
+      </c>
+      <c r="P62" s="876">
+        <v>52582</v>
+      </c>
+      <c r="Q62" s="878">
+        <v>467</v>
+      </c>
+      <c r="R62" s="880">
+        <v>1706</v>
+      </c>
+      <c r="S62" s="882">
+        <v>-1239</v>
+      </c>
+      <c r="T62" s="884">
+        <v>10.41</v>
+      </c>
+      <c r="U62" s="886">
+        <v>7.09</v>
+      </c>
+      <c r="V62" s="888">
+        <v>3.32</v>
+      </c>
+      <c r="W62" s="890">
+        <v>60.6</v>
+      </c>
+      <c r="X62" s="892">
+        <v>7585298</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="892">
+      <c r="A63" s="894">
         <v>57</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C63" s="894">
+      <c r="C63" s="896">
         <v>5.1</v>
       </c>
-      <c r="D63" s="896">
+      <c r="D63" s="898">
         <v>5.1</v>
       </c>
-      <c r="G63" s="898">
-        <v>12.4</v>
-      </c>
-      <c r="H63" s="900">
+      <c r="G63" s="900">
+        <v>12.5</v>
+      </c>
+      <c r="H63" s="902">
         <v>4.6</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="902">
+      <c r="A64" s="904">
         <v>58</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="904">
-        <v>5.2</v>
-      </c>
-      <c r="D64" s="906">
-        <v>5.2</v>
-      </c>
-      <c r="G64" s="908">
-        <v>13</v>
-      </c>
-      <c r="H64" s="910">
+      <c r="C64" s="906">
+        <v>5.1</v>
+      </c>
+      <c r="D64" s="908">
+        <v>5.1</v>
+      </c>
+      <c r="G64" s="910">
+        <v>12.4</v>
+      </c>
+      <c r="H64" s="912">
         <v>4.6</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="912">
+      <c r="A65" s="914">
         <v>59</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C65" s="914">
+      <c r="C65" s="916">
         <v>5.2</v>
       </c>
-      <c r="D65" s="916">
+      <c r="D65" s="918">
         <v>5.2</v>
       </c>
-      <c r="G65" s="918">
-        <v>13.1</v>
-      </c>
-      <c r="H65" s="920">
-        <v>4.5</v>
+      <c r="G65" s="920">
+        <v>13</v>
+      </c>
+      <c r="H65" s="922">
+        <v>4.6</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="922">
+      <c r="A66" s="924">
         <v>60</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C66" s="924">
-        <v>5.3</v>
-      </c>
-      <c r="D66" s="926">
+      <c r="C66" s="926">
         <v>5.2</v>
       </c>
-      <c r="G66" s="928">
-        <v>13.9</v>
-      </c>
-      <c r="H66" s="930">
-        <v>4.6</v>
+      <c r="D66" s="928">
+        <v>5.2</v>
+      </c>
+      <c r="G66" s="930">
+        <v>13.1</v>
+      </c>
+      <c r="H66" s="932">
+        <v>4.5</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="932">
+      <c r="A67" s="934">
         <v>61</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C67" s="934">
-        <v>5.1</v>
-      </c>
-      <c r="D67" s="936">
-        <v>5</v>
-      </c>
-      <c r="G67" s="938">
-        <v>11.6</v>
-      </c>
-      <c r="H67" s="940">
+      <c r="C67" s="936">
+        <v>5.3</v>
+      </c>
+      <c r="D67" s="938">
+        <v>5.2</v>
+      </c>
+      <c r="G67" s="940">
+        <v>13.9</v>
+      </c>
+      <c r="H67" s="942">
         <v>4.6</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="942">
+      <c r="A68" s="944">
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="944">
+      <c r="C68" s="946">
+        <v>5.1</v>
+      </c>
+      <c r="D68" s="948">
         <v>5</v>
       </c>
-      <c r="D68" s="946">
-        <v>5</v>
-      </c>
-      <c r="G68" s="948">
-        <v>10.5</v>
-      </c>
-      <c r="H68" s="950">
-        <v>4.5</v>
+      <c r="G68" s="950">
+        <v>11.6</v>
+      </c>
+      <c r="H68" s="952">
+        <v>4.6</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="952">
+      <c r="A69" s="954">
         <v>63</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C69" s="954">
+      <c r="C69" s="956">
         <v>5</v>
       </c>
-      <c r="D69" s="956">
+      <c r="D69" s="958">
         <v>5</v>
       </c>
-      <c r="G69" s="958">
-        <v>9.9</v>
-      </c>
-      <c r="H69" s="960">
-        <v>4.7</v>
+      <c r="G69" s="960">
+        <v>10.5</v>
+      </c>
+      <c r="H69" s="962">
+        <v>4.5</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="962">
+      <c r="A70" s="964">
         <v>64</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C70" s="964">
-        <v>5.2</v>
-      </c>
-      <c r="D70" s="966">
-        <v>5.1</v>
-      </c>
-      <c r="G70" s="968">
-        <v>11.3</v>
-      </c>
-      <c r="H70" s="970">
-        <v>4.8</v>
+      <c r="C70" s="966">
+        <v>5</v>
+      </c>
+      <c r="D70" s="968">
+        <v>5</v>
+      </c>
+      <c r="G70" s="970">
+        <v>9.9</v>
+      </c>
+      <c r="H70" s="972">
+        <v>4.7</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="972">
+      <c r="A71" s="974">
         <v>65</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C71" s="974">
-        <v>5.3</v>
-      </c>
-      <c r="D71" s="976">
-        <v>5</v>
-      </c>
-      <c r="G71" s="978">
-        <v>11</v>
-      </c>
-      <c r="H71" s="980">
-        <v>4.9</v>
+      <c r="C71" s="976">
+        <v>5.2</v>
+      </c>
+      <c r="D71" s="978">
+        <v>5.1</v>
+      </c>
+      <c r="G71" s="980">
+        <v>11.3</v>
+      </c>
+      <c r="H71" s="982">
+        <v>4.8</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="982">
+      <c r="A72" s="984">
         <v>66</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="984">
-        <v>5.1</v>
-      </c>
-      <c r="D72" s="986">
-        <v>4.8</v>
-      </c>
-      <c r="G72" s="988">
-        <v>11.2</v>
-      </c>
-      <c r="H72" s="990">
-        <v>4.6</v>
+      <c r="C72" s="986">
+        <v>5.3</v>
+      </c>
+      <c r="D72" s="988">
+        <v>5</v>
+      </c>
+      <c r="G72" s="990">
+        <v>11</v>
+      </c>
+      <c r="H72" s="992">
+        <v>4.9</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="992">
+      <c r="A73" s="994">
         <v>67</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C73" s="994">
-        <v>4.9</v>
-      </c>
-      <c r="D73" s="996">
-        <v>4.7</v>
-      </c>
-      <c r="G73" s="998">
-        <v>10.1</v>
-      </c>
-      <c r="H73" s="1000">
-        <v>4.4</v>
-      </c>
-      <c r="N73" s="1002">
-        <v>140541</v>
-      </c>
-      <c r="O73" s="1004">
-        <v>86433</v>
-      </c>
-      <c r="P73" s="1006">
-        <v>54108</v>
-      </c>
-      <c r="Q73" s="1008">
-        <v>530</v>
-      </c>
-      <c r="R73" s="1010">
-        <v>1790</v>
-      </c>
-      <c r="S73" s="1012">
-        <v>-1260</v>
-      </c>
-      <c r="T73" s="1014">
-        <v>10.86</v>
-      </c>
-      <c r="U73" s="1016">
-        <v>7.08</v>
-      </c>
-      <c r="V73" s="1018">
-        <v>3.78</v>
-      </c>
-      <c r="W73" s="1020">
-        <v>59.58</v>
-      </c>
-      <c r="X73" s="1022">
-        <v>7533087</v>
+      <c r="C73" s="996">
+        <v>5.1</v>
+      </c>
+      <c r="D73" s="998">
+        <v>4.8</v>
+      </c>
+      <c r="G73" s="1000">
+        <v>11.2</v>
+      </c>
+      <c r="H73" s="1002">
+        <v>4.6</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1024">
+      <c r="A74" s="1004">
         <v>68</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C74" s="1026">
-        <v>4.8</v>
-      </c>
-      <c r="D74" s="1028">
+      <c r="C74" s="1006">
+        <v>4.9</v>
+      </c>
+      <c r="D74" s="1008">
         <v>4.7</v>
       </c>
-      <c r="G74" s="1030">
-        <v>10</v>
-      </c>
-      <c r="H74" s="1032">
+      <c r="G74" s="1010">
+        <v>10.1</v>
+      </c>
+      <c r="H74" s="1012">
         <v>4.4</v>
       </c>
+      <c r="N74" s="1014">
+        <v>140541</v>
+      </c>
+      <c r="O74" s="1016">
+        <v>86433</v>
+      </c>
+      <c r="P74" s="1018">
+        <v>54108</v>
+      </c>
+      <c r="Q74" s="1020">
+        <v>530</v>
+      </c>
+      <c r="R74" s="1022">
+        <v>1790</v>
+      </c>
+      <c r="S74" s="1024">
+        <v>-1260</v>
+      </c>
+      <c r="T74" s="1026">
+        <v>10.86</v>
+      </c>
+      <c r="U74" s="1028">
+        <v>7.08</v>
+      </c>
+      <c r="V74" s="1030">
+        <v>3.78</v>
+      </c>
+      <c r="W74" s="1032">
+        <v>59.58</v>
+      </c>
+      <c r="X74" s="1034">
+        <v>7533087</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1034">
+      <c r="A75" s="1036">
         <v>69</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C75" s="1036">
-        <v>4.9</v>
-      </c>
-      <c r="D75" s="1038">
+      <c r="C75" s="1038">
+        <v>4.8</v>
+      </c>
+      <c r="D75" s="1040">
         <v>4.7</v>
       </c>
-      <c r="G75" s="1040">
-        <v>9.8</v>
-      </c>
-      <c r="H75" s="1042">
+      <c r="G75" s="1042">
+        <v>10</v>
+      </c>
+      <c r="H75" s="1044">
         <v>4.4</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1044">
+      <c r="A76" s="1046">
         <v>70</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="1046">
+      <c r="C76" s="1048">
         <v>4.9</v>
       </c>
-      <c r="D76" s="1048">
+      <c r="D76" s="1050">
         <v>4.7</v>
       </c>
-      <c r="G76" s="1050">
-        <v>11.2</v>
-      </c>
-      <c r="H76" s="1052">
-        <v>4.3</v>
+      <c r="G76" s="1052">
+        <v>9.8</v>
+      </c>
+      <c r="H76" s="1054">
+        <v>4.4</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1054">
+      <c r="A77" s="1056">
         <v>71</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C77" s="1056">
-        <v>5</v>
-      </c>
-      <c r="D77" s="1058">
+      <c r="C77" s="1058">
         <v>4.9</v>
       </c>
-      <c r="G77" s="1060">
-        <v>13.1</v>
-      </c>
-      <c r="H77" s="1062">
+      <c r="D77" s="1060">
+        <v>4.7</v>
+      </c>
+      <c r="G77" s="1062">
+        <v>11.2</v>
+      </c>
+      <c r="H77" s="1064">
         <v>4.3</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1064">
+      <c r="A78" s="1066">
         <v>72</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C78" s="1066">
-        <v>5.1</v>
-      </c>
-      <c r="D78" s="1068">
+      <c r="C78" s="1068">
         <v>5</v>
       </c>
-      <c r="G78" s="1070">
-        <v>13.3</v>
-      </c>
-      <c r="H78" s="1072">
-        <v>4.4</v>
+      <c r="D78" s="1070">
+        <v>4.9</v>
+      </c>
+      <c r="G78" s="1072">
+        <v>13.1</v>
+      </c>
+      <c r="H78" s="1074">
+        <v>4.3</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1074">
+      <c r="A79" s="1076">
         <v>73</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="1076">
-        <v>4.8</v>
-      </c>
-      <c r="D79" s="1078">
-        <v>4.7</v>
-      </c>
-      <c r="G79" s="1080">
-        <v>10</v>
-      </c>
-      <c r="H79" s="1082">
+      <c r="C79" s="1078">
+        <v>5.1</v>
+      </c>
+      <c r="D79" s="1080">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1082">
+        <v>13.3</v>
+      </c>
+      <c r="H79" s="1084">
         <v>4.4</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1084">
+      <c r="A80" s="1086">
         <v>74</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C80" s="1086">
+      <c r="C80" s="1088">
         <v>4.8</v>
       </c>
-      <c r="D80" s="1088">
+      <c r="D80" s="1090">
         <v>4.7</v>
       </c>
-      <c r="G80" s="1090">
-        <v>9.6</v>
-      </c>
-      <c r="H80" s="1092">
+      <c r="G80" s="1092">
+        <v>10</v>
+      </c>
+      <c r="H80" s="1094">
         <v>4.4</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1094">
+      <c r="A81" s="1096">
         <v>75</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C81" s="1096">
-        <v>4.9</v>
-      </c>
-      <c r="D81" s="1098">
+      <c r="C81" s="1098">
+        <v>4.8</v>
+      </c>
+      <c r="D81" s="1100">
         <v>4.7</v>
       </c>
-      <c r="G81" s="1100">
-        <v>10.1</v>
-      </c>
-      <c r="H81" s="1102">
+      <c r="G81" s="1102">
+        <v>9.6</v>
+      </c>
+      <c r="H81" s="1104">
         <v>4.4</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1104">
+      <c r="A82" s="1106">
         <v>76</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C82" s="1106">
-        <v>5.1</v>
-      </c>
-      <c r="D82" s="1108">
+      <c r="C82" s="1108">
         <v>4.9</v>
       </c>
-      <c r="G82" s="1110">
-        <v>10.4</v>
-      </c>
-      <c r="H82" s="1112">
-        <v>4.6</v>
+      <c r="D82" s="1110">
+        <v>4.7</v>
+      </c>
+      <c r="G82" s="1112">
+        <v>10.1</v>
+      </c>
+      <c r="H82" s="1114">
+        <v>4.4</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1114">
+      <c r="A83" s="1116">
         <v>77</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="1116">
-        <v>5</v>
-      </c>
-      <c r="D83" s="1118">
-        <v>4.8</v>
-      </c>
-      <c r="G83" s="1120">
-        <v>11</v>
-      </c>
-      <c r="H83" s="1122">
-        <v>4.5</v>
+      <c r="C83" s="1118">
+        <v>5.1</v>
+      </c>
+      <c r="D83" s="1120">
+        <v>4.9</v>
+      </c>
+      <c r="G83" s="1122">
+        <v>10.4</v>
+      </c>
+      <c r="H83" s="1124">
+        <v>4.6</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1124">
+      <c r="A84" s="1126">
         <v>78</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C84" s="1126">
+      <c r="C84" s="1128">
         <v>5</v>
       </c>
-      <c r="D84" s="1128">
-        <v>4.9</v>
-      </c>
-      <c r="G84" s="1130">
-        <v>11.2</v>
-      </c>
-      <c r="H84" s="1132">
-        <v>4.4</v>
+      <c r="D84" s="1130">
+        <v>4.8</v>
+      </c>
+      <c r="G84" s="1132">
+        <v>11</v>
+      </c>
+      <c r="H84" s="1134">
+        <v>4.5</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1134">
+      <c r="A85" s="1136">
         <v>79</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="1136">
+      <c r="C85" s="1138">
         <v>5</v>
       </c>
-      <c r="N85" s="1138">
-        <v>140011</v>
-      </c>
-      <c r="O85" s="1140">
-        <v>84343</v>
-      </c>
-      <c r="P85" s="1142">
-        <v>55668</v>
-      </c>
-      <c r="Q85" s="1144">
-        <v>737</v>
-      </c>
-      <c r="R85" s="1146">
-        <v>2049</v>
-      </c>
-      <c r="S85" s="1148">
-        <v>-1312</v>
-      </c>
-      <c r="T85" s="1150">
-        <v>12.64</v>
-      </c>
-      <c r="U85" s="1152">
-        <v>7.06</v>
-      </c>
-      <c r="V85" s="1154">
-        <v>5.58</v>
-      </c>
-      <c r="W85" s="1156">
-        <v>58.52</v>
-      </c>
-      <c r="X85" s="1158">
-        <v>7358287</v>
+      <c r="D85" s="1140">
+        <v>4.9</v>
+      </c>
+      <c r="G85" s="1142">
+        <v>11.2</v>
+      </c>
+      <c r="H85" s="1144">
+        <v>4.4</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1160">
+      <c r="A86" s="1146">
         <v>80</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C86" s="1162">
-        <v>4.9</v>
+      <c r="C86" s="1148">
+        <v>5</v>
+      </c>
+      <c r="N86" s="1150">
+        <v>140011</v>
+      </c>
+      <c r="O86" s="1152">
+        <v>84343</v>
+      </c>
+      <c r="P86" s="1154">
+        <v>55668</v>
+      </c>
+      <c r="Q86" s="1156">
+        <v>737</v>
+      </c>
+      <c r="R86" s="1158">
+        <v>2049</v>
+      </c>
+      <c r="S86" s="1160">
+        <v>-1312</v>
+      </c>
+      <c r="T86" s="1162">
+        <v>12.64</v>
+      </c>
+      <c r="U86" s="1164">
+        <v>7.06</v>
+      </c>
+      <c r="V86" s="1166">
+        <v>5.58</v>
+      </c>
+      <c r="W86" s="1168">
+        <v>58.52</v>
+      </c>
+      <c r="X86" s="1170">
+        <v>7358287</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1164">
+      <c r="A87" s="1172">
         <v>81</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C87" s="1166">
-        <v>5</v>
+      <c r="C87" s="1174">
+        <v>4.9</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1168">
+      <c r="A88" s="1176">
         <v>82</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C88" s="1170">
+      <c r="C88" s="1178">
         <v>5</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1172">
+      <c r="A89" s="1180">
         <v>83</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C89" s="1174">
+      <c r="C89" s="1182">
         <v>5</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1176">
+      <c r="A90" s="1184">
         <v>84</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="1178">
-        <v>5.1</v>
+      <c r="C90" s="1186">
+        <v>5</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1180">
+      <c r="A91" s="1188">
         <v>85</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C91" s="1182">
-        <v>5</v>
-      </c>
-      <c r="D91" s="1184">
-        <v>5</v>
+      <c r="C91" s="1190">
+        <v>5.1</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1186">
+      <c r="A92" s="1192">
         <v>86</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C92" s="1188">
+      <c r="C92" s="1194">
         <v>5</v>
       </c>
+      <c r="D92" s="1196">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1190">
+      <c r="A93" s="1198">
         <v>87</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C93" s="1192">
+      <c r="C93" s="1200">
         <v>5</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1194">
+      <c r="A94" s="1202">
         <v>88</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D94" s="1196">
+      <c r="C94" s="1204">
         <v>5</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1198">
+      <c r="A95" s="1206">
         <v>89</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C95" s="1200">
+      <c r="D95" s="1208">
         <v>5</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1202">
+      <c r="A96" s="1210">
         <v>90</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D96" s="1204">
-        <v>5.1</v>
-      </c>
-      <c r="N96" s="1206">
-        <v>139232</v>
-      </c>
-      <c r="O96" s="1208">
-        <v>81924</v>
-      </c>
-      <c r="P96" s="1210">
-        <v>57308</v>
-      </c>
-      <c r="Q96" s="1212">
-        <v>809</v>
-      </c>
-      <c r="R96" s="1214">
-        <v>2182</v>
-      </c>
-      <c r="S96" s="1216">
-        <v>-1373</v>
-      </c>
-      <c r="T96" s="1218">
-        <v>13.57</v>
-      </c>
-      <c r="U96" s="1220">
-        <v>7.04</v>
-      </c>
-      <c r="V96" s="1222">
-        <v>6.53</v>
-      </c>
-      <c r="W96" s="1224">
-        <v>57.35</v>
-      </c>
-      <c r="X96" s="1226">
-        <v>7041800</v>
+      <c r="C96" s="1212">
+        <v>5</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1228">
+      <c r="A97" s="1214">
         <v>91</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C97" s="1230">
-        <v>5</v>
+      <c r="D97" s="1216">
+        <v>5.1</v>
+      </c>
+      <c r="N97" s="1218">
+        <v>139232</v>
+      </c>
+      <c r="O97" s="1220">
+        <v>81924</v>
+      </c>
+      <c r="P97" s="1222">
+        <v>57308</v>
+      </c>
+      <c r="Q97" s="1224">
+        <v>809</v>
+      </c>
+      <c r="R97" s="1226">
+        <v>2182</v>
+      </c>
+      <c r="S97" s="1228">
+        <v>-1373</v>
+      </c>
+      <c r="T97" s="1230">
+        <v>13.57</v>
+      </c>
+      <c r="U97" s="1232">
+        <v>7.04</v>
+      </c>
+      <c r="V97" s="1234">
+        <v>6.53</v>
+      </c>
+      <c r="W97" s="1236">
+        <v>57.35</v>
+      </c>
+      <c r="X97" s="1238">
+        <v>7041800</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1232">
+      <c r="A98" s="1240">
         <v>92</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C98" s="1234">
+      <c r="C98" s="1242">
         <v>5</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1236">
+      <c r="A99" s="1244">
         <v>93</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C99" s="1238">
+      <c r="C99" s="1246">
         <v>5</v>
       </c>
-      <c r="D99" s="1240">
-        <v>5</v>
-      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1242">
+      <c r="A100" s="1248">
         <v>94</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C100" s="1244">
-        <v>5.1</v>
+      <c r="C100" s="1250">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1252">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1246">
+      <c r="A101" s="1254">
         <v>95</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="1248">
-        <v>5.2</v>
-      </c>
-      <c r="D101" s="1250">
-        <v>5.2</v>
+      <c r="C101" s="1256">
+        <v>5.1</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1252">
+      <c r="A102" s="1258">
         <v>96</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="1254">
-        <v>5.1</v>
+      <c r="C102" s="1260">
+        <v>5.2</v>
+      </c>
+      <c r="D102" s="1262">
+        <v>5.2</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1256">
+      <c r="A103" s="1264">
         <v>97</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C103" s="1258">
-        <v>5.12</v>
-      </c>
-      <c r="D103" s="1260">
-        <v>5.12</v>
+      <c r="C103" s="1266">
+        <v>5.1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1262">
+      <c r="A104" s="1268">
         <v>98</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C104" s="1264">
-        <v>5.1</v>
+      <c r="C104" s="1270">
+        <v>5.12</v>
+      </c>
+      <c r="D104" s="1272">
+        <v>5.12</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1266">
+      <c r="A105" s="1274">
         <v>99</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C105" s="1268">
-        <v>4.99</v>
+      <c r="C105" s="1276">
+        <v>5.1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1270">
+      <c r="A106" s="1278">
         <v>100</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="N106" s="1272">
-        <v>138326</v>
-      </c>
-      <c r="O106" s="1274">
-        <v>79302</v>
-      </c>
-      <c r="P106" s="1276">
-        <v>59024</v>
-      </c>
-      <c r="Q106" s="1278">
-        <v>680</v>
-      </c>
-      <c r="R106" s="1280">
-        <v>2200</v>
-      </c>
-      <c r="S106" s="1282">
-        <v>-1520</v>
-      </c>
-      <c r="T106" s="1284">
-        <v>11.99</v>
-      </c>
-      <c r="U106" s="1286">
-        <v>7.07</v>
-      </c>
-      <c r="V106" s="1288">
-        <v>4.93</v>
-      </c>
-      <c r="W106" s="1290">
-        <v>56.1</v>
-      </c>
-      <c r="X106" s="1292">
-        <v>6808866</v>
+      <c r="C106" s="1280">
+        <v>4.99</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1294">
+      <c r="A107" s="1282">
         <v>101</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D107" s="1296">
-        <v>5</v>
+      <c r="N107" s="1284">
+        <v>138326</v>
+      </c>
+      <c r="O107" s="1286">
+        <v>79302</v>
+      </c>
+      <c r="P107" s="1288">
+        <v>59024</v>
+      </c>
+      <c r="Q107" s="1290">
+        <v>680</v>
+      </c>
+      <c r="R107" s="1292">
+        <v>2200</v>
+      </c>
+      <c r="S107" s="1294">
+        <v>-1520</v>
+      </c>
+      <c r="T107" s="1296">
+        <v>11.99</v>
+      </c>
+      <c r="U107" s="1298">
+        <v>7.07</v>
+      </c>
+      <c r="V107" s="1300">
+        <v>4.93</v>
+      </c>
+      <c r="W107" s="1302">
+        <v>56.1</v>
+      </c>
+      <c r="X107" s="1304">
+        <v>6808866</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1298">
+      <c r="A108" s="1306">
         <v>102</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D108" s="1300">
-        <v>5.1</v>
+      <c r="D108" s="1308">
+        <v>5</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1302">
+      <c r="A109" s="1310">
         <v>103</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D109" s="1304">
+      <c r="D109" s="1312">
         <v>5.1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1306">
+      <c r="A110" s="1314">
         <v>104</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="N110" s="1308">
-        <v>137646</v>
-      </c>
-      <c r="O110" s="1310">
-        <v>76738</v>
-      </c>
-      <c r="P110" s="1312">
-        <v>60908</v>
-      </c>
-      <c r="Q110" s="1314">
-        <v>710</v>
-      </c>
-      <c r="R110" s="1316">
-        <v>1805</v>
-      </c>
-      <c r="S110" s="1318">
-        <v>-1095</v>
-      </c>
-      <c r="T110" s="1320">
-        <v>13.83</v>
-      </c>
-      <c r="U110" s="1322">
-        <v>7.12</v>
-      </c>
-      <c r="V110" s="1324">
-        <v>6.71</v>
-      </c>
-      <c r="W110" s="1326">
-        <v>54.77</v>
-      </c>
-      <c r="X110" s="1328">
-        <v>6593671</v>
+      <c r="D110" s="1316">
+        <v>5.1</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1330">
+      <c r="A111" s="1318">
         <v>105</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="N111" s="1332">
-        <v>136726</v>
-      </c>
-      <c r="O111" s="1334">
-        <v>74502</v>
-      </c>
-      <c r="P111" s="1336">
-        <v>62224</v>
-      </c>
-      <c r="Q111" s="1338">
-        <v>668</v>
-      </c>
-      <c r="R111" s="1340">
-        <v>1929</v>
-      </c>
-      <c r="S111" s="1342">
-        <v>-1261</v>
-      </c>
-      <c r="T111" s="1344">
-        <v>13.03</v>
-      </c>
-      <c r="U111" s="1346">
-        <v>7.13</v>
-      </c>
-      <c r="V111" s="1348">
-        <v>5.9</v>
-      </c>
-      <c r="W111" s="1350">
-        <v>53.7</v>
-      </c>
-      <c r="X111" s="1352">
-        <v>6387210</v>
+      <c r="N111" s="1320">
+        <v>137646</v>
+      </c>
+      <c r="O111" s="1322">
+        <v>76738</v>
+      </c>
+      <c r="P111" s="1324">
+        <v>60908</v>
+      </c>
+      <c r="Q111" s="1326">
+        <v>710</v>
+      </c>
+      <c r="R111" s="1328">
+        <v>1805</v>
+      </c>
+      <c r="S111" s="1330">
+        <v>-1095</v>
+      </c>
+      <c r="T111" s="1332">
+        <v>13.83</v>
+      </c>
+      <c r="U111" s="1334">
+        <v>7.12</v>
+      </c>
+      <c r="V111" s="1336">
+        <v>6.71</v>
+      </c>
+      <c r="W111" s="1338">
+        <v>54.77</v>
+      </c>
+      <c r="X111" s="1340">
+        <v>6593671</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1354">
+      <c r="A112" s="1342">
         <v>106</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="N112" s="1356">
-        <v>135922</v>
-      </c>
-      <c r="O112" s="1358">
-        <v>72175</v>
-      </c>
-      <c r="P112" s="1360">
-        <v>63747</v>
-      </c>
-      <c r="Q112" s="1362">
-        <v>669</v>
-      </c>
-      <c r="R112" s="1364">
-        <v>2103</v>
-      </c>
-      <c r="S112" s="1366">
-        <v>-1434</v>
-      </c>
-      <c r="T112" s="1368">
-        <v>14.57</v>
-      </c>
-      <c r="U112" s="1370">
+      <c r="N112" s="1344">
+        <v>136726</v>
+      </c>
+      <c r="O112" s="1346">
+        <v>74502</v>
+      </c>
+      <c r="P112" s="1348">
+        <v>62224</v>
+      </c>
+      <c r="Q112" s="1350">
+        <v>668</v>
+      </c>
+      <c r="R112" s="1352">
+        <v>1929</v>
+      </c>
+      <c r="S112" s="1354">
+        <v>-1261</v>
+      </c>
+      <c r="T112" s="1356">
+        <v>13.03</v>
+      </c>
+      <c r="U112" s="1358">
         <v>7.13</v>
       </c>
-      <c r="V112" s="1372">
-        <v>7.43</v>
-      </c>
-      <c r="W112" s="1374">
-        <v>52.57</v>
-      </c>
-      <c r="X112" s="1376">
-        <v>6247338</v>
+      <c r="V112" s="1360">
+        <v>5.9</v>
+      </c>
+      <c r="W112" s="1362">
+        <v>53.7</v>
+      </c>
+      <c r="X112" s="1364">
+        <v>6387210</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1378">
+      <c r="A113" s="1366">
         <v>107</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N113" s="1380">
-        <v>134916</v>
-      </c>
-      <c r="O113" s="1382">
-        <v>69927</v>
-      </c>
-      <c r="P113" s="1384">
-        <v>64989</v>
-      </c>
-      <c r="Q113" s="1386">
-        <v>644</v>
-      </c>
-      <c r="R113" s="1388">
-        <v>2100</v>
-      </c>
-      <c r="S113" s="1390">
-        <v>-1456</v>
-      </c>
-      <c r="T113" s="1392">
-        <v>13.27</v>
-      </c>
-      <c r="U113" s="1394">
-        <v>7.14</v>
-      </c>
-      <c r="V113" s="1396">
-        <v>6.13</v>
-      </c>
-      <c r="W113" s="1398">
-        <v>51.27</v>
-      </c>
-      <c r="X113" s="1400">
-        <v>6081565</v>
+      <c r="N113" s="1368">
+        <v>135922</v>
+      </c>
+      <c r="O113" s="1370">
+        <v>72175</v>
+      </c>
+      <c r="P113" s="1372">
+        <v>63747</v>
+      </c>
+      <c r="Q113" s="1374">
+        <v>669</v>
+      </c>
+      <c r="R113" s="1376">
+        <v>2103</v>
+      </c>
+      <c r="S113" s="1378">
+        <v>-1434</v>
+      </c>
+      <c r="T113" s="1380">
+        <v>14.57</v>
+      </c>
+      <c r="U113" s="1382">
+        <v>7.13</v>
+      </c>
+      <c r="V113" s="1384">
+        <v>7.43</v>
+      </c>
+      <c r="W113" s="1386">
+        <v>52.57</v>
+      </c>
+      <c r="X113" s="1388">
+        <v>6247338</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1402">
+      <c r="A114" s="1390">
         <v>108</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N114" s="1404">
-        <v>134091</v>
-      </c>
-      <c r="O114" s="1406">
-        <v>66978</v>
-      </c>
-      <c r="P114" s="1408">
-        <v>67113</v>
-      </c>
-      <c r="Q114" s="1410">
-        <v>649</v>
-      </c>
-      <c r="T114" s="1412">
-        <v>11.9</v>
-      </c>
-      <c r="U114" s="1414">
-        <v>7.11</v>
-      </c>
-      <c r="V114" s="1416">
-        <v>4.79</v>
-      </c>
-      <c r="W114" s="1418">
-        <v>49.95</v>
-      </c>
-      <c r="X114" s="1420">
-        <v>5754245</v>
+      <c r="N114" s="1392">
+        <v>134916</v>
+      </c>
+      <c r="O114" s="1394">
+        <v>69927</v>
+      </c>
+      <c r="P114" s="1396">
+        <v>64989</v>
+      </c>
+      <c r="Q114" s="1398">
+        <v>644</v>
+      </c>
+      <c r="R114" s="1400">
+        <v>2100</v>
+      </c>
+      <c r="S114" s="1402">
+        <v>-1456</v>
+      </c>
+      <c r="T114" s="1404">
+        <v>13.27</v>
+      </c>
+      <c r="U114" s="1406">
+        <v>7.14</v>
+      </c>
+      <c r="V114" s="1408">
+        <v>6.13</v>
+      </c>
+      <c r="W114" s="1410">
+        <v>51.27</v>
+      </c>
+      <c r="X114" s="1412">
+        <v>6081565</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1422">
+      <c r="A115" s="1414">
         <v>109</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="N115" s="1424">
-        <v>133450</v>
-      </c>
-      <c r="O115" s="1426">
-        <v>64512</v>
-      </c>
-      <c r="P115" s="1428">
-        <v>68938</v>
-      </c>
-      <c r="Q115" s="1430">
-        <v>672</v>
-      </c>
-      <c r="T115" s="1432">
-        <v>11.95</v>
-      </c>
-      <c r="U115" s="1434">
-        <v>7.08</v>
-      </c>
-      <c r="V115" s="1436">
-        <v>4.87</v>
-      </c>
-      <c r="W115" s="1438">
-        <v>48.34</v>
-      </c>
-      <c r="X115" s="1440">
-        <v>5311023</v>
+      <c r="N115" s="1416">
+        <v>134091</v>
+      </c>
+      <c r="O115" s="1418">
+        <v>66978</v>
+      </c>
+      <c r="P115" s="1420">
+        <v>67113</v>
+      </c>
+      <c r="Q115" s="1422">
+        <v>649</v>
+      </c>
+      <c r="T115" s="1424">
+        <v>11.9</v>
+      </c>
+      <c r="U115" s="1426">
+        <v>7.11</v>
+      </c>
+      <c r="V115" s="1428">
+        <v>4.79</v>
+      </c>
+      <c r="W115" s="1430">
+        <v>49.95</v>
+      </c>
+      <c r="X115" s="1432">
+        <v>5754245</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1442">
+      <c r="A116" s="1434">
         <v>110</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N116" s="1444">
-        <v>132802</v>
-      </c>
-      <c r="O116" s="1446">
-        <v>62403</v>
-      </c>
-      <c r="P116" s="1448">
-        <v>70399</v>
-      </c>
-      <c r="Q116" s="1450">
-        <v>673</v>
-      </c>
-      <c r="T116" s="1452">
-        <v>12.14</v>
-      </c>
-      <c r="U116" s="1454">
-        <v>7.06</v>
-      </c>
-      <c r="V116" s="1456">
-        <v>5.08</v>
-      </c>
-      <c r="W116" s="1458">
-        <v>46.99</v>
-      </c>
-      <c r="X116" s="1460">
-        <v>5119498</v>
+      <c r="N116" s="1436">
+        <v>133450</v>
+      </c>
+      <c r="O116" s="1438">
+        <v>64512</v>
+      </c>
+      <c r="P116" s="1440">
+        <v>68938</v>
+      </c>
+      <c r="Q116" s="1442">
+        <v>672</v>
+      </c>
+      <c r="T116" s="1444">
+        <v>11.95</v>
+      </c>
+      <c r="U116" s="1446">
+        <v>7.08</v>
+      </c>
+      <c r="V116" s="1448">
+        <v>4.87</v>
+      </c>
+      <c r="W116" s="1450">
+        <v>48.34</v>
+      </c>
+      <c r="X116" s="1452">
+        <v>5311023</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1462">
+      <c r="A117" s="1454">
         <v>111</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="N117" s="1464">
-        <v>132129</v>
-      </c>
-      <c r="O117" s="1466">
-        <v>60633</v>
-      </c>
-      <c r="P117" s="1468">
-        <v>71496</v>
-      </c>
-      <c r="Q117" s="1470">
-        <v>681</v>
-      </c>
-      <c r="T117" s="1472">
-        <v>12.1</v>
-      </c>
-      <c r="U117" s="1474">
-        <v>6.93</v>
-      </c>
-      <c r="V117" s="1476">
-        <v>5.17</v>
-      </c>
-      <c r="W117" s="1478">
-        <v>45.89</v>
-      </c>
-      <c r="X117" s="1480">
-        <v>4477907</v>
+      <c r="N117" s="1456">
+        <v>132802</v>
+      </c>
+      <c r="O117" s="1458">
+        <v>62403</v>
+      </c>
+      <c r="P117" s="1460">
+        <v>70399</v>
+      </c>
+      <c r="Q117" s="1462">
+        <v>673</v>
+      </c>
+      <c r="T117" s="1464">
+        <v>12.14</v>
+      </c>
+      <c r="U117" s="1466">
+        <v>7.06</v>
+      </c>
+      <c r="V117" s="1468">
+        <v>5.08</v>
+      </c>
+      <c r="W117" s="1470">
+        <v>46.99</v>
+      </c>
+      <c r="X117" s="1472">
+        <v>5119498</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1482">
+      <c r="A118" s="1474">
         <v>112</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N118" s="1484">
-        <v>131448</v>
-      </c>
-      <c r="O118" s="1486">
-        <v>58288</v>
-      </c>
-      <c r="P118" s="1488">
-        <v>73160</v>
-      </c>
-      <c r="Q118" s="1490">
-        <v>692</v>
-      </c>
-      <c r="T118" s="1492">
-        <v>12.09</v>
-      </c>
-      <c r="U118" s="1494">
-        <v>6.81</v>
-      </c>
-      <c r="V118" s="1496">
-        <v>5.28</v>
-      </c>
-      <c r="W118" s="1498">
-        <v>44.34</v>
-      </c>
-      <c r="X118" s="1500">
-        <v>3774708</v>
+      <c r="N118" s="1476">
+        <v>132129</v>
+      </c>
+      <c r="O118" s="1478">
+        <v>60633</v>
+      </c>
+      <c r="P118" s="1480">
+        <v>71496</v>
+      </c>
+      <c r="Q118" s="1482">
+        <v>681</v>
+      </c>
+      <c r="T118" s="1484">
+        <v>12.1</v>
+      </c>
+      <c r="U118" s="1486">
+        <v>6.93</v>
+      </c>
+      <c r="V118" s="1488">
+        <v>5.17</v>
+      </c>
+      <c r="W118" s="1490">
+        <v>45.89</v>
+      </c>
+      <c r="X118" s="1492">
+        <v>4477907</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1502">
+      <c r="A119" s="1494">
         <v>113</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N119" s="1504">
-        <v>130756</v>
-      </c>
-      <c r="O119" s="1506">
-        <v>56212</v>
-      </c>
-      <c r="P119" s="1508">
-        <v>74544</v>
-      </c>
-      <c r="Q119" s="1510">
-        <v>768</v>
-      </c>
-      <c r="T119" s="1512">
-        <v>12.4</v>
-      </c>
-      <c r="U119" s="1514">
-        <v>6.51</v>
-      </c>
-      <c r="V119" s="1516">
-        <v>5.89</v>
-      </c>
-      <c r="W119" s="1518">
-        <v>42.99</v>
-      </c>
-      <c r="X119" s="1520">
-        <v>3067956</v>
+      <c r="N119" s="1496">
+        <v>131448</v>
+      </c>
+      <c r="O119" s="1498">
+        <v>58288</v>
+      </c>
+      <c r="P119" s="1500">
+        <v>73160</v>
+      </c>
+      <c r="Q119" s="1502">
+        <v>692</v>
+      </c>
+      <c r="T119" s="1504">
+        <v>12.09</v>
+      </c>
+      <c r="U119" s="1506">
+        <v>6.81</v>
+      </c>
+      <c r="V119" s="1508">
+        <v>5.28</v>
+      </c>
+      <c r="W119" s="1510">
+        <v>44.34</v>
+      </c>
+      <c r="X119" s="1512">
+        <v>3774708</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1522">
+      <c r="A120" s="1514">
         <v>114</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N120" s="1524">
-        <v>129988</v>
-      </c>
-      <c r="O120" s="1526">
-        <v>54283</v>
-      </c>
-      <c r="P120" s="1528">
-        <v>75705</v>
-      </c>
-      <c r="Q120" s="1530">
-        <v>761</v>
-      </c>
-      <c r="T120" s="1532">
-        <v>12.29</v>
-      </c>
-      <c r="U120" s="1534">
-        <v>6.42</v>
-      </c>
-      <c r="V120" s="1536">
-        <v>5.87</v>
-      </c>
-      <c r="W120" s="1538">
-        <v>41.76</v>
-      </c>
-      <c r="X120" s="1540">
-        <v>2391200</v>
+      <c r="N120" s="1516">
+        <v>130756</v>
+      </c>
+      <c r="O120" s="1518">
+        <v>56212</v>
+      </c>
+      <c r="P120" s="1520">
+        <v>74544</v>
+      </c>
+      <c r="Q120" s="1522">
+        <v>768</v>
+      </c>
+      <c r="T120" s="1524">
+        <v>12.4</v>
+      </c>
+      <c r="U120" s="1526">
+        <v>6.51</v>
+      </c>
+      <c r="V120" s="1528">
+        <v>5.89</v>
+      </c>
+      <c r="W120" s="1530">
+        <v>42.99</v>
+      </c>
+      <c r="X120" s="1532">
+        <v>3067956</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1542">
+      <c r="A121" s="1534">
         <v>115</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N121" s="1544">
-        <v>129227</v>
-      </c>
-      <c r="O121" s="1546">
-        <v>52376</v>
-      </c>
-      <c r="P121" s="1548">
-        <v>76851</v>
-      </c>
-      <c r="Q121" s="1550">
-        <v>774</v>
-      </c>
-      <c r="T121" s="1552">
-        <v>12.41</v>
-      </c>
-      <c r="U121" s="1554">
-        <v>6.4</v>
-      </c>
-      <c r="V121" s="1556">
-        <v>6.01</v>
-      </c>
-      <c r="W121" s="1558">
-        <v>40.53</v>
-      </c>
-      <c r="X121" s="1560">
-        <v>1877000</v>
+      <c r="N121" s="1536">
+        <v>129988</v>
+      </c>
+      <c r="O121" s="1538">
+        <v>54283</v>
+      </c>
+      <c r="P121" s="1540">
+        <v>75705</v>
+      </c>
+      <c r="Q121" s="1542">
+        <v>761</v>
+      </c>
+      <c r="T121" s="1544">
+        <v>12.29</v>
+      </c>
+      <c r="U121" s="1546">
+        <v>6.42</v>
+      </c>
+      <c r="V121" s="1548">
+        <v>5.87</v>
+      </c>
+      <c r="W121" s="1550">
+        <v>41.76</v>
+      </c>
+      <c r="X121" s="1552">
+        <v>2391200</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1562">
+      <c r="A122" s="1554">
         <v>116</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="N122" s="1564">
-        <v>128453</v>
-      </c>
-      <c r="O122" s="1566">
-        <v>50212</v>
-      </c>
-      <c r="P122" s="1568">
-        <v>78241</v>
-      </c>
-      <c r="Q122" s="1570">
-        <v>826</v>
-      </c>
-      <c r="T122" s="1572">
-        <v>12.86</v>
-      </c>
-      <c r="U122" s="1574">
-        <v>6.41</v>
-      </c>
-      <c r="V122" s="1576">
-        <v>6.45</v>
-      </c>
-      <c r="W122" s="1578">
-        <v>39.09</v>
-      </c>
-      <c r="X122" s="1580">
-        <v>1337300</v>
+      <c r="N122" s="1556">
+        <v>129227</v>
+      </c>
+      <c r="O122" s="1558">
+        <v>52376</v>
+      </c>
+      <c r="P122" s="1560">
+        <v>76851</v>
+      </c>
+      <c r="Q122" s="1562">
+        <v>774</v>
+      </c>
+      <c r="T122" s="1564">
+        <v>12.41</v>
+      </c>
+      <c r="U122" s="1566">
+        <v>6.4</v>
+      </c>
+      <c r="V122" s="1568">
+        <v>6.01</v>
+      </c>
+      <c r="W122" s="1570">
+        <v>40.53</v>
+      </c>
+      <c r="X122" s="1572">
+        <v>1877000</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1582">
+      <c r="A123" s="1574">
         <v>117</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N123" s="1584">
-        <v>127627</v>
-      </c>
-      <c r="O123" s="1586">
-        <v>48064</v>
-      </c>
-      <c r="P123" s="1588">
-        <v>79563</v>
-      </c>
-      <c r="Q123" s="1590">
-        <v>884</v>
-      </c>
-      <c r="T123" s="1592">
-        <v>13.38</v>
-      </c>
-      <c r="U123" s="1594">
-        <v>6.43</v>
-      </c>
-      <c r="V123" s="1596">
-        <v>6.95</v>
-      </c>
-      <c r="W123" s="1598">
-        <v>37.66</v>
-      </c>
-      <c r="X123" s="1600">
-        <v>1036300</v>
+      <c r="N123" s="1576">
+        <v>128453</v>
+      </c>
+      <c r="O123" s="1578">
+        <v>50212</v>
+      </c>
+      <c r="P123" s="1580">
+        <v>78241</v>
+      </c>
+      <c r="Q123" s="1582">
+        <v>826</v>
+      </c>
+      <c r="T123" s="1584">
+        <v>12.86</v>
+      </c>
+      <c r="U123" s="1586">
+        <v>6.41</v>
+      </c>
+      <c r="V123" s="1588">
+        <v>6.45</v>
+      </c>
+      <c r="W123" s="1590">
+        <v>39.09</v>
+      </c>
+      <c r="X123" s="1592">
+        <v>1337300</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1602">
+      <c r="A124" s="1594">
         <v>118</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N124" s="1604">
-        <v>126743</v>
-      </c>
-      <c r="O124" s="1606">
-        <v>45906</v>
-      </c>
-      <c r="P124" s="1608">
-        <v>80837</v>
-      </c>
-      <c r="Q124" s="1610">
-        <v>961</v>
-      </c>
-      <c r="T124" s="1612">
-        <v>14.03</v>
-      </c>
-      <c r="U124" s="1614">
-        <v>6.45</v>
-      </c>
-      <c r="V124" s="1616">
-        <v>7.58</v>
-      </c>
-      <c r="W124" s="1618">
-        <v>36.22</v>
-      </c>
-      <c r="X124" s="1620">
-        <v>949800</v>
+      <c r="N124" s="1596">
+        <v>127627</v>
+      </c>
+      <c r="O124" s="1598">
+        <v>48064</v>
+      </c>
+      <c r="P124" s="1600">
+        <v>79563</v>
+      </c>
+      <c r="Q124" s="1602">
+        <v>884</v>
+      </c>
+      <c r="T124" s="1604">
+        <v>13.38</v>
+      </c>
+      <c r="U124" s="1606">
+        <v>6.43</v>
+      </c>
+      <c r="V124" s="1608">
+        <v>6.95</v>
+      </c>
+      <c r="W124" s="1610">
+        <v>37.66</v>
+      </c>
+      <c r="X124" s="1612">
+        <v>1036300</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1622">
+      <c r="A125" s="1614">
         <v>119</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="N125" s="1624">
-        <v>125786</v>
-      </c>
-      <c r="O125" s="1626">
-        <v>43748</v>
-      </c>
-      <c r="P125" s="1628">
-        <v>82038</v>
-      </c>
-      <c r="Q125" s="1630">
-        <v>1099</v>
-      </c>
-      <c r="T125" s="1632">
-        <v>14.64</v>
-      </c>
-      <c r="U125" s="1634">
-        <v>6.46</v>
-      </c>
-      <c r="V125" s="1636">
-        <v>8.18</v>
-      </c>
-      <c r="W125" s="1638">
-        <v>34.78</v>
-      </c>
-      <c r="X125" s="1640">
-        <v>847600</v>
+      <c r="N125" s="1616">
+        <v>126743</v>
+      </c>
+      <c r="O125" s="1618">
+        <v>45906</v>
+      </c>
+      <c r="P125" s="1620">
+        <v>80837</v>
+      </c>
+      <c r="Q125" s="1622">
+        <v>961</v>
+      </c>
+      <c r="T125" s="1624">
+        <v>14.03</v>
+      </c>
+      <c r="U125" s="1626">
+        <v>6.45</v>
+      </c>
+      <c r="V125" s="1628">
+        <v>7.58</v>
+      </c>
+      <c r="W125" s="1630">
+        <v>36.22</v>
+      </c>
+      <c r="X125" s="1632">
+        <v>949800</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1642">
+      <c r="A126" s="1634">
         <v>120</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="N126" s="1644">
-        <v>124761</v>
-      </c>
-      <c r="O126" s="1646">
-        <v>41608</v>
-      </c>
-      <c r="P126" s="1648">
-        <v>83153</v>
-      </c>
-      <c r="Q126" s="1650">
-        <v>1184</v>
-      </c>
-      <c r="T126" s="1652">
-        <v>15.64</v>
-      </c>
-      <c r="U126" s="1654">
-        <v>6.5</v>
-      </c>
-      <c r="V126" s="1656">
-        <v>9.14</v>
-      </c>
-      <c r="W126" s="1658">
-        <v>33.35</v>
-      </c>
-      <c r="X126" s="1660">
-        <v>830000</v>
+      <c r="N126" s="1636">
+        <v>125786</v>
+      </c>
+      <c r="O126" s="1638">
+        <v>43748</v>
+      </c>
+      <c r="P126" s="1640">
+        <v>82038</v>
+      </c>
+      <c r="Q126" s="1642">
+        <v>1099</v>
+      </c>
+      <c r="T126" s="1644">
+        <v>14.64</v>
+      </c>
+      <c r="U126" s="1646">
+        <v>6.46</v>
+      </c>
+      <c r="V126" s="1648">
+        <v>8.18</v>
+      </c>
+      <c r="W126" s="1650">
+        <v>34.78</v>
+      </c>
+      <c r="X126" s="1652">
+        <v>847600</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1662">
+      <c r="A127" s="1654">
         <v>121</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="N127" s="1664">
-        <v>123626</v>
-      </c>
-      <c r="O127" s="1666">
-        <v>39449</v>
-      </c>
-      <c r="P127" s="1668">
-        <v>84177</v>
-      </c>
-      <c r="Q127" s="1670">
-        <v>1237</v>
-      </c>
-      <c r="T127" s="1672">
-        <v>16.57</v>
-      </c>
-      <c r="U127" s="1674">
-        <v>6.51</v>
-      </c>
-      <c r="V127" s="1676">
-        <v>10.06</v>
-      </c>
-      <c r="W127" s="1678">
-        <v>31.91</v>
-      </c>
-      <c r="X127" s="1680">
-        <v>829000</v>
+      <c r="N127" s="1656">
+        <v>124761</v>
+      </c>
+      <c r="O127" s="1658">
+        <v>41608</v>
+      </c>
+      <c r="P127" s="1660">
+        <v>83153</v>
+      </c>
+      <c r="Q127" s="1662">
+        <v>1184</v>
+      </c>
+      <c r="T127" s="1664">
+        <v>15.64</v>
+      </c>
+      <c r="U127" s="1666">
+        <v>6.5</v>
+      </c>
+      <c r="V127" s="1668">
+        <v>9.14</v>
+      </c>
+      <c r="W127" s="1670">
+        <v>33.35</v>
+      </c>
+      <c r="X127" s="1672">
+        <v>830000</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1682">
+      <c r="A128" s="1674">
         <v>122</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N128" s="1684">
-        <v>122389</v>
-      </c>
-      <c r="O128" s="1686">
-        <v>37304</v>
-      </c>
-      <c r="P128" s="1688">
-        <v>85085</v>
-      </c>
-      <c r="Q128" s="1690">
-        <v>1275</v>
-      </c>
-      <c r="T128" s="1692">
-        <v>16.98</v>
-      </c>
-      <c r="U128" s="1694">
-        <v>6.56</v>
-      </c>
-      <c r="V128" s="1696">
-        <v>10.42</v>
-      </c>
-      <c r="W128" s="1698">
-        <v>30.48</v>
-      </c>
-      <c r="X128" s="1700">
-        <v>839000</v>
+      <c r="N128" s="1676">
+        <v>123626</v>
+      </c>
+      <c r="O128" s="1678">
+        <v>39449</v>
+      </c>
+      <c r="P128" s="1680">
+        <v>84177</v>
+      </c>
+      <c r="Q128" s="1682">
+        <v>1237</v>
+      </c>
+      <c r="T128" s="1684">
+        <v>16.57</v>
+      </c>
+      <c r="U128" s="1686">
+        <v>6.51</v>
+      </c>
+      <c r="V128" s="1688">
+        <v>10.06</v>
+      </c>
+      <c r="W128" s="1690">
+        <v>31.91</v>
+      </c>
+      <c r="X128" s="1692">
+        <v>829000</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1702">
+      <c r="A129" s="1694">
         <v>123</v>
       </c>
       <c r="B129" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="N129" s="1704">
-        <v>121121</v>
-      </c>
-      <c r="O129" s="1706">
-        <v>35174</v>
-      </c>
-      <c r="P129" s="1708">
-        <v>85947</v>
-      </c>
-      <c r="Q129" s="1710">
-        <v>1277</v>
-      </c>
-      <c r="T129" s="1712">
-        <v>17.12</v>
-      </c>
-      <c r="U129" s="1714">
-        <v>6.57</v>
-      </c>
-      <c r="V129" s="1716">
-        <v>10.55</v>
-      </c>
-      <c r="W129" s="1718">
-        <v>29.04</v>
-      </c>
-      <c r="X129" s="1720">
-        <v>805000</v>
+      <c r="N129" s="1696">
+        <v>122389</v>
+      </c>
+      <c r="O129" s="1698">
+        <v>37304</v>
+      </c>
+      <c r="P129" s="1700">
+        <v>85085</v>
+      </c>
+      <c r="Q129" s="1702">
+        <v>1275</v>
+      </c>
+      <c r="T129" s="1704">
+        <v>16.98</v>
+      </c>
+      <c r="U129" s="1706">
+        <v>6.56</v>
+      </c>
+      <c r="V129" s="1708">
+        <v>10.42</v>
+      </c>
+      <c r="W129" s="1710">
+        <v>30.48</v>
+      </c>
+      <c r="X129" s="1712">
+        <v>839000</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1722">
+      <c r="A130" s="1714">
         <v>124</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="N130" s="1724">
-        <v>119850</v>
-      </c>
-      <c r="O130" s="1726">
-        <v>34169</v>
-      </c>
-      <c r="P130" s="1728">
-        <v>85681</v>
-      </c>
-      <c r="Q130" s="1730">
-        <v>1344</v>
-      </c>
-      <c r="T130" s="1732">
-        <v>17.7</v>
-      </c>
-      <c r="U130" s="1734">
-        <v>6.49</v>
-      </c>
-      <c r="V130" s="1736">
-        <v>11.21</v>
-      </c>
-      <c r="W130" s="1738">
-        <v>28.51</v>
-      </c>
-      <c r="X130" s="1740">
-        <v>637000</v>
+      <c r="N130" s="1716">
+        <v>121121</v>
+      </c>
+      <c r="O130" s="1718">
+        <v>35174</v>
+      </c>
+      <c r="P130" s="1720">
+        <v>85947</v>
+      </c>
+      <c r="Q130" s="1722">
+        <v>1277</v>
+      </c>
+      <c r="T130" s="1724">
+        <v>17.12</v>
+      </c>
+      <c r="U130" s="1726">
+        <v>6.57</v>
+      </c>
+      <c r="V130" s="1728">
+        <v>10.55</v>
+      </c>
+      <c r="W130" s="1730">
+        <v>29.04</v>
+      </c>
+      <c r="X130" s="1732">
+        <v>805000</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1742">
+      <c r="A131" s="1734">
         <v>125</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="N131" s="1744">
-        <v>118517</v>
-      </c>
-      <c r="O131" s="1746">
-        <v>33173</v>
-      </c>
-      <c r="P131" s="1748">
-        <v>85344</v>
-      </c>
-      <c r="Q131" s="1750">
-        <v>1357</v>
-      </c>
-      <c r="T131" s="1752">
-        <v>18.09</v>
-      </c>
-      <c r="U131" s="1754">
-        <v>6.64</v>
-      </c>
-      <c r="V131" s="1756">
-        <v>11.45</v>
-      </c>
-      <c r="W131" s="1758">
-        <v>27.99</v>
-      </c>
-      <c r="X131" s="1760">
-        <v>571000</v>
+      <c r="N131" s="1736">
+        <v>119850</v>
+      </c>
+      <c r="O131" s="1738">
+        <v>34169</v>
+      </c>
+      <c r="P131" s="1740">
+        <v>85681</v>
+      </c>
+      <c r="Q131" s="1742">
+        <v>1344</v>
+      </c>
+      <c r="T131" s="1744">
+        <v>17.7</v>
+      </c>
+      <c r="U131" s="1746">
+        <v>6.49</v>
+      </c>
+      <c r="V131" s="1748">
+        <v>11.21</v>
+      </c>
+      <c r="W131" s="1750">
+        <v>28.51</v>
+      </c>
+      <c r="X131" s="1752">
+        <v>637000</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1762">
+      <c r="A132" s="1754">
         <v>126</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="N132" s="1764">
-        <v>117171</v>
-      </c>
-      <c r="O132" s="1766">
-        <v>32175</v>
-      </c>
-      <c r="P132" s="1768">
-        <v>84996</v>
-      </c>
-      <c r="Q132" s="1770">
-        <v>1359</v>
-      </c>
-      <c r="T132" s="1772">
-        <v>18.24</v>
-      </c>
-      <c r="U132" s="1774">
+      <c r="N132" s="1756">
+        <v>118517</v>
+      </c>
+      <c r="O132" s="1758">
+        <v>33173</v>
+      </c>
+      <c r="P132" s="1760">
+        <v>85344</v>
+      </c>
+      <c r="Q132" s="1762">
+        <v>1357</v>
+      </c>
+      <c r="T132" s="1764">
+        <v>18.09</v>
+      </c>
+      <c r="U132" s="1766">
         <v>6.64</v>
       </c>
-      <c r="V132" s="1776">
-        <v>11.6</v>
-      </c>
-      <c r="W132" s="1778">
-        <v>27.46</v>
-      </c>
-      <c r="X132" s="1780">
-        <v>604000</v>
+      <c r="V132" s="1768">
+        <v>11.45</v>
+      </c>
+      <c r="W132" s="1770">
+        <v>27.99</v>
+      </c>
+      <c r="X132" s="1772">
+        <v>571000</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1782">
+      <c r="A133" s="1774">
         <v>127</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="N133" s="1784">
-        <v>115823</v>
-      </c>
-      <c r="O133" s="1786">
-        <v>31203</v>
-      </c>
-      <c r="P133" s="1788">
-        <v>84620</v>
-      </c>
-      <c r="Q133" s="1790">
-        <v>1503</v>
-      </c>
-      <c r="T133" s="1792">
-        <v>19.68</v>
-      </c>
-      <c r="U133" s="1794">
-        <v>6.7</v>
-      </c>
-      <c r="V133" s="1796">
-        <v>12.98</v>
-      </c>
-      <c r="W133" s="1798">
-        <v>26.94</v>
-      </c>
-      <c r="X133" s="1800">
-        <v>614000</v>
+      <c r="N133" s="1776">
+        <v>117171</v>
+      </c>
+      <c r="O133" s="1778">
+        <v>32175</v>
+      </c>
+      <c r="P133" s="1780">
+        <v>84996</v>
+      </c>
+      <c r="Q133" s="1782">
+        <v>1359</v>
+      </c>
+      <c r="T133" s="1784">
+        <v>18.24</v>
+      </c>
+      <c r="U133" s="1786">
+        <v>6.64</v>
+      </c>
+      <c r="V133" s="1788">
+        <v>11.6</v>
+      </c>
+      <c r="W133" s="1790">
+        <v>27.46</v>
+      </c>
+      <c r="X133" s="1792">
+        <v>604000</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1802">
+      <c r="A134" s="1794">
         <v>128</v>
       </c>
       <c r="B134" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="N134" s="1804">
-        <v>114333</v>
-      </c>
-      <c r="O134" s="1806">
-        <v>30195</v>
-      </c>
-      <c r="P134" s="1808">
-        <v>84138</v>
-      </c>
-      <c r="Q134" s="1810">
-        <v>1645</v>
-      </c>
-      <c r="T134" s="1812">
-        <v>21.06</v>
-      </c>
-      <c r="U134" s="1814">
-        <v>6.67</v>
-      </c>
-      <c r="V134" s="1816">
-        <v>14.39</v>
-      </c>
-      <c r="W134" s="1818">
-        <v>26.41</v>
-      </c>
-      <c r="X134" s="1820">
+      <c r="N134" s="1796">
+        <v>115823</v>
+      </c>
+      <c r="O134" s="1798">
+        <v>31203</v>
+      </c>
+      <c r="P134" s="1800">
+        <v>84620</v>
+      </c>
+      <c r="Q134" s="1802">
+        <v>1503</v>
+      </c>
+      <c r="T134" s="1804">
+        <v>19.68</v>
+      </c>
+      <c r="U134" s="1806">
+        <v>6.7</v>
+      </c>
+      <c r="V134" s="1808">
+        <v>12.98</v>
+      </c>
+      <c r="W134" s="1810">
+        <v>26.94</v>
+      </c>
+      <c r="X134" s="1812">
         <v>614000</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1822">
+      <c r="A135" s="1814">
         <v>129</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="N135" s="1824">
-        <v>112704</v>
-      </c>
-      <c r="O135" s="1826">
-        <v>29540</v>
-      </c>
-      <c r="P135" s="1828">
-        <v>83164</v>
-      </c>
-      <c r="Q135" s="1830">
-        <v>1695</v>
-      </c>
-      <c r="T135" s="1832">
-        <v>21.58</v>
-      </c>
-      <c r="U135" s="1834">
-        <v>6.54</v>
-      </c>
-      <c r="V135" s="1836">
-        <v>15.04</v>
-      </c>
-      <c r="W135" s="1838">
-        <v>26.21</v>
-      </c>
-      <c r="X135" s="1840">
-        <v>576000</v>
+      <c r="N135" s="1816">
+        <v>114333</v>
+      </c>
+      <c r="O135" s="1818">
+        <v>30195</v>
+      </c>
+      <c r="P135" s="1820">
+        <v>84138</v>
+      </c>
+      <c r="Q135" s="1822">
+        <v>1645</v>
+      </c>
+      <c r="T135" s="1824">
+        <v>21.06</v>
+      </c>
+      <c r="U135" s="1826">
+        <v>6.67</v>
+      </c>
+      <c r="V135" s="1828">
+        <v>14.39</v>
+      </c>
+      <c r="W135" s="1830">
+        <v>26.41</v>
+      </c>
+      <c r="X135" s="1832">
+        <v>614000</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1842">
+      <c r="A136" s="1834">
         <v>130</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="N136" s="1844">
-        <v>111026</v>
-      </c>
-      <c r="O136" s="1846">
-        <v>28661</v>
-      </c>
-      <c r="P136" s="1848">
-        <v>82365</v>
-      </c>
-      <c r="Q136" s="1850">
-        <v>1576</v>
-      </c>
-      <c r="T136" s="1852">
-        <v>22.37</v>
-      </c>
-      <c r="U136" s="1854">
-        <v>6.64</v>
-      </c>
-      <c r="V136" s="1856">
-        <v>15.73</v>
-      </c>
-      <c r="W136" s="1858">
-        <v>25.81</v>
-      </c>
-      <c r="X136" s="1860">
-        <v>553000</v>
+      <c r="N136" s="1836">
+        <v>112704</v>
+      </c>
+      <c r="O136" s="1838">
+        <v>29540</v>
+      </c>
+      <c r="P136" s="1840">
+        <v>83164</v>
+      </c>
+      <c r="Q136" s="1842">
+        <v>1695</v>
+      </c>
+      <c r="T136" s="1844">
+        <v>21.58</v>
+      </c>
+      <c r="U136" s="1846">
+        <v>6.54</v>
+      </c>
+      <c r="V136" s="1848">
+        <v>15.04</v>
+      </c>
+      <c r="W136" s="1850">
+        <v>26.21</v>
+      </c>
+      <c r="X136" s="1852">
+        <v>576000</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1862">
+      <c r="A137" s="1854">
         <v>131</v>
       </c>
       <c r="B137" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="N137" s="1864">
-        <v>109300</v>
-      </c>
-      <c r="O137" s="1866">
-        <v>27674</v>
-      </c>
-      <c r="P137" s="1868">
-        <v>81626</v>
-      </c>
-      <c r="Q137" s="1870">
-        <v>1816</v>
-      </c>
-      <c r="T137" s="1872">
-        <v>23.33</v>
-      </c>
-      <c r="U137" s="1874">
-        <v>6.72</v>
-      </c>
-      <c r="V137" s="1876">
-        <v>16.61</v>
-      </c>
-      <c r="W137" s="1878">
-        <v>25.32</v>
-      </c>
-      <c r="X137" s="1880">
-        <v>532000</v>
+      <c r="N137" s="1856">
+        <v>111026</v>
+      </c>
+      <c r="O137" s="1858">
+        <v>28661</v>
+      </c>
+      <c r="P137" s="1860">
+        <v>82365</v>
+      </c>
+      <c r="Q137" s="1862">
+        <v>1576</v>
+      </c>
+      <c r="T137" s="1864">
+        <v>22.37</v>
+      </c>
+      <c r="U137" s="1866">
+        <v>6.64</v>
+      </c>
+      <c r="V137" s="1868">
+        <v>15.73</v>
+      </c>
+      <c r="W137" s="1870">
+        <v>25.81</v>
+      </c>
+      <c r="X137" s="1872">
+        <v>553000</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1882">
+      <c r="A138" s="1874">
         <v>132</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="N138" s="1884">
-        <v>107507</v>
-      </c>
-      <c r="O138" s="1886">
-        <v>26366</v>
-      </c>
-      <c r="P138" s="1888">
-        <v>81141</v>
-      </c>
-      <c r="Q138" s="1890">
-        <v>1674</v>
-      </c>
-      <c r="T138" s="1892">
-        <v>22.43</v>
-      </c>
-      <c r="U138" s="1894">
-        <v>6.86</v>
-      </c>
-      <c r="V138" s="1896">
-        <v>15.57</v>
-      </c>
-      <c r="W138" s="1898">
-        <v>24.52</v>
-      </c>
-      <c r="X138" s="1900">
-        <v>393000</v>
+      <c r="N138" s="1876">
+        <v>109300</v>
+      </c>
+      <c r="O138" s="1878">
+        <v>27674</v>
+      </c>
+      <c r="P138" s="1880">
+        <v>81626</v>
+      </c>
+      <c r="Q138" s="1882">
+        <v>1816</v>
+      </c>
+      <c r="T138" s="1884">
+        <v>23.33</v>
+      </c>
+      <c r="U138" s="1886">
+        <v>6.72</v>
+      </c>
+      <c r="V138" s="1888">
+        <v>16.61</v>
+      </c>
+      <c r="W138" s="1890">
+        <v>25.32</v>
+      </c>
+      <c r="X138" s="1892">
+        <v>532000</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1902">
+      <c r="A139" s="1894">
         <v>133</v>
       </c>
       <c r="B139" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="N139" s="1904">
-        <v>105851</v>
-      </c>
-      <c r="O139" s="1906">
-        <v>25094</v>
-      </c>
-      <c r="P139" s="1908">
-        <v>80757</v>
-      </c>
-      <c r="Q139" s="1910">
-        <v>1509</v>
-      </c>
-      <c r="T139" s="1912">
-        <v>21.04</v>
-      </c>
-      <c r="U139" s="1914">
-        <v>6.78</v>
-      </c>
-      <c r="V139" s="1916">
-        <v>14.26</v>
-      </c>
-      <c r="W139" s="1918">
-        <v>23.71</v>
-      </c>
-      <c r="X139" s="1920">
-        <v>316000</v>
+      <c r="N139" s="1896">
+        <v>107507</v>
+      </c>
+      <c r="O139" s="1898">
+        <v>26366</v>
+      </c>
+      <c r="P139" s="1900">
+        <v>81141</v>
+      </c>
+      <c r="Q139" s="1902">
+        <v>1674</v>
+      </c>
+      <c r="T139" s="1904">
+        <v>22.43</v>
+      </c>
+      <c r="U139" s="1906">
+        <v>6.86</v>
+      </c>
+      <c r="V139" s="1908">
+        <v>15.57</v>
+      </c>
+      <c r="W139" s="1910">
+        <v>24.52</v>
+      </c>
+      <c r="X139" s="1912">
+        <v>393000</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1922">
+      <c r="A140" s="1914">
         <v>134</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="N140" s="1924">
-        <v>104357</v>
-      </c>
-      <c r="O140" s="1926">
-        <v>24017</v>
-      </c>
-      <c r="P140" s="1928">
-        <v>80340</v>
-      </c>
-      <c r="Q140" s="1930">
-        <v>1365</v>
-      </c>
-      <c r="T140" s="1932">
-        <v>19.9</v>
-      </c>
-      <c r="U140" s="1934">
-        <v>6.82</v>
-      </c>
-      <c r="V140" s="1936">
-        <v>13.08</v>
-      </c>
-      <c r="W140" s="1938">
-        <v>23.01</v>
-      </c>
-      <c r="X140" s="1940">
-        <v>287000</v>
+      <c r="N140" s="1916">
+        <v>105851</v>
+      </c>
+      <c r="O140" s="1918">
+        <v>25094</v>
+      </c>
+      <c r="P140" s="1920">
+        <v>80757</v>
+      </c>
+      <c r="Q140" s="1922">
+        <v>1509</v>
+      </c>
+      <c r="T140" s="1924">
+        <v>21.04</v>
+      </c>
+      <c r="U140" s="1926">
+        <v>6.78</v>
+      </c>
+      <c r="V140" s="1928">
+        <v>14.26</v>
+      </c>
+      <c r="W140" s="1930">
+        <v>23.71</v>
+      </c>
+      <c r="X140" s="1932">
+        <v>316000</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1942">
+      <c r="A141" s="1934">
         <v>135</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="N141" s="1944">
-        <v>103008</v>
-      </c>
-      <c r="O141" s="1946">
-        <v>22274</v>
-      </c>
-      <c r="P141" s="1948">
-        <v>80734</v>
-      </c>
-      <c r="Q141" s="1950">
-        <v>1369</v>
-      </c>
-      <c r="T141" s="1952">
-        <v>20.19</v>
-      </c>
-      <c r="U141" s="1954">
-        <v>6.9</v>
-      </c>
-      <c r="V141" s="1956">
-        <v>13.29</v>
-      </c>
-      <c r="W141" s="1958">
-        <v>21.62</v>
-      </c>
-      <c r="X141" s="1960">
-        <v>335000</v>
+      <c r="N141" s="1936">
+        <v>104357</v>
+      </c>
+      <c r="O141" s="1938">
+        <v>24017</v>
+      </c>
+      <c r="P141" s="1940">
+        <v>80340</v>
+      </c>
+      <c r="Q141" s="1942">
+        <v>1365</v>
+      </c>
+      <c r="T141" s="1944">
+        <v>19.9</v>
+      </c>
+      <c r="U141" s="1946">
+        <v>6.82</v>
+      </c>
+      <c r="V141" s="1948">
+        <v>13.08</v>
+      </c>
+      <c r="W141" s="1950">
+        <v>23.01</v>
+      </c>
+      <c r="X141" s="1952">
+        <v>287000</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1962">
+      <c r="A142" s="1954">
         <v>136</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="N142" s="1964">
-        <v>101654</v>
-      </c>
-      <c r="O142" s="1966">
-        <v>21480</v>
-      </c>
-      <c r="P142" s="1968">
-        <v>80174</v>
-      </c>
-      <c r="Q142" s="1970">
-        <v>1594</v>
-      </c>
-      <c r="T142" s="1972">
-        <v>22.28</v>
-      </c>
-      <c r="U142" s="1974">
-        <v>6.6</v>
-      </c>
-      <c r="V142" s="1976">
-        <v>15.68</v>
-      </c>
-      <c r="W142" s="1978">
-        <v>21.13</v>
-      </c>
-      <c r="X142" s="1980">
-        <v>457000</v>
+      <c r="N142" s="1956">
+        <v>103008</v>
+      </c>
+      <c r="O142" s="1958">
+        <v>22274</v>
+      </c>
+      <c r="P142" s="1960">
+        <v>80734</v>
+      </c>
+      <c r="Q142" s="1962">
+        <v>1369</v>
+      </c>
+      <c r="T142" s="1964">
+        <v>20.19</v>
+      </c>
+      <c r="U142" s="1966">
+        <v>6.9</v>
+      </c>
+      <c r="V142" s="1968">
+        <v>13.29</v>
+      </c>
+      <c r="W142" s="1970">
+        <v>21.62</v>
+      </c>
+      <c r="X142" s="1972">
+        <v>335000</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1982">
+      <c r="A143" s="1974">
         <v>137</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="N143" s="1984">
-        <v>100072</v>
-      </c>
-      <c r="O143" s="1986">
-        <v>20171</v>
-      </c>
-      <c r="P143" s="1988">
-        <v>79901</v>
-      </c>
-      <c r="Q143" s="1990">
-        <v>1456</v>
-      </c>
-      <c r="T143" s="1992">
-        <v>20.91</v>
-      </c>
-      <c r="U143" s="1994">
-        <v>6.36</v>
-      </c>
-      <c r="V143" s="1996">
-        <v>14.55</v>
-      </c>
-      <c r="W143" s="1998">
-        <v>20.16</v>
-      </c>
-      <c r="X143" s="2000">
-        <v>140000</v>
+      <c r="N143" s="1976">
+        <v>101654</v>
+      </c>
+      <c r="O143" s="1978">
+        <v>21480</v>
+      </c>
+      <c r="P143" s="1980">
+        <v>80174</v>
+      </c>
+      <c r="Q143" s="1982">
+        <v>1594</v>
+      </c>
+      <c r="T143" s="1984">
+        <v>22.28</v>
+      </c>
+      <c r="U143" s="1986">
+        <v>6.6</v>
+      </c>
+      <c r="V143" s="1988">
+        <v>15.68</v>
+      </c>
+      <c r="W143" s="1990">
+        <v>21.13</v>
+      </c>
+      <c r="X143" s="1992">
+        <v>457000</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2002">
+      <c r="A144" s="1994">
         <v>138</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="N144" s="2004">
-        <v>98705</v>
-      </c>
-      <c r="O144" s="2006">
-        <v>19140</v>
-      </c>
-      <c r="P144" s="2008">
-        <v>79565</v>
-      </c>
-      <c r="Q144" s="2010">
-        <v>1171</v>
-      </c>
-      <c r="T144" s="2012">
-        <v>18.21</v>
-      </c>
-      <c r="U144" s="2014">
-        <v>6.34</v>
-      </c>
-      <c r="V144" s="2016">
-        <v>11.87</v>
-      </c>
-      <c r="W144" s="2018">
-        <v>19.39</v>
-      </c>
-      <c r="X144" s="2020">
-        <v>147000</v>
+      <c r="N144" s="1996">
+        <v>100072</v>
+      </c>
+      <c r="O144" s="1998">
+        <v>20171</v>
+      </c>
+      <c r="P144" s="2000">
+        <v>79901</v>
+      </c>
+      <c r="Q144" s="2002">
+        <v>1456</v>
+      </c>
+      <c r="T144" s="2004">
+        <v>20.91</v>
+      </c>
+      <c r="U144" s="2006">
+        <v>6.36</v>
+      </c>
+      <c r="V144" s="2008">
+        <v>14.55</v>
+      </c>
+      <c r="W144" s="2010">
+        <v>20.16</v>
+      </c>
+      <c r="X144" s="2012">
+        <v>140000</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2022">
+      <c r="A145" s="2014">
         <v>139</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="N145" s="2024">
-        <v>97542</v>
-      </c>
-      <c r="O145" s="2026">
-        <v>18495</v>
-      </c>
-      <c r="P145" s="2028">
-        <v>79047</v>
-      </c>
-      <c r="Q145" s="2030">
-        <v>1132</v>
-      </c>
-      <c r="T145" s="2032">
-        <v>17.82</v>
-      </c>
-      <c r="U145" s="2034">
-        <v>6.21</v>
-      </c>
-      <c r="V145" s="2036">
-        <v>11.61</v>
-      </c>
-      <c r="W145" s="2038">
-        <v>18.96</v>
-      </c>
-      <c r="X145" s="2040">
-        <v>85000</v>
+      <c r="N145" s="2016">
+        <v>98705</v>
+      </c>
+      <c r="O145" s="2018">
+        <v>19140</v>
+      </c>
+      <c r="P145" s="2020">
+        <v>79565</v>
+      </c>
+      <c r="Q145" s="2022">
+        <v>1171</v>
+      </c>
+      <c r="T145" s="2024">
+        <v>18.21</v>
+      </c>
+      <c r="U145" s="2026">
+        <v>6.34</v>
+      </c>
+      <c r="V145" s="2028">
+        <v>11.87</v>
+      </c>
+      <c r="W145" s="2030">
+        <v>19.39</v>
+      </c>
+      <c r="X145" s="2032">
+        <v>147000</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2042">
+      <c r="A146" s="2034">
         <v>140</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="N146" s="2044">
-        <v>96259</v>
-      </c>
-      <c r="O146" s="2046">
-        <v>17245</v>
-      </c>
-      <c r="P146" s="2048">
-        <v>79014</v>
-      </c>
-      <c r="Q146" s="2050">
-        <v>1155</v>
-      </c>
-      <c r="T146" s="2052">
-        <v>18.25</v>
-      </c>
-      <c r="U146" s="2054">
-        <v>6.25</v>
-      </c>
-      <c r="V146" s="2056">
-        <v>12</v>
-      </c>
-      <c r="W146" s="2058">
-        <v>17.95</v>
-      </c>
-      <c r="X146" s="2060">
-        <v>165000</v>
+      <c r="N146" s="2036">
+        <v>97542</v>
+      </c>
+      <c r="O146" s="2038">
+        <v>18495</v>
+      </c>
+      <c r="P146" s="2040">
+        <v>79047</v>
+      </c>
+      <c r="Q146" s="2042">
+        <v>1132</v>
+      </c>
+      <c r="T146" s="2044">
+        <v>17.82</v>
+      </c>
+      <c r="U146" s="2046">
+        <v>6.21</v>
+      </c>
+      <c r="V146" s="2048">
+        <v>11.61</v>
+      </c>
+      <c r="W146" s="2050">
+        <v>18.96</v>
+      </c>
+      <c r="X146" s="2052">
+        <v>85000</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2062">
+      <c r="A147" s="2054">
         <v>141</v>
       </c>
       <c r="B147" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="N147" s="2064">
-        <v>94974</v>
-      </c>
-      <c r="O147" s="2066">
-        <v>16669</v>
-      </c>
-      <c r="P147" s="2068">
-        <v>78305</v>
-      </c>
-      <c r="Q147" s="2070">
-        <v>1151</v>
-      </c>
-      <c r="T147" s="2072">
-        <v>19.03</v>
-      </c>
-      <c r="U147" s="2074">
-        <v>6.91</v>
-      </c>
-      <c r="V147" s="2076">
-        <v>12.12</v>
-      </c>
-      <c r="W147" s="2078">
-        <v>17.55</v>
-      </c>
-      <c r="X147" s="2080">
-        <v>194000</v>
+      <c r="N147" s="2056">
+        <v>96259</v>
+      </c>
+      <c r="O147" s="2058">
+        <v>17245</v>
+      </c>
+      <c r="P147" s="2060">
+        <v>79014</v>
+      </c>
+      <c r="Q147" s="2062">
+        <v>1155</v>
+      </c>
+      <c r="T147" s="2064">
+        <v>18.25</v>
+      </c>
+      <c r="U147" s="2066">
+        <v>6.25</v>
+      </c>
+      <c r="V147" s="2068">
+        <v>12</v>
+      </c>
+      <c r="W147" s="2070">
+        <v>17.95</v>
+      </c>
+      <c r="X147" s="2072">
+        <v>165000</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2082">
+      <c r="A148" s="2074">
         <v>142</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="N148" s="2084">
-        <v>93717</v>
-      </c>
-      <c r="O148" s="2086">
-        <v>16341</v>
-      </c>
-      <c r="P148" s="2088">
-        <v>77376</v>
-      </c>
-      <c r="Q148" s="2090">
-        <v>1192</v>
-      </c>
-      <c r="T148" s="2092">
-        <v>20.01</v>
-      </c>
-      <c r="U148" s="2094">
-        <v>7.29</v>
-      </c>
-      <c r="V148" s="2096">
-        <v>12.72</v>
-      </c>
-      <c r="W148" s="2098">
-        <v>17.44</v>
-      </c>
-      <c r="X148" s="2100">
-        <v>149000</v>
+      <c r="N148" s="2076">
+        <v>94974</v>
+      </c>
+      <c r="O148" s="2078">
+        <v>16669</v>
+      </c>
+      <c r="P148" s="2080">
+        <v>78305</v>
+      </c>
+      <c r="Q148" s="2082">
+        <v>1151</v>
+      </c>
+      <c r="T148" s="2084">
+        <v>19.03</v>
+      </c>
+      <c r="U148" s="2086">
+        <v>6.91</v>
+      </c>
+      <c r="V148" s="2088">
+        <v>12.12</v>
+      </c>
+      <c r="W148" s="2090">
+        <v>17.55</v>
+      </c>
+      <c r="X148" s="2092">
+        <v>194000</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2102">
+      <c r="A149" s="2094">
         <v>143</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="N149" s="2104">
-        <v>92420</v>
-      </c>
-      <c r="O149" s="2106">
-        <v>16030</v>
-      </c>
-      <c r="P149" s="2108">
-        <v>76390</v>
-      </c>
-      <c r="Q149" s="2110">
-        <v>1458</v>
-      </c>
-      <c r="T149" s="2112">
-        <v>23.13</v>
-      </c>
-      <c r="U149" s="2114">
-        <v>7.36</v>
-      </c>
-      <c r="V149" s="2116">
-        <v>15.77</v>
-      </c>
-      <c r="W149" s="2118">
-        <v>17.34</v>
-      </c>
-      <c r="X149" s="2120">
-        <v>119000</v>
+      <c r="N149" s="2096">
+        <v>93717</v>
+      </c>
+      <c r="O149" s="2098">
+        <v>16341</v>
+      </c>
+      <c r="P149" s="2100">
+        <v>77376</v>
+      </c>
+      <c r="Q149" s="2102">
+        <v>1192</v>
+      </c>
+      <c r="T149" s="2104">
+        <v>20.01</v>
+      </c>
+      <c r="U149" s="2106">
+        <v>7.29</v>
+      </c>
+      <c r="V149" s="2108">
+        <v>12.72</v>
+      </c>
+      <c r="W149" s="2110">
+        <v>17.44</v>
+      </c>
+      <c r="X149" s="2112">
+        <v>149000</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2122">
+      <c r="A150" s="2114">
         <v>144</v>
       </c>
       <c r="B150" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="N150" s="2124">
-        <v>90859</v>
-      </c>
-      <c r="O150" s="2126">
-        <v>15595</v>
-      </c>
-      <c r="P150" s="2128">
-        <v>75264</v>
-      </c>
-      <c r="Q150" s="2130">
-        <v>1596</v>
-      </c>
-      <c r="T150" s="2132">
-        <v>24.95</v>
-      </c>
-      <c r="U150" s="2134">
-        <v>7.38</v>
-      </c>
-      <c r="V150" s="2136">
-        <v>17.57</v>
-      </c>
-      <c r="W150" s="2138">
-        <v>17.16</v>
-      </c>
-      <c r="X150" s="2140">
-        <v>43000</v>
+      <c r="N150" s="2116">
+        <v>92420</v>
+      </c>
+      <c r="O150" s="2118">
+        <v>16030</v>
+      </c>
+      <c r="P150" s="2120">
+        <v>76390</v>
+      </c>
+      <c r="Q150" s="2122">
+        <v>1458</v>
+      </c>
+      <c r="T150" s="2124">
+        <v>23.13</v>
+      </c>
+      <c r="U150" s="2126">
+        <v>7.36</v>
+      </c>
+      <c r="V150" s="2128">
+        <v>15.77</v>
+      </c>
+      <c r="W150" s="2130">
+        <v>17.34</v>
+      </c>
+      <c r="X150" s="2132">
+        <v>119000</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2142">
+      <c r="A151" s="2134">
         <v>145</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="N151" s="2144">
-        <v>89211</v>
-      </c>
-      <c r="O151" s="2146">
-        <v>15345</v>
-      </c>
-      <c r="P151" s="2148">
-        <v>73866</v>
-      </c>
-      <c r="Q151" s="2150">
-        <v>1872</v>
-      </c>
-      <c r="T151" s="2152">
-        <v>28.07</v>
-      </c>
-      <c r="U151" s="2154">
-        <v>7.08</v>
-      </c>
-      <c r="V151" s="2156">
-        <v>20.99</v>
-      </c>
-      <c r="W151" s="2158">
-        <v>17.2</v>
-      </c>
-      <c r="X151" s="2160">
-        <v>30000</v>
+      <c r="N151" s="2136">
+        <v>90859</v>
+      </c>
+      <c r="O151" s="2138">
+        <v>15595</v>
+      </c>
+      <c r="P151" s="2140">
+        <v>75264</v>
+      </c>
+      <c r="Q151" s="2142">
+        <v>1596</v>
+      </c>
+      <c r="T151" s="2144">
+        <v>24.95</v>
+      </c>
+      <c r="U151" s="2146">
+        <v>7.38</v>
+      </c>
+      <c r="V151" s="2148">
+        <v>17.57</v>
+      </c>
+      <c r="W151" s="2150">
+        <v>17.16</v>
+      </c>
+      <c r="X151" s="2152">
+        <v>43000</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2162">
+      <c r="A152" s="2154">
         <v>146</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="N152" s="2164">
-        <v>87177</v>
-      </c>
-      <c r="O152" s="2166">
-        <v>14935</v>
-      </c>
-      <c r="P152" s="2168">
-        <v>72242</v>
-      </c>
-      <c r="Q152" s="2170">
-        <v>1941</v>
-      </c>
-      <c r="T152" s="2172">
-        <v>29.92</v>
-      </c>
-      <c r="U152" s="2174">
-        <v>7.65</v>
-      </c>
-      <c r="V152" s="2176">
-        <v>22.27</v>
-      </c>
-      <c r="W152" s="2178">
-        <v>17.13</v>
-      </c>
-      <c r="X152" s="2180">
-        <v>17000</v>
+      <c r="N152" s="2156">
+        <v>89211</v>
+      </c>
+      <c r="O152" s="2158">
+        <v>15345</v>
+      </c>
+      <c r="P152" s="2160">
+        <v>73866</v>
+      </c>
+      <c r="Q152" s="2162">
+        <v>1872</v>
+      </c>
+      <c r="T152" s="2164">
+        <v>28.07</v>
+      </c>
+      <c r="U152" s="2166">
+        <v>7.08</v>
+      </c>
+      <c r="V152" s="2168">
+        <v>20.99</v>
+      </c>
+      <c r="W152" s="2170">
+        <v>17.2</v>
+      </c>
+      <c r="X152" s="2172">
+        <v>30000</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2182">
+      <c r="A153" s="2174">
         <v>147</v>
       </c>
       <c r="B153" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="N153" s="2184">
-        <v>85229</v>
-      </c>
-      <c r="O153" s="2186">
-        <v>14711</v>
-      </c>
-      <c r="P153" s="2188">
-        <v>70518</v>
-      </c>
-      <c r="Q153" s="2190">
-        <v>1994</v>
-      </c>
-      <c r="T153" s="2192">
-        <v>30.74</v>
-      </c>
-      <c r="U153" s="2194">
-        <v>7.34</v>
-      </c>
-      <c r="V153" s="2196">
-        <v>23.4</v>
-      </c>
-      <c r="W153" s="2198">
-        <v>17.26</v>
-      </c>
-      <c r="X153" s="2200">
-        <v>6000</v>
+      <c r="N153" s="2176">
+        <v>87177</v>
+      </c>
+      <c r="O153" s="2178">
+        <v>14935</v>
+      </c>
+      <c r="P153" s="2180">
+        <v>72242</v>
+      </c>
+      <c r="Q153" s="2182">
+        <v>1941</v>
+      </c>
+      <c r="T153" s="2184">
+        <v>29.92</v>
+      </c>
+      <c r="U153" s="2186">
+        <v>7.65</v>
+      </c>
+      <c r="V153" s="2188">
+        <v>22.27</v>
+      </c>
+      <c r="W153" s="2190">
+        <v>17.13</v>
+      </c>
+      <c r="X153" s="2192">
+        <v>17000</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2202">
+      <c r="A154" s="2194">
         <v>148</v>
       </c>
       <c r="B154" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="N154" s="2204">
-        <v>82992</v>
-      </c>
-      <c r="O154" s="2206">
-        <v>14424</v>
-      </c>
-      <c r="P154" s="2208">
-        <v>68568</v>
-      </c>
-      <c r="Q154" s="2210">
-        <v>2154</v>
-      </c>
-      <c r="T154" s="2212">
-        <v>33.59</v>
-      </c>
-      <c r="U154" s="2214">
-        <v>7.64</v>
-      </c>
-      <c r="V154" s="2216">
-        <v>25.95</v>
-      </c>
-      <c r="W154" s="2218">
-        <v>17.38</v>
-      </c>
-      <c r="X154" s="2220">
-        <v>103000</v>
+      <c r="N154" s="2196">
+        <v>85229</v>
+      </c>
+      <c r="O154" s="2198">
+        <v>14711</v>
+      </c>
+      <c r="P154" s="2200">
+        <v>70518</v>
+      </c>
+      <c r="Q154" s="2202">
+        <v>1994</v>
+      </c>
+      <c r="T154" s="2204">
+        <v>30.74</v>
+      </c>
+      <c r="U154" s="2206">
+        <v>7.34</v>
+      </c>
+      <c r="V154" s="2208">
+        <v>23.4</v>
+      </c>
+      <c r="W154" s="2210">
+        <v>17.26</v>
+      </c>
+      <c r="X154" s="2212">
+        <v>6000</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2222">
+      <c r="A155" s="2214">
         <v>149</v>
       </c>
       <c r="B155" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="N155" s="2224">
-        <v>80671</v>
-      </c>
-      <c r="O155" s="2226">
-        <v>14117</v>
-      </c>
-      <c r="P155" s="2228">
-        <v>66554</v>
-      </c>
-      <c r="T155" s="2230">
-        <v>34.25</v>
-      </c>
-      <c r="U155" s="2232">
-        <v>8.06</v>
-      </c>
-      <c r="V155" s="2234">
-        <v>26.19</v>
-      </c>
-      <c r="W155" s="2236">
-        <v>17.5</v>
-      </c>
-      <c r="X155" s="2238">
-        <v>150000</v>
+      <c r="N155" s="2216">
+        <v>82992</v>
+      </c>
+      <c r="O155" s="2218">
+        <v>14424</v>
+      </c>
+      <c r="P155" s="2220">
+        <v>68568</v>
+      </c>
+      <c r="Q155" s="2222">
+        <v>2154</v>
+      </c>
+      <c r="T155" s="2224">
+        <v>33.59</v>
+      </c>
+      <c r="U155" s="2226">
+        <v>7.64</v>
+      </c>
+      <c r="V155" s="2228">
+        <v>25.95</v>
+      </c>
+      <c r="W155" s="2230">
+        <v>17.38</v>
+      </c>
+      <c r="X155" s="2232">
+        <v>103000</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2240">
+      <c r="A156" s="2234">
         <v>150</v>
       </c>
       <c r="B156" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="N156" s="2242">
-        <v>78534</v>
-      </c>
-      <c r="O156" s="2244">
-        <v>13838</v>
-      </c>
-      <c r="P156" s="2246">
-        <v>64696</v>
-      </c>
-      <c r="T156" s="2248">
-        <v>35.75</v>
-      </c>
-      <c r="U156" s="2250">
-        <v>8.25</v>
-      </c>
-      <c r="V156" s="2252">
-        <v>27.5</v>
-      </c>
-      <c r="W156" s="2254">
-        <v>17.62</v>
-      </c>
-      <c r="X156" s="2256">
+      <c r="N156" s="2236">
+        <v>80671</v>
+      </c>
+      <c r="O156" s="2238">
+        <v>14117</v>
+      </c>
+      <c r="P156" s="2240">
+        <v>66554</v>
+      </c>
+      <c r="T156" s="2242">
+        <v>34.25</v>
+      </c>
+      <c r="U156" s="2244">
+        <v>8.06</v>
+      </c>
+      <c r="V156" s="2246">
+        <v>26.19</v>
+      </c>
+      <c r="W156" s="2248">
+        <v>17.5</v>
+      </c>
+      <c r="X156" s="2250">
         <v>150000</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2258">
+      <c r="A157" s="2252">
         <v>151</v>
       </c>
       <c r="B157" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="N157" s="2260">
-        <v>76368</v>
-      </c>
-      <c r="O157" s="2262">
-        <v>13548</v>
-      </c>
-      <c r="P157" s="2264">
-        <v>62820</v>
-      </c>
-      <c r="T157" s="2266">
-        <v>34.12</v>
-      </c>
-      <c r="U157" s="2268">
-        <v>8.47</v>
-      </c>
-      <c r="V157" s="2270">
-        <v>25.65</v>
-      </c>
-      <c r="W157" s="2272">
-        <v>17.74</v>
-      </c>
-      <c r="X157" s="2274">
-        <v>125000</v>
+      <c r="N157" s="2254">
+        <v>78534</v>
+      </c>
+      <c r="O157" s="2256">
+        <v>13838</v>
+      </c>
+      <c r="P157" s="2258">
+        <v>64696</v>
+      </c>
+      <c r="T157" s="2260">
+        <v>35.75</v>
+      </c>
+      <c r="U157" s="2262">
+        <v>8.25</v>
+      </c>
+      <c r="V157" s="2264">
+        <v>27.5</v>
+      </c>
+      <c r="W157" s="2266">
+        <v>17.62</v>
+      </c>
+      <c r="X157" s="2268">
+        <v>150000</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2276">
+      <c r="A158" s="2270">
         <v>152</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="N158" s="2278">
-        <v>74542</v>
-      </c>
-      <c r="O158" s="2280">
-        <v>13313</v>
-      </c>
-      <c r="P158" s="2282">
-        <v>61229</v>
-      </c>
-      <c r="T158" s="2284">
-        <v>35.21</v>
-      </c>
-      <c r="U158" s="2286">
-        <v>8.87</v>
-      </c>
-      <c r="V158" s="2288">
-        <v>26.34</v>
-      </c>
-      <c r="W158" s="2290">
-        <v>17.86</v>
-      </c>
-      <c r="X158" s="2292">
-        <v>141000</v>
+      <c r="N158" s="2272">
+        <v>76368</v>
+      </c>
+      <c r="O158" s="2274">
+        <v>13548</v>
+      </c>
+      <c r="P158" s="2276">
+        <v>62820</v>
+      </c>
+      <c r="T158" s="2278">
+        <v>34.12</v>
+      </c>
+      <c r="U158" s="2280">
+        <v>8.47</v>
+      </c>
+      <c r="V158" s="2282">
+        <v>25.65</v>
+      </c>
+      <c r="W158" s="2284">
+        <v>17.74</v>
+      </c>
+      <c r="X158" s="2286">
+        <v>125000</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2294">
+      <c r="A159" s="2288">
         <v>153</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="N159" s="2296">
-        <v>72538</v>
-      </c>
-      <c r="O159" s="2298">
-        <v>13045</v>
-      </c>
-      <c r="P159" s="2300">
-        <v>59493</v>
-      </c>
-      <c r="T159" s="2302">
-        <v>38</v>
-      </c>
-      <c r="U159" s="2304">
-        <v>9.5</v>
-      </c>
-      <c r="V159" s="2306">
-        <v>28.5</v>
-      </c>
-      <c r="W159" s="2308">
-        <v>17.98</v>
-      </c>
-      <c r="X159" s="2310">
-        <v>186000</v>
+      <c r="N159" s="2290">
+        <v>74542</v>
+      </c>
+      <c r="O159" s="2292">
+        <v>13313</v>
+      </c>
+      <c r="P159" s="2294">
+        <v>61229</v>
+      </c>
+      <c r="T159" s="2296">
+        <v>35.21</v>
+      </c>
+      <c r="U159" s="2298">
+        <v>8.87</v>
+      </c>
+      <c r="V159" s="2300">
+        <v>26.34</v>
+      </c>
+      <c r="W159" s="2302">
+        <v>17.86</v>
+      </c>
+      <c r="X159" s="2304">
+        <v>141000</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2312">
+      <c r="A160" s="2306">
         <v>154</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="N160" s="2314">
-        <v>70499</v>
-      </c>
-      <c r="O160" s="2316">
-        <v>12950</v>
-      </c>
-      <c r="P160" s="2318">
-        <v>57549</v>
-      </c>
-      <c r="T160" s="2320">
-        <v>39.34</v>
-      </c>
-      <c r="U160" s="2322">
-        <v>11.56</v>
-      </c>
-      <c r="V160" s="2324">
-        <v>27.78</v>
-      </c>
-      <c r="W160" s="2326">
-        <v>18.37</v>
-      </c>
-      <c r="X160" s="2328">
-        <v>204000</v>
+      <c r="N160" s="2308">
+        <v>72538</v>
+      </c>
+      <c r="O160" s="2310">
+        <v>13045</v>
+      </c>
+      <c r="P160" s="2312">
+        <v>59493</v>
+      </c>
+      <c r="T160" s="2314">
+        <v>38</v>
+      </c>
+      <c r="U160" s="2316">
+        <v>9.5</v>
+      </c>
+      <c r="V160" s="2318">
+        <v>28.5</v>
+      </c>
+      <c r="W160" s="2320">
+        <v>17.98</v>
+      </c>
+      <c r="X160" s="2322">
+        <v>186000</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2330">
+      <c r="A161" s="2324">
         <v>155</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="N161" s="2332">
-        <v>69172</v>
-      </c>
-      <c r="O161" s="2334">
-        <v>11646</v>
-      </c>
-      <c r="P161" s="2336">
-        <v>57526</v>
-      </c>
-      <c r="T161" s="2338">
-        <v>43.6</v>
-      </c>
-      <c r="U161" s="2340">
-        <v>10.1</v>
-      </c>
-      <c r="V161" s="2342">
-        <v>33.5</v>
-      </c>
-      <c r="W161" s="2344">
-        <v>16.84</v>
-      </c>
-      <c r="X161" s="2346">
-        <v>199000</v>
+      <c r="N161" s="2326">
+        <v>70499</v>
+      </c>
+      <c r="O161" s="2328">
+        <v>12950</v>
+      </c>
+      <c r="P161" s="2330">
+        <v>57549</v>
+      </c>
+      <c r="T161" s="2332">
+        <v>39.34</v>
+      </c>
+      <c r="U161" s="2334">
+        <v>11.56</v>
+      </c>
+      <c r="V161" s="2336">
+        <v>27.78</v>
+      </c>
+      <c r="W161" s="2338">
+        <v>18.37</v>
+      </c>
+      <c r="X161" s="2340">
+        <v>204000</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2348">
+      <c r="A162" s="2342">
         <v>156</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="N162" s="2350">
-        <v>67296</v>
-      </c>
-      <c r="O162" s="2352">
-        <v>11659</v>
-      </c>
-      <c r="P162" s="2354">
-        <v>55636</v>
-      </c>
-      <c r="T162" s="2356">
-        <v>37.22</v>
-      </c>
-      <c r="U162" s="2358">
-        <v>10.08</v>
-      </c>
-      <c r="V162" s="2360">
-        <v>27.14</v>
-      </c>
-      <c r="W162" s="2362">
-        <v>17.33</v>
-      </c>
-      <c r="X162" s="2364">
-        <v>177000</v>
+      <c r="N162" s="2344">
+        <v>69172</v>
+      </c>
+      <c r="O162" s="2346">
+        <v>11646</v>
+      </c>
+      <c r="P162" s="2348">
+        <v>57526</v>
+      </c>
+      <c r="T162" s="2350">
+        <v>43.6</v>
+      </c>
+      <c r="U162" s="2352">
+        <v>10.1</v>
+      </c>
+      <c r="V162" s="2354">
+        <v>33.5</v>
+      </c>
+      <c r="W162" s="2356">
+        <v>16.84</v>
+      </c>
+      <c r="X162" s="2358">
+        <v>199000</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2366">
+      <c r="A163" s="2360">
         <v>157</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="N163" s="2368">
-        <v>65859</v>
-      </c>
-      <c r="O163" s="2370">
-        <v>12707</v>
-      </c>
-      <c r="P163" s="2372">
-        <v>53152</v>
-      </c>
-      <c r="T163" s="2374">
-        <v>18.13</v>
-      </c>
-      <c r="U163" s="2376">
-        <v>14.33</v>
-      </c>
-      <c r="V163" s="2378">
-        <v>3.8</v>
-      </c>
-      <c r="W163" s="2380">
-        <v>19.29</v>
-      </c>
-      <c r="X163" s="2382">
-        <v>151000</v>
+      <c r="N163" s="2362">
+        <v>67296</v>
+      </c>
+      <c r="O163" s="2364">
+        <v>11659</v>
+      </c>
+      <c r="P163" s="2366">
+        <v>55636</v>
+      </c>
+      <c r="T163" s="2368">
+        <v>37.22</v>
+      </c>
+      <c r="U163" s="2370">
+        <v>10.08</v>
+      </c>
+      <c r="V163" s="2372">
+        <v>27.14</v>
+      </c>
+      <c r="W163" s="2374">
+        <v>17.33</v>
+      </c>
+      <c r="X163" s="2376">
+        <v>177000</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2384">
+      <c r="A164" s="2378">
         <v>158</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="N164" s="2386">
-        <v>66207</v>
-      </c>
-      <c r="O164" s="2388">
-        <v>13073</v>
-      </c>
-      <c r="P164" s="2390">
-        <v>53134</v>
-      </c>
-      <c r="T164" s="2392">
-        <v>20.86</v>
-      </c>
-      <c r="U164" s="2394">
-        <v>25.43</v>
-      </c>
-      <c r="V164" s="2396">
-        <v>-4.57</v>
-      </c>
-      <c r="W164" s="2398">
-        <v>19.75</v>
-      </c>
-      <c r="X164" s="2400">
-        <v>136000</v>
+      <c r="N164" s="2380">
+        <v>65859</v>
+      </c>
+      <c r="O164" s="2382">
+        <v>12707</v>
+      </c>
+      <c r="P164" s="2384">
+        <v>53152</v>
+      </c>
+      <c r="T164" s="2386">
+        <v>18.13</v>
+      </c>
+      <c r="U164" s="2388">
+        <v>14.33</v>
+      </c>
+      <c r="V164" s="2390">
+        <v>3.8</v>
+      </c>
+      <c r="W164" s="2392">
+        <v>19.29</v>
+      </c>
+      <c r="X164" s="2394">
+        <v>151000</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2402">
+      <c r="A165" s="2396">
         <v>159</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N165" s="2404">
-        <v>67207</v>
-      </c>
-      <c r="O165" s="2406">
-        <v>12371</v>
-      </c>
-      <c r="P165" s="2408">
-        <v>54836</v>
-      </c>
-      <c r="T165" s="2410">
-        <v>24.78</v>
-      </c>
-      <c r="U165" s="2412">
-        <v>14.59</v>
-      </c>
-      <c r="V165" s="2414">
-        <v>10.19</v>
-      </c>
-      <c r="X165" s="2416">
-        <v>70000</v>
+      <c r="N165" s="2398">
+        <v>66207</v>
+      </c>
+      <c r="O165" s="2400">
+        <v>13073</v>
+      </c>
+      <c r="P165" s="2402">
+        <v>53134</v>
+      </c>
+      <c r="T165" s="2404">
+        <v>20.86</v>
+      </c>
+      <c r="U165" s="2406">
+        <v>25.43</v>
+      </c>
+      <c r="V165" s="2408">
+        <v>-4.57</v>
+      </c>
+      <c r="W165" s="2410">
+        <v>19.75</v>
+      </c>
+      <c r="X165" s="2412">
+        <v>136000</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2418">
+      <c r="A166" s="2414">
         <v>160</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N166" s="2420">
-        <v>65994</v>
-      </c>
-      <c r="O166" s="2422">
-        <v>10721</v>
-      </c>
-      <c r="P166" s="2424">
-        <v>55273</v>
-      </c>
-      <c r="T166" s="2426">
-        <v>29.22</v>
-      </c>
-      <c r="U166" s="2428">
-        <v>11.98</v>
-      </c>
-      <c r="V166" s="2430">
-        <v>17.24</v>
-      </c>
-      <c r="X166" s="2432">
-        <v>72000</v>
+      <c r="N166" s="2416">
+        <v>67207</v>
+      </c>
+      <c r="O166" s="2418">
+        <v>12371</v>
+      </c>
+      <c r="P166" s="2420">
+        <v>54836</v>
+      </c>
+      <c r="T166" s="2422">
+        <v>24.78</v>
+      </c>
+      <c r="U166" s="2424">
+        <v>14.59</v>
+      </c>
+      <c r="V166" s="2426">
+        <v>10.19</v>
+      </c>
+      <c r="X166" s="2428">
+        <v>70000</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2434">
+      <c r="A167" s="2430">
         <v>161</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N167" s="2436">
-        <v>64653</v>
-      </c>
-      <c r="O167" s="2438">
-        <v>9949</v>
-      </c>
-      <c r="P167" s="2440">
-        <v>54704</v>
-      </c>
-      <c r="T167" s="2442">
-        <v>34.03</v>
-      </c>
-      <c r="U167" s="2444">
-        <v>10.8</v>
-      </c>
-      <c r="V167" s="2446">
-        <v>23.23</v>
-      </c>
-      <c r="W167" s="2448">
-        <v>15.4</v>
-      </c>
-      <c r="X167" s="2450">
-        <v>56000</v>
+      <c r="N167" s="2432">
+        <v>65994</v>
+      </c>
+      <c r="O167" s="2434">
+        <v>10721</v>
+      </c>
+      <c r="P167" s="2436">
+        <v>55273</v>
+      </c>
+      <c r="T167" s="2438">
+        <v>29.22</v>
+      </c>
+      <c r="U167" s="2440">
+        <v>11.98</v>
+      </c>
+      <c r="V167" s="2442">
+        <v>17.24</v>
+      </c>
+      <c r="X167" s="2444">
+        <v>72000</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2452">
+      <c r="A168" s="2446">
         <v>162</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N168" s="2454">
-        <v>62828</v>
-      </c>
-      <c r="O168" s="2456">
-        <v>9185</v>
-      </c>
-      <c r="P168" s="2458">
-        <v>53643</v>
-      </c>
-      <c r="T168" s="2460">
-        <v>31.9</v>
-      </c>
-      <c r="U168" s="2462">
-        <v>11.4</v>
-      </c>
-      <c r="V168" s="2464">
-        <v>20.5</v>
-      </c>
-      <c r="X168" s="2466">
-        <v>63000</v>
+      <c r="N168" s="2448">
+        <v>64653</v>
+      </c>
+      <c r="O168" s="2450">
+        <v>9949</v>
+      </c>
+      <c r="P168" s="2452">
+        <v>54704</v>
+      </c>
+      <c r="T168" s="2454">
+        <v>34.03</v>
+      </c>
+      <c r="U168" s="2456">
+        <v>10.8</v>
+      </c>
+      <c r="V168" s="2458">
+        <v>23.23</v>
+      </c>
+      <c r="W168" s="2460">
+        <v>15.4</v>
+      </c>
+      <c r="X168" s="2462">
+        <v>56000</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2468">
+      <c r="A169" s="2464">
         <v>163</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N169" s="2470">
-        <v>61465</v>
-      </c>
-      <c r="O169" s="2472">
-        <v>8285</v>
-      </c>
-      <c r="P169" s="2474">
-        <v>53180</v>
-      </c>
-      <c r="T169" s="2476">
-        <v>32.6</v>
-      </c>
-      <c r="U169" s="2478">
-        <v>12.28</v>
-      </c>
-      <c r="V169" s="2480">
-        <v>20.32</v>
-      </c>
-      <c r="W169" s="2482">
-        <v>13.48</v>
-      </c>
-      <c r="X169" s="2484">
-        <v>55000</v>
+      <c r="N169" s="2466">
+        <v>62828</v>
+      </c>
+      <c r="O169" s="2468">
+        <v>9185</v>
+      </c>
+      <c r="P169" s="2470">
+        <v>53643</v>
+      </c>
+      <c r="T169" s="2472">
+        <v>31.9</v>
+      </c>
+      <c r="U169" s="2474">
+        <v>11.4</v>
+      </c>
+      <c r="V169" s="2476">
+        <v>20.5</v>
+      </c>
+      <c r="X169" s="2478">
+        <v>63000</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2486">
+      <c r="A170" s="2480">
         <v>164</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="N170" s="2488">
-        <v>60266</v>
-      </c>
-      <c r="O170" s="2490">
-        <v>8249</v>
-      </c>
-      <c r="P170" s="2492">
-        <v>52017</v>
-      </c>
-      <c r="T170" s="2494">
-        <v>37.97</v>
-      </c>
-      <c r="U170" s="2496">
-        <v>13.18</v>
-      </c>
-      <c r="V170" s="2498">
-        <v>24.79</v>
-      </c>
-      <c r="X170" s="2500">
-        <v>47000</v>
+      <c r="N170" s="2482">
+        <v>61465</v>
+      </c>
+      <c r="O170" s="2484">
+        <v>8285</v>
+      </c>
+      <c r="P170" s="2486">
+        <v>53180</v>
+      </c>
+      <c r="T170" s="2488">
+        <v>32.6</v>
+      </c>
+      <c r="U170" s="2490">
+        <v>12.28</v>
+      </c>
+      <c r="V170" s="2492">
+        <v>20.32</v>
+      </c>
+      <c r="W170" s="2494">
+        <v>13.48</v>
+      </c>
+      <c r="X170" s="2496">
+        <v>55000</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2502">
+      <c r="A171" s="2498">
         <v>165</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="N171" s="2504">
-        <v>58796</v>
-      </c>
-      <c r="O171" s="2506">
-        <v>7826</v>
-      </c>
-      <c r="P171" s="2508">
-        <v>50970</v>
-      </c>
-      <c r="T171" s="2510">
-        <v>37</v>
-      </c>
-      <c r="U171" s="2512">
-        <v>14</v>
-      </c>
-      <c r="V171" s="2514">
-        <v>23</v>
-      </c>
-      <c r="W171" s="2516">
-        <v>13.26</v>
-      </c>
-      <c r="X171" s="2518">
-        <v>48000</v>
+      <c r="N171" s="2500">
+        <v>60266</v>
+      </c>
+      <c r="O171" s="2502">
+        <v>8249</v>
+      </c>
+      <c r="P171" s="2504">
+        <v>52017</v>
+      </c>
+      <c r="T171" s="2506">
+        <v>37.97</v>
+      </c>
+      <c r="U171" s="2508">
+        <v>13.18</v>
+      </c>
+      <c r="V171" s="2510">
+        <v>24.79</v>
+      </c>
+      <c r="X171" s="2512">
+        <v>47000</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2520">
+      <c r="A172" s="2514">
         <v>166</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="N172" s="2522">
-        <v>57482</v>
-      </c>
-      <c r="O172" s="2524">
-        <v>7163</v>
-      </c>
-      <c r="P172" s="2526">
-        <v>50319</v>
-      </c>
-      <c r="T172" s="2528">
+      <c r="N172" s="2516">
+        <v>58796</v>
+      </c>
+      <c r="O172" s="2518">
+        <v>7826</v>
+      </c>
+      <c r="P172" s="2520">
+        <v>50970</v>
+      </c>
+      <c r="T172" s="2522">
         <v>37</v>
       </c>
-      <c r="U172" s="2530">
-        <v>17</v>
-      </c>
-      <c r="V172" s="2532">
-        <v>20</v>
-      </c>
-      <c r="W172" s="2534">
-        <v>12.5</v>
-      </c>
-      <c r="X172" s="2536">
-        <v>32000</v>
+      <c r="U172" s="2524">
+        <v>14</v>
+      </c>
+      <c r="V172" s="2526">
+        <v>23</v>
+      </c>
+      <c r="W172" s="2528">
+        <v>13.26</v>
+      </c>
+      <c r="X172" s="2530">
+        <v>48000</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2538">
+      <c r="A173" s="2532">
         <v>167</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="N173" s="2540">
-        <v>56300</v>
-      </c>
-      <c r="O173" s="2542">
-        <v>6632</v>
-      </c>
-      <c r="P173" s="2544">
-        <v>49668</v>
-      </c>
-      <c r="T173" s="2546">
-        <v>37.8</v>
-      </c>
-      <c r="U173" s="2548">
-        <v>17.8</v>
-      </c>
-      <c r="V173" s="2550">
+      <c r="N173" s="2534">
+        <v>57482</v>
+      </c>
+      <c r="O173" s="2536">
+        <v>7163</v>
+      </c>
+      <c r="P173" s="2538">
+        <v>50319</v>
+      </c>
+      <c r="T173" s="2540">
+        <v>37</v>
+      </c>
+      <c r="U173" s="2542">
+        <v>17</v>
+      </c>
+      <c r="V173" s="2544">
         <v>20</v>
       </c>
-      <c r="W173" s="2552">
-        <v>11.78</v>
-      </c>
-      <c r="X173" s="2554">
-        <v>19000</v>
+      <c r="W173" s="2546">
+        <v>12.5</v>
+      </c>
+      <c r="X173" s="2548">
+        <v>32000</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2556">
+      <c r="A174" s="2550">
         <v>168</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="N174" s="2558">
-        <v>55196</v>
-      </c>
-      <c r="O174" s="2560">
-        <v>6169</v>
-      </c>
-      <c r="P174" s="2562">
-        <v>49027</v>
-      </c>
-      <c r="T174" s="2564">
-        <v>37</v>
-      </c>
-      <c r="U174" s="2566">
-        <v>18</v>
-      </c>
-      <c r="V174" s="2568">
-        <v>19</v>
-      </c>
-      <c r="W174" s="2570">
-        <v>11.18</v>
-      </c>
-      <c r="X174" s="2572">
-        <v>18000</v>
+      <c r="N174" s="2552">
+        <v>56300</v>
+      </c>
+      <c r="O174" s="2554">
+        <v>6632</v>
+      </c>
+      <c r="P174" s="2556">
+        <v>49668</v>
+      </c>
+      <c r="T174" s="2558">
+        <v>37.8</v>
+      </c>
+      <c r="U174" s="2560">
+        <v>17.8</v>
+      </c>
+      <c r="V174" s="2562">
+        <v>20</v>
+      </c>
+      <c r="W174" s="2564">
+        <v>11.78</v>
+      </c>
+      <c r="X174" s="2566">
+        <v>19000</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2574">
+      <c r="A175" s="2568">
         <v>169</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="N175" s="2576">
+      <c r="N175" s="2570">
+        <v>55196</v>
+      </c>
+      <c r="O175" s="2572">
+        <v>6169</v>
+      </c>
+      <c r="P175" s="2574">
+        <v>49027</v>
+      </c>
+      <c r="T175" s="2576">
+        <v>37</v>
+      </c>
+      <c r="U175" s="2578">
+        <v>18</v>
+      </c>
+      <c r="V175" s="2580">
+        <v>19</v>
+      </c>
+      <c r="W175" s="2582">
+        <v>11.18</v>
+      </c>
+      <c r="X175" s="2584">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2586">
+        <v>170</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="N176" s="2588">
         <v>54167</v>
       </c>
-      <c r="O175" s="2578">
+      <c r="O176" s="2590">
         <v>5765</v>
       </c>
-      <c r="P175" s="2580">
+      <c r="P176" s="2592">
         <v>48402</v>
       </c>
-      <c r="T175" s="2582">
+      <c r="T176" s="2594">
         <v>36</v>
       </c>
-      <c r="U175" s="2584">
+      <c r="U176" s="2596">
         <v>20</v>
       </c>
-      <c r="V175" s="2586">
+      <c r="V176" s="2598">
         <v>16</v>
       </c>
-      <c r="W175" s="2588">
+      <c r="W176" s="2600">
         <v>10.64</v>
       </c>
-      <c r="X175" s="2590">
+      <c r="X176" s="2602">
         <v>21000</v>
       </c>
     </row>
-    <row r="182" ht="25" customHeight="1">
-      <c r="A182" s="2591" t="s">
-        <v>229</v>
+    <row r="183" ht="25" customHeight="1">
+      <c r="A183" s="2603" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/人口就业.xlsx
+++ b/data/人口就业.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="239">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t xml:space="preserve">中华人民共和国国家统计局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-09</t>
   </si>
   <si>
     <t xml:space="preserve">2024-08</t>
@@ -779,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2862">
+  <cellXfs count="2882">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,6 +802,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -4203,22 +4226,22 @@
         <v>66</v>
       </c>
       <c r="C7" s="12">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="D7" s="14">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="E7" s="16">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="F7" s="18">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I7" s="20">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="Y7" s="22">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="8">
@@ -4229,28 +4252,28 @@
         <v>67</v>
       </c>
       <c r="C8" s="26">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D8" s="28">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="E8" s="30">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F8" s="32">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I8" s="34">
         <v>48.7</v>
       </c>
       <c r="Y8" s="36">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z8" s="38">
-        <v>17.1</v>
+        <v>18.8</v>
       </c>
       <c r="AA8" s="40">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB8" s="42">
         <v>3.9</v>
@@ -4264,31 +4287,31 @@
         <v>68</v>
       </c>
       <c r="C9" s="46">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D9" s="48">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="E9" s="50">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F9" s="52">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I9" s="54">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="Y9" s="56">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z9" s="58">
-        <v>13.2</v>
+        <v>17.1</v>
       </c>
       <c r="AA9" s="60">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB9" s="62">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="10">
@@ -4305,22 +4328,22 @@
         <v>4.9</v>
       </c>
       <c r="E10" s="70">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F10" s="72">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I10" s="74">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="Y10" s="76">
         <v>5</v>
       </c>
       <c r="Z10" s="78">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="AA10" s="80">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB10" s="82">
         <v>4</v>
@@ -4337,25 +4360,25 @@
         <v>5</v>
       </c>
       <c r="D11" s="88">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E11" s="90">
         <v>5.1</v>
       </c>
       <c r="F11" s="92">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I11" s="94">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="Y11" s="96">
         <v>5</v>
       </c>
       <c r="Z11" s="98">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="AA11" s="100">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB11" s="102">
         <v>4</v>
@@ -4369,31 +4392,31 @@
         <v>71</v>
       </c>
       <c r="C12" s="106">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D12" s="108">
+        <v>5</v>
+      </c>
+      <c r="E12" s="110">
         <v>5.1</v>
       </c>
-      <c r="E12" s="110">
-        <v>5.3</v>
-      </c>
       <c r="F12" s="112">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I12" s="114">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="Y12" s="116">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="118">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="AA12" s="120">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB12" s="122">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -4404,31 +4427,31 @@
         <v>72</v>
       </c>
       <c r="C13" s="126">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D13" s="128">
         <v>5.1</v>
       </c>
       <c r="E13" s="130">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F13" s="132">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I13" s="134">
-        <v>48</v>
+        <v>48.6</v>
       </c>
       <c r="Y13" s="136">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z13" s="138">
         <v>15.3</v>
       </c>
       <c r="AA13" s="140">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB13" s="142">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="14">
@@ -4439,31 +4462,31 @@
         <v>73</v>
       </c>
       <c r="C14" s="146">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D14" s="148">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="E14" s="150">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F14" s="152">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I14" s="154">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y14" s="156">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z14" s="158">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="AA14" s="160">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB14" s="162">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="15">
@@ -4474,13 +4497,13 @@
         <v>74</v>
       </c>
       <c r="C15" s="166">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D15" s="168">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E15" s="170">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F15" s="172">
         <v>4.7</v>
@@ -4488,2784 +4511,2784 @@
       <c r="I15" s="174">
         <v>49</v>
       </c>
-      <c r="N15" s="176">
-        <v>140967</v>
-      </c>
-      <c r="O15" s="178">
-        <v>93267</v>
-      </c>
-      <c r="P15" s="180">
-        <v>47700</v>
-      </c>
-      <c r="Q15" s="182">
-        <v>-208</v>
-      </c>
-      <c r="R15" s="184">
-        <v>1196</v>
-      </c>
-      <c r="S15" s="186">
-        <v>-1404</v>
-      </c>
-      <c r="T15" s="188">
-        <v>6.39</v>
-      </c>
-      <c r="U15" s="190">
-        <v>7.87</v>
-      </c>
-      <c r="V15" s="192">
-        <v>-1.48</v>
-      </c>
-      <c r="W15" s="194">
-        <v>66.16</v>
-      </c>
-      <c r="Y15" s="196">
-        <v>5.1</v>
-      </c>
-      <c r="Z15" s="198">
-        <v>14.9</v>
-      </c>
-      <c r="AA15" s="200">
-        <v>6.1</v>
-      </c>
-      <c r="AB15" s="202">
-        <v>3.9</v>
+      <c r="Y15" s="176">
+        <v>5.2</v>
+      </c>
+      <c r="Z15" s="178">
+        <v>14.6</v>
+      </c>
+      <c r="AA15" s="180">
+        <v>6.2</v>
+      </c>
+      <c r="AB15" s="182">
+        <v>4.1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="204">
+      <c r="A16" s="184">
         <v>10</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="206">
+      <c r="C16" s="186">
+        <v>5.1</v>
+      </c>
+      <c r="D16" s="188">
         <v>5</v>
       </c>
-      <c r="D16" s="208">
-        <v>5</v>
-      </c>
-      <c r="E16" s="210">
+      <c r="E16" s="190">
+        <v>5.2</v>
+      </c>
+      <c r="F16" s="192">
+        <v>4.7</v>
+      </c>
+      <c r="I16" s="194">
+        <v>49</v>
+      </c>
+      <c r="N16" s="196">
+        <v>140967</v>
+      </c>
+      <c r="O16" s="198">
+        <v>93267</v>
+      </c>
+      <c r="P16" s="200">
+        <v>47700</v>
+      </c>
+      <c r="Q16" s="202">
+        <v>-208</v>
+      </c>
+      <c r="R16" s="204">
+        <v>1196</v>
+      </c>
+      <c r="S16" s="206">
+        <v>-1404</v>
+      </c>
+      <c r="T16" s="208">
+        <v>6.39</v>
+      </c>
+      <c r="U16" s="210">
+        <v>7.87</v>
+      </c>
+      <c r="V16" s="212">
+        <v>-1.48</v>
+      </c>
+      <c r="W16" s="214">
+        <v>66.16</v>
+      </c>
+      <c r="Y16" s="216">
         <v>5.1</v>
       </c>
-      <c r="F16" s="212">
-        <v>4.7</v>
-      </c>
-      <c r="I16" s="214">
-        <v>48.9</v>
-      </c>
-      <c r="Y16" s="216">
-        <v>5</v>
+      <c r="Z16" s="218">
+        <v>14.9</v>
+      </c>
+      <c r="AA16" s="220">
+        <v>6.1</v>
+      </c>
+      <c r="AB16" s="222">
+        <v>3.9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="218">
+      <c r="A17" s="224">
         <v>11</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="220">
+      <c r="C17" s="226">
         <v>5</v>
       </c>
-      <c r="D17" s="222">
+      <c r="D17" s="228">
         <v>5</v>
       </c>
-      <c r="E17" s="224">
+      <c r="E17" s="230">
+        <v>5.1</v>
+      </c>
+      <c r="F17" s="232">
+        <v>4.7</v>
+      </c>
+      <c r="I17" s="234">
+        <v>48.9</v>
+      </c>
+      <c r="Y17" s="236">
         <v>5</v>
       </c>
-      <c r="F17" s="226">
-        <v>4.9</v>
-      </c>
-      <c r="I17" s="228">
-        <v>48.7</v>
-      </c>
-      <c r="Y17" s="230">
-        <v>5</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="232">
+      <c r="A18" s="238">
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="234">
+      <c r="C18" s="240">
         <v>5</v>
       </c>
-      <c r="D18" s="236">
-        <v>5.2</v>
-      </c>
-      <c r="E18" s="238">
-        <v>5.1</v>
-      </c>
-      <c r="F18" s="240">
+      <c r="D18" s="242">
+        <v>5</v>
+      </c>
+      <c r="E18" s="244">
+        <v>5</v>
+      </c>
+      <c r="F18" s="246">
         <v>4.9</v>
       </c>
-      <c r="I18" s="242">
-        <v>48.8</v>
-      </c>
-      <c r="Y18" s="244">
+      <c r="I18" s="248">
+        <v>48.7</v>
+      </c>
+      <c r="Y18" s="250">
         <v>5</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="246">
+      <c r="A19" s="252">
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="248">
+      <c r="C19" s="254">
+        <v>5</v>
+      </c>
+      <c r="D19" s="256">
         <v>5.2</v>
       </c>
-      <c r="D19" s="250">
-        <v>5.3</v>
-      </c>
-      <c r="E19" s="252">
-        <v>5.3</v>
-      </c>
-      <c r="F19" s="254">
-        <v>4.8</v>
-      </c>
-      <c r="I19" s="256">
-        <v>48.7</v>
-      </c>
-      <c r="Y19" s="258">
-        <v>5.2</v>
+      <c r="E19" s="258">
+        <v>5.1</v>
+      </c>
+      <c r="F19" s="260">
+        <v>4.9</v>
+      </c>
+      <c r="I19" s="262">
+        <v>48.8</v>
+      </c>
+      <c r="Y19" s="264">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="260">
+      <c r="A20" s="266">
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="262">
+      <c r="C20" s="268">
+        <v>5.2</v>
+      </c>
+      <c r="D20" s="270">
         <v>5.3</v>
       </c>
-      <c r="D20" s="264">
-        <v>5.4</v>
-      </c>
-      <c r="E20" s="266">
+      <c r="E20" s="272">
         <v>5.3</v>
       </c>
-      <c r="F20" s="268">
+      <c r="F20" s="274">
+        <v>4.8</v>
+      </c>
+      <c r="I20" s="276">
+        <v>48.7</v>
+      </c>
+      <c r="Y20" s="278">
         <v>5.2</v>
       </c>
-      <c r="I20" s="270">
-        <v>48.7</v>
-      </c>
-      <c r="Y20" s="272">
-        <v>5.3</v>
-      </c>
     </row>
     <row r="21">
-      <c r="A21" s="274">
+      <c r="A21" s="280">
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="276">
+      <c r="C21" s="282">
+        <v>5.3</v>
+      </c>
+      <c r="D21" s="284">
+        <v>5.4</v>
+      </c>
+      <c r="E21" s="286">
+        <v>5.3</v>
+      </c>
+      <c r="F21" s="288">
         <v>5.2</v>
       </c>
-      <c r="D21" s="278">
-        <v>5.5</v>
-      </c>
-      <c r="E21" s="280">
-        <v>5.1</v>
-      </c>
-      <c r="F21" s="282">
+      <c r="I21" s="290">
+        <v>48.7</v>
+      </c>
+      <c r="Y21" s="292">
         <v>5.3</v>
       </c>
-      <c r="G21" s="284">
-        <v>21.3</v>
-      </c>
-      <c r="H21" s="286">
-        <v>4.1</v>
-      </c>
-      <c r="I21" s="288">
-        <v>48.7</v>
-      </c>
-      <c r="J21" s="290">
-        <v>4.4</v>
-      </c>
-      <c r="K21" s="292">
-        <v>4.4</v>
-      </c>
-      <c r="L21" s="294">
-        <v>3.9</v>
-      </c>
-      <c r="M21" s="296">
-        <v>3.2</v>
-      </c>
-      <c r="Y21" s="298">
-        <v>5.2</v>
-      </c>
     </row>
     <row r="22">
-      <c r="A22" s="300">
+      <c r="A22" s="294">
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="302">
+      <c r="C22" s="296">
         <v>5.2</v>
       </c>
-      <c r="D22" s="304">
+      <c r="D22" s="298">
         <v>5.5</v>
       </c>
-      <c r="E22" s="306">
+      <c r="E22" s="300">
         <v>5.1</v>
       </c>
-      <c r="F22" s="308">
-        <v>5.4</v>
-      </c>
-      <c r="G22" s="310">
-        <v>20.8</v>
-      </c>
-      <c r="H22" s="312">
+      <c r="F22" s="302">
+        <v>5.3</v>
+      </c>
+      <c r="G22" s="304">
+        <v>21.3</v>
+      </c>
+      <c r="H22" s="306">
         <v>4.1</v>
       </c>
-      <c r="I22" s="314">
-        <v>48.6</v>
-      </c>
-      <c r="J22" s="316">
+      <c r="I22" s="308">
+        <v>48.7</v>
+      </c>
+      <c r="J22" s="310">
         <v>4.4</v>
       </c>
-      <c r="K22" s="318">
+      <c r="K22" s="312">
         <v>4.4</v>
       </c>
-      <c r="L22" s="320">
-        <v>4.1</v>
-      </c>
-      <c r="M22" s="322">
+      <c r="L22" s="314">
+        <v>3.9</v>
+      </c>
+      <c r="M22" s="316">
         <v>3.2</v>
       </c>
-      <c r="Y22" s="324">
+      <c r="Y22" s="318">
         <v>5.2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="326">
+      <c r="A23" s="320">
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="328">
+      <c r="C23" s="322">
         <v>5.2</v>
       </c>
-      <c r="D23" s="330">
+      <c r="D23" s="324">
         <v>5.5</v>
       </c>
-      <c r="E23" s="332">
+      <c r="E23" s="326">
         <v>5.1</v>
       </c>
-      <c r="F23" s="334">
+      <c r="F23" s="328">
         <v>5.4</v>
       </c>
-      <c r="G23" s="336">
-        <v>20.4</v>
-      </c>
-      <c r="H23" s="338">
-        <v>4.2</v>
-      </c>
-      <c r="I23" s="340">
-        <v>48.8</v>
-      </c>
-      <c r="J23" s="342">
-        <v>4.5</v>
-      </c>
-      <c r="K23" s="344">
-        <v>4.6</v>
-      </c>
-      <c r="L23" s="346">
-        <v>4</v>
-      </c>
-      <c r="M23" s="348">
-        <v>3.1</v>
-      </c>
-      <c r="Y23" s="350">
+      <c r="G23" s="330">
+        <v>20.8</v>
+      </c>
+      <c r="H23" s="332">
+        <v>4.1</v>
+      </c>
+      <c r="I23" s="334">
+        <v>48.6</v>
+      </c>
+      <c r="J23" s="336">
+        <v>4.4</v>
+      </c>
+      <c r="K23" s="338">
+        <v>4.4</v>
+      </c>
+      <c r="L23" s="340">
+        <v>4.1</v>
+      </c>
+      <c r="M23" s="342">
+        <v>3.2</v>
+      </c>
+      <c r="Y23" s="344">
         <v>5.2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="352">
+      <c r="A24" s="346">
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="354">
-        <v>5.3</v>
-      </c>
-      <c r="D24" s="356">
+      <c r="C24" s="348">
+        <v>5.2</v>
+      </c>
+      <c r="D24" s="350">
         <v>5.5</v>
       </c>
-      <c r="E24" s="358">
+      <c r="E24" s="352">
         <v>5.1</v>
       </c>
-      <c r="F24" s="360">
-        <v>5.6</v>
-      </c>
-      <c r="G24" s="362">
-        <v>19.6</v>
-      </c>
-      <c r="H24" s="364">
-        <v>4.3</v>
-      </c>
-      <c r="I24" s="366">
-        <v>48.7</v>
-      </c>
-      <c r="J24" s="368">
-        <v>4.8</v>
-      </c>
-      <c r="K24" s="370">
-        <v>4.8</v>
-      </c>
-      <c r="L24" s="372">
+      <c r="F24" s="354">
+        <v>5.4</v>
+      </c>
+      <c r="G24" s="356">
+        <v>20.4</v>
+      </c>
+      <c r="H24" s="358">
+        <v>4.2</v>
+      </c>
+      <c r="I24" s="360">
+        <v>48.8</v>
+      </c>
+      <c r="J24" s="362">
+        <v>4.5</v>
+      </c>
+      <c r="K24" s="364">
+        <v>4.6</v>
+      </c>
+      <c r="L24" s="366">
         <v>4</v>
       </c>
-      <c r="M24" s="374">
+      <c r="M24" s="368">
         <v>3.1</v>
       </c>
-      <c r="Y24" s="376">
-        <v>5.3</v>
+      <c r="Y24" s="370">
+        <v>5.2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="378">
+      <c r="A25" s="372">
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="380">
+      <c r="C25" s="374">
+        <v>5.3</v>
+      </c>
+      <c r="D25" s="376">
+        <v>5.5</v>
+      </c>
+      <c r="E25" s="378">
+        <v>5.1</v>
+      </c>
+      <c r="F25" s="380">
         <v>5.6</v>
       </c>
-      <c r="D25" s="382">
-        <v>5.7</v>
-      </c>
-      <c r="E25" s="384">
-        <v>5.4</v>
-      </c>
-      <c r="F25" s="386">
-        <v>5.9</v>
-      </c>
-      <c r="G25" s="388">
-        <v>18.1</v>
-      </c>
-      <c r="H25" s="390">
+      <c r="G25" s="382">
+        <v>19.6</v>
+      </c>
+      <c r="H25" s="384">
+        <v>4.3</v>
+      </c>
+      <c r="I25" s="386">
+        <v>48.7</v>
+      </c>
+      <c r="J25" s="388">
         <v>4.8</v>
       </c>
-      <c r="I25" s="392">
-        <v>47.9</v>
-      </c>
-      <c r="J25" s="394">
-        <v>5.7</v>
-      </c>
-      <c r="K25" s="396">
-        <v>5.2</v>
-      </c>
-      <c r="L25" s="398">
-        <v>4.1</v>
-      </c>
-      <c r="M25" s="400">
-        <v>3</v>
-      </c>
-      <c r="Y25" s="402">
-        <v>5.6</v>
+      <c r="K25" s="390">
+        <v>4.8</v>
+      </c>
+      <c r="L25" s="392">
+        <v>4</v>
+      </c>
+      <c r="M25" s="394">
+        <v>3.1</v>
+      </c>
+      <c r="Y25" s="396">
+        <v>5.3</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="404">
+      <c r="A26" s="398">
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="406">
-        <v>5.5</v>
-      </c>
-      <c r="D26" s="408">
-        <v>5.8</v>
-      </c>
-      <c r="E26" s="410">
+      <c r="C26" s="400">
+        <v>5.6</v>
+      </c>
+      <c r="D26" s="402">
+        <v>5.7</v>
+      </c>
+      <c r="E26" s="404">
         <v>5.4</v>
       </c>
-      <c r="F26" s="412">
+      <c r="F26" s="406">
+        <v>5.9</v>
+      </c>
+      <c r="G26" s="408">
+        <v>18.1</v>
+      </c>
+      <c r="H26" s="410">
+        <v>4.8</v>
+      </c>
+      <c r="I26" s="412">
+        <v>47.9</v>
+      </c>
+      <c r="J26" s="414">
+        <v>5.7</v>
+      </c>
+      <c r="K26" s="416">
+        <v>5.2</v>
+      </c>
+      <c r="L26" s="418">
+        <v>4.1</v>
+      </c>
+      <c r="M26" s="420">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="422">
         <v>5.6</v>
       </c>
-      <c r="G26" s="414">
-        <v>17.3</v>
-      </c>
-      <c r="H26" s="416">
-        <v>4.7</v>
-      </c>
-      <c r="I26" s="418">
-        <v>47.9</v>
-      </c>
-      <c r="Y26" s="420">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="27">
-      <c r="A27" s="422">
+      <c r="A27" s="424">
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="424">
+      <c r="C27" s="426">
         <v>5.5</v>
       </c>
-      <c r="D27" s="426">
-        <v>6.1</v>
-      </c>
-      <c r="E27" s="428">
+      <c r="D27" s="428">
+        <v>5.8</v>
+      </c>
+      <c r="E27" s="430">
         <v>5.4</v>
       </c>
-      <c r="F27" s="430">
-        <v>5.7</v>
-      </c>
-      <c r="G27" s="432">
-        <v>16.7</v>
-      </c>
-      <c r="H27" s="434">
-        <v>4.8</v>
-      </c>
-      <c r="I27" s="436">
+      <c r="F27" s="432">
+        <v>5.6</v>
+      </c>
+      <c r="G27" s="434">
+        <v>17.3</v>
+      </c>
+      <c r="H27" s="436">
+        <v>4.7</v>
+      </c>
+      <c r="I27" s="438">
         <v>47.9</v>
       </c>
-      <c r="N27" s="438">
-        <v>141175</v>
-      </c>
-      <c r="O27" s="440">
-        <v>92071</v>
-      </c>
-      <c r="P27" s="442">
-        <v>49104</v>
-      </c>
-      <c r="Q27" s="444">
-        <v>-85</v>
-      </c>
-      <c r="R27" s="446">
-        <v>646</v>
-      </c>
-      <c r="S27" s="448">
-        <v>-731</v>
-      </c>
-      <c r="T27" s="450">
-        <v>6.77</v>
-      </c>
-      <c r="U27" s="452">
-        <v>7.37</v>
-      </c>
-      <c r="V27" s="454">
-        <v>-0.6</v>
-      </c>
-      <c r="W27" s="456">
-        <v>65.22</v>
-      </c>
-      <c r="X27" s="458">
-        <v>9672565</v>
-      </c>
-      <c r="Y27" s="460">
+      <c r="Y27" s="440">
         <v>5.5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="462">
+      <c r="A28" s="442">
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="464">
+      <c r="C28" s="444">
+        <v>5.5</v>
+      </c>
+      <c r="D28" s="446">
+        <v>6.1</v>
+      </c>
+      <c r="E28" s="448">
+        <v>5.4</v>
+      </c>
+      <c r="F28" s="450">
         <v>5.7</v>
       </c>
-      <c r="D28" s="466">
-        <v>6.7</v>
-      </c>
-      <c r="E28" s="468">
+      <c r="G28" s="452">
+        <v>16.7</v>
+      </c>
+      <c r="H28" s="454">
+        <v>4.8</v>
+      </c>
+      <c r="I28" s="456">
+        <v>47.9</v>
+      </c>
+      <c r="N28" s="458">
+        <v>141175</v>
+      </c>
+      <c r="O28" s="460">
+        <v>92071</v>
+      </c>
+      <c r="P28" s="462">
+        <v>49104</v>
+      </c>
+      <c r="Q28" s="464">
+        <v>-85</v>
+      </c>
+      <c r="R28" s="466">
+        <v>646</v>
+      </c>
+      <c r="S28" s="468">
+        <v>-731</v>
+      </c>
+      <c r="T28" s="470">
+        <v>6.77</v>
+      </c>
+      <c r="U28" s="472">
+        <v>7.37</v>
+      </c>
+      <c r="V28" s="474">
+        <v>-0.6</v>
+      </c>
+      <c r="W28" s="476">
+        <v>65.22</v>
+      </c>
+      <c r="X28" s="478">
+        <v>9672565</v>
+      </c>
+      <c r="Y28" s="480">
         <v>5.5</v>
       </c>
-      <c r="F28" s="470">
-        <v>6.2</v>
-      </c>
-      <c r="G28" s="472">
-        <v>17.1</v>
-      </c>
-      <c r="H28" s="474">
-        <v>5</v>
-      </c>
-      <c r="I28" s="476">
-        <v>47.7</v>
-      </c>
-      <c r="Y28" s="478">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="480">
+      <c r="A29" s="482">
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="482">
+      <c r="C29" s="484">
+        <v>5.7</v>
+      </c>
+      <c r="D29" s="486">
+        <v>6.7</v>
+      </c>
+      <c r="E29" s="488">
         <v>5.5</v>
       </c>
-      <c r="D29" s="484">
-        <v>6</v>
-      </c>
-      <c r="E29" s="486">
-        <v>5.4</v>
-      </c>
-      <c r="F29" s="488">
+      <c r="F29" s="490">
+        <v>6.2</v>
+      </c>
+      <c r="G29" s="492">
+        <v>17.1</v>
+      </c>
+      <c r="H29" s="494">
+        <v>5</v>
+      </c>
+      <c r="I29" s="496">
+        <v>47.7</v>
+      </c>
+      <c r="Y29" s="498">
         <v>5.7</v>
       </c>
-      <c r="G29" s="490">
-        <v>17.9</v>
-      </c>
-      <c r="H29" s="492">
-        <v>4.7</v>
-      </c>
-      <c r="I29" s="494">
-        <v>47.9</v>
-      </c>
-      <c r="Y29" s="496">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="30">
-      <c r="A30" s="498">
+      <c r="A30" s="500">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="500">
+      <c r="C30" s="502">
         <v>5.5</v>
       </c>
-      <c r="D30" s="502">
-        <v>5.8</v>
-      </c>
-      <c r="E30" s="504">
+      <c r="D30" s="504">
+        <v>6</v>
+      </c>
+      <c r="E30" s="506">
         <v>5.4</v>
       </c>
-      <c r="F30" s="506">
-        <v>5.6</v>
-      </c>
-      <c r="G30" s="508">
+      <c r="F30" s="508">
+        <v>5.7</v>
+      </c>
+      <c r="G30" s="510">
         <v>17.9</v>
       </c>
-      <c r="H30" s="510">
+      <c r="H30" s="512">
         <v>4.7</v>
       </c>
-      <c r="I30" s="512">
-        <v>47.8</v>
-      </c>
-      <c r="Y30" s="514">
+      <c r="I30" s="514">
+        <v>47.9</v>
+      </c>
+      <c r="Y30" s="516">
         <v>5.5</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="516">
+      <c r="A31" s="518">
         <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="518">
-        <v>5.3</v>
-      </c>
-      <c r="D31" s="520">
+      <c r="C31" s="520">
+        <v>5.5</v>
+      </c>
+      <c r="D31" s="522">
+        <v>5.8</v>
+      </c>
+      <c r="E31" s="524">
         <v>5.4</v>
       </c>
-      <c r="E31" s="522">
-        <v>5.3</v>
-      </c>
-      <c r="F31" s="524">
-        <v>5.3</v>
-      </c>
-      <c r="G31" s="526">
-        <v>18.7</v>
-      </c>
-      <c r="H31" s="528">
-        <v>4.3</v>
-      </c>
-      <c r="I31" s="530">
-        <v>48</v>
-      </c>
-      <c r="Y31" s="532">
-        <v>5.3</v>
+      <c r="F31" s="526">
+        <v>5.6</v>
+      </c>
+      <c r="G31" s="528">
+        <v>17.9</v>
+      </c>
+      <c r="H31" s="530">
+        <v>4.7</v>
+      </c>
+      <c r="I31" s="532">
+        <v>47.8</v>
+      </c>
+      <c r="Y31" s="534">
+        <v>5.5</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="534">
+      <c r="A32" s="536">
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="536">
+      <c r="C32" s="538">
+        <v>5.3</v>
+      </c>
+      <c r="D32" s="540">
         <v>5.4</v>
       </c>
-      <c r="D32" s="538">
-        <v>5.6</v>
-      </c>
-      <c r="E32" s="540">
+      <c r="E32" s="542">
         <v>5.3</v>
       </c>
-      <c r="F32" s="542">
-        <v>5.5</v>
-      </c>
-      <c r="G32" s="544">
-        <v>19.9</v>
-      </c>
-      <c r="H32" s="546">
+      <c r="F32" s="544">
+        <v>5.3</v>
+      </c>
+      <c r="G32" s="546">
+        <v>18.7</v>
+      </c>
+      <c r="H32" s="548">
         <v>4.3</v>
       </c>
-      <c r="I32" s="548">
+      <c r="I32" s="550">
         <v>48</v>
       </c>
-      <c r="Y32" s="550">
-        <v>5.4</v>
+      <c r="Y32" s="552">
+        <v>5.3</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="552">
+      <c r="A33" s="554">
         <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="554">
+      <c r="C33" s="556">
+        <v>5.4</v>
+      </c>
+      <c r="D33" s="558">
+        <v>5.6</v>
+      </c>
+      <c r="E33" s="560">
+        <v>5.3</v>
+      </c>
+      <c r="F33" s="562">
         <v>5.5</v>
       </c>
-      <c r="D33" s="556">
-        <v>5.8</v>
-      </c>
-      <c r="E33" s="558">
-        <v>5.3</v>
-      </c>
-      <c r="F33" s="560">
-        <v>5.8</v>
-      </c>
-      <c r="G33" s="562">
-        <v>19.3</v>
-      </c>
-      <c r="H33" s="564">
-        <v>4.5</v>
-      </c>
-      <c r="I33" s="566">
-        <v>47.7</v>
-      </c>
-      <c r="Y33" s="568">
-        <v>5.5</v>
+      <c r="G33" s="564">
+        <v>19.9</v>
+      </c>
+      <c r="H33" s="566">
+        <v>4.3</v>
+      </c>
+      <c r="I33" s="568">
+        <v>48</v>
+      </c>
+      <c r="Y33" s="570">
+        <v>5.4</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="570">
+      <c r="A34" s="572">
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="572">
-        <v>5.9</v>
-      </c>
-      <c r="D34" s="574">
-        <v>6.9</v>
-      </c>
-      <c r="E34" s="576">
+      <c r="C34" s="574">
         <v>5.5</v>
       </c>
-      <c r="F34" s="578">
-        <v>6.6</v>
-      </c>
-      <c r="G34" s="580">
-        <v>18.4</v>
-      </c>
-      <c r="H34" s="582">
-        <v>5.1</v>
-      </c>
-      <c r="I34" s="584">
-        <v>47.2</v>
-      </c>
-      <c r="Y34" s="586">
-        <v>5.9</v>
+      <c r="D34" s="576">
+        <v>5.8</v>
+      </c>
+      <c r="E34" s="578">
+        <v>5.3</v>
+      </c>
+      <c r="F34" s="580">
+        <v>5.8</v>
+      </c>
+      <c r="G34" s="582">
+        <v>19.3</v>
+      </c>
+      <c r="H34" s="584">
+        <v>4.5</v>
+      </c>
+      <c r="I34" s="586">
+        <v>47.7</v>
+      </c>
+      <c r="Y34" s="588">
+        <v>5.5</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="588">
+      <c r="A35" s="590">
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="590">
-        <v>6.1</v>
-      </c>
-      <c r="D35" s="592">
-        <v>6.7</v>
-      </c>
-      <c r="E35" s="594">
-        <v>5.7</v>
-      </c>
-      <c r="F35" s="596">
+      <c r="C35" s="592">
+        <v>5.9</v>
+      </c>
+      <c r="D35" s="594">
         <v>6.9</v>
       </c>
-      <c r="G35" s="598">
-        <v>18.2</v>
-      </c>
-      <c r="H35" s="600">
-        <v>5.3</v>
-      </c>
-      <c r="I35" s="602">
-        <v>46.2</v>
-      </c>
-      <c r="Y35" s="604">
-        <v>6.1</v>
+      <c r="E35" s="596">
+        <v>5.5</v>
+      </c>
+      <c r="F35" s="598">
+        <v>6.6</v>
+      </c>
+      <c r="G35" s="600">
+        <v>18.4</v>
+      </c>
+      <c r="H35" s="602">
+        <v>5.1</v>
+      </c>
+      <c r="I35" s="604">
+        <v>47.2</v>
+      </c>
+      <c r="Y35" s="606">
+        <v>5.9</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="606">
+      <c r="A36" s="608">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="608">
-        <v>5.8</v>
-      </c>
-      <c r="D36" s="610">
-        <v>6</v>
-      </c>
-      <c r="E36" s="612">
-        <v>5.6</v>
-      </c>
-      <c r="F36" s="614">
-        <v>6.3</v>
-      </c>
-      <c r="G36" s="616">
-        <v>16</v>
-      </c>
-      <c r="H36" s="618">
-        <v>5.2</v>
-      </c>
-      <c r="I36" s="620">
-        <v>47.3</v>
-      </c>
-      <c r="Y36" s="622">
-        <v>5.8</v>
+      <c r="C36" s="610">
+        <v>6.1</v>
+      </c>
+      <c r="D36" s="612">
+        <v>6.7</v>
+      </c>
+      <c r="E36" s="614">
+        <v>5.7</v>
+      </c>
+      <c r="F36" s="616">
+        <v>6.9</v>
+      </c>
+      <c r="G36" s="618">
+        <v>18.2</v>
+      </c>
+      <c r="H36" s="620">
+        <v>5.3</v>
+      </c>
+      <c r="I36" s="622">
+        <v>46.2</v>
+      </c>
+      <c r="Y36" s="624">
+        <v>6.1</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="624">
+      <c r="A37" s="626">
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="626">
-        <v>5.5</v>
-      </c>
-      <c r="D37" s="628">
-        <v>5.4</v>
-      </c>
-      <c r="E37" s="630">
-        <v>5.5</v>
-      </c>
-      <c r="F37" s="632">
+      <c r="C37" s="628">
+        <v>5.8</v>
+      </c>
+      <c r="D37" s="630">
+        <v>6</v>
+      </c>
+      <c r="E37" s="632">
         <v>5.6</v>
       </c>
-      <c r="G37" s="634">
-        <v>15.3</v>
-      </c>
-      <c r="H37" s="636">
-        <v>4.8</v>
-      </c>
-      <c r="I37" s="638">
-        <v>46.7</v>
-      </c>
-      <c r="Y37" s="640">
-        <v>5.5</v>
+      <c r="F37" s="634">
+        <v>6.3</v>
+      </c>
+      <c r="G37" s="636">
+        <v>16</v>
+      </c>
+      <c r="H37" s="638">
+        <v>5.2</v>
+      </c>
+      <c r="I37" s="640">
+        <v>47.3</v>
+      </c>
+      <c r="Y37" s="642">
+        <v>5.8</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="642">
+      <c r="A38" s="644">
         <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="644">
-        <v>5.3</v>
-      </c>
-      <c r="E38" s="646">
+      <c r="C38" s="646">
+        <v>5.5</v>
+      </c>
+      <c r="D38" s="648">
         <v>5.4</v>
       </c>
-      <c r="F38" s="648">
-        <v>5.1</v>
-      </c>
-      <c r="G38" s="650">
+      <c r="E38" s="650">
+        <v>5.5</v>
+      </c>
+      <c r="F38" s="652">
+        <v>5.6</v>
+      </c>
+      <c r="G38" s="654">
         <v>15.3</v>
       </c>
-      <c r="H38" s="652">
-        <v>4.6</v>
-      </c>
-      <c r="I38" s="654">
-        <v>47.5</v>
-      </c>
-      <c r="Y38" s="656">
-        <v>5.3</v>
+      <c r="H38" s="656">
+        <v>4.8</v>
+      </c>
+      <c r="I38" s="658">
+        <v>46.7</v>
+      </c>
+      <c r="Y38" s="660">
+        <v>5.5</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="658">
+      <c r="A39" s="662">
         <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="660">
+      <c r="C39" s="664">
+        <v>5.3</v>
+      </c>
+      <c r="E39" s="666">
+        <v>5.4</v>
+      </c>
+      <c r="F39" s="668">
         <v>5.1</v>
       </c>
-      <c r="D39" s="662">
-        <v>5.1</v>
-      </c>
-      <c r="E39" s="664">
-        <v>5.1</v>
-      </c>
-      <c r="F39" s="666">
-        <v>4.9</v>
-      </c>
-      <c r="G39" s="668">
-        <v>14.3</v>
-      </c>
-      <c r="H39" s="670">
-        <v>4.4</v>
-      </c>
-      <c r="N39" s="672">
-        <v>141260</v>
-      </c>
-      <c r="O39" s="674">
-        <v>91425</v>
-      </c>
-      <c r="P39" s="676">
-        <v>49835</v>
-      </c>
-      <c r="Q39" s="678">
-        <v>48</v>
-      </c>
-      <c r="R39" s="680">
-        <v>1205</v>
-      </c>
-      <c r="S39" s="682">
-        <v>-1157</v>
-      </c>
-      <c r="T39" s="684">
-        <v>7.52</v>
-      </c>
-      <c r="U39" s="686">
-        <v>7.18</v>
-      </c>
-      <c r="V39" s="688">
-        <v>0.34</v>
-      </c>
-      <c r="W39" s="690">
-        <v>64.72</v>
-      </c>
-      <c r="X39" s="692">
-        <v>8265064</v>
-      </c>
-      <c r="Y39" s="694">
-        <v>5.1</v>
+      <c r="G39" s="670">
+        <v>15.3</v>
+      </c>
+      <c r="H39" s="672">
+        <v>4.6</v>
+      </c>
+      <c r="I39" s="674">
+        <v>47.5</v>
+      </c>
+      <c r="Y39" s="676">
+        <v>5.3</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="696">
+      <c r="A40" s="678">
         <v>34</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="698">
-        <v>5</v>
-      </c>
-      <c r="D40" s="700">
+      <c r="C40" s="680">
         <v>5.1</v>
       </c>
-      <c r="E40" s="702">
+      <c r="D40" s="682">
         <v>5.1</v>
       </c>
-      <c r="F40" s="704">
-        <v>4.8</v>
-      </c>
-      <c r="G40" s="706">
+      <c r="E40" s="684">
+        <v>5.1</v>
+      </c>
+      <c r="F40" s="686">
+        <v>4.9</v>
+      </c>
+      <c r="G40" s="688">
         <v>14.3</v>
       </c>
-      <c r="H40" s="708">
-        <v>4.3</v>
-      </c>
-      <c r="Y40" s="710">
-        <v>5</v>
+      <c r="H40" s="690">
+        <v>4.4</v>
+      </c>
+      <c r="N40" s="692">
+        <v>141260</v>
+      </c>
+      <c r="O40" s="694">
+        <v>91425</v>
+      </c>
+      <c r="P40" s="696">
+        <v>49835</v>
+      </c>
+      <c r="Q40" s="698">
+        <v>48</v>
+      </c>
+      <c r="R40" s="700">
+        <v>1205</v>
+      </c>
+      <c r="S40" s="702">
+        <v>-1157</v>
+      </c>
+      <c r="T40" s="704">
+        <v>7.52</v>
+      </c>
+      <c r="U40" s="706">
+        <v>7.18</v>
+      </c>
+      <c r="V40" s="708">
+        <v>0.34</v>
+      </c>
+      <c r="W40" s="710">
+        <v>64.72</v>
+      </c>
+      <c r="X40" s="712">
+        <v>8265064</v>
+      </c>
+      <c r="Y40" s="714">
+        <v>5.1</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="712">
+      <c r="A41" s="716">
         <v>35</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="714">
-        <v>4.9</v>
-      </c>
-      <c r="D41" s="716">
+      <c r="C41" s="718">
+        <v>5</v>
+      </c>
+      <c r="D41" s="720">
         <v>5.1</v>
       </c>
-      <c r="E41" s="718">
-        <v>4.9</v>
-      </c>
-      <c r="F41" s="720">
+      <c r="E41" s="722">
+        <v>5.1</v>
+      </c>
+      <c r="F41" s="724">
         <v>4.8</v>
       </c>
-      <c r="G41" s="722">
-        <v>14.2</v>
-      </c>
-      <c r="H41" s="724">
-        <v>4.2</v>
-      </c>
-      <c r="Y41" s="726">
-        <v>4.9</v>
+      <c r="G41" s="726">
+        <v>14.3</v>
+      </c>
+      <c r="H41" s="728">
+        <v>4.3</v>
+      </c>
+      <c r="Y41" s="730">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="728">
+      <c r="A42" s="732">
         <v>36</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="730">
+      <c r="C42" s="734">
         <v>4.9</v>
       </c>
-      <c r="D42" s="732">
-        <v>5</v>
-      </c>
-      <c r="E42" s="734">
-        <v>5</v>
-      </c>
-      <c r="F42" s="736">
+      <c r="D42" s="736">
+        <v>5.1</v>
+      </c>
+      <c r="E42" s="738">
+        <v>4.9</v>
+      </c>
+      <c r="F42" s="740">
         <v>4.8</v>
       </c>
-      <c r="G42" s="738">
-        <v>14.6</v>
-      </c>
-      <c r="H42" s="740">
+      <c r="G42" s="742">
+        <v>14.2</v>
+      </c>
+      <c r="H42" s="744">
         <v>4.2</v>
       </c>
-      <c r="Y42" s="742">
+      <c r="Y42" s="746">
         <v>4.9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="744">
+      <c r="A43" s="748">
         <v>37</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="746">
-        <v>5.1</v>
-      </c>
-      <c r="D43" s="748">
-        <v>5.3</v>
-      </c>
-      <c r="E43" s="750">
-        <v>5.2</v>
-      </c>
-      <c r="F43" s="752">
+      <c r="C43" s="750">
+        <v>4.9</v>
+      </c>
+      <c r="D43" s="752">
         <v>5</v>
       </c>
-      <c r="G43" s="754">
-        <v>15.3</v>
-      </c>
-      <c r="H43" s="756">
-        <v>4.3</v>
-      </c>
-      <c r="Y43" s="758">
-        <v>5.1</v>
+      <c r="E43" s="754">
+        <v>5</v>
+      </c>
+      <c r="F43" s="756">
+        <v>4.8</v>
+      </c>
+      <c r="G43" s="758">
+        <v>14.6</v>
+      </c>
+      <c r="H43" s="760">
+        <v>4.2</v>
+      </c>
+      <c r="Y43" s="762">
+        <v>4.9</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="760">
+      <c r="A44" s="764">
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="762">
+      <c r="C44" s="766">
         <v>5.1</v>
       </c>
-      <c r="D44" s="764">
+      <c r="D44" s="768">
+        <v>5.3</v>
+      </c>
+      <c r="E44" s="770">
         <v>5.2</v>
       </c>
-      <c r="E44" s="766">
+      <c r="F44" s="772">
+        <v>5</v>
+      </c>
+      <c r="G44" s="774">
+        <v>15.3</v>
+      </c>
+      <c r="H44" s="776">
+        <v>4.3</v>
+      </c>
+      <c r="Y44" s="778">
         <v>5.1</v>
       </c>
-      <c r="F44" s="768">
-        <v>5</v>
-      </c>
-      <c r="G44" s="770">
-        <v>16.2</v>
-      </c>
-      <c r="H44" s="772">
-        <v>4.2</v>
-      </c>
-      <c r="Y44" s="774">
-        <v>5.1</v>
-      </c>
     </row>
     <row r="45">
-      <c r="A45" s="776">
+      <c r="A45" s="780">
         <v>39</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="778">
+      <c r="C45" s="782">
+        <v>5.1</v>
+      </c>
+      <c r="D45" s="784">
+        <v>5.2</v>
+      </c>
+      <c r="E45" s="786">
+        <v>5.1</v>
+      </c>
+      <c r="F45" s="788">
         <v>5</v>
       </c>
-      <c r="D45" s="780">
-        <v>5.2</v>
-      </c>
-      <c r="E45" s="782">
-        <v>5</v>
-      </c>
-      <c r="F45" s="784">
+      <c r="G45" s="790">
+        <v>16.2</v>
+      </c>
+      <c r="H45" s="792">
+        <v>4.2</v>
+      </c>
+      <c r="Y45" s="794">
         <v>5.1</v>
       </c>
-      <c r="G45" s="786">
-        <v>15.4</v>
-      </c>
-      <c r="H45" s="788">
-        <v>4.2</v>
-      </c>
-      <c r="Y45" s="790">
-        <v>5</v>
-      </c>
     </row>
     <row r="46">
-      <c r="A46" s="792">
+      <c r="A46" s="796">
         <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="794">
+      <c r="C46" s="798">
         <v>5</v>
       </c>
-      <c r="D46" s="796">
+      <c r="D46" s="800">
         <v>5.2</v>
       </c>
-      <c r="E46" s="798">
+      <c r="E46" s="802">
+        <v>5</v>
+      </c>
+      <c r="F46" s="804">
         <v>5.1</v>
       </c>
-      <c r="F46" s="800">
+      <c r="G46" s="806">
+        <v>15.4</v>
+      </c>
+      <c r="H46" s="808">
+        <v>4.2</v>
+      </c>
+      <c r="Y46" s="810">
         <v>5</v>
       </c>
-      <c r="G46" s="802">
-        <v>13.8</v>
-      </c>
-      <c r="H46" s="804">
-        <v>4.4</v>
-      </c>
-      <c r="Y46" s="806">
-        <v>5</v>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" s="808">
+      <c r="A47" s="812">
         <v>41</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="810">
+      <c r="C47" s="814">
+        <v>5</v>
+      </c>
+      <c r="D47" s="816">
+        <v>5.2</v>
+      </c>
+      <c r="E47" s="818">
         <v>5.1</v>
       </c>
-      <c r="D47" s="812">
-        <v>5.2</v>
-      </c>
-      <c r="E47" s="814">
-        <v>5.1</v>
-      </c>
-      <c r="F47" s="816">
-        <v>5.1</v>
-      </c>
-      <c r="G47" s="818">
-        <v>13.6</v>
-      </c>
-      <c r="H47" s="820">
-        <v>4.6</v>
-      </c>
-      <c r="Y47" s="822">
-        <v>5.1</v>
+      <c r="F47" s="820">
+        <v>5</v>
+      </c>
+      <c r="G47" s="822">
+        <v>13.8</v>
+      </c>
+      <c r="H47" s="824">
+        <v>4.4</v>
+      </c>
+      <c r="Y47" s="826">
+        <v>5</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="824">
+      <c r="A48" s="828">
         <v>42</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="826">
-        <v>5.3</v>
-      </c>
-      <c r="D48" s="828">
-        <v>5.3</v>
-      </c>
-      <c r="E48" s="830">
-        <v>5.3</v>
-      </c>
-      <c r="F48" s="832">
-        <v>5.4</v>
-      </c>
-      <c r="G48" s="834">
+      <c r="C48" s="830">
+        <v>5.1</v>
+      </c>
+      <c r="D48" s="832">
+        <v>5.2</v>
+      </c>
+      <c r="E48" s="834">
+        <v>5.1</v>
+      </c>
+      <c r="F48" s="836">
+        <v>5.1</v>
+      </c>
+      <c r="G48" s="838">
         <v>13.6</v>
       </c>
-      <c r="H48" s="836">
-        <v>4.8</v>
-      </c>
-      <c r="Y48" s="838">
-        <v>5.3</v>
+      <c r="H48" s="840">
+        <v>4.6</v>
+      </c>
+      <c r="Y48" s="842">
+        <v>5.1</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="840">
+      <c r="A49" s="844">
         <v>43</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="842">
-        <v>5.5</v>
-      </c>
-      <c r="D49" s="844">
-        <v>5.5</v>
-      </c>
-      <c r="E49" s="846">
-        <v>5.7</v>
-      </c>
-      <c r="F49" s="848">
-        <v>5.2</v>
-      </c>
-      <c r="G49" s="850">
-        <v>13.1</v>
-      </c>
-      <c r="H49" s="852">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="854">
-        <v>5.5</v>
+      <c r="C49" s="846">
+        <v>5.3</v>
+      </c>
+      <c r="D49" s="848">
+        <v>5.3</v>
+      </c>
+      <c r="E49" s="850">
+        <v>5.3</v>
+      </c>
+      <c r="F49" s="852">
+        <v>5.4</v>
+      </c>
+      <c r="G49" s="854">
+        <v>13.6</v>
+      </c>
+      <c r="H49" s="856">
+        <v>4.8</v>
+      </c>
+      <c r="Y49" s="858">
+        <v>5.3</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="856">
+      <c r="A50" s="860">
         <v>44</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="858">
-        <v>5.4</v>
-      </c>
-      <c r="D50" s="860">
-        <v>5.4</v>
-      </c>
-      <c r="E50" s="862">
-        <v>5.6</v>
-      </c>
-      <c r="F50" s="864">
-        <v>5.1</v>
-      </c>
-      <c r="G50" s="866">
-        <v>12.7</v>
-      </c>
-      <c r="H50" s="868">
-        <v>4.9</v>
-      </c>
-      <c r="Y50" s="870">
-        <v>5.4</v>
+      <c r="C50" s="862">
+        <v>5.5</v>
+      </c>
+      <c r="D50" s="864">
+        <v>5.5</v>
+      </c>
+      <c r="E50" s="866">
+        <v>5.7</v>
+      </c>
+      <c r="F50" s="868">
+        <v>5.2</v>
+      </c>
+      <c r="G50" s="870">
+        <v>13.1</v>
+      </c>
+      <c r="H50" s="872">
+        <v>5</v>
+      </c>
+      <c r="Y50" s="874">
+        <v>5.5</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="872">
+      <c r="A51" s="876">
         <v>45</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="874">
-        <v>5.2</v>
-      </c>
-      <c r="D51" s="876">
+      <c r="C51" s="878">
+        <v>5.4</v>
+      </c>
+      <c r="D51" s="880">
+        <v>5.4</v>
+      </c>
+      <c r="E51" s="882">
+        <v>5.6</v>
+      </c>
+      <c r="F51" s="884">
         <v>5.1</v>
       </c>
-      <c r="G51" s="878">
-        <v>12.3</v>
-      </c>
-      <c r="H51" s="880">
-        <v>4.7</v>
-      </c>
-      <c r="N51" s="882">
-        <v>141212</v>
-      </c>
-      <c r="O51" s="884">
-        <v>90220</v>
-      </c>
-      <c r="P51" s="886">
-        <v>50992</v>
-      </c>
-      <c r="Q51" s="888">
-        <v>204</v>
-      </c>
-      <c r="T51" s="890">
-        <v>8.52</v>
-      </c>
-      <c r="U51" s="892">
-        <v>7.07</v>
-      </c>
-      <c r="V51" s="894">
-        <v>1.45</v>
-      </c>
-      <c r="W51" s="896">
-        <v>63.89</v>
-      </c>
-      <c r="X51" s="898">
-        <v>7971991</v>
-      </c>
-      <c r="Y51" s="900">
-        <v>5.2</v>
+      <c r="G51" s="886">
+        <v>12.7</v>
+      </c>
+      <c r="H51" s="888">
+        <v>4.9</v>
+      </c>
+      <c r="Y51" s="890">
+        <v>5.4</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="902">
+      <c r="A52" s="892">
         <v>46</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="904">
+      <c r="C52" s="894">
         <v>5.2</v>
       </c>
-      <c r="D52" s="906">
+      <c r="D52" s="896">
+        <v>5.1</v>
+      </c>
+      <c r="G52" s="898">
+        <v>12.3</v>
+      </c>
+      <c r="H52" s="900">
+        <v>4.7</v>
+      </c>
+      <c r="N52" s="902">
+        <v>141212</v>
+      </c>
+      <c r="O52" s="904">
+        <v>90220</v>
+      </c>
+      <c r="P52" s="906">
+        <v>50992</v>
+      </c>
+      <c r="Q52" s="908">
+        <v>204</v>
+      </c>
+      <c r="T52" s="910">
+        <v>8.52</v>
+      </c>
+      <c r="U52" s="912">
+        <v>7.07</v>
+      </c>
+      <c r="V52" s="914">
+        <v>1.45</v>
+      </c>
+      <c r="W52" s="916">
+        <v>63.89</v>
+      </c>
+      <c r="X52" s="918">
+        <v>7971991</v>
+      </c>
+      <c r="Y52" s="920">
         <v>5.2</v>
       </c>
-      <c r="G52" s="908">
-        <v>12.8</v>
-      </c>
-      <c r="H52" s="910">
-        <v>4.7</v>
-      </c>
-      <c r="Y52" s="912">
-        <v>5.2</v>
-      </c>
     </row>
     <row r="53">
-      <c r="A53" s="914">
+      <c r="A53" s="922">
         <v>47</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="916">
-        <v>5.3</v>
-      </c>
-      <c r="D53" s="918">
-        <v>5.3</v>
-      </c>
-      <c r="G53" s="920">
-        <v>13.2</v>
-      </c>
-      <c r="H53" s="922">
-        <v>4.8</v>
-      </c>
-      <c r="Y53" s="924">
-        <v>5.3</v>
+      <c r="C53" s="924">
+        <v>5.2</v>
+      </c>
+      <c r="D53" s="926">
+        <v>5.2</v>
+      </c>
+      <c r="G53" s="928">
+        <v>12.8</v>
+      </c>
+      <c r="H53" s="930">
+        <v>4.7</v>
+      </c>
+      <c r="Y53" s="932">
+        <v>5.2</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="926">
+      <c r="A54" s="934">
         <v>48</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="928">
-        <v>5.4</v>
-      </c>
-      <c r="D54" s="930">
-        <v>5.5</v>
-      </c>
-      <c r="G54" s="932">
-        <v>15</v>
-      </c>
-      <c r="H54" s="934">
+      <c r="C54" s="936">
+        <v>5.3</v>
+      </c>
+      <c r="D54" s="938">
+        <v>5.3</v>
+      </c>
+      <c r="G54" s="940">
+        <v>13.2</v>
+      </c>
+      <c r="H54" s="942">
         <v>4.8</v>
       </c>
-      <c r="Y54" s="936">
-        <v>5.4</v>
+      <c r="Y54" s="944">
+        <v>5.3</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="938">
+      <c r="A55" s="946">
         <v>49</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="940">
-        <v>5.6</v>
-      </c>
-      <c r="D55" s="942">
-        <v>5.7</v>
-      </c>
-      <c r="G55" s="944">
-        <v>16.8</v>
-      </c>
-      <c r="H55" s="946">
+      <c r="C55" s="948">
+        <v>5.4</v>
+      </c>
+      <c r="D55" s="950">
+        <v>5.5</v>
+      </c>
+      <c r="G55" s="952">
+        <v>15</v>
+      </c>
+      <c r="H55" s="954">
         <v>4.8</v>
       </c>
-      <c r="Y55" s="948">
-        <v>5.6</v>
+      <c r="Y55" s="956">
+        <v>5.4</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="950">
+      <c r="A56" s="958">
         <v>50</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="952">
+      <c r="C56" s="960">
+        <v>5.6</v>
+      </c>
+      <c r="D56" s="962">
         <v>5.7</v>
       </c>
-      <c r="D56" s="954">
-        <v>5.8</v>
-      </c>
-      <c r="G56" s="956">
+      <c r="G56" s="964">
         <v>16.8</v>
       </c>
-      <c r="H56" s="958">
-        <v>5</v>
-      </c>
-      <c r="Y56" s="960">
-        <v>5.7</v>
+      <c r="H56" s="966">
+        <v>4.8</v>
+      </c>
+      <c r="Y56" s="968">
+        <v>5.6</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="962">
+      <c r="A57" s="970">
         <v>51</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="964">
+      <c r="C57" s="972">
         <v>5.7</v>
       </c>
-      <c r="D57" s="966">
+      <c r="D57" s="974">
         <v>5.8</v>
       </c>
-      <c r="G57" s="968">
-        <v>15.4</v>
-      </c>
-      <c r="H57" s="970">
-        <v>5.2</v>
-      </c>
-      <c r="Y57" s="972">
+      <c r="G57" s="976">
+        <v>16.8</v>
+      </c>
+      <c r="H57" s="978">
+        <v>5</v>
+      </c>
+      <c r="Y57" s="980">
         <v>5.7</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="974">
+      <c r="A58" s="982">
         <v>52</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="976">
-        <v>5.9</v>
-      </c>
-      <c r="D58" s="978">
-        <v>5.9</v>
-      </c>
-      <c r="G58" s="980">
-        <v>14.8</v>
-      </c>
-      <c r="H58" s="982">
-        <v>5.4</v>
-      </c>
-      <c r="Y58" s="984">
-        <v>5.9</v>
+      <c r="C58" s="984">
+        <v>5.7</v>
+      </c>
+      <c r="D58" s="986">
+        <v>5.8</v>
+      </c>
+      <c r="G58" s="988">
+        <v>15.4</v>
+      </c>
+      <c r="H58" s="990">
+        <v>5.2</v>
+      </c>
+      <c r="Y58" s="992">
+        <v>5.7</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="986">
+      <c r="A59" s="994">
         <v>53</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="988">
-        <v>6</v>
-      </c>
-      <c r="D59" s="990">
-        <v>5.8</v>
-      </c>
-      <c r="G59" s="992">
-        <v>13.8</v>
-      </c>
-      <c r="H59" s="994">
-        <v>5.5</v>
-      </c>
-      <c r="Y59" s="996">
-        <v>6</v>
+      <c r="C59" s="996">
+        <v>5.9</v>
+      </c>
+      <c r="D59" s="998">
+        <v>5.9</v>
+      </c>
+      <c r="G59" s="1000">
+        <v>14.8</v>
+      </c>
+      <c r="H59" s="1002">
+        <v>5.4</v>
+      </c>
+      <c r="Y59" s="1004">
+        <v>5.9</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="998">
+      <c r="A60" s="1006">
         <v>54</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="1000">
-        <v>5.9</v>
-      </c>
-      <c r="D60" s="1002">
-        <v>5.7</v>
-      </c>
-      <c r="G60" s="1004">
-        <v>13.3</v>
-      </c>
-      <c r="H60" s="1006">
-        <v>5.4</v>
-      </c>
-      <c r="Y60" s="1008">
-        <v>5.9</v>
+      <c r="C60" s="1008">
+        <v>6</v>
+      </c>
+      <c r="D60" s="1010">
+        <v>5.8</v>
+      </c>
+      <c r="G60" s="1012">
+        <v>13.8</v>
+      </c>
+      <c r="H60" s="1014">
+        <v>5.5</v>
+      </c>
+      <c r="Y60" s="1016">
+        <v>6</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1010">
+      <c r="A61" s="1018">
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="1012">
-        <v>6.2</v>
-      </c>
-      <c r="D61" s="1014">
+      <c r="C61" s="1020">
+        <v>5.9</v>
+      </c>
+      <c r="D61" s="1022">
         <v>5.7</v>
       </c>
-      <c r="G61" s="1016">
-        <v>13.6</v>
-      </c>
-      <c r="H61" s="1018">
-        <v>5.6</v>
-      </c>
-      <c r="Y61" s="1020">
-        <v>6.2</v>
+      <c r="G61" s="1024">
+        <v>13.3</v>
+      </c>
+      <c r="H61" s="1026">
+        <v>5.4</v>
+      </c>
+      <c r="Y61" s="1028">
+        <v>5.9</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1022">
+      <c r="A62" s="1030">
         <v>56</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="1024">
-        <v>5.3</v>
-      </c>
-      <c r="D62" s="1026">
-        <v>5.2</v>
-      </c>
-      <c r="G62" s="1028">
-        <v>12.5</v>
-      </c>
-      <c r="H62" s="1030">
-        <v>4.7</v>
-      </c>
-      <c r="Y62" s="1032">
-        <v>5.3</v>
+      <c r="C62" s="1032">
+        <v>6.2</v>
+      </c>
+      <c r="D62" s="1034">
+        <v>5.7</v>
+      </c>
+      <c r="G62" s="1036">
+        <v>13.6</v>
+      </c>
+      <c r="H62" s="1038">
+        <v>5.6</v>
+      </c>
+      <c r="Y62" s="1040">
+        <v>6.2</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1034">
+      <c r="A63" s="1042">
         <v>57</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="1036">
+      <c r="C63" s="1044">
+        <v>5.3</v>
+      </c>
+      <c r="D63" s="1046">
         <v>5.2</v>
       </c>
-      <c r="D63" s="1038">
-        <v>5.2</v>
-      </c>
-      <c r="G63" s="1040">
-        <v>12.2</v>
-      </c>
-      <c r="H63" s="1042">
+      <c r="G63" s="1048">
+        <v>12.5</v>
+      </c>
+      <c r="H63" s="1050">
         <v>4.7</v>
       </c>
-      <c r="N63" s="1044">
-        <v>141008</v>
-      </c>
-      <c r="O63" s="1046">
-        <v>88426</v>
-      </c>
-      <c r="P63" s="1048">
-        <v>52582</v>
-      </c>
-      <c r="Q63" s="1050">
-        <v>467</v>
-      </c>
-      <c r="R63" s="1052">
-        <v>1706</v>
-      </c>
-      <c r="S63" s="1054">
-        <v>-1239</v>
-      </c>
-      <c r="T63" s="1056">
-        <v>10.41</v>
-      </c>
-      <c r="U63" s="1058">
-        <v>7.09</v>
-      </c>
-      <c r="V63" s="1060">
-        <v>3.32</v>
-      </c>
-      <c r="W63" s="1062">
-        <v>60.6</v>
-      </c>
-      <c r="X63" s="1064">
-        <v>7585298</v>
-      </c>
-      <c r="Y63" s="1066">
-        <v>5.2</v>
+      <c r="Y63" s="1052">
+        <v>5.3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1068">
+      <c r="A64" s="1054">
         <v>58</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="1070">
-        <v>5.1</v>
-      </c>
-      <c r="D64" s="1072">
-        <v>5.1</v>
-      </c>
-      <c r="G64" s="1074">
-        <v>12.5</v>
-      </c>
-      <c r="H64" s="1076">
-        <v>4.6</v>
-      </c>
-      <c r="Y64" s="1078">
-        <v>5.1</v>
+      <c r="C64" s="1056">
+        <v>5.2</v>
+      </c>
+      <c r="D64" s="1058">
+        <v>5.2</v>
+      </c>
+      <c r="G64" s="1060">
+        <v>12.2</v>
+      </c>
+      <c r="H64" s="1062">
+        <v>4.7</v>
+      </c>
+      <c r="N64" s="1064">
+        <v>141008</v>
+      </c>
+      <c r="O64" s="1066">
+        <v>88426</v>
+      </c>
+      <c r="P64" s="1068">
+        <v>52582</v>
+      </c>
+      <c r="Q64" s="1070">
+        <v>467</v>
+      </c>
+      <c r="R64" s="1072">
+        <v>1706</v>
+      </c>
+      <c r="S64" s="1074">
+        <v>-1239</v>
+      </c>
+      <c r="T64" s="1076">
+        <v>10.41</v>
+      </c>
+      <c r="U64" s="1078">
+        <v>7.09</v>
+      </c>
+      <c r="V64" s="1080">
+        <v>3.32</v>
+      </c>
+      <c r="W64" s="1082">
+        <v>60.6</v>
+      </c>
+      <c r="X64" s="1084">
+        <v>7585298</v>
+      </c>
+      <c r="Y64" s="1086">
+        <v>5.2</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1080">
+      <c r="A65" s="1088">
         <v>59</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="1082">
+      <c r="C65" s="1090">
         <v>5.1</v>
       </c>
-      <c r="D65" s="1084">
+      <c r="D65" s="1092">
         <v>5.1</v>
       </c>
-      <c r="G65" s="1086">
-        <v>12.4</v>
-      </c>
-      <c r="H65" s="1088">
+      <c r="G65" s="1094">
+        <v>12.5</v>
+      </c>
+      <c r="H65" s="1096">
         <v>4.6</v>
       </c>
-      <c r="Y65" s="1090">
+      <c r="Y65" s="1098">
         <v>5.1</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1092">
+      <c r="A66" s="1100">
         <v>60</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="1094">
-        <v>5.2</v>
-      </c>
-      <c r="D66" s="1096">
-        <v>5.2</v>
-      </c>
-      <c r="G66" s="1098">
-        <v>13</v>
-      </c>
-      <c r="H66" s="1100">
+      <c r="C66" s="1102">
+        <v>5.1</v>
+      </c>
+      <c r="D66" s="1104">
+        <v>5.1</v>
+      </c>
+      <c r="G66" s="1106">
+        <v>12.4</v>
+      </c>
+      <c r="H66" s="1108">
         <v>4.6</v>
       </c>
-      <c r="Y66" s="1102">
-        <v>5.2</v>
+      <c r="Y66" s="1110">
+        <v>5.1</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1104">
+      <c r="A67" s="1112">
         <v>61</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="1106">
+      <c r="C67" s="1114">
         <v>5.2</v>
       </c>
-      <c r="D67" s="1108">
+      <c r="D67" s="1116">
         <v>5.2</v>
       </c>
-      <c r="G67" s="1110">
-        <v>13.1</v>
-      </c>
-      <c r="H67" s="1112">
-        <v>4.5</v>
-      </c>
-      <c r="Y67" s="1114">
+      <c r="G67" s="1118">
+        <v>13</v>
+      </c>
+      <c r="H67" s="1120">
+        <v>4.6</v>
+      </c>
+      <c r="Y67" s="1122">
         <v>5.2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1116">
+      <c r="A68" s="1124">
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="1118">
-        <v>5.3</v>
-      </c>
-      <c r="D68" s="1120">
+      <c r="C68" s="1126">
         <v>5.2</v>
       </c>
-      <c r="G68" s="1122">
-        <v>13.9</v>
-      </c>
-      <c r="H68" s="1124">
-        <v>4.6</v>
-      </c>
-      <c r="Y68" s="1126">
-        <v>5.3</v>
+      <c r="D68" s="1128">
+        <v>5.2</v>
+      </c>
+      <c r="G68" s="1130">
+        <v>13.1</v>
+      </c>
+      <c r="H68" s="1132">
+        <v>4.5</v>
+      </c>
+      <c r="Y68" s="1134">
+        <v>5.2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1128">
+      <c r="A69" s="1136">
         <v>63</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="1130">
-        <v>5.1</v>
-      </c>
-      <c r="D69" s="1132">
-        <v>5</v>
-      </c>
-      <c r="G69" s="1134">
-        <v>11.6</v>
-      </c>
-      <c r="H69" s="1136">
+      <c r="C69" s="1138">
+        <v>5.3</v>
+      </c>
+      <c r="D69" s="1140">
+        <v>5.2</v>
+      </c>
+      <c r="G69" s="1142">
+        <v>13.9</v>
+      </c>
+      <c r="H69" s="1144">
         <v>4.6</v>
       </c>
-      <c r="Y69" s="1138">
-        <v>5.1</v>
+      <c r="Y69" s="1146">
+        <v>5.3</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1140">
+      <c r="A70" s="1148">
         <v>64</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="1142">
+      <c r="C70" s="1150">
+        <v>5.1</v>
+      </c>
+      <c r="D70" s="1152">
         <v>5</v>
       </c>
-      <c r="D70" s="1144">
-        <v>5</v>
-      </c>
-      <c r="G70" s="1146">
-        <v>10.5</v>
-      </c>
-      <c r="H70" s="1148">
-        <v>4.5</v>
-      </c>
-      <c r="Y70" s="1150">
-        <v>5</v>
+      <c r="G70" s="1154">
+        <v>11.6</v>
+      </c>
+      <c r="H70" s="1156">
+        <v>4.6</v>
+      </c>
+      <c r="Y70" s="1158">
+        <v>5.1</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1152">
+      <c r="A71" s="1160">
         <v>65</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="1154">
+      <c r="C71" s="1162">
         <v>5</v>
       </c>
-      <c r="D71" s="1156">
+      <c r="D71" s="1164">
         <v>5</v>
       </c>
-      <c r="G71" s="1158">
-        <v>9.9</v>
-      </c>
-      <c r="H71" s="1160">
-        <v>4.7</v>
-      </c>
-      <c r="Y71" s="1162">
+      <c r="G71" s="1166">
+        <v>10.5</v>
+      </c>
+      <c r="H71" s="1168">
+        <v>4.5</v>
+      </c>
+      <c r="Y71" s="1170">
         <v>5</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1164">
+      <c r="A72" s="1172">
         <v>66</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="1166">
-        <v>5.2</v>
-      </c>
-      <c r="D72" s="1168">
-        <v>5.1</v>
-      </c>
-      <c r="G72" s="1170">
-        <v>11.3</v>
-      </c>
-      <c r="H72" s="1172">
-        <v>4.8</v>
-      </c>
-      <c r="Y72" s="1174">
-        <v>5.2</v>
+      <c r="C72" s="1174">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1176">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1178">
+        <v>9.9</v>
+      </c>
+      <c r="H72" s="1180">
+        <v>4.7</v>
+      </c>
+      <c r="Y72" s="1182">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1176">
+      <c r="A73" s="1184">
         <v>67</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="1178">
-        <v>5.3</v>
-      </c>
-      <c r="D73" s="1180">
-        <v>5</v>
-      </c>
-      <c r="G73" s="1182">
-        <v>11</v>
-      </c>
-      <c r="H73" s="1184">
-        <v>4.9</v>
-      </c>
-      <c r="Y73" s="1186">
-        <v>5.3</v>
+      <c r="C73" s="1186">
+        <v>5.2</v>
+      </c>
+      <c r="D73" s="1188">
+        <v>5.1</v>
+      </c>
+      <c r="G73" s="1190">
+        <v>11.3</v>
+      </c>
+      <c r="H73" s="1192">
+        <v>4.8</v>
+      </c>
+      <c r="Y73" s="1194">
+        <v>5.2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1188">
+      <c r="A74" s="1196">
         <v>68</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="1190">
-        <v>5.1</v>
-      </c>
-      <c r="D74" s="1192">
-        <v>4.8</v>
-      </c>
-      <c r="G74" s="1194">
-        <v>11.2</v>
-      </c>
-      <c r="H74" s="1196">
-        <v>4.6</v>
-      </c>
-      <c r="Y74" s="1198">
-        <v>5.1</v>
+      <c r="C74" s="1198">
+        <v>5.3</v>
+      </c>
+      <c r="D74" s="1200">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1202">
+        <v>11</v>
+      </c>
+      <c r="H74" s="1204">
+        <v>4.9</v>
+      </c>
+      <c r="Y74" s="1206">
+        <v>5.3</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1200">
+      <c r="A75" s="1208">
         <v>69</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="1202">
-        <v>4.9</v>
-      </c>
-      <c r="D75" s="1204">
-        <v>4.7</v>
-      </c>
-      <c r="G75" s="1206">
-        <v>10.1</v>
-      </c>
-      <c r="H75" s="1208">
-        <v>4.4</v>
-      </c>
-      <c r="N75" s="1210">
-        <v>140541</v>
-      </c>
-      <c r="O75" s="1212">
-        <v>86433</v>
-      </c>
-      <c r="P75" s="1214">
-        <v>54108</v>
-      </c>
-      <c r="Q75" s="1216">
-        <v>530</v>
-      </c>
-      <c r="R75" s="1218">
-        <v>1790</v>
-      </c>
-      <c r="S75" s="1220">
-        <v>-1260</v>
-      </c>
-      <c r="T75" s="1222">
-        <v>10.86</v>
-      </c>
-      <c r="U75" s="1224">
-        <v>7.08</v>
-      </c>
-      <c r="V75" s="1226">
-        <v>3.78</v>
-      </c>
-      <c r="W75" s="1228">
-        <v>59.58</v>
-      </c>
-      <c r="X75" s="1230">
-        <v>7533087</v>
-      </c>
-      <c r="Y75" s="1232">
-        <v>4.9</v>
+      <c r="C75" s="1210">
+        <v>5.1</v>
+      </c>
+      <c r="D75" s="1212">
+        <v>4.8</v>
+      </c>
+      <c r="G75" s="1214">
+        <v>11.2</v>
+      </c>
+      <c r="H75" s="1216">
+        <v>4.6</v>
+      </c>
+      <c r="Y75" s="1218">
+        <v>5.1</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1234">
+      <c r="A76" s="1220">
         <v>70</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="1236">
-        <v>4.8</v>
-      </c>
-      <c r="D76" s="1238">
+      <c r="C76" s="1222">
+        <v>4.9</v>
+      </c>
+      <c r="D76" s="1224">
         <v>4.7</v>
       </c>
-      <c r="G76" s="1240">
-        <v>10</v>
-      </c>
-      <c r="H76" s="1242">
+      <c r="G76" s="1226">
+        <v>10.1</v>
+      </c>
+      <c r="H76" s="1228">
         <v>4.4</v>
       </c>
-      <c r="Y76" s="1244">
-        <v>4.8</v>
+      <c r="N76" s="1230">
+        <v>140541</v>
+      </c>
+      <c r="O76" s="1232">
+        <v>86433</v>
+      </c>
+      <c r="P76" s="1234">
+        <v>54108</v>
+      </c>
+      <c r="Q76" s="1236">
+        <v>530</v>
+      </c>
+      <c r="R76" s="1238">
+        <v>1790</v>
+      </c>
+      <c r="S76" s="1240">
+        <v>-1260</v>
+      </c>
+      <c r="T76" s="1242">
+        <v>10.86</v>
+      </c>
+      <c r="U76" s="1244">
+        <v>7.08</v>
+      </c>
+      <c r="V76" s="1246">
+        <v>3.78</v>
+      </c>
+      <c r="W76" s="1248">
+        <v>59.58</v>
+      </c>
+      <c r="X76" s="1250">
+        <v>7533087</v>
+      </c>
+      <c r="Y76" s="1252">
+        <v>4.9</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1246">
+      <c r="A77" s="1254">
         <v>71</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="1248">
-        <v>4.9</v>
-      </c>
-      <c r="D77" s="1250">
+      <c r="C77" s="1256">
+        <v>4.8</v>
+      </c>
+      <c r="D77" s="1258">
         <v>4.7</v>
       </c>
-      <c r="G77" s="1252">
-        <v>9.8</v>
-      </c>
-      <c r="H77" s="1254">
+      <c r="G77" s="1260">
+        <v>10</v>
+      </c>
+      <c r="H77" s="1262">
         <v>4.4</v>
       </c>
-      <c r="Y77" s="1256">
-        <v>4.9</v>
+      <c r="Y77" s="1264">
+        <v>4.8</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1258">
+      <c r="A78" s="1266">
         <v>72</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="1260">
+      <c r="C78" s="1268">
         <v>4.9</v>
       </c>
-      <c r="D78" s="1262">
+      <c r="D78" s="1270">
         <v>4.7</v>
       </c>
-      <c r="G78" s="1264">
-        <v>11.2</v>
-      </c>
-      <c r="H78" s="1266">
-        <v>4.3</v>
-      </c>
-      <c r="Y78" s="1268">
+      <c r="G78" s="1272">
+        <v>9.8</v>
+      </c>
+      <c r="H78" s="1274">
+        <v>4.4</v>
+      </c>
+      <c r="Y78" s="1276">
         <v>4.9</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1270">
+      <c r="A79" s="1278">
         <v>73</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="1272">
-        <v>5</v>
-      </c>
-      <c r="D79" s="1274">
+      <c r="C79" s="1280">
         <v>4.9</v>
       </c>
-      <c r="G79" s="1276">
-        <v>13.1</v>
-      </c>
-      <c r="H79" s="1278">
+      <c r="D79" s="1282">
+        <v>4.7</v>
+      </c>
+      <c r="G79" s="1284">
+        <v>11.2</v>
+      </c>
+      <c r="H79" s="1286">
         <v>4.3</v>
       </c>
-      <c r="Y79" s="1280">
-        <v>5</v>
+      <c r="Y79" s="1288">
+        <v>4.9</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1282">
+      <c r="A80" s="1290">
         <v>74</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C80" s="1284">
-        <v>5.1</v>
-      </c>
-      <c r="D80" s="1286">
+      <c r="C80" s="1292">
         <v>5</v>
       </c>
-      <c r="G80" s="1288">
-        <v>13.3</v>
-      </c>
-      <c r="H80" s="1290">
-        <v>4.4</v>
-      </c>
-      <c r="Y80" s="1292">
-        <v>5.1</v>
+      <c r="D80" s="1294">
+        <v>4.9</v>
+      </c>
+      <c r="G80" s="1296">
+        <v>13.1</v>
+      </c>
+      <c r="H80" s="1298">
+        <v>4.3</v>
+      </c>
+      <c r="Y80" s="1300">
+        <v>5</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1294">
+      <c r="A81" s="1302">
         <v>75</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C81" s="1296">
-        <v>4.8</v>
-      </c>
-      <c r="D81" s="1298">
-        <v>4.7</v>
-      </c>
-      <c r="G81" s="1300">
-        <v>10</v>
-      </c>
-      <c r="H81" s="1302">
+      <c r="C81" s="1304">
+        <v>5.1</v>
+      </c>
+      <c r="D81" s="1306">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1308">
+        <v>13.3</v>
+      </c>
+      <c r="H81" s="1310">
         <v>4.4</v>
       </c>
-      <c r="Y81" s="1304">
-        <v>4.8</v>
+      <c r="Y81" s="1312">
+        <v>5.1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1306">
+      <c r="A82" s="1314">
         <v>76</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C82" s="1308">
+      <c r="C82" s="1316">
         <v>4.8</v>
       </c>
-      <c r="D82" s="1310">
+      <c r="D82" s="1318">
         <v>4.7</v>
       </c>
-      <c r="G82" s="1312">
-        <v>9.6</v>
-      </c>
-      <c r="H82" s="1314">
+      <c r="G82" s="1320">
+        <v>10</v>
+      </c>
+      <c r="H82" s="1322">
         <v>4.4</v>
       </c>
-      <c r="Y82" s="1316">
+      <c r="Y82" s="1324">
         <v>4.8</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1318">
+      <c r="A83" s="1326">
         <v>77</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="1320">
-        <v>4.9</v>
-      </c>
-      <c r="D83" s="1322">
+      <c r="C83" s="1328">
+        <v>4.8</v>
+      </c>
+      <c r="D83" s="1330">
         <v>4.7</v>
       </c>
-      <c r="G83" s="1324">
-        <v>10.1</v>
-      </c>
-      <c r="H83" s="1326">
+      <c r="G83" s="1332">
+        <v>9.6</v>
+      </c>
+      <c r="H83" s="1334">
         <v>4.4</v>
       </c>
-      <c r="Y83" s="1328">
-        <v>4.9</v>
+      <c r="Y83" s="1336">
+        <v>4.8</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1330">
+      <c r="A84" s="1338">
         <v>78</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="1332">
-        <v>5.1</v>
-      </c>
-      <c r="D84" s="1334">
+      <c r="C84" s="1340">
         <v>4.9</v>
       </c>
-      <c r="G84" s="1336">
-        <v>10.4</v>
-      </c>
-      <c r="H84" s="1338">
-        <v>4.6</v>
-      </c>
-      <c r="Y84" s="1340">
-        <v>5.1</v>
+      <c r="D84" s="1342">
+        <v>4.7</v>
+      </c>
+      <c r="G84" s="1344">
+        <v>10.1</v>
+      </c>
+      <c r="H84" s="1346">
+        <v>4.4</v>
+      </c>
+      <c r="Y84" s="1348">
+        <v>4.9</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1342">
+      <c r="A85" s="1350">
         <v>79</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="1344">
-        <v>5</v>
-      </c>
-      <c r="D85" s="1346">
-        <v>4.8</v>
-      </c>
-      <c r="G85" s="1348">
-        <v>11</v>
-      </c>
-      <c r="H85" s="1350">
-        <v>4.5</v>
-      </c>
-      <c r="Y85" s="1352">
-        <v>5</v>
+      <c r="C85" s="1352">
+        <v>5.1</v>
+      </c>
+      <c r="D85" s="1354">
+        <v>4.9</v>
+      </c>
+      <c r="G85" s="1356">
+        <v>10.4</v>
+      </c>
+      <c r="H85" s="1358">
+        <v>4.6</v>
+      </c>
+      <c r="Y85" s="1360">
+        <v>5.1</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1354">
+      <c r="A86" s="1362">
         <v>80</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="1356">
+      <c r="C86" s="1364">
         <v>5</v>
       </c>
-      <c r="D86" s="1358">
-        <v>4.9</v>
-      </c>
-      <c r="G86" s="1360">
-        <v>11.2</v>
-      </c>
-      <c r="H86" s="1362">
-        <v>4.4</v>
-      </c>
-      <c r="Y86" s="1364">
+      <c r="D86" s="1366">
+        <v>4.8</v>
+      </c>
+      <c r="G86" s="1368">
+        <v>11</v>
+      </c>
+      <c r="H86" s="1370">
+        <v>4.5</v>
+      </c>
+      <c r="Y86" s="1372">
         <v>5</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1366">
+      <c r="A87" s="1374">
         <v>81</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="1368">
+      <c r="C87" s="1376">
         <v>5</v>
       </c>
-      <c r="N87" s="1370">
-        <v>140011</v>
-      </c>
-      <c r="O87" s="1372">
-        <v>84343</v>
-      </c>
-      <c r="P87" s="1374">
-        <v>55668</v>
-      </c>
-      <c r="Q87" s="1376">
-        <v>737</v>
-      </c>
-      <c r="R87" s="1378">
-        <v>2049</v>
-      </c>
-      <c r="S87" s="1380">
-        <v>-1312</v>
-      </c>
-      <c r="T87" s="1382">
-        <v>12.64</v>
-      </c>
-      <c r="U87" s="1384">
-        <v>7.06</v>
-      </c>
-      <c r="V87" s="1386">
-        <v>5.58</v>
-      </c>
-      <c r="W87" s="1388">
-        <v>58.52</v>
-      </c>
-      <c r="X87" s="1390">
-        <v>7358287</v>
-      </c>
-      <c r="Y87" s="1392">
+      <c r="D87" s="1378">
+        <v>4.9</v>
+      </c>
+      <c r="G87" s="1380">
+        <v>11.2</v>
+      </c>
+      <c r="H87" s="1382">
+        <v>4.4</v>
+      </c>
+      <c r="Y87" s="1384">
         <v>5</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1394">
+      <c r="A88" s="1386">
         <v>82</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="1396">
-        <v>4.9</v>
-      </c>
-      <c r="Y88" s="1398">
-        <v>4.9</v>
+      <c r="C88" s="1388">
+        <v>5</v>
+      </c>
+      <c r="N88" s="1390">
+        <v>140011</v>
+      </c>
+      <c r="O88" s="1392">
+        <v>84343</v>
+      </c>
+      <c r="P88" s="1394">
+        <v>55668</v>
+      </c>
+      <c r="Q88" s="1396">
+        <v>737</v>
+      </c>
+      <c r="R88" s="1398">
+        <v>2049</v>
+      </c>
+      <c r="S88" s="1400">
+        <v>-1312</v>
+      </c>
+      <c r="T88" s="1402">
+        <v>12.64</v>
+      </c>
+      <c r="U88" s="1404">
+        <v>7.06</v>
+      </c>
+      <c r="V88" s="1406">
+        <v>5.58</v>
+      </c>
+      <c r="W88" s="1408">
+        <v>58.52</v>
+      </c>
+      <c r="X88" s="1410">
+        <v>7358287</v>
+      </c>
+      <c r="Y88" s="1412">
+        <v>5</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1400">
+      <c r="A89" s="1414">
         <v>83</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C89" s="1402">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="1404">
-        <v>5</v>
+      <c r="C89" s="1416">
+        <v>4.9</v>
+      </c>
+      <c r="Y89" s="1418">
+        <v>4.9</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1406">
+      <c r="A90" s="1420">
         <v>84</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="1408">
+      <c r="C90" s="1422">
         <v>5</v>
       </c>
-      <c r="Y90" s="1410">
+      <c r="Y90" s="1424">
         <v>5</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1412">
+      <c r="A91" s="1426">
         <v>85</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C91" s="1414">
+      <c r="C91" s="1428">
         <v>5</v>
       </c>
-      <c r="Y91" s="1416">
+      <c r="Y91" s="1430">
         <v>5</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1418">
+      <c r="A92" s="1432">
         <v>86</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C92" s="1420">
-        <v>5.1</v>
-      </c>
-      <c r="Y92" s="1422">
-        <v>5.1</v>
+      <c r="C92" s="1434">
+        <v>5</v>
+      </c>
+      <c r="Y92" s="1436">
+        <v>5</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1424">
+      <c r="A93" s="1438">
         <v>87</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C93" s="1426">
-        <v>5</v>
-      </c>
-      <c r="D93" s="1428">
-        <v>5</v>
-      </c>
-      <c r="Y93" s="1430">
-        <v>5</v>
+      <c r="C93" s="1440">
+        <v>5.1</v>
+      </c>
+      <c r="Y93" s="1442">
+        <v>5.1</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1432">
+      <c r="A94" s="1444">
         <v>88</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C94" s="1434">
+      <c r="C94" s="1446">
         <v>5</v>
       </c>
-      <c r="Y94" s="1436">
+      <c r="D94" s="1448">
         <v>5</v>
       </c>
+      <c r="Y94" s="1450">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1438">
+      <c r="A95" s="1452">
         <v>89</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C95" s="1440">
+      <c r="C95" s="1454">
         <v>5</v>
       </c>
-      <c r="Y95" s="1442">
+      <c r="Y95" s="1456">
         <v>5</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1444">
+      <c r="A96" s="1458">
         <v>90</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D96" s="1446">
+      <c r="C96" s="1460">
         <v>5</v>
       </c>
+      <c r="Y96" s="1462">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1448">
+      <c r="A97" s="1464">
         <v>91</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C97" s="1450">
+      <c r="D97" s="1466">
         <v>5</v>
       </c>
-      <c r="Y97" s="1452">
-        <v>5</v>
-      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1454">
+      <c r="A98" s="1468">
         <v>92</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="1456">
-        <v>5.1</v>
-      </c>
-      <c r="N98" s="1458">
-        <v>139232</v>
-      </c>
-      <c r="O98" s="1460">
-        <v>81924</v>
-      </c>
-      <c r="P98" s="1462">
-        <v>57308</v>
-      </c>
-      <c r="Q98" s="1464">
-        <v>809</v>
-      </c>
-      <c r="R98" s="1466">
-        <v>2182</v>
-      </c>
-      <c r="S98" s="1468">
-        <v>-1373</v>
-      </c>
-      <c r="T98" s="1470">
-        <v>13.57</v>
-      </c>
-      <c r="U98" s="1472">
-        <v>7.04</v>
-      </c>
-      <c r="V98" s="1474">
-        <v>6.53</v>
-      </c>
-      <c r="W98" s="1476">
-        <v>57.35</v>
-      </c>
-      <c r="X98" s="1478">
-        <v>7041800</v>
+      <c r="C98" s="1470">
+        <v>5</v>
+      </c>
+      <c r="Y98" s="1472">
+        <v>5</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1480">
+      <c r="A99" s="1474">
         <v>93</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C99" s="1482">
-        <v>5</v>
-      </c>
-      <c r="Y99" s="1484">
-        <v>5</v>
+      <c r="D99" s="1476">
+        <v>5.1</v>
+      </c>
+      <c r="N99" s="1478">
+        <v>139232</v>
+      </c>
+      <c r="O99" s="1480">
+        <v>81924</v>
+      </c>
+      <c r="P99" s="1482">
+        <v>57308</v>
+      </c>
+      <c r="Q99" s="1484">
+        <v>809</v>
+      </c>
+      <c r="R99" s="1486">
+        <v>2182</v>
+      </c>
+      <c r="S99" s="1488">
+        <v>-1373</v>
+      </c>
+      <c r="T99" s="1490">
+        <v>13.57</v>
+      </c>
+      <c r="U99" s="1492">
+        <v>7.04</v>
+      </c>
+      <c r="V99" s="1494">
+        <v>6.53</v>
+      </c>
+      <c r="W99" s="1496">
+        <v>57.35</v>
+      </c>
+      <c r="X99" s="1498">
+        <v>7041800</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1486">
+      <c r="A100" s="1500">
         <v>94</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="1488">
+      <c r="C100" s="1502">
         <v>5</v>
       </c>
-      <c r="Y100" s="1490">
+      <c r="Y100" s="1504">
         <v>5</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1492">
+      <c r="A101" s="1506">
         <v>95</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C101" s="1494">
+      <c r="C101" s="1508">
         <v>5</v>
       </c>
-      <c r="D101" s="1496">
+      <c r="Y101" s="1510">
         <v>5</v>
       </c>
-      <c r="Y101" s="1498">
-        <v>5</v>
-      </c>
     </row>
     <row r="102">
-      <c r="A102" s="1500">
+      <c r="A102" s="1512">
         <v>96</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C102" s="1502">
-        <v>5.1</v>
-      </c>
-      <c r="Y102" s="1504">
-        <v>5.1</v>
+      <c r="C102" s="1514">
+        <v>5</v>
+      </c>
+      <c r="D102" s="1516">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="1518">
+        <v>5</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1506">
+      <c r="A103" s="1520">
         <v>97</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C103" s="1508">
-        <v>5.2</v>
-      </c>
-      <c r="D103" s="1510">
-        <v>5.2</v>
-      </c>
-      <c r="Y103" s="1512">
-        <v>5.2</v>
+      <c r="C103" s="1522">
+        <v>5.1</v>
+      </c>
+      <c r="Y103" s="1524">
+        <v>5.1</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1514">
+      <c r="A104" s="1526">
         <v>98</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="1516">
-        <v>5.1</v>
-      </c>
-      <c r="Y104" s="1518">
-        <v>5.1</v>
+      <c r="C104" s="1528">
+        <v>5.2</v>
+      </c>
+      <c r="D104" s="1530">
+        <v>5.2</v>
+      </c>
+      <c r="Y104" s="1532">
+        <v>5.2</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1520">
+      <c r="A105" s="1534">
         <v>99</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C105" s="1522">
-        <v>5.12</v>
-      </c>
-      <c r="D105" s="1524">
-        <v>5.12</v>
-      </c>
-      <c r="Y105" s="1526">
-        <v>5.12</v>
+      <c r="C105" s="1536">
+        <v>5.1</v>
+      </c>
+      <c r="Y105" s="1538">
+        <v>5.1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1528">
+      <c r="A106" s="1540">
         <v>100</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C106" s="1530">
-        <v>5.1</v>
-      </c>
-      <c r="Y106" s="1532">
-        <v>5.1</v>
+      <c r="C106" s="1542">
+        <v>5.12</v>
+      </c>
+      <c r="D106" s="1544">
+        <v>5.12</v>
+      </c>
+      <c r="Y106" s="1546">
+        <v>5.12</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1534">
+      <c r="A107" s="1548">
         <v>101</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="1536">
-        <v>4.99</v>
-      </c>
-      <c r="Y107" s="1538">
-        <v>4.99</v>
+      <c r="C107" s="1550">
+        <v>5.1</v>
+      </c>
+      <c r="Y107" s="1552">
+        <v>5.1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1540">
+      <c r="A108" s="1554">
         <v>102</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N108" s="1542">
-        <v>138326</v>
-      </c>
-      <c r="O108" s="1544">
-        <v>79302</v>
-      </c>
-      <c r="P108" s="1546">
-        <v>59024</v>
-      </c>
-      <c r="Q108" s="1548">
-        <v>680</v>
-      </c>
-      <c r="R108" s="1550">
-        <v>2200</v>
-      </c>
-      <c r="S108" s="1552">
-        <v>-1520</v>
-      </c>
-      <c r="T108" s="1554">
-        <v>11.99</v>
-      </c>
-      <c r="U108" s="1556">
-        <v>7.07</v>
-      </c>
-      <c r="V108" s="1558">
-        <v>4.93</v>
-      </c>
-      <c r="W108" s="1560">
-        <v>56.1</v>
-      </c>
-      <c r="X108" s="1562">
-        <v>6808866</v>
+      <c r="C108" s="1556">
+        <v>4.99</v>
+      </c>
+      <c r="Y108" s="1558">
+        <v>4.99</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1564">
+      <c r="A109" s="1560">
         <v>103</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D109" s="1566">
-        <v>5</v>
+      <c r="N109" s="1562">
+        <v>138326</v>
+      </c>
+      <c r="O109" s="1564">
+        <v>79302</v>
+      </c>
+      <c r="P109" s="1566">
+        <v>59024</v>
+      </c>
+      <c r="Q109" s="1568">
+        <v>680</v>
+      </c>
+      <c r="R109" s="1570">
+        <v>2200</v>
+      </c>
+      <c r="S109" s="1572">
+        <v>-1520</v>
+      </c>
+      <c r="T109" s="1574">
+        <v>11.99</v>
+      </c>
+      <c r="U109" s="1576">
+        <v>7.07</v>
+      </c>
+      <c r="V109" s="1578">
+        <v>4.93</v>
+      </c>
+      <c r="W109" s="1580">
+        <v>56.1</v>
+      </c>
+      <c r="X109" s="1582">
+        <v>6808866</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1568">
+      <c r="A110" s="1584">
         <v>104</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D110" s="1570">
-        <v>5.1</v>
+      <c r="D110" s="1586">
+        <v>5</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1572">
+      <c r="A111" s="1588">
         <v>105</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D111" s="1574">
+      <c r="D111" s="1590">
         <v>5.1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1576">
+      <c r="A112" s="1592">
         <v>106</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="N112" s="1578">
-        <v>137646</v>
-      </c>
-      <c r="O112" s="1580">
-        <v>76738</v>
-      </c>
-      <c r="P112" s="1582">
-        <v>60908</v>
-      </c>
-      <c r="Q112" s="1584">
-        <v>710</v>
-      </c>
-      <c r="R112" s="1586">
-        <v>1805</v>
-      </c>
-      <c r="S112" s="1588">
-        <v>-1095</v>
-      </c>
-      <c r="T112" s="1590">
-        <v>13.83</v>
-      </c>
-      <c r="U112" s="1592">
-        <v>7.12</v>
-      </c>
-      <c r="V112" s="1594">
-        <v>6.71</v>
-      </c>
-      <c r="W112" s="1596">
-        <v>54.77</v>
-      </c>
-      <c r="X112" s="1598">
-        <v>6593671</v>
+      <c r="D112" s="1594">
+        <v>5.1</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1600">
+      <c r="A113" s="1596">
         <v>107</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N113" s="1602">
-        <v>136726</v>
-      </c>
-      <c r="O113" s="1604">
-        <v>74502</v>
-      </c>
-      <c r="P113" s="1606">
-        <v>62224</v>
-      </c>
-      <c r="Q113" s="1608">
-        <v>668</v>
-      </c>
-      <c r="R113" s="1610">
-        <v>1929</v>
-      </c>
-      <c r="S113" s="1612">
-        <v>-1261</v>
-      </c>
-      <c r="T113" s="1614">
-        <v>13.03</v>
-      </c>
-      <c r="U113" s="1616">
-        <v>7.13</v>
-      </c>
-      <c r="V113" s="1618">
-        <v>5.9</v>
-      </c>
-      <c r="W113" s="1620">
-        <v>53.7</v>
-      </c>
-      <c r="X113" s="1622">
-        <v>6387210</v>
+      <c r="N113" s="1598">
+        <v>137646</v>
+      </c>
+      <c r="O113" s="1600">
+        <v>76738</v>
+      </c>
+      <c r="P113" s="1602">
+        <v>60908</v>
+      </c>
+      <c r="Q113" s="1604">
+        <v>710</v>
+      </c>
+      <c r="R113" s="1606">
+        <v>1805</v>
+      </c>
+      <c r="S113" s="1608">
+        <v>-1095</v>
+      </c>
+      <c r="T113" s="1610">
+        <v>13.83</v>
+      </c>
+      <c r="U113" s="1612">
+        <v>7.12</v>
+      </c>
+      <c r="V113" s="1614">
+        <v>6.71</v>
+      </c>
+      <c r="W113" s="1616">
+        <v>54.77</v>
+      </c>
+      <c r="X113" s="1618">
+        <v>6593671</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1624">
+      <c r="A114" s="1620">
         <v>108</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N114" s="1626">
-        <v>135922</v>
-      </c>
-      <c r="O114" s="1628">
-        <v>72175</v>
-      </c>
-      <c r="P114" s="1630">
-        <v>63747</v>
-      </c>
-      <c r="Q114" s="1632">
-        <v>669</v>
-      </c>
-      <c r="R114" s="1634">
-        <v>2103</v>
-      </c>
-      <c r="S114" s="1636">
-        <v>-1434</v>
-      </c>
-      <c r="T114" s="1638">
-        <v>14.57</v>
-      </c>
-      <c r="U114" s="1640">
+      <c r="N114" s="1622">
+        <v>136726</v>
+      </c>
+      <c r="O114" s="1624">
+        <v>74502</v>
+      </c>
+      <c r="P114" s="1626">
+        <v>62224</v>
+      </c>
+      <c r="Q114" s="1628">
+        <v>668</v>
+      </c>
+      <c r="R114" s="1630">
+        <v>1929</v>
+      </c>
+      <c r="S114" s="1632">
+        <v>-1261</v>
+      </c>
+      <c r="T114" s="1634">
+        <v>13.03</v>
+      </c>
+      <c r="U114" s="1636">
         <v>7.13</v>
       </c>
-      <c r="V114" s="1642">
-        <v>7.43</v>
-      </c>
-      <c r="W114" s="1644">
-        <v>52.57</v>
-      </c>
-      <c r="X114" s="1646">
-        <v>6247338</v>
+      <c r="V114" s="1638">
+        <v>5.9</v>
+      </c>
+      <c r="W114" s="1640">
+        <v>53.7</v>
+      </c>
+      <c r="X114" s="1642">
+        <v>6387210</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1648">
+      <c r="A115" s="1644">
         <v>109</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N115" s="1650">
-        <v>134916</v>
-      </c>
-      <c r="O115" s="1652">
-        <v>69927</v>
-      </c>
-      <c r="P115" s="1654">
-        <v>64989</v>
-      </c>
-      <c r="Q115" s="1656">
-        <v>644</v>
-      </c>
-      <c r="R115" s="1658">
-        <v>2100</v>
-      </c>
-      <c r="S115" s="1660">
-        <v>-1456</v>
-      </c>
-      <c r="T115" s="1662">
-        <v>13.27</v>
-      </c>
-      <c r="U115" s="1664">
-        <v>7.14</v>
-      </c>
-      <c r="V115" s="1666">
-        <v>6.13</v>
-      </c>
-      <c r="W115" s="1668">
-        <v>51.27</v>
-      </c>
-      <c r="X115" s="1670">
-        <v>6081565</v>
+      <c r="N115" s="1646">
+        <v>135922</v>
+      </c>
+      <c r="O115" s="1648">
+        <v>72175</v>
+      </c>
+      <c r="P115" s="1650">
+        <v>63747</v>
+      </c>
+      <c r="Q115" s="1652">
+        <v>669</v>
+      </c>
+      <c r="R115" s="1654">
+        <v>2103</v>
+      </c>
+      <c r="S115" s="1656">
+        <v>-1434</v>
+      </c>
+      <c r="T115" s="1658">
+        <v>14.57</v>
+      </c>
+      <c r="U115" s="1660">
+        <v>7.13</v>
+      </c>
+      <c r="V115" s="1662">
+        <v>7.43</v>
+      </c>
+      <c r="W115" s="1664">
+        <v>52.57</v>
+      </c>
+      <c r="X115" s="1666">
+        <v>6247338</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1672">
+      <c r="A116" s="1668">
         <v>110</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="N116" s="1674">
-        <v>134091</v>
-      </c>
-      <c r="O116" s="1676">
-        <v>66978</v>
-      </c>
-      <c r="P116" s="1678">
-        <v>67113</v>
-      </c>
-      <c r="Q116" s="1680">
-        <v>649</v>
+      <c r="N116" s="1670">
+        <v>134916</v>
+      </c>
+      <c r="O116" s="1672">
+        <v>69927</v>
+      </c>
+      <c r="P116" s="1674">
+        <v>64989</v>
+      </c>
+      <c r="Q116" s="1676">
+        <v>644</v>
+      </c>
+      <c r="R116" s="1678">
+        <v>2100</v>
+      </c>
+      <c r="S116" s="1680">
+        <v>-1456</v>
       </c>
       <c r="T116" s="1682">
-        <v>11.9</v>
+        <v>13.27</v>
       </c>
       <c r="U116" s="1684">
-        <v>7.11</v>
+        <v>7.14</v>
       </c>
       <c r="V116" s="1686">
-        <v>4.79</v>
+        <v>6.13</v>
       </c>
       <c r="W116" s="1688">
-        <v>49.95</v>
+        <v>51.27</v>
       </c>
       <c r="X116" s="1690">
-        <v>5754245</v>
+        <v>6081565</v>
       </c>
     </row>
     <row r="117">
@@ -7276,31 +7299,31 @@
         <v>176</v>
       </c>
       <c r="N117" s="1694">
-        <v>133450</v>
+        <v>134091</v>
       </c>
       <c r="O117" s="1696">
-        <v>64512</v>
+        <v>66978</v>
       </c>
       <c r="P117" s="1698">
-        <v>68938</v>
+        <v>67113</v>
       </c>
       <c r="Q117" s="1700">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="T117" s="1702">
-        <v>11.95</v>
+        <v>11.9</v>
       </c>
       <c r="U117" s="1704">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="V117" s="1706">
-        <v>4.87</v>
+        <v>4.79</v>
       </c>
       <c r="W117" s="1708">
-        <v>48.34</v>
+        <v>49.95</v>
       </c>
       <c r="X117" s="1710">
-        <v>5311023</v>
+        <v>5754245</v>
       </c>
     </row>
     <row r="118">
@@ -7311,31 +7334,31 @@
         <v>177</v>
       </c>
       <c r="N118" s="1714">
-        <v>132802</v>
+        <v>133450</v>
       </c>
       <c r="O118" s="1716">
-        <v>62403</v>
+        <v>64512</v>
       </c>
       <c r="P118" s="1718">
-        <v>70399</v>
+        <v>68938</v>
       </c>
       <c r="Q118" s="1720">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T118" s="1722">
-        <v>12.14</v>
+        <v>11.95</v>
       </c>
       <c r="U118" s="1724">
-        <v>7.06</v>
+        <v>7.08</v>
       </c>
       <c r="V118" s="1726">
-        <v>5.08</v>
+        <v>4.87</v>
       </c>
       <c r="W118" s="1728">
-        <v>46.99</v>
+        <v>48.34</v>
       </c>
       <c r="X118" s="1730">
-        <v>5119498</v>
+        <v>5311023</v>
       </c>
     </row>
     <row r="119">
@@ -7346,31 +7369,31 @@
         <v>178</v>
       </c>
       <c r="N119" s="1734">
-        <v>132129</v>
+        <v>132802</v>
       </c>
       <c r="O119" s="1736">
-        <v>60633</v>
+        <v>62403</v>
       </c>
       <c r="P119" s="1738">
-        <v>71496</v>
+        <v>70399</v>
       </c>
       <c r="Q119" s="1740">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="T119" s="1742">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="U119" s="1744">
-        <v>6.93</v>
+        <v>7.06</v>
       </c>
       <c r="V119" s="1746">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="W119" s="1748">
-        <v>45.89</v>
+        <v>46.99</v>
       </c>
       <c r="X119" s="1750">
-        <v>4477907</v>
+        <v>5119498</v>
       </c>
     </row>
     <row r="120">
@@ -7381,31 +7404,31 @@
         <v>179</v>
       </c>
       <c r="N120" s="1754">
-        <v>131448</v>
+        <v>132129</v>
       </c>
       <c r="O120" s="1756">
-        <v>58288</v>
+        <v>60633</v>
       </c>
       <c r="P120" s="1758">
-        <v>73160</v>
+        <v>71496</v>
       </c>
       <c r="Q120" s="1760">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="T120" s="1762">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="U120" s="1764">
-        <v>6.81</v>
+        <v>6.93</v>
       </c>
       <c r="V120" s="1766">
-        <v>5.28</v>
+        <v>5.17</v>
       </c>
       <c r="W120" s="1768">
-        <v>44.34</v>
+        <v>45.89</v>
       </c>
       <c r="X120" s="1770">
-        <v>3774708</v>
+        <v>4477907</v>
       </c>
     </row>
     <row r="121">
@@ -7416,31 +7439,31 @@
         <v>180</v>
       </c>
       <c r="N121" s="1774">
-        <v>130756</v>
+        <v>131448</v>
       </c>
       <c r="O121" s="1776">
-        <v>56212</v>
+        <v>58288</v>
       </c>
       <c r="P121" s="1778">
-        <v>74544</v>
+        <v>73160</v>
       </c>
       <c r="Q121" s="1780">
-        <v>768</v>
+        <v>692</v>
       </c>
       <c r="T121" s="1782">
-        <v>12.4</v>
+        <v>12.09</v>
       </c>
       <c r="U121" s="1784">
-        <v>6.51</v>
+        <v>6.81</v>
       </c>
       <c r="V121" s="1786">
-        <v>5.89</v>
+        <v>5.28</v>
       </c>
       <c r="W121" s="1788">
-        <v>42.99</v>
+        <v>44.34</v>
       </c>
       <c r="X121" s="1790">
-        <v>3067956</v>
+        <v>3774708</v>
       </c>
     </row>
     <row r="122">
@@ -7451,31 +7474,31 @@
         <v>181</v>
       </c>
       <c r="N122" s="1794">
-        <v>129988</v>
+        <v>130756</v>
       </c>
       <c r="O122" s="1796">
-        <v>54283</v>
+        <v>56212</v>
       </c>
       <c r="P122" s="1798">
-        <v>75705</v>
+        <v>74544</v>
       </c>
       <c r="Q122" s="1800">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="T122" s="1802">
-        <v>12.29</v>
+        <v>12.4</v>
       </c>
       <c r="U122" s="1804">
-        <v>6.42</v>
+        <v>6.51</v>
       </c>
       <c r="V122" s="1806">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="W122" s="1808">
-        <v>41.76</v>
+        <v>42.99</v>
       </c>
       <c r="X122" s="1810">
-        <v>2391200</v>
+        <v>3067956</v>
       </c>
     </row>
     <row r="123">
@@ -7486,31 +7509,31 @@
         <v>182</v>
       </c>
       <c r="N123" s="1814">
-        <v>129227</v>
+        <v>129988</v>
       </c>
       <c r="O123" s="1816">
-        <v>52376</v>
+        <v>54283</v>
       </c>
       <c r="P123" s="1818">
-        <v>76851</v>
+        <v>75705</v>
       </c>
       <c r="Q123" s="1820">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="T123" s="1822">
-        <v>12.41</v>
+        <v>12.29</v>
       </c>
       <c r="U123" s="1824">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="V123" s="1826">
-        <v>6.01</v>
+        <v>5.87</v>
       </c>
       <c r="W123" s="1828">
-        <v>40.53</v>
+        <v>41.76</v>
       </c>
       <c r="X123" s="1830">
-        <v>1877000</v>
+        <v>2391200</v>
       </c>
     </row>
     <row r="124">
@@ -7521,31 +7544,31 @@
         <v>183</v>
       </c>
       <c r="N124" s="1834">
-        <v>128453</v>
+        <v>129227</v>
       </c>
       <c r="O124" s="1836">
-        <v>50212</v>
+        <v>52376</v>
       </c>
       <c r="P124" s="1838">
-        <v>78241</v>
+        <v>76851</v>
       </c>
       <c r="Q124" s="1840">
-        <v>826</v>
+        <v>774</v>
       </c>
       <c r="T124" s="1842">
-        <v>12.86</v>
+        <v>12.41</v>
       </c>
       <c r="U124" s="1844">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="V124" s="1846">
-        <v>6.45</v>
+        <v>6.01</v>
       </c>
       <c r="W124" s="1848">
-        <v>39.09</v>
+        <v>40.53</v>
       </c>
       <c r="X124" s="1850">
-        <v>1337300</v>
+        <v>1877000</v>
       </c>
     </row>
     <row r="125">
@@ -7556,31 +7579,31 @@
         <v>184</v>
       </c>
       <c r="N125" s="1854">
-        <v>127627</v>
+        <v>128453</v>
       </c>
       <c r="O125" s="1856">
-        <v>48064</v>
+        <v>50212</v>
       </c>
       <c r="P125" s="1858">
-        <v>79563</v>
+        <v>78241</v>
       </c>
       <c r="Q125" s="1860">
-        <v>884</v>
+        <v>826</v>
       </c>
       <c r="T125" s="1862">
-        <v>13.38</v>
+        <v>12.86</v>
       </c>
       <c r="U125" s="1864">
-        <v>6.43</v>
+        <v>6.41</v>
       </c>
       <c r="V125" s="1866">
-        <v>6.95</v>
+        <v>6.45</v>
       </c>
       <c r="W125" s="1868">
-        <v>37.66</v>
+        <v>39.09</v>
       </c>
       <c r="X125" s="1870">
-        <v>1036300</v>
+        <v>1337300</v>
       </c>
     </row>
     <row r="126">
@@ -7591,31 +7614,31 @@
         <v>185</v>
       </c>
       <c r="N126" s="1874">
-        <v>126743</v>
+        <v>127627</v>
       </c>
       <c r="O126" s="1876">
-        <v>45906</v>
+        <v>48064</v>
       </c>
       <c r="P126" s="1878">
-        <v>80837</v>
+        <v>79563</v>
       </c>
       <c r="Q126" s="1880">
-        <v>961</v>
+        <v>884</v>
       </c>
       <c r="T126" s="1882">
-        <v>14.03</v>
+        <v>13.38</v>
       </c>
       <c r="U126" s="1884">
-        <v>6.45</v>
+        <v>6.43</v>
       </c>
       <c r="V126" s="1886">
-        <v>7.58</v>
+        <v>6.95</v>
       </c>
       <c r="W126" s="1888">
-        <v>36.22</v>
+        <v>37.66</v>
       </c>
       <c r="X126" s="1890">
-        <v>949800</v>
+        <v>1036300</v>
       </c>
     </row>
     <row r="127">
@@ -7626,31 +7649,31 @@
         <v>186</v>
       </c>
       <c r="N127" s="1894">
-        <v>125786</v>
+        <v>126743</v>
       </c>
       <c r="O127" s="1896">
-        <v>43748</v>
+        <v>45906</v>
       </c>
       <c r="P127" s="1898">
-        <v>82038</v>
+        <v>80837</v>
       </c>
       <c r="Q127" s="1900">
-        <v>1099</v>
+        <v>961</v>
       </c>
       <c r="T127" s="1902">
-        <v>14.64</v>
+        <v>14.03</v>
       </c>
       <c r="U127" s="1904">
-        <v>6.46</v>
+        <v>6.45</v>
       </c>
       <c r="V127" s="1906">
-        <v>8.18</v>
+        <v>7.58</v>
       </c>
       <c r="W127" s="1908">
-        <v>34.78</v>
+        <v>36.22</v>
       </c>
       <c r="X127" s="1910">
-        <v>847600</v>
+        <v>949800</v>
       </c>
     </row>
     <row r="128">
@@ -7661,31 +7684,31 @@
         <v>187</v>
       </c>
       <c r="N128" s="1914">
-        <v>124761</v>
+        <v>125786</v>
       </c>
       <c r="O128" s="1916">
-        <v>41608</v>
+        <v>43748</v>
       </c>
       <c r="P128" s="1918">
-        <v>83153</v>
+        <v>82038</v>
       </c>
       <c r="Q128" s="1920">
-        <v>1184</v>
+        <v>1099</v>
       </c>
       <c r="T128" s="1922">
-        <v>15.64</v>
+        <v>14.64</v>
       </c>
       <c r="U128" s="1924">
-        <v>6.5</v>
+        <v>6.46</v>
       </c>
       <c r="V128" s="1926">
-        <v>9.14</v>
+        <v>8.18</v>
       </c>
       <c r="W128" s="1928">
-        <v>33.35</v>
+        <v>34.78</v>
       </c>
       <c r="X128" s="1930">
-        <v>830000</v>
+        <v>847600</v>
       </c>
     </row>
     <row r="129">
@@ -7696,31 +7719,31 @@
         <v>188</v>
       </c>
       <c r="N129" s="1934">
-        <v>123626</v>
+        <v>124761</v>
       </c>
       <c r="O129" s="1936">
-        <v>39449</v>
+        <v>41608</v>
       </c>
       <c r="P129" s="1938">
-        <v>84177</v>
+        <v>83153</v>
       </c>
       <c r="Q129" s="1940">
-        <v>1237</v>
+        <v>1184</v>
       </c>
       <c r="T129" s="1942">
-        <v>16.57</v>
+        <v>15.64</v>
       </c>
       <c r="U129" s="1944">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="V129" s="1946">
-        <v>10.06</v>
+        <v>9.14</v>
       </c>
       <c r="W129" s="1948">
-        <v>31.91</v>
+        <v>33.35</v>
       </c>
       <c r="X129" s="1950">
-        <v>829000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="130">
@@ -7731,31 +7754,31 @@
         <v>189</v>
       </c>
       <c r="N130" s="1954">
-        <v>122389</v>
+        <v>123626</v>
       </c>
       <c r="O130" s="1956">
-        <v>37304</v>
+        <v>39449</v>
       </c>
       <c r="P130" s="1958">
-        <v>85085</v>
+        <v>84177</v>
       </c>
       <c r="Q130" s="1960">
-        <v>1275</v>
+        <v>1237</v>
       </c>
       <c r="T130" s="1962">
-        <v>16.98</v>
+        <v>16.57</v>
       </c>
       <c r="U130" s="1964">
-        <v>6.56</v>
+        <v>6.51</v>
       </c>
       <c r="V130" s="1966">
-        <v>10.42</v>
+        <v>10.06</v>
       </c>
       <c r="W130" s="1968">
-        <v>30.48</v>
+        <v>31.91</v>
       </c>
       <c r="X130" s="1970">
-        <v>839000</v>
+        <v>829000</v>
       </c>
     </row>
     <row r="131">
@@ -7766,31 +7789,31 @@
         <v>190</v>
       </c>
       <c r="N131" s="1974">
-        <v>121121</v>
+        <v>122389</v>
       </c>
       <c r="O131" s="1976">
-        <v>35174</v>
+        <v>37304</v>
       </c>
       <c r="P131" s="1978">
-        <v>85947</v>
+        <v>85085</v>
       </c>
       <c r="Q131" s="1980">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="T131" s="1982">
-        <v>17.12</v>
+        <v>16.98</v>
       </c>
       <c r="U131" s="1984">
-        <v>6.57</v>
+        <v>6.56</v>
       </c>
       <c r="V131" s="1986">
-        <v>10.55</v>
+        <v>10.42</v>
       </c>
       <c r="W131" s="1988">
-        <v>29.04</v>
+        <v>30.48</v>
       </c>
       <c r="X131" s="1990">
-        <v>805000</v>
+        <v>839000</v>
       </c>
     </row>
     <row r="132">
@@ -7801,31 +7824,31 @@
         <v>191</v>
       </c>
       <c r="N132" s="1994">
-        <v>119850</v>
+        <v>121121</v>
       </c>
       <c r="O132" s="1996">
-        <v>34169</v>
+        <v>35174</v>
       </c>
       <c r="P132" s="1998">
-        <v>85681</v>
+        <v>85947</v>
       </c>
       <c r="Q132" s="2000">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="T132" s="2002">
-        <v>17.7</v>
+        <v>17.12</v>
       </c>
       <c r="U132" s="2004">
-        <v>6.49</v>
+        <v>6.57</v>
       </c>
       <c r="V132" s="2006">
-        <v>11.21</v>
+        <v>10.55</v>
       </c>
       <c r="W132" s="2008">
-        <v>28.51</v>
+        <v>29.04</v>
       </c>
       <c r="X132" s="2010">
-        <v>637000</v>
+        <v>805000</v>
       </c>
     </row>
     <row r="133">
@@ -7836,31 +7859,31 @@
         <v>192</v>
       </c>
       <c r="N133" s="2014">
-        <v>118517</v>
+        <v>119850</v>
       </c>
       <c r="O133" s="2016">
-        <v>33173</v>
+        <v>34169</v>
       </c>
       <c r="P133" s="2018">
-        <v>85344</v>
+        <v>85681</v>
       </c>
       <c r="Q133" s="2020">
-        <v>1357</v>
+        <v>1344</v>
       </c>
       <c r="T133" s="2022">
-        <v>18.09</v>
+        <v>17.7</v>
       </c>
       <c r="U133" s="2024">
-        <v>6.64</v>
+        <v>6.49</v>
       </c>
       <c r="V133" s="2026">
-        <v>11.45</v>
+        <v>11.21</v>
       </c>
       <c r="W133" s="2028">
-        <v>27.99</v>
+        <v>28.51</v>
       </c>
       <c r="X133" s="2030">
-        <v>571000</v>
+        <v>637000</v>
       </c>
     </row>
     <row r="134">
@@ -7871,31 +7894,31 @@
         <v>193</v>
       </c>
       <c r="N134" s="2034">
-        <v>117171</v>
+        <v>118517</v>
       </c>
       <c r="O134" s="2036">
-        <v>32175</v>
+        <v>33173</v>
       </c>
       <c r="P134" s="2038">
-        <v>84996</v>
+        <v>85344</v>
       </c>
       <c r="Q134" s="2040">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="T134" s="2042">
-        <v>18.24</v>
+        <v>18.09</v>
       </c>
       <c r="U134" s="2044">
         <v>6.64</v>
       </c>
       <c r="V134" s="2046">
-        <v>11.6</v>
+        <v>11.45</v>
       </c>
       <c r="W134" s="2048">
-        <v>27.46</v>
+        <v>27.99</v>
       </c>
       <c r="X134" s="2050">
-        <v>604000</v>
+        <v>571000</v>
       </c>
     </row>
     <row r="135">
@@ -7906,31 +7929,31 @@
         <v>194</v>
       </c>
       <c r="N135" s="2054">
-        <v>115823</v>
+        <v>117171</v>
       </c>
       <c r="O135" s="2056">
-        <v>31203</v>
+        <v>32175</v>
       </c>
       <c r="P135" s="2058">
-        <v>84620</v>
+        <v>84996</v>
       </c>
       <c r="Q135" s="2060">
-        <v>1503</v>
+        <v>1359</v>
       </c>
       <c r="T135" s="2062">
-        <v>19.68</v>
+        <v>18.24</v>
       </c>
       <c r="U135" s="2064">
-        <v>6.7</v>
+        <v>6.64</v>
       </c>
       <c r="V135" s="2066">
-        <v>12.98</v>
+        <v>11.6</v>
       </c>
       <c r="W135" s="2068">
-        <v>26.94</v>
+        <v>27.46</v>
       </c>
       <c r="X135" s="2070">
-        <v>614000</v>
+        <v>604000</v>
       </c>
     </row>
     <row r="136">
@@ -7941,28 +7964,28 @@
         <v>195</v>
       </c>
       <c r="N136" s="2074">
-        <v>114333</v>
+        <v>115823</v>
       </c>
       <c r="O136" s="2076">
-        <v>30195</v>
+        <v>31203</v>
       </c>
       <c r="P136" s="2078">
-        <v>84138</v>
+        <v>84620</v>
       </c>
       <c r="Q136" s="2080">
-        <v>1645</v>
+        <v>1503</v>
       </c>
       <c r="T136" s="2082">
-        <v>21.06</v>
+        <v>19.68</v>
       </c>
       <c r="U136" s="2084">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="V136" s="2086">
-        <v>14.39</v>
+        <v>12.98</v>
       </c>
       <c r="W136" s="2088">
-        <v>26.41</v>
+        <v>26.94</v>
       </c>
       <c r="X136" s="2090">
         <v>614000</v>
@@ -7976,31 +7999,31 @@
         <v>196</v>
       </c>
       <c r="N137" s="2094">
-        <v>112704</v>
+        <v>114333</v>
       </c>
       <c r="O137" s="2096">
-        <v>29540</v>
+        <v>30195</v>
       </c>
       <c r="P137" s="2098">
-        <v>83164</v>
+        <v>84138</v>
       </c>
       <c r="Q137" s="2100">
-        <v>1695</v>
+        <v>1645</v>
       </c>
       <c r="T137" s="2102">
-        <v>21.58</v>
+        <v>21.06</v>
       </c>
       <c r="U137" s="2104">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="V137" s="2106">
-        <v>15.04</v>
+        <v>14.39</v>
       </c>
       <c r="W137" s="2108">
-        <v>26.21</v>
+        <v>26.41</v>
       </c>
       <c r="X137" s="2110">
-        <v>576000</v>
+        <v>614000</v>
       </c>
     </row>
     <row r="138">
@@ -8011,31 +8034,31 @@
         <v>197</v>
       </c>
       <c r="N138" s="2114">
-        <v>111026</v>
+        <v>112704</v>
       </c>
       <c r="O138" s="2116">
-        <v>28661</v>
+        <v>29540</v>
       </c>
       <c r="P138" s="2118">
-        <v>82365</v>
+        <v>83164</v>
       </c>
       <c r="Q138" s="2120">
-        <v>1576</v>
+        <v>1695</v>
       </c>
       <c r="T138" s="2122">
-        <v>22.37</v>
+        <v>21.58</v>
       </c>
       <c r="U138" s="2124">
-        <v>6.64</v>
+        <v>6.54</v>
       </c>
       <c r="V138" s="2126">
-        <v>15.73</v>
+        <v>15.04</v>
       </c>
       <c r="W138" s="2128">
-        <v>25.81</v>
+        <v>26.21</v>
       </c>
       <c r="X138" s="2130">
-        <v>553000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="139">
@@ -8046,31 +8069,31 @@
         <v>198</v>
       </c>
       <c r="N139" s="2134">
-        <v>109300</v>
+        <v>111026</v>
       </c>
       <c r="O139" s="2136">
-        <v>27674</v>
+        <v>28661</v>
       </c>
       <c r="P139" s="2138">
-        <v>81626</v>
+        <v>82365</v>
       </c>
       <c r="Q139" s="2140">
-        <v>1816</v>
+        <v>1576</v>
       </c>
       <c r="T139" s="2142">
-        <v>23.33</v>
+        <v>22.37</v>
       </c>
       <c r="U139" s="2144">
-        <v>6.72</v>
+        <v>6.64</v>
       </c>
       <c r="V139" s="2146">
-        <v>16.61</v>
+        <v>15.73</v>
       </c>
       <c r="W139" s="2148">
-        <v>25.32</v>
+        <v>25.81</v>
       </c>
       <c r="X139" s="2150">
-        <v>532000</v>
+        <v>553000</v>
       </c>
     </row>
     <row r="140">
@@ -8081,31 +8104,31 @@
         <v>199</v>
       </c>
       <c r="N140" s="2154">
-        <v>107507</v>
+        <v>109300</v>
       </c>
       <c r="O140" s="2156">
-        <v>26366</v>
+        <v>27674</v>
       </c>
       <c r="P140" s="2158">
-        <v>81141</v>
+        <v>81626</v>
       </c>
       <c r="Q140" s="2160">
-        <v>1674</v>
+        <v>1816</v>
       </c>
       <c r="T140" s="2162">
-        <v>22.43</v>
+        <v>23.33</v>
       </c>
       <c r="U140" s="2164">
-        <v>6.86</v>
+        <v>6.72</v>
       </c>
       <c r="V140" s="2166">
-        <v>15.57</v>
+        <v>16.61</v>
       </c>
       <c r="W140" s="2168">
-        <v>24.52</v>
+        <v>25.32</v>
       </c>
       <c r="X140" s="2170">
-        <v>393000</v>
+        <v>532000</v>
       </c>
     </row>
     <row r="141">
@@ -8116,31 +8139,31 @@
         <v>200</v>
       </c>
       <c r="N141" s="2174">
-        <v>105851</v>
+        <v>107507</v>
       </c>
       <c r="O141" s="2176">
-        <v>25094</v>
+        <v>26366</v>
       </c>
       <c r="P141" s="2178">
-        <v>80757</v>
+        <v>81141</v>
       </c>
       <c r="Q141" s="2180">
-        <v>1509</v>
+        <v>1674</v>
       </c>
       <c r="T141" s="2182">
-        <v>21.04</v>
+        <v>22.43</v>
       </c>
       <c r="U141" s="2184">
-        <v>6.78</v>
+        <v>6.86</v>
       </c>
       <c r="V141" s="2186">
-        <v>14.26</v>
+        <v>15.57</v>
       </c>
       <c r="W141" s="2188">
-        <v>23.71</v>
+        <v>24.52</v>
       </c>
       <c r="X141" s="2190">
-        <v>316000</v>
+        <v>393000</v>
       </c>
     </row>
     <row r="142">
@@ -8151,31 +8174,31 @@
         <v>201</v>
       </c>
       <c r="N142" s="2194">
-        <v>104357</v>
+        <v>105851</v>
       </c>
       <c r="O142" s="2196">
-        <v>24017</v>
+        <v>25094</v>
       </c>
       <c r="P142" s="2198">
-        <v>80340</v>
+        <v>80757</v>
       </c>
       <c r="Q142" s="2200">
-        <v>1365</v>
+        <v>1509</v>
       </c>
       <c r="T142" s="2202">
-        <v>19.9</v>
+        <v>21.04</v>
       </c>
       <c r="U142" s="2204">
-        <v>6.82</v>
+        <v>6.78</v>
       </c>
       <c r="V142" s="2206">
-        <v>13.08</v>
+        <v>14.26</v>
       </c>
       <c r="W142" s="2208">
-        <v>23.01</v>
+        <v>23.71</v>
       </c>
       <c r="X142" s="2210">
-        <v>287000</v>
+        <v>316000</v>
       </c>
     </row>
     <row r="143">
@@ -8186,31 +8209,31 @@
         <v>202</v>
       </c>
       <c r="N143" s="2214">
-        <v>103008</v>
+        <v>104357</v>
       </c>
       <c r="O143" s="2216">
-        <v>22274</v>
+        <v>24017</v>
       </c>
       <c r="P143" s="2218">
-        <v>80734</v>
+        <v>80340</v>
       </c>
       <c r="Q143" s="2220">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="T143" s="2222">
-        <v>20.19</v>
+        <v>19.9</v>
       </c>
       <c r="U143" s="2224">
-        <v>6.9</v>
+        <v>6.82</v>
       </c>
       <c r="V143" s="2226">
-        <v>13.29</v>
+        <v>13.08</v>
       </c>
       <c r="W143" s="2228">
-        <v>21.62</v>
+        <v>23.01</v>
       </c>
       <c r="X143" s="2230">
-        <v>335000</v>
+        <v>287000</v>
       </c>
     </row>
     <row r="144">
@@ -8221,31 +8244,31 @@
         <v>203</v>
       </c>
       <c r="N144" s="2234">
-        <v>101654</v>
+        <v>103008</v>
       </c>
       <c r="O144" s="2236">
-        <v>21480</v>
+        <v>22274</v>
       </c>
       <c r="P144" s="2238">
-        <v>80174</v>
+        <v>80734</v>
       </c>
       <c r="Q144" s="2240">
-        <v>1594</v>
+        <v>1369</v>
       </c>
       <c r="T144" s="2242">
-        <v>22.28</v>
+        <v>20.19</v>
       </c>
       <c r="U144" s="2244">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="V144" s="2246">
-        <v>15.68</v>
+        <v>13.29</v>
       </c>
       <c r="W144" s="2248">
-        <v>21.13</v>
+        <v>21.62</v>
       </c>
       <c r="X144" s="2250">
-        <v>457000</v>
+        <v>335000</v>
       </c>
     </row>
     <row r="145">
@@ -8256,31 +8279,31 @@
         <v>204</v>
       </c>
       <c r="N145" s="2254">
-        <v>100072</v>
+        <v>101654</v>
       </c>
       <c r="O145" s="2256">
-        <v>20171</v>
+        <v>21480</v>
       </c>
       <c r="P145" s="2258">
-        <v>79901</v>
+        <v>80174</v>
       </c>
       <c r="Q145" s="2260">
-        <v>1456</v>
+        <v>1594</v>
       </c>
       <c r="T145" s="2262">
-        <v>20.91</v>
+        <v>22.28</v>
       </c>
       <c r="U145" s="2264">
-        <v>6.36</v>
+        <v>6.6</v>
       </c>
       <c r="V145" s="2266">
-        <v>14.55</v>
+        <v>15.68</v>
       </c>
       <c r="W145" s="2268">
-        <v>20.16</v>
+        <v>21.13</v>
       </c>
       <c r="X145" s="2270">
-        <v>140000</v>
+        <v>457000</v>
       </c>
     </row>
     <row r="146">
@@ -8291,31 +8314,31 @@
         <v>205</v>
       </c>
       <c r="N146" s="2274">
-        <v>98705</v>
+        <v>100072</v>
       </c>
       <c r="O146" s="2276">
-        <v>19140</v>
+        <v>20171</v>
       </c>
       <c r="P146" s="2278">
-        <v>79565</v>
+        <v>79901</v>
       </c>
       <c r="Q146" s="2280">
-        <v>1171</v>
+        <v>1456</v>
       </c>
       <c r="T146" s="2282">
-        <v>18.21</v>
+        <v>20.91</v>
       </c>
       <c r="U146" s="2284">
-        <v>6.34</v>
+        <v>6.36</v>
       </c>
       <c r="V146" s="2286">
-        <v>11.87</v>
+        <v>14.55</v>
       </c>
       <c r="W146" s="2288">
-        <v>19.39</v>
+        <v>20.16</v>
       </c>
       <c r="X146" s="2290">
-        <v>147000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="147">
@@ -8326,31 +8349,31 @@
         <v>206</v>
       </c>
       <c r="N147" s="2294">
-        <v>97542</v>
+        <v>98705</v>
       </c>
       <c r="O147" s="2296">
-        <v>18495</v>
+        <v>19140</v>
       </c>
       <c r="P147" s="2298">
-        <v>79047</v>
+        <v>79565</v>
       </c>
       <c r="Q147" s="2300">
-        <v>1132</v>
+        <v>1171</v>
       </c>
       <c r="T147" s="2302">
-        <v>17.82</v>
+        <v>18.21</v>
       </c>
       <c r="U147" s="2304">
-        <v>6.21</v>
+        <v>6.34</v>
       </c>
       <c r="V147" s="2306">
-        <v>11.61</v>
+        <v>11.87</v>
       </c>
       <c r="W147" s="2308">
-        <v>18.96</v>
+        <v>19.39</v>
       </c>
       <c r="X147" s="2310">
-        <v>85000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="148">
@@ -8361,31 +8384,31 @@
         <v>207</v>
       </c>
       <c r="N148" s="2314">
-        <v>96259</v>
+        <v>97542</v>
       </c>
       <c r="O148" s="2316">
-        <v>17245</v>
+        <v>18495</v>
       </c>
       <c r="P148" s="2318">
-        <v>79014</v>
+        <v>79047</v>
       </c>
       <c r="Q148" s="2320">
-        <v>1155</v>
+        <v>1132</v>
       </c>
       <c r="T148" s="2322">
-        <v>18.25</v>
+        <v>17.82</v>
       </c>
       <c r="U148" s="2324">
-        <v>6.25</v>
+        <v>6.21</v>
       </c>
       <c r="V148" s="2326">
-        <v>12</v>
+        <v>11.61</v>
       </c>
       <c r="W148" s="2328">
-        <v>17.95</v>
+        <v>18.96</v>
       </c>
       <c r="X148" s="2330">
-        <v>165000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="149">
@@ -8396,31 +8419,31 @@
         <v>208</v>
       </c>
       <c r="N149" s="2334">
-        <v>94974</v>
+        <v>96259</v>
       </c>
       <c r="O149" s="2336">
-        <v>16669</v>
+        <v>17245</v>
       </c>
       <c r="P149" s="2338">
-        <v>78305</v>
+        <v>79014</v>
       </c>
       <c r="Q149" s="2340">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="T149" s="2342">
-        <v>19.03</v>
+        <v>18.25</v>
       </c>
       <c r="U149" s="2344">
-        <v>6.91</v>
+        <v>6.25</v>
       </c>
       <c r="V149" s="2346">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="W149" s="2348">
-        <v>17.55</v>
+        <v>17.95</v>
       </c>
       <c r="X149" s="2350">
-        <v>194000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="150">
@@ -8431,31 +8454,31 @@
         <v>209</v>
       </c>
       <c r="N150" s="2354">
-        <v>93717</v>
+        <v>94974</v>
       </c>
       <c r="O150" s="2356">
-        <v>16341</v>
+        <v>16669</v>
       </c>
       <c r="P150" s="2358">
-        <v>77376</v>
+        <v>78305</v>
       </c>
       <c r="Q150" s="2360">
-        <v>1192</v>
+        <v>1151</v>
       </c>
       <c r="T150" s="2362">
-        <v>20.01</v>
+        <v>19.03</v>
       </c>
       <c r="U150" s="2364">
-        <v>7.29</v>
+        <v>6.91</v>
       </c>
       <c r="V150" s="2366">
-        <v>12.72</v>
+        <v>12.12</v>
       </c>
       <c r="W150" s="2368">
-        <v>17.44</v>
+        <v>17.55</v>
       </c>
       <c r="X150" s="2370">
-        <v>149000</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="151">
@@ -8466,31 +8489,31 @@
         <v>210</v>
       </c>
       <c r="N151" s="2374">
-        <v>92420</v>
+        <v>93717</v>
       </c>
       <c r="O151" s="2376">
-        <v>16030</v>
+        <v>16341</v>
       </c>
       <c r="P151" s="2378">
-        <v>76390</v>
+        <v>77376</v>
       </c>
       <c r="Q151" s="2380">
-        <v>1458</v>
+        <v>1192</v>
       </c>
       <c r="T151" s="2382">
-        <v>23.13</v>
+        <v>20.01</v>
       </c>
       <c r="U151" s="2384">
-        <v>7.36</v>
+        <v>7.29</v>
       </c>
       <c r="V151" s="2386">
-        <v>15.77</v>
+        <v>12.72</v>
       </c>
       <c r="W151" s="2388">
-        <v>17.34</v>
+        <v>17.44</v>
       </c>
       <c r="X151" s="2390">
-        <v>119000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="152">
@@ -8501,31 +8524,31 @@
         <v>211</v>
       </c>
       <c r="N152" s="2394">
-        <v>90859</v>
+        <v>92420</v>
       </c>
       <c r="O152" s="2396">
-        <v>15595</v>
+        <v>16030</v>
       </c>
       <c r="P152" s="2398">
-        <v>75264</v>
+        <v>76390</v>
       </c>
       <c r="Q152" s="2400">
-        <v>1596</v>
+        <v>1458</v>
       </c>
       <c r="T152" s="2402">
-        <v>24.95</v>
+        <v>23.13</v>
       </c>
       <c r="U152" s="2404">
-        <v>7.38</v>
+        <v>7.36</v>
       </c>
       <c r="V152" s="2406">
-        <v>17.57</v>
+        <v>15.77</v>
       </c>
       <c r="W152" s="2408">
-        <v>17.16</v>
+        <v>17.34</v>
       </c>
       <c r="X152" s="2410">
-        <v>43000</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="153">
@@ -8536,31 +8559,31 @@
         <v>212</v>
       </c>
       <c r="N153" s="2414">
-        <v>89211</v>
+        <v>90859</v>
       </c>
       <c r="O153" s="2416">
-        <v>15345</v>
+        <v>15595</v>
       </c>
       <c r="P153" s="2418">
-        <v>73866</v>
+        <v>75264</v>
       </c>
       <c r="Q153" s="2420">
-        <v>1872</v>
+        <v>1596</v>
       </c>
       <c r="T153" s="2422">
-        <v>28.07</v>
+        <v>24.95</v>
       </c>
       <c r="U153" s="2424">
-        <v>7.08</v>
+        <v>7.38</v>
       </c>
       <c r="V153" s="2426">
-        <v>20.99</v>
+        <v>17.57</v>
       </c>
       <c r="W153" s="2428">
-        <v>17.2</v>
+        <v>17.16</v>
       </c>
       <c r="X153" s="2430">
-        <v>30000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="154">
@@ -8571,31 +8594,31 @@
         <v>213</v>
       </c>
       <c r="N154" s="2434">
-        <v>87177</v>
+        <v>89211</v>
       </c>
       <c r="O154" s="2436">
-        <v>14935</v>
+        <v>15345</v>
       </c>
       <c r="P154" s="2438">
-        <v>72242</v>
+        <v>73866</v>
       </c>
       <c r="Q154" s="2440">
-        <v>1941</v>
+        <v>1872</v>
       </c>
       <c r="T154" s="2442">
-        <v>29.92</v>
+        <v>28.07</v>
       </c>
       <c r="U154" s="2444">
-        <v>7.65</v>
+        <v>7.08</v>
       </c>
       <c r="V154" s="2446">
-        <v>22.27</v>
+        <v>20.99</v>
       </c>
       <c r="W154" s="2448">
-        <v>17.13</v>
+        <v>17.2</v>
       </c>
       <c r="X154" s="2450">
-        <v>17000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="155">
@@ -8606,31 +8629,31 @@
         <v>214</v>
       </c>
       <c r="N155" s="2454">
-        <v>85229</v>
+        <v>87177</v>
       </c>
       <c r="O155" s="2456">
-        <v>14711</v>
+        <v>14935</v>
       </c>
       <c r="P155" s="2458">
-        <v>70518</v>
+        <v>72242</v>
       </c>
       <c r="Q155" s="2460">
-        <v>1994</v>
+        <v>1941</v>
       </c>
       <c r="T155" s="2462">
-        <v>30.74</v>
+        <v>29.92</v>
       </c>
       <c r="U155" s="2464">
-        <v>7.34</v>
+        <v>7.65</v>
       </c>
       <c r="V155" s="2466">
-        <v>23.4</v>
+        <v>22.27</v>
       </c>
       <c r="W155" s="2468">
-        <v>17.26</v>
+        <v>17.13</v>
       </c>
       <c r="X155" s="2470">
-        <v>6000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="156">
@@ -8641,31 +8664,31 @@
         <v>215</v>
       </c>
       <c r="N156" s="2474">
-        <v>82992</v>
+        <v>85229</v>
       </c>
       <c r="O156" s="2476">
-        <v>14424</v>
+        <v>14711</v>
       </c>
       <c r="P156" s="2478">
-        <v>68568</v>
+        <v>70518</v>
       </c>
       <c r="Q156" s="2480">
-        <v>2154</v>
+        <v>1994</v>
       </c>
       <c r="T156" s="2482">
-        <v>33.59</v>
+        <v>30.74</v>
       </c>
       <c r="U156" s="2484">
-        <v>7.64</v>
+        <v>7.34</v>
       </c>
       <c r="V156" s="2486">
-        <v>25.95</v>
+        <v>23.4</v>
       </c>
       <c r="W156" s="2488">
-        <v>17.38</v>
+        <v>17.26</v>
       </c>
       <c r="X156" s="2490">
-        <v>103000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="157">
@@ -8676,661 +8699,696 @@
         <v>216</v>
       </c>
       <c r="N157" s="2494">
-        <v>80671</v>
+        <v>82992</v>
       </c>
       <c r="O157" s="2496">
-        <v>14117</v>
+        <v>14424</v>
       </c>
       <c r="P157" s="2498">
-        <v>66554</v>
-      </c>
-      <c r="T157" s="2500">
-        <v>34.25</v>
-      </c>
-      <c r="U157" s="2502">
-        <v>8.06</v>
-      </c>
-      <c r="V157" s="2504">
-        <v>26.19</v>
-      </c>
-      <c r="W157" s="2506">
-        <v>17.5</v>
-      </c>
-      <c r="X157" s="2508">
-        <v>150000</v>
+        <v>68568</v>
+      </c>
+      <c r="Q157" s="2500">
+        <v>2154</v>
+      </c>
+      <c r="T157" s="2502">
+        <v>33.59</v>
+      </c>
+      <c r="U157" s="2504">
+        <v>7.64</v>
+      </c>
+      <c r="V157" s="2506">
+        <v>25.95</v>
+      </c>
+      <c r="W157" s="2508">
+        <v>17.38</v>
+      </c>
+      <c r="X157" s="2510">
+        <v>103000</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2510">
+      <c r="A158" s="2512">
         <v>152</v>
       </c>
       <c r="B158" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="N158" s="2512">
-        <v>78534</v>
-      </c>
-      <c r="O158" s="2514">
-        <v>13838</v>
-      </c>
-      <c r="P158" s="2516">
-        <v>64696</v>
-      </c>
-      <c r="T158" s="2518">
-        <v>35.75</v>
-      </c>
-      <c r="U158" s="2520">
-        <v>8.25</v>
-      </c>
-      <c r="V158" s="2522">
-        <v>27.5</v>
-      </c>
-      <c r="W158" s="2524">
-        <v>17.62</v>
-      </c>
-      <c r="X158" s="2526">
+      <c r="N158" s="2514">
+        <v>80671</v>
+      </c>
+      <c r="O158" s="2516">
+        <v>14117</v>
+      </c>
+      <c r="P158" s="2518">
+        <v>66554</v>
+      </c>
+      <c r="T158" s="2520">
+        <v>34.25</v>
+      </c>
+      <c r="U158" s="2522">
+        <v>8.06</v>
+      </c>
+      <c r="V158" s="2524">
+        <v>26.19</v>
+      </c>
+      <c r="W158" s="2526">
+        <v>17.5</v>
+      </c>
+      <c r="X158" s="2528">
         <v>150000</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2528">
+      <c r="A159" s="2530">
         <v>153</v>
       </c>
       <c r="B159" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="N159" s="2530">
-        <v>76368</v>
-      </c>
-      <c r="O159" s="2532">
-        <v>13548</v>
-      </c>
-      <c r="P159" s="2534">
-        <v>62820</v>
-      </c>
-      <c r="T159" s="2536">
-        <v>34.12</v>
-      </c>
-      <c r="U159" s="2538">
-        <v>8.47</v>
-      </c>
-      <c r="V159" s="2540">
-        <v>25.65</v>
-      </c>
-      <c r="W159" s="2542">
-        <v>17.74</v>
-      </c>
-      <c r="X159" s="2544">
-        <v>125000</v>
+      <c r="N159" s="2532">
+        <v>78534</v>
+      </c>
+      <c r="O159" s="2534">
+        <v>13838</v>
+      </c>
+      <c r="P159" s="2536">
+        <v>64696</v>
+      </c>
+      <c r="T159" s="2538">
+        <v>35.75</v>
+      </c>
+      <c r="U159" s="2540">
+        <v>8.25</v>
+      </c>
+      <c r="V159" s="2542">
+        <v>27.5</v>
+      </c>
+      <c r="W159" s="2544">
+        <v>17.62</v>
+      </c>
+      <c r="X159" s="2546">
+        <v>150000</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2546">
+      <c r="A160" s="2548">
         <v>154</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N160" s="2548">
-        <v>74542</v>
-      </c>
-      <c r="O160" s="2550">
-        <v>13313</v>
-      </c>
-      <c r="P160" s="2552">
-        <v>61229</v>
-      </c>
-      <c r="T160" s="2554">
-        <v>35.21</v>
-      </c>
-      <c r="U160" s="2556">
-        <v>8.87</v>
-      </c>
-      <c r="V160" s="2558">
-        <v>26.34</v>
-      </c>
-      <c r="W160" s="2560">
-        <v>17.86</v>
-      </c>
-      <c r="X160" s="2562">
-        <v>141000</v>
+      <c r="N160" s="2550">
+        <v>76368</v>
+      </c>
+      <c r="O160" s="2552">
+        <v>13548</v>
+      </c>
+      <c r="P160" s="2554">
+        <v>62820</v>
+      </c>
+      <c r="T160" s="2556">
+        <v>34.12</v>
+      </c>
+      <c r="U160" s="2558">
+        <v>8.47</v>
+      </c>
+      <c r="V160" s="2560">
+        <v>25.65</v>
+      </c>
+      <c r="W160" s="2562">
+        <v>17.74</v>
+      </c>
+      <c r="X160" s="2564">
+        <v>125000</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2564">
+      <c r="A161" s="2566">
         <v>155</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N161" s="2566">
-        <v>72538</v>
-      </c>
-      <c r="O161" s="2568">
-        <v>13045</v>
-      </c>
-      <c r="P161" s="2570">
-        <v>59493</v>
-      </c>
-      <c r="T161" s="2572">
-        <v>38</v>
-      </c>
-      <c r="U161" s="2574">
-        <v>9.5</v>
-      </c>
-      <c r="V161" s="2576">
-        <v>28.5</v>
-      </c>
-      <c r="W161" s="2578">
-        <v>17.98</v>
-      </c>
-      <c r="X161" s="2580">
-        <v>186000</v>
+      <c r="N161" s="2568">
+        <v>74542</v>
+      </c>
+      <c r="O161" s="2570">
+        <v>13313</v>
+      </c>
+      <c r="P161" s="2572">
+        <v>61229</v>
+      </c>
+      <c r="T161" s="2574">
+        <v>35.21</v>
+      </c>
+      <c r="U161" s="2576">
+        <v>8.87</v>
+      </c>
+      <c r="V161" s="2578">
+        <v>26.34</v>
+      </c>
+      <c r="W161" s="2580">
+        <v>17.86</v>
+      </c>
+      <c r="X161" s="2582">
+        <v>141000</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2582">
+      <c r="A162" s="2584">
         <v>156</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N162" s="2584">
-        <v>70499</v>
-      </c>
-      <c r="O162" s="2586">
-        <v>12950</v>
-      </c>
-      <c r="P162" s="2588">
-        <v>57549</v>
-      </c>
-      <c r="T162" s="2590">
-        <v>39.34</v>
-      </c>
-      <c r="U162" s="2592">
-        <v>11.56</v>
-      </c>
-      <c r="V162" s="2594">
-        <v>27.78</v>
-      </c>
-      <c r="W162" s="2596">
-        <v>18.37</v>
-      </c>
-      <c r="X162" s="2598">
-        <v>204000</v>
+      <c r="N162" s="2586">
+        <v>72538</v>
+      </c>
+      <c r="O162" s="2588">
+        <v>13045</v>
+      </c>
+      <c r="P162" s="2590">
+        <v>59493</v>
+      </c>
+      <c r="T162" s="2592">
+        <v>38</v>
+      </c>
+      <c r="U162" s="2594">
+        <v>9.5</v>
+      </c>
+      <c r="V162" s="2596">
+        <v>28.5</v>
+      </c>
+      <c r="W162" s="2598">
+        <v>17.98</v>
+      </c>
+      <c r="X162" s="2600">
+        <v>186000</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2600">
+      <c r="A163" s="2602">
         <v>157</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N163" s="2602">
-        <v>69172</v>
-      </c>
-      <c r="O163" s="2604">
-        <v>11646</v>
-      </c>
-      <c r="P163" s="2606">
-        <v>57526</v>
-      </c>
-      <c r="T163" s="2608">
-        <v>43.6</v>
-      </c>
-      <c r="U163" s="2610">
-        <v>10.1</v>
-      </c>
-      <c r="V163" s="2612">
-        <v>33.5</v>
-      </c>
-      <c r="W163" s="2614">
-        <v>16.84</v>
-      </c>
-      <c r="X163" s="2616">
-        <v>199000</v>
+      <c r="N163" s="2604">
+        <v>70499</v>
+      </c>
+      <c r="O163" s="2606">
+        <v>12950</v>
+      </c>
+      <c r="P163" s="2608">
+        <v>57549</v>
+      </c>
+      <c r="T163" s="2610">
+        <v>39.34</v>
+      </c>
+      <c r="U163" s="2612">
+        <v>11.56</v>
+      </c>
+      <c r="V163" s="2614">
+        <v>27.78</v>
+      </c>
+      <c r="W163" s="2616">
+        <v>18.37</v>
+      </c>
+      <c r="X163" s="2618">
+        <v>204000</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2618">
+      <c r="A164" s="2620">
         <v>158</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="N164" s="2620">
-        <v>67296</v>
-      </c>
-      <c r="O164" s="2622">
-        <v>11659</v>
-      </c>
-      <c r="P164" s="2624">
-        <v>55636</v>
-      </c>
-      <c r="T164" s="2626">
-        <v>37.22</v>
-      </c>
-      <c r="U164" s="2628">
-        <v>10.08</v>
-      </c>
-      <c r="V164" s="2630">
-        <v>27.14</v>
-      </c>
-      <c r="W164" s="2632">
-        <v>17.33</v>
-      </c>
-      <c r="X164" s="2634">
-        <v>177000</v>
+      <c r="N164" s="2622">
+        <v>69172</v>
+      </c>
+      <c r="O164" s="2624">
+        <v>11646</v>
+      </c>
+      <c r="P164" s="2626">
+        <v>57526</v>
+      </c>
+      <c r="T164" s="2628">
+        <v>43.6</v>
+      </c>
+      <c r="U164" s="2630">
+        <v>10.1</v>
+      </c>
+      <c r="V164" s="2632">
+        <v>33.5</v>
+      </c>
+      <c r="W164" s="2634">
+        <v>16.84</v>
+      </c>
+      <c r="X164" s="2636">
+        <v>199000</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2636">
+      <c r="A165" s="2638">
         <v>159</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="N165" s="2638">
-        <v>65859</v>
-      </c>
-      <c r="O165" s="2640">
-        <v>12707</v>
-      </c>
-      <c r="P165" s="2642">
-        <v>53152</v>
-      </c>
-      <c r="T165" s="2644">
-        <v>18.13</v>
-      </c>
-      <c r="U165" s="2646">
-        <v>14.33</v>
-      </c>
-      <c r="V165" s="2648">
-        <v>3.8</v>
-      </c>
-      <c r="W165" s="2650">
-        <v>19.29</v>
-      </c>
-      <c r="X165" s="2652">
-        <v>151000</v>
+      <c r="N165" s="2640">
+        <v>67296</v>
+      </c>
+      <c r="O165" s="2642">
+        <v>11659</v>
+      </c>
+      <c r="P165" s="2644">
+        <v>55636</v>
+      </c>
+      <c r="T165" s="2646">
+        <v>37.22</v>
+      </c>
+      <c r="U165" s="2648">
+        <v>10.08</v>
+      </c>
+      <c r="V165" s="2650">
+        <v>27.14</v>
+      </c>
+      <c r="W165" s="2652">
+        <v>17.33</v>
+      </c>
+      <c r="X165" s="2654">
+        <v>177000</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2654">
+      <c r="A166" s="2656">
         <v>160</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="N166" s="2656">
-        <v>66207</v>
-      </c>
-      <c r="O166" s="2658">
-        <v>13073</v>
-      </c>
-      <c r="P166" s="2660">
-        <v>53134</v>
-      </c>
-      <c r="T166" s="2662">
-        <v>20.86</v>
-      </c>
-      <c r="U166" s="2664">
-        <v>25.43</v>
-      </c>
-      <c r="V166" s="2666">
-        <v>-4.57</v>
-      </c>
-      <c r="W166" s="2668">
-        <v>19.75</v>
-      </c>
-      <c r="X166" s="2670">
-        <v>136000</v>
+      <c r="N166" s="2658">
+        <v>65859</v>
+      </c>
+      <c r="O166" s="2660">
+        <v>12707</v>
+      </c>
+      <c r="P166" s="2662">
+        <v>53152</v>
+      </c>
+      <c r="T166" s="2664">
+        <v>18.13</v>
+      </c>
+      <c r="U166" s="2666">
+        <v>14.33</v>
+      </c>
+      <c r="V166" s="2668">
+        <v>3.8</v>
+      </c>
+      <c r="W166" s="2670">
+        <v>19.29</v>
+      </c>
+      <c r="X166" s="2672">
+        <v>151000</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2672">
+      <c r="A167" s="2674">
         <v>161</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="N167" s="2674">
-        <v>67207</v>
-      </c>
-      <c r="O167" s="2676">
-        <v>12371</v>
-      </c>
-      <c r="P167" s="2678">
-        <v>54836</v>
-      </c>
-      <c r="T167" s="2680">
-        <v>24.78</v>
-      </c>
-      <c r="U167" s="2682">
-        <v>14.59</v>
-      </c>
-      <c r="V167" s="2684">
-        <v>10.19</v>
-      </c>
-      <c r="X167" s="2686">
-        <v>70000</v>
+      <c r="N167" s="2676">
+        <v>66207</v>
+      </c>
+      <c r="O167" s="2678">
+        <v>13073</v>
+      </c>
+      <c r="P167" s="2680">
+        <v>53134</v>
+      </c>
+      <c r="T167" s="2682">
+        <v>20.86</v>
+      </c>
+      <c r="U167" s="2684">
+        <v>25.43</v>
+      </c>
+      <c r="V167" s="2686">
+        <v>-4.57</v>
+      </c>
+      <c r="W167" s="2688">
+        <v>19.75</v>
+      </c>
+      <c r="X167" s="2690">
+        <v>136000</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2688">
+      <c r="A168" s="2692">
         <v>162</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="N168" s="2690">
-        <v>65994</v>
-      </c>
-      <c r="O168" s="2692">
-        <v>10721</v>
-      </c>
-      <c r="P168" s="2694">
-        <v>55273</v>
-      </c>
-      <c r="T168" s="2696">
-        <v>29.22</v>
-      </c>
-      <c r="U168" s="2698">
-        <v>11.98</v>
-      </c>
-      <c r="V168" s="2700">
-        <v>17.24</v>
-      </c>
-      <c r="X168" s="2702">
-        <v>72000</v>
+      <c r="N168" s="2694">
+        <v>67207</v>
+      </c>
+      <c r="O168" s="2696">
+        <v>12371</v>
+      </c>
+      <c r="P168" s="2698">
+        <v>54836</v>
+      </c>
+      <c r="T168" s="2700">
+        <v>24.78</v>
+      </c>
+      <c r="U168" s="2702">
+        <v>14.59</v>
+      </c>
+      <c r="V168" s="2704">
+        <v>10.19</v>
+      </c>
+      <c r="X168" s="2706">
+        <v>70000</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2704">
+      <c r="A169" s="2708">
         <v>163</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="N169" s="2706">
-        <v>64653</v>
-      </c>
-      <c r="O169" s="2708">
-        <v>9949</v>
-      </c>
-      <c r="P169" s="2710">
-        <v>54704</v>
-      </c>
-      <c r="T169" s="2712">
-        <v>34.03</v>
-      </c>
-      <c r="U169" s="2714">
-        <v>10.8</v>
-      </c>
-      <c r="V169" s="2716">
-        <v>23.23</v>
-      </c>
-      <c r="W169" s="2718">
-        <v>15.4</v>
-      </c>
-      <c r="X169" s="2720">
-        <v>56000</v>
+      <c r="N169" s="2710">
+        <v>65994</v>
+      </c>
+      <c r="O169" s="2712">
+        <v>10721</v>
+      </c>
+      <c r="P169" s="2714">
+        <v>55273</v>
+      </c>
+      <c r="T169" s="2716">
+        <v>29.22</v>
+      </c>
+      <c r="U169" s="2718">
+        <v>11.98</v>
+      </c>
+      <c r="V169" s="2720">
+        <v>17.24</v>
+      </c>
+      <c r="X169" s="2722">
+        <v>72000</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2722">
+      <c r="A170" s="2724">
         <v>164</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="N170" s="2724">
-        <v>62828</v>
-      </c>
-      <c r="O170" s="2726">
-        <v>9185</v>
-      </c>
-      <c r="P170" s="2728">
-        <v>53643</v>
-      </c>
-      <c r="T170" s="2730">
-        <v>31.9</v>
-      </c>
-      <c r="U170" s="2732">
-        <v>11.4</v>
-      </c>
-      <c r="V170" s="2734">
-        <v>20.5</v>
-      </c>
-      <c r="X170" s="2736">
-        <v>63000</v>
+      <c r="N170" s="2726">
+        <v>64653</v>
+      </c>
+      <c r="O170" s="2728">
+        <v>9949</v>
+      </c>
+      <c r="P170" s="2730">
+        <v>54704</v>
+      </c>
+      <c r="T170" s="2732">
+        <v>34.03</v>
+      </c>
+      <c r="U170" s="2734">
+        <v>10.8</v>
+      </c>
+      <c r="V170" s="2736">
+        <v>23.23</v>
+      </c>
+      <c r="W170" s="2738">
+        <v>15.4</v>
+      </c>
+      <c r="X170" s="2740">
+        <v>56000</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2738">
+      <c r="A171" s="2742">
         <v>165</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="N171" s="2740">
-        <v>61465</v>
-      </c>
-      <c r="O171" s="2742">
-        <v>8285</v>
-      </c>
-      <c r="P171" s="2744">
-        <v>53180</v>
-      </c>
-      <c r="T171" s="2746">
-        <v>32.6</v>
-      </c>
-      <c r="U171" s="2748">
-        <v>12.28</v>
-      </c>
-      <c r="V171" s="2750">
-        <v>20.32</v>
-      </c>
-      <c r="W171" s="2752">
-        <v>13.48</v>
-      </c>
-      <c r="X171" s="2754">
-        <v>55000</v>
+      <c r="N171" s="2744">
+        <v>62828</v>
+      </c>
+      <c r="O171" s="2746">
+        <v>9185</v>
+      </c>
+      <c r="P171" s="2748">
+        <v>53643</v>
+      </c>
+      <c r="T171" s="2750">
+        <v>31.9</v>
+      </c>
+      <c r="U171" s="2752">
+        <v>11.4</v>
+      </c>
+      <c r="V171" s="2754">
+        <v>20.5</v>
+      </c>
+      <c r="X171" s="2756">
+        <v>63000</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2756">
+      <c r="A172" s="2758">
         <v>166</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="N172" s="2758">
-        <v>60266</v>
-      </c>
-      <c r="O172" s="2760">
-        <v>8249</v>
-      </c>
-      <c r="P172" s="2762">
-        <v>52017</v>
-      </c>
-      <c r="T172" s="2764">
-        <v>37.97</v>
-      </c>
-      <c r="U172" s="2766">
-        <v>13.18</v>
-      </c>
-      <c r="V172" s="2768">
-        <v>24.79</v>
-      </c>
-      <c r="X172" s="2770">
-        <v>47000</v>
+      <c r="N172" s="2760">
+        <v>61465</v>
+      </c>
+      <c r="O172" s="2762">
+        <v>8285</v>
+      </c>
+      <c r="P172" s="2764">
+        <v>53180</v>
+      </c>
+      <c r="T172" s="2766">
+        <v>32.6</v>
+      </c>
+      <c r="U172" s="2768">
+        <v>12.28</v>
+      </c>
+      <c r="V172" s="2770">
+        <v>20.32</v>
+      </c>
+      <c r="W172" s="2772">
+        <v>13.48</v>
+      </c>
+      <c r="X172" s="2774">
+        <v>55000</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2772">
+      <c r="A173" s="2776">
         <v>167</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="N173" s="2774">
-        <v>58796</v>
-      </c>
-      <c r="O173" s="2776">
-        <v>7826</v>
-      </c>
-      <c r="P173" s="2778">
-        <v>50970</v>
-      </c>
-      <c r="T173" s="2780">
-        <v>37</v>
-      </c>
-      <c r="U173" s="2782">
-        <v>14</v>
-      </c>
-      <c r="V173" s="2784">
-        <v>23</v>
-      </c>
-      <c r="W173" s="2786">
-        <v>13.26</v>
-      </c>
-      <c r="X173" s="2788">
-        <v>48000</v>
+      <c r="N173" s="2778">
+        <v>60266</v>
+      </c>
+      <c r="O173" s="2780">
+        <v>8249</v>
+      </c>
+      <c r="P173" s="2782">
+        <v>52017</v>
+      </c>
+      <c r="T173" s="2784">
+        <v>37.97</v>
+      </c>
+      <c r="U173" s="2786">
+        <v>13.18</v>
+      </c>
+      <c r="V173" s="2788">
+        <v>24.79</v>
+      </c>
+      <c r="X173" s="2790">
+        <v>47000</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2790">
+      <c r="A174" s="2792">
         <v>168</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="N174" s="2792">
-        <v>57482</v>
-      </c>
-      <c r="O174" s="2794">
-        <v>7163</v>
-      </c>
-      <c r="P174" s="2796">
-        <v>50319</v>
-      </c>
-      <c r="T174" s="2798">
+      <c r="N174" s="2794">
+        <v>58796</v>
+      </c>
+      <c r="O174" s="2796">
+        <v>7826</v>
+      </c>
+      <c r="P174" s="2798">
+        <v>50970</v>
+      </c>
+      <c r="T174" s="2800">
         <v>37</v>
       </c>
-      <c r="U174" s="2800">
-        <v>17</v>
-      </c>
-      <c r="V174" s="2802">
-        <v>20</v>
-      </c>
-      <c r="W174" s="2804">
-        <v>12.5</v>
-      </c>
-      <c r="X174" s="2806">
-        <v>32000</v>
+      <c r="U174" s="2802">
+        <v>14</v>
+      </c>
+      <c r="V174" s="2804">
+        <v>23</v>
+      </c>
+      <c r="W174" s="2806">
+        <v>13.26</v>
+      </c>
+      <c r="X174" s="2808">
+        <v>48000</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2808">
+      <c r="A175" s="2810">
         <v>169</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="N175" s="2810">
-        <v>56300</v>
-      </c>
-      <c r="O175" s="2812">
-        <v>6632</v>
-      </c>
-      <c r="P175" s="2814">
-        <v>49668</v>
-      </c>
-      <c r="T175" s="2816">
-        <v>37.8</v>
-      </c>
-      <c r="U175" s="2818">
-        <v>17.8</v>
-      </c>
-      <c r="V175" s="2820">
+      <c r="N175" s="2812">
+        <v>57482</v>
+      </c>
+      <c r="O175" s="2814">
+        <v>7163</v>
+      </c>
+      <c r="P175" s="2816">
+        <v>50319</v>
+      </c>
+      <c r="T175" s="2818">
+        <v>37</v>
+      </c>
+      <c r="U175" s="2820">
+        <v>17</v>
+      </c>
+      <c r="V175" s="2822">
         <v>20</v>
       </c>
-      <c r="W175" s="2822">
-        <v>11.78</v>
-      </c>
-      <c r="X175" s="2824">
-        <v>19000</v>
+      <c r="W175" s="2824">
+        <v>12.5</v>
+      </c>
+      <c r="X175" s="2826">
+        <v>32000</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2826">
+      <c r="A176" s="2828">
         <v>170</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="N176" s="2828">
-        <v>55196</v>
-      </c>
-      <c r="O176" s="2830">
-        <v>6169</v>
-      </c>
-      <c r="P176" s="2832">
-        <v>49027</v>
-      </c>
-      <c r="T176" s="2834">
-        <v>37</v>
-      </c>
-      <c r="U176" s="2836">
-        <v>18</v>
-      </c>
-      <c r="V176" s="2838">
-        <v>19</v>
-      </c>
-      <c r="W176" s="2840">
-        <v>11.18</v>
-      </c>
-      <c r="X176" s="2842">
-        <v>18000</v>
+      <c r="N176" s="2830">
+        <v>56300</v>
+      </c>
+      <c r="O176" s="2832">
+        <v>6632</v>
+      </c>
+      <c r="P176" s="2834">
+        <v>49668</v>
+      </c>
+      <c r="T176" s="2836">
+        <v>37.8</v>
+      </c>
+      <c r="U176" s="2838">
+        <v>17.8</v>
+      </c>
+      <c r="V176" s="2840">
+        <v>20</v>
+      </c>
+      <c r="W176" s="2842">
+        <v>11.78</v>
+      </c>
+      <c r="X176" s="2844">
+        <v>19000</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2844">
+      <c r="A177" s="2846">
         <v>171</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="N177" s="2846">
+      <c r="N177" s="2848">
+        <v>55196</v>
+      </c>
+      <c r="O177" s="2850">
+        <v>6169</v>
+      </c>
+      <c r="P177" s="2852">
+        <v>49027</v>
+      </c>
+      <c r="T177" s="2854">
+        <v>37</v>
+      </c>
+      <c r="U177" s="2856">
+        <v>18</v>
+      </c>
+      <c r="V177" s="2858">
+        <v>19</v>
+      </c>
+      <c r="W177" s="2860">
+        <v>11.18</v>
+      </c>
+      <c r="X177" s="2862">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2864">
+        <v>172</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="N178" s="2866">
         <v>54167</v>
       </c>
-      <c r="O177" s="2848">
+      <c r="O178" s="2868">
         <v>5765</v>
       </c>
-      <c r="P177" s="2850">
+      <c r="P178" s="2870">
         <v>48402</v>
       </c>
-      <c r="T177" s="2852">
+      <c r="T178" s="2872">
         <v>36</v>
       </c>
-      <c r="U177" s="2854">
+      <c r="U178" s="2874">
         <v>20</v>
       </c>
-      <c r="V177" s="2856">
+      <c r="V178" s="2876">
         <v>16</v>
       </c>
-      <c r="W177" s="2858">
+      <c r="W178" s="2878">
         <v>10.64</v>
       </c>
-      <c r="X177" s="2860">
+      <c r="X178" s="2880">
         <v>21000</v>
       </c>
     </row>
-    <row r="184" ht="25" customHeight="1">
-      <c r="A184" s="2861" t="s">
-        <v>237</v>
+    <row r="185" ht="25" customHeight="1">
+      <c r="A185" s="2881" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/人口就业.xlsx
+++ b/data/人口就业.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="241">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t xml:space="preserve">中华人民共和国国家统计局</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-11</t>
   </si>
   <si>
     <t xml:space="preserve">2024-10</t>
@@ -785,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1457">
+  <cellXfs count="1467">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -804,6 +807,16 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2810,13 +2823,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="12">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="F7" s="13">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I7" s="14">
-        <v>48.6</v>
+        <v>48.9</v>
       </c>
       <c r="Y7" s="15">
         <v>5</v>
@@ -2830,31 +2843,31 @@
         <v>67</v>
       </c>
       <c r="C8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18">
+        <v>5</v>
+      </c>
+      <c r="E8" s="19">
         <v>5.1</v>
-      </c>
-      <c r="D8" s="18">
-        <v>5.1</v>
-      </c>
-      <c r="E8" s="19">
-        <v>5.2</v>
       </c>
       <c r="F8" s="20">
         <v>4.8</v>
       </c>
       <c r="I8" s="21">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="Y8" s="22">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z8" s="23">
-        <v>17.6</v>
+        <v>17.1</v>
       </c>
       <c r="AA8" s="24">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AB8" s="25">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
@@ -2865,28 +2878,28 @@
         <v>68</v>
       </c>
       <c r="C9" s="27">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="D9" s="28">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="E9" s="29">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="F9" s="30">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I9" s="31">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="Y9" s="32">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="Z9" s="33">
-        <v>18.8</v>
+        <v>17.6</v>
       </c>
       <c r="AA9" s="34">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AB9" s="35">
         <v>3.9</v>
@@ -2900,28 +2913,28 @@
         <v>69</v>
       </c>
       <c r="C10" s="37">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D10" s="38">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="E10" s="39">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F10" s="40">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I10" s="41">
         <v>48.7</v>
       </c>
       <c r="Y10" s="42">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z10" s="43">
-        <v>17.1</v>
+        <v>18.8</v>
       </c>
       <c r="AA10" s="44">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AB10" s="45">
         <v>3.9</v>
@@ -2935,31 +2948,31 @@
         <v>70</v>
       </c>
       <c r="C11" s="47">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D11" s="48">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="E11" s="49">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F11" s="50">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I11" s="51">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="Y11" s="52">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z11" s="53">
-        <v>13.2</v>
+        <v>17.1</v>
       </c>
       <c r="AA11" s="54">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB11" s="55">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="12">
@@ -2976,22 +2989,22 @@
         <v>4.9</v>
       </c>
       <c r="E12" s="59">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F12" s="60">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I12" s="61">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="Y12" s="62">
         <v>5</v>
       </c>
       <c r="Z12" s="63">
-        <v>14.2</v>
+        <v>13.2</v>
       </c>
       <c r="AA12" s="64">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB12" s="65">
         <v>4</v>
@@ -3008,25 +3021,25 @@
         <v>5</v>
       </c>
       <c r="D13" s="68">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E13" s="69">
         <v>5.1</v>
       </c>
       <c r="F13" s="70">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I13" s="71">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="Y13" s="72">
         <v>5</v>
       </c>
       <c r="Z13" s="73">
-        <v>14.7</v>
+        <v>14.2</v>
       </c>
       <c r="AA13" s="74">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="AB13" s="75">
         <v>4</v>
@@ -3040,31 +3053,31 @@
         <v>73</v>
       </c>
       <c r="C14" s="77">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D14" s="78">
+        <v>5</v>
+      </c>
+      <c r="E14" s="79">
         <v>5.1</v>
       </c>
-      <c r="E14" s="79">
-        <v>5.3</v>
-      </c>
       <c r="F14" s="80">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="I14" s="81">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="Y14" s="82">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z14" s="83">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="AA14" s="84">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB14" s="85">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3075,31 +3088,31 @@
         <v>74</v>
       </c>
       <c r="C15" s="87">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D15" s="88">
         <v>5.1</v>
       </c>
       <c r="E15" s="89">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F15" s="90">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="I15" s="91">
-        <v>48</v>
+        <v>48.6</v>
       </c>
       <c r="Y15" s="92">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z15" s="93">
         <v>15.3</v>
       </c>
       <c r="AA15" s="94">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB15" s="95">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="16">
@@ -3110,31 +3123,31 @@
         <v>75</v>
       </c>
       <c r="C16" s="97">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="D16" s="98">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="E16" s="99">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="F16" s="100">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I16" s="101">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y16" s="102">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z16" s="103">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="AA16" s="104">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AB16" s="105">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="17">
@@ -3145,13 +3158,13 @@
         <v>76</v>
       </c>
       <c r="C17" s="107">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D17" s="108">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E17" s="109">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="F17" s="110">
         <v>4.7</v>
@@ -3159,2787 +3172,2787 @@
       <c r="I17" s="111">
         <v>49</v>
       </c>
-      <c r="N17" s="112">
-        <v>140967</v>
-      </c>
-      <c r="O17" s="113">
-        <v>93267</v>
-      </c>
-      <c r="P17" s="114">
-        <v>47700</v>
-      </c>
-      <c r="Q17" s="115">
-        <v>-208</v>
-      </c>
-      <c r="R17" s="116">
-        <v>1196</v>
-      </c>
-      <c r="S17" s="117">
-        <v>-1404</v>
-      </c>
-      <c r="T17" s="118">
-        <v>6.39</v>
-      </c>
-      <c r="U17" s="119">
-        <v>7.87</v>
-      </c>
-      <c r="V17" s="120">
-        <v>-1.48</v>
-      </c>
-      <c r="W17" s="121">
-        <v>66.16</v>
-      </c>
-      <c r="X17" s="122">
-        <v>10470258</v>
-      </c>
-      <c r="Y17" s="123">
-        <v>5.1</v>
-      </c>
-      <c r="Z17" s="124">
-        <v>14.9</v>
-      </c>
-      <c r="AA17" s="125">
-        <v>6.1</v>
-      </c>
-      <c r="AB17" s="126">
-        <v>3.9</v>
+      <c r="Y17" s="112">
+        <v>5.2</v>
+      </c>
+      <c r="Z17" s="113">
+        <v>14.6</v>
+      </c>
+      <c r="AA17" s="114">
+        <v>6.2</v>
+      </c>
+      <c r="AB17" s="115">
+        <v>4.1</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="127">
+      <c r="A18" s="116">
         <v>12</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="128">
-        <v>5</v>
-      </c>
-      <c r="D18" s="129">
-        <v>5</v>
-      </c>
-      <c r="E18" s="130">
+      <c r="C18" s="117">
         <v>5.1</v>
       </c>
-      <c r="F18" s="131">
+      <c r="D18" s="118">
+        <v>5</v>
+      </c>
+      <c r="E18" s="119">
+        <v>5.2</v>
+      </c>
+      <c r="F18" s="120">
         <v>4.7</v>
       </c>
-      <c r="I18" s="132">
-        <v>48.9</v>
+      <c r="I18" s="121">
+        <v>49</v>
+      </c>
+      <c r="N18" s="122">
+        <v>140967</v>
+      </c>
+      <c r="O18" s="123">
+        <v>93267</v>
+      </c>
+      <c r="P18" s="124">
+        <v>47700</v>
+      </c>
+      <c r="Q18" s="125">
+        <v>-208</v>
+      </c>
+      <c r="R18" s="126">
+        <v>1196</v>
+      </c>
+      <c r="S18" s="127">
+        <v>-1404</v>
+      </c>
+      <c r="T18" s="128">
+        <v>6.39</v>
+      </c>
+      <c r="U18" s="129">
+        <v>7.87</v>
+      </c>
+      <c r="V18" s="130">
+        <v>-1.48</v>
+      </c>
+      <c r="W18" s="131">
+        <v>66.16</v>
+      </c>
+      <c r="X18" s="132">
+        <v>10470258</v>
       </c>
       <c r="Y18" s="133">
-        <v>5</v>
+        <v>5.1</v>
+      </c>
+      <c r="Z18" s="134">
+        <v>14.9</v>
+      </c>
+      <c r="AA18" s="135">
+        <v>6.1</v>
+      </c>
+      <c r="AB18" s="136">
+        <v>3.9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="134">
+      <c r="A19" s="137">
         <v>13</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="135">
-        <v>5</v>
-      </c>
-      <c r="D19" s="136">
-        <v>5</v>
-      </c>
-      <c r="E19" s="137">
-        <v>5</v>
-      </c>
-      <c r="F19" s="138">
-        <v>4.9</v>
-      </c>
-      <c r="I19" s="139">
-        <v>48.7</v>
-      </c>
-      <c r="Y19" s="140">
+      <c r="C19" s="138">
+        <v>5</v>
+      </c>
+      <c r="D19" s="139">
+        <v>5</v>
+      </c>
+      <c r="E19" s="140">
+        <v>5.1</v>
+      </c>
+      <c r="F19" s="141">
+        <v>4.7</v>
+      </c>
+      <c r="I19" s="142">
+        <v>48.9</v>
+      </c>
+      <c r="Y19" s="143">
         <v>5</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="141">
+      <c r="A20" s="144">
         <v>14</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="142">
-        <v>5</v>
-      </c>
-      <c r="D20" s="143">
-        <v>5.2</v>
-      </c>
-      <c r="E20" s="144">
-        <v>5.1</v>
-      </c>
-      <c r="F20" s="145">
+      <c r="C20" s="145">
+        <v>5</v>
+      </c>
+      <c r="D20" s="146">
+        <v>5</v>
+      </c>
+      <c r="E20" s="147">
+        <v>5</v>
+      </c>
+      <c r="F20" s="148">
         <v>4.9</v>
       </c>
-      <c r="I20" s="146">
-        <v>48.8</v>
-      </c>
-      <c r="Y20" s="147">
+      <c r="I20" s="149">
+        <v>48.7</v>
+      </c>
+      <c r="Y20" s="150">
         <v>5</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="148">
+      <c r="A21" s="151">
         <v>15</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="149">
+      <c r="C21" s="152">
+        <v>5</v>
+      </c>
+      <c r="D21" s="153">
         <v>5.2</v>
       </c>
-      <c r="D21" s="150">
-        <v>5.3</v>
-      </c>
-      <c r="E21" s="151">
-        <v>5.3</v>
-      </c>
-      <c r="F21" s="152">
-        <v>4.8</v>
-      </c>
-      <c r="I21" s="153">
-        <v>48.7</v>
-      </c>
-      <c r="Y21" s="154">
-        <v>5.2</v>
+      <c r="E21" s="154">
+        <v>5.1</v>
+      </c>
+      <c r="F21" s="155">
+        <v>4.9</v>
+      </c>
+      <c r="I21" s="156">
+        <v>48.8</v>
+      </c>
+      <c r="Y21" s="157">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="155">
+      <c r="A22" s="158">
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="156">
+      <c r="C22" s="159">
+        <v>5.2</v>
+      </c>
+      <c r="D22" s="160">
         <v>5.3</v>
       </c>
-      <c r="D22" s="157">
-        <v>5.4</v>
-      </c>
-      <c r="E22" s="158">
+      <c r="E22" s="161">
         <v>5.3</v>
       </c>
-      <c r="F22" s="159">
+      <c r="F22" s="162">
+        <v>4.8</v>
+      </c>
+      <c r="I22" s="163">
+        <v>48.7</v>
+      </c>
+      <c r="Y22" s="164">
         <v>5.2</v>
       </c>
-      <c r="I22" s="160">
-        <v>48.7</v>
-      </c>
-      <c r="Y22" s="161">
-        <v>5.3</v>
-      </c>
     </row>
     <row r="23">
-      <c r="A23" s="162">
+      <c r="A23" s="165">
         <v>17</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="163">
+      <c r="C23" s="166">
+        <v>5.3</v>
+      </c>
+      <c r="D23" s="167">
+        <v>5.4</v>
+      </c>
+      <c r="E23" s="168">
+        <v>5.3</v>
+      </c>
+      <c r="F23" s="169">
         <v>5.2</v>
       </c>
-      <c r="D23" s="164">
-        <v>5.5</v>
-      </c>
-      <c r="E23" s="165">
-        <v>5.1</v>
-      </c>
-      <c r="F23" s="166">
+      <c r="I23" s="170">
+        <v>48.7</v>
+      </c>
+      <c r="Y23" s="171">
         <v>5.3</v>
       </c>
-      <c r="G23" s="167">
-        <v>21.3</v>
-      </c>
-      <c r="H23" s="168">
-        <v>4.1</v>
-      </c>
-      <c r="I23" s="169">
-        <v>48.7</v>
-      </c>
-      <c r="J23" s="170">
-        <v>4.4</v>
-      </c>
-      <c r="K23" s="171">
-        <v>4.4</v>
-      </c>
-      <c r="L23" s="172">
-        <v>3.9</v>
-      </c>
-      <c r="M23" s="173">
-        <v>3.2</v>
-      </c>
-      <c r="Y23" s="174">
-        <v>5.2</v>
-      </c>
     </row>
     <row r="24">
-      <c r="A24" s="175">
+      <c r="A24" s="172">
         <v>18</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="176">
+      <c r="C24" s="173">
         <v>5.2</v>
       </c>
-      <c r="D24" s="177">
+      <c r="D24" s="174">
         <v>5.5</v>
       </c>
-      <c r="E24" s="178">
+      <c r="E24" s="175">
         <v>5.1</v>
       </c>
-      <c r="F24" s="179">
-        <v>5.4</v>
-      </c>
-      <c r="G24" s="180">
-        <v>20.8</v>
-      </c>
-      <c r="H24" s="181">
+      <c r="F24" s="176">
+        <v>5.3</v>
+      </c>
+      <c r="G24" s="177">
+        <v>21.3</v>
+      </c>
+      <c r="H24" s="178">
         <v>4.1</v>
       </c>
-      <c r="I24" s="182">
-        <v>48.6</v>
-      </c>
-      <c r="J24" s="183">
+      <c r="I24" s="179">
+        <v>48.7</v>
+      </c>
+      <c r="J24" s="180">
         <v>4.4</v>
       </c>
-      <c r="K24" s="184">
+      <c r="K24" s="181">
         <v>4.4</v>
       </c>
-      <c r="L24" s="185">
-        <v>4.1</v>
-      </c>
-      <c r="M24" s="186">
+      <c r="L24" s="182">
+        <v>3.9</v>
+      </c>
+      <c r="M24" s="183">
         <v>3.2</v>
       </c>
-      <c r="Y24" s="187">
+      <c r="Y24" s="184">
         <v>5.2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="188">
+      <c r="A25" s="185">
         <v>19</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="189">
+      <c r="C25" s="186">
         <v>5.2</v>
       </c>
-      <c r="D25" s="190">
+      <c r="D25" s="187">
         <v>5.5</v>
       </c>
-      <c r="E25" s="191">
+      <c r="E25" s="188">
         <v>5.1</v>
       </c>
-      <c r="F25" s="192">
+      <c r="F25" s="189">
         <v>5.4</v>
       </c>
-      <c r="G25" s="193">
-        <v>20.4</v>
-      </c>
-      <c r="H25" s="194">
-        <v>4.2</v>
-      </c>
-      <c r="I25" s="195">
-        <v>48.8</v>
-      </c>
-      <c r="J25" s="196">
-        <v>4.5</v>
-      </c>
-      <c r="K25" s="197">
-        <v>4.6</v>
-      </c>
-      <c r="L25" s="198">
-        <v>4</v>
-      </c>
-      <c r="M25" s="199">
-        <v>3.1</v>
-      </c>
-      <c r="Y25" s="200">
+      <c r="G25" s="190">
+        <v>20.8</v>
+      </c>
+      <c r="H25" s="191">
+        <v>4.1</v>
+      </c>
+      <c r="I25" s="192">
+        <v>48.6</v>
+      </c>
+      <c r="J25" s="193">
+        <v>4.4</v>
+      </c>
+      <c r="K25" s="194">
+        <v>4.4</v>
+      </c>
+      <c r="L25" s="195">
+        <v>4.1</v>
+      </c>
+      <c r="M25" s="196">
+        <v>3.2</v>
+      </c>
+      <c r="Y25" s="197">
         <v>5.2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="201">
+      <c r="A26" s="198">
         <v>20</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="202">
-        <v>5.3</v>
-      </c>
-      <c r="D26" s="203">
+      <c r="C26" s="199">
+        <v>5.2</v>
+      </c>
+      <c r="D26" s="200">
         <v>5.5</v>
       </c>
-      <c r="E26" s="204">
+      <c r="E26" s="201">
         <v>5.1</v>
       </c>
-      <c r="F26" s="205">
-        <v>5.6</v>
-      </c>
-      <c r="G26" s="206">
-        <v>19.6</v>
-      </c>
-      <c r="H26" s="207">
-        <v>4.3</v>
-      </c>
-      <c r="I26" s="208">
-        <v>48.7</v>
-      </c>
-      <c r="J26" s="209">
-        <v>4.8</v>
-      </c>
-      <c r="K26" s="210">
-        <v>4.8</v>
-      </c>
-      <c r="L26" s="211">
+      <c r="F26" s="202">
+        <v>5.4</v>
+      </c>
+      <c r="G26" s="203">
+        <v>20.4</v>
+      </c>
+      <c r="H26" s="204">
+        <v>4.2</v>
+      </c>
+      <c r="I26" s="205">
+        <v>48.8</v>
+      </c>
+      <c r="J26" s="206">
+        <v>4.5</v>
+      </c>
+      <c r="K26" s="207">
+        <v>4.6</v>
+      </c>
+      <c r="L26" s="208">
         <v>4</v>
       </c>
-      <c r="M26" s="212">
+      <c r="M26" s="209">
         <v>3.1</v>
       </c>
-      <c r="Y26" s="213">
-        <v>5.3</v>
+      <c r="Y26" s="210">
+        <v>5.2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="214">
+      <c r="A27" s="211">
         <v>21</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="215">
+      <c r="C27" s="212">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="213">
+        <v>5.5</v>
+      </c>
+      <c r="E27" s="214">
+        <v>5.1</v>
+      </c>
+      <c r="F27" s="215">
         <v>5.6</v>
       </c>
-      <c r="D27" s="216">
-        <v>5.7</v>
-      </c>
-      <c r="E27" s="217">
-        <v>5.4</v>
-      </c>
-      <c r="F27" s="218">
-        <v>5.9</v>
-      </c>
-      <c r="G27" s="219">
-        <v>18.1</v>
-      </c>
-      <c r="H27" s="220">
+      <c r="G27" s="216">
+        <v>19.6</v>
+      </c>
+      <c r="H27" s="217">
+        <v>4.3</v>
+      </c>
+      <c r="I27" s="218">
+        <v>48.7</v>
+      </c>
+      <c r="J27" s="219">
         <v>4.8</v>
       </c>
-      <c r="I27" s="221">
-        <v>47.9</v>
-      </c>
-      <c r="J27" s="222">
-        <v>5.7</v>
-      </c>
-      <c r="K27" s="223">
-        <v>5.2</v>
-      </c>
-      <c r="L27" s="224">
-        <v>4.1</v>
-      </c>
-      <c r="M27" s="225">
-        <v>3</v>
-      </c>
-      <c r="Y27" s="226">
-        <v>5.6</v>
+      <c r="K27" s="220">
+        <v>4.8</v>
+      </c>
+      <c r="L27" s="221">
+        <v>4</v>
+      </c>
+      <c r="M27" s="222">
+        <v>3.1</v>
+      </c>
+      <c r="Y27" s="223">
+        <v>5.3</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="227">
+      <c r="A28" s="224">
         <v>22</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="228">
-        <v>5.5</v>
-      </c>
-      <c r="D28" s="229">
-        <v>5.8</v>
-      </c>
-      <c r="E28" s="230">
+      <c r="C28" s="225">
+        <v>5.6</v>
+      </c>
+      <c r="D28" s="226">
+        <v>5.7</v>
+      </c>
+      <c r="E28" s="227">
         <v>5.4</v>
       </c>
-      <c r="F28" s="231">
+      <c r="F28" s="228">
+        <v>5.9</v>
+      </c>
+      <c r="G28" s="229">
+        <v>18.1</v>
+      </c>
+      <c r="H28" s="230">
+        <v>4.8</v>
+      </c>
+      <c r="I28" s="231">
+        <v>47.9</v>
+      </c>
+      <c r="J28" s="232">
+        <v>5.7</v>
+      </c>
+      <c r="K28" s="233">
+        <v>5.2</v>
+      </c>
+      <c r="L28" s="234">
+        <v>4.1</v>
+      </c>
+      <c r="M28" s="235">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="236">
         <v>5.6</v>
       </c>
-      <c r="G28" s="232">
-        <v>17.3</v>
-      </c>
-      <c r="H28" s="233">
-        <v>4.7</v>
-      </c>
-      <c r="I28" s="234">
-        <v>47.9</v>
-      </c>
-      <c r="Y28" s="235">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="29">
-      <c r="A29" s="236">
+      <c r="A29" s="237">
         <v>23</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="237">
+      <c r="C29" s="238">
         <v>5.5</v>
       </c>
-      <c r="D29" s="238">
-        <v>6.1</v>
-      </c>
-      <c r="E29" s="239">
+      <c r="D29" s="239">
+        <v>5.8</v>
+      </c>
+      <c r="E29" s="240">
         <v>5.4</v>
       </c>
-      <c r="F29" s="240">
-        <v>5.7</v>
-      </c>
-      <c r="G29" s="241">
-        <v>16.7</v>
-      </c>
-      <c r="H29" s="242">
-        <v>4.8</v>
-      </c>
-      <c r="I29" s="243">
+      <c r="F29" s="241">
+        <v>5.6</v>
+      </c>
+      <c r="G29" s="242">
+        <v>17.3</v>
+      </c>
+      <c r="H29" s="243">
+        <v>4.7</v>
+      </c>
+      <c r="I29" s="244">
         <v>47.9</v>
       </c>
-      <c r="N29" s="244">
-        <v>141175</v>
-      </c>
-      <c r="O29" s="245">
-        <v>92071</v>
-      </c>
-      <c r="P29" s="246">
-        <v>49104</v>
-      </c>
-      <c r="Q29" s="247">
-        <v>-85</v>
-      </c>
-      <c r="R29" s="248">
-        <v>646</v>
-      </c>
-      <c r="S29" s="249">
-        <v>-731</v>
-      </c>
-      <c r="T29" s="250">
-        <v>6.77</v>
-      </c>
-      <c r="U29" s="251">
-        <v>7.37</v>
-      </c>
-      <c r="V29" s="252">
-        <v>-0.6</v>
-      </c>
-      <c r="W29" s="253">
-        <v>65.22</v>
-      </c>
-      <c r="X29" s="254">
-        <v>9672565</v>
-      </c>
-      <c r="Y29" s="255">
+      <c r="Y29" s="245">
         <v>5.5</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="256">
+      <c r="A30" s="246">
         <v>24</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="257">
+      <c r="C30" s="247">
+        <v>5.5</v>
+      </c>
+      <c r="D30" s="248">
+        <v>6.1</v>
+      </c>
+      <c r="E30" s="249">
+        <v>5.4</v>
+      </c>
+      <c r="F30" s="250">
         <v>5.7</v>
       </c>
-      <c r="D30" s="258">
-        <v>6.7</v>
-      </c>
-      <c r="E30" s="259">
+      <c r="G30" s="251">
+        <v>16.7</v>
+      </c>
+      <c r="H30" s="252">
+        <v>4.8</v>
+      </c>
+      <c r="I30" s="253">
+        <v>47.9</v>
+      </c>
+      <c r="N30" s="254">
+        <v>141175</v>
+      </c>
+      <c r="O30" s="255">
+        <v>92071</v>
+      </c>
+      <c r="P30" s="256">
+        <v>49104</v>
+      </c>
+      <c r="Q30" s="257">
+        <v>-85</v>
+      </c>
+      <c r="R30" s="258">
+        <v>646</v>
+      </c>
+      <c r="S30" s="259">
+        <v>-731</v>
+      </c>
+      <c r="T30" s="260">
+        <v>6.77</v>
+      </c>
+      <c r="U30" s="261">
+        <v>7.37</v>
+      </c>
+      <c r="V30" s="262">
+        <v>-0.6</v>
+      </c>
+      <c r="W30" s="263">
+        <v>65.22</v>
+      </c>
+      <c r="X30" s="264">
+        <v>9672565</v>
+      </c>
+      <c r="Y30" s="265">
         <v>5.5</v>
       </c>
-      <c r="F30" s="260">
-        <v>6.2</v>
-      </c>
-      <c r="G30" s="261">
-        <v>17.1</v>
-      </c>
-      <c r="H30" s="262">
-        <v>5</v>
-      </c>
-      <c r="I30" s="263">
-        <v>47.7</v>
-      </c>
-      <c r="Y30" s="264">
-        <v>5.7</v>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="265">
+      <c r="A31" s="266">
         <v>25</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="266">
+      <c r="C31" s="267">
+        <v>5.7</v>
+      </c>
+      <c r="D31" s="268">
+        <v>6.7</v>
+      </c>
+      <c r="E31" s="269">
         <v>5.5</v>
       </c>
-      <c r="D31" s="267">
-        <v>6</v>
-      </c>
-      <c r="E31" s="268">
-        <v>5.4</v>
-      </c>
-      <c r="F31" s="269">
+      <c r="F31" s="270">
+        <v>6.2</v>
+      </c>
+      <c r="G31" s="271">
+        <v>17.1</v>
+      </c>
+      <c r="H31" s="272">
+        <v>5</v>
+      </c>
+      <c r="I31" s="273">
+        <v>47.7</v>
+      </c>
+      <c r="Y31" s="274">
         <v>5.7</v>
       </c>
-      <c r="G31" s="270">
-        <v>17.9</v>
-      </c>
-      <c r="H31" s="271">
-        <v>4.7</v>
-      </c>
-      <c r="I31" s="272">
-        <v>47.9</v>
-      </c>
-      <c r="Y31" s="273">
-        <v>5.5</v>
-      </c>
     </row>
     <row r="32">
-      <c r="A32" s="274">
+      <c r="A32" s="275">
         <v>26</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="275">
+      <c r="C32" s="276">
         <v>5.5</v>
       </c>
-      <c r="D32" s="276">
-        <v>5.8</v>
-      </c>
-      <c r="E32" s="277">
+      <c r="D32" s="277">
+        <v>6</v>
+      </c>
+      <c r="E32" s="278">
         <v>5.4</v>
       </c>
-      <c r="F32" s="278">
-        <v>5.6</v>
-      </c>
-      <c r="G32" s="279">
+      <c r="F32" s="279">
+        <v>5.7</v>
+      </c>
+      <c r="G32" s="280">
         <v>17.9</v>
       </c>
-      <c r="H32" s="280">
+      <c r="H32" s="281">
         <v>4.7</v>
       </c>
-      <c r="I32" s="281">
-        <v>47.8</v>
-      </c>
-      <c r="Y32" s="282">
+      <c r="I32" s="282">
+        <v>47.9</v>
+      </c>
+      <c r="Y32" s="283">
         <v>5.5</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="283">
+      <c r="A33" s="284">
         <v>27</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="284">
-        <v>5.3</v>
-      </c>
-      <c r="D33" s="285">
+      <c r="C33" s="285">
+        <v>5.5</v>
+      </c>
+      <c r="D33" s="286">
+        <v>5.8</v>
+      </c>
+      <c r="E33" s="287">
         <v>5.4</v>
       </c>
-      <c r="E33" s="286">
-        <v>5.3</v>
-      </c>
-      <c r="F33" s="287">
-        <v>5.3</v>
-      </c>
-      <c r="G33" s="288">
-        <v>18.7</v>
-      </c>
-      <c r="H33" s="289">
-        <v>4.3</v>
-      </c>
-      <c r="I33" s="290">
-        <v>48</v>
-      </c>
-      <c r="Y33" s="291">
-        <v>5.3</v>
+      <c r="F33" s="288">
+        <v>5.6</v>
+      </c>
+      <c r="G33" s="289">
+        <v>17.9</v>
+      </c>
+      <c r="H33" s="290">
+        <v>4.7</v>
+      </c>
+      <c r="I33" s="291">
+        <v>47.8</v>
+      </c>
+      <c r="Y33" s="292">
+        <v>5.5</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="292">
+      <c r="A34" s="293">
         <v>28</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="293">
+      <c r="C34" s="294">
+        <v>5.3</v>
+      </c>
+      <c r="D34" s="295">
         <v>5.4</v>
       </c>
-      <c r="D34" s="294">
-        <v>5.6</v>
-      </c>
-      <c r="E34" s="295">
+      <c r="E34" s="296">
         <v>5.3</v>
       </c>
-      <c r="F34" s="296">
-        <v>5.5</v>
-      </c>
-      <c r="G34" s="297">
-        <v>19.9</v>
-      </c>
-      <c r="H34" s="298">
+      <c r="F34" s="297">
+        <v>5.3</v>
+      </c>
+      <c r="G34" s="298">
+        <v>18.7</v>
+      </c>
+      <c r="H34" s="299">
         <v>4.3</v>
       </c>
-      <c r="I34" s="299">
+      <c r="I34" s="300">
         <v>48</v>
       </c>
-      <c r="Y34" s="300">
-        <v>5.4</v>
+      <c r="Y34" s="301">
+        <v>5.3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="301">
+      <c r="A35" s="302">
         <v>29</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="302">
+      <c r="C35" s="303">
+        <v>5.4</v>
+      </c>
+      <c r="D35" s="304">
+        <v>5.6</v>
+      </c>
+      <c r="E35" s="305">
+        <v>5.3</v>
+      </c>
+      <c r="F35" s="306">
         <v>5.5</v>
       </c>
-      <c r="D35" s="303">
-        <v>5.8</v>
-      </c>
-      <c r="E35" s="304">
-        <v>5.3</v>
-      </c>
-      <c r="F35" s="305">
-        <v>5.8</v>
-      </c>
-      <c r="G35" s="306">
-        <v>19.3</v>
-      </c>
-      <c r="H35" s="307">
-        <v>4.5</v>
-      </c>
-      <c r="I35" s="308">
-        <v>47.7</v>
-      </c>
-      <c r="Y35" s="309">
-        <v>5.5</v>
+      <c r="G35" s="307">
+        <v>19.9</v>
+      </c>
+      <c r="H35" s="308">
+        <v>4.3</v>
+      </c>
+      <c r="I35" s="309">
+        <v>48</v>
+      </c>
+      <c r="Y35" s="310">
+        <v>5.4</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="310">
+      <c r="A36" s="311">
         <v>30</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="311">
-        <v>5.9</v>
-      </c>
-      <c r="D36" s="312">
-        <v>6.9</v>
-      </c>
-      <c r="E36" s="313">
+      <c r="C36" s="312">
         <v>5.5</v>
       </c>
-      <c r="F36" s="314">
-        <v>6.6</v>
-      </c>
-      <c r="G36" s="315">
-        <v>18.4</v>
-      </c>
-      <c r="H36" s="316">
-        <v>5.1</v>
-      </c>
-      <c r="I36" s="317">
-        <v>47.2</v>
-      </c>
-      <c r="Y36" s="318">
-        <v>5.9</v>
+      <c r="D36" s="313">
+        <v>5.8</v>
+      </c>
+      <c r="E36" s="314">
+        <v>5.3</v>
+      </c>
+      <c r="F36" s="315">
+        <v>5.8</v>
+      </c>
+      <c r="G36" s="316">
+        <v>19.3</v>
+      </c>
+      <c r="H36" s="317">
+        <v>4.5</v>
+      </c>
+      <c r="I36" s="318">
+        <v>47.7</v>
+      </c>
+      <c r="Y36" s="319">
+        <v>5.5</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="319">
+      <c r="A37" s="320">
         <v>31</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="320">
-        <v>6.1</v>
-      </c>
-      <c r="D37" s="321">
-        <v>6.7</v>
-      </c>
-      <c r="E37" s="322">
-        <v>5.7</v>
-      </c>
-      <c r="F37" s="323">
+      <c r="C37" s="321">
+        <v>5.9</v>
+      </c>
+      <c r="D37" s="322">
         <v>6.9</v>
       </c>
-      <c r="G37" s="324">
-        <v>18.2</v>
-      </c>
-      <c r="H37" s="325">
-        <v>5.3</v>
-      </c>
-      <c r="I37" s="326">
-        <v>46.2</v>
-      </c>
-      <c r="Y37" s="327">
-        <v>6.1</v>
+      <c r="E37" s="323">
+        <v>5.5</v>
+      </c>
+      <c r="F37" s="324">
+        <v>6.6</v>
+      </c>
+      <c r="G37" s="325">
+        <v>18.4</v>
+      </c>
+      <c r="H37" s="326">
+        <v>5.1</v>
+      </c>
+      <c r="I37" s="327">
+        <v>47.2</v>
+      </c>
+      <c r="Y37" s="328">
+        <v>5.9</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="328">
+      <c r="A38" s="329">
         <v>32</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="329">
-        <v>5.8</v>
-      </c>
-      <c r="D38" s="330">
-        <v>6</v>
-      </c>
-      <c r="E38" s="331">
-        <v>5.6</v>
-      </c>
-      <c r="F38" s="332">
-        <v>6.3</v>
-      </c>
-      <c r="G38" s="333">
-        <v>16</v>
-      </c>
-      <c r="H38" s="334">
-        <v>5.2</v>
-      </c>
-      <c r="I38" s="335">
-        <v>47.3</v>
-      </c>
-      <c r="Y38" s="336">
-        <v>5.8</v>
+      <c r="C38" s="330">
+        <v>6.1</v>
+      </c>
+      <c r="D38" s="331">
+        <v>6.7</v>
+      </c>
+      <c r="E38" s="332">
+        <v>5.7</v>
+      </c>
+      <c r="F38" s="333">
+        <v>6.9</v>
+      </c>
+      <c r="G38" s="334">
+        <v>18.2</v>
+      </c>
+      <c r="H38" s="335">
+        <v>5.3</v>
+      </c>
+      <c r="I38" s="336">
+        <v>46.2</v>
+      </c>
+      <c r="Y38" s="337">
+        <v>6.1</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="337">
+      <c r="A39" s="338">
         <v>33</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C39" s="338">
-        <v>5.5</v>
-      </c>
-      <c r="D39" s="339">
-        <v>5.4</v>
-      </c>
-      <c r="E39" s="340">
-        <v>5.5</v>
-      </c>
-      <c r="F39" s="341">
+      <c r="C39" s="339">
+        <v>5.8</v>
+      </c>
+      <c r="D39" s="340">
+        <v>6</v>
+      </c>
+      <c r="E39" s="341">
         <v>5.6</v>
       </c>
-      <c r="G39" s="342">
-        <v>15.3</v>
-      </c>
-      <c r="H39" s="343">
-        <v>4.8</v>
-      </c>
-      <c r="I39" s="344">
-        <v>46.7</v>
-      </c>
-      <c r="Y39" s="345">
-        <v>5.5</v>
+      <c r="F39" s="342">
+        <v>6.3</v>
+      </c>
+      <c r="G39" s="343">
+        <v>16</v>
+      </c>
+      <c r="H39" s="344">
+        <v>5.2</v>
+      </c>
+      <c r="I39" s="345">
+        <v>47.3</v>
+      </c>
+      <c r="Y39" s="346">
+        <v>5.8</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="346">
+      <c r="A40" s="347">
         <v>34</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="347">
-        <v>5.3</v>
-      </c>
-      <c r="E40" s="348">
+      <c r="C40" s="348">
+        <v>5.5</v>
+      </c>
+      <c r="D40" s="349">
         <v>5.4</v>
       </c>
-      <c r="F40" s="349">
-        <v>5.1</v>
-      </c>
-      <c r="G40" s="350">
+      <c r="E40" s="350">
+        <v>5.5</v>
+      </c>
+      <c r="F40" s="351">
+        <v>5.6</v>
+      </c>
+      <c r="G40" s="352">
         <v>15.3</v>
       </c>
-      <c r="H40" s="351">
-        <v>4.6</v>
-      </c>
-      <c r="I40" s="352">
-        <v>47.5</v>
-      </c>
-      <c r="Y40" s="353">
-        <v>5.3</v>
+      <c r="H40" s="353">
+        <v>4.8</v>
+      </c>
+      <c r="I40" s="354">
+        <v>46.7</v>
+      </c>
+      <c r="Y40" s="355">
+        <v>5.5</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="354">
+      <c r="A41" s="356">
         <v>35</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="355">
+      <c r="C41" s="357">
+        <v>5.3</v>
+      </c>
+      <c r="E41" s="358">
+        <v>5.4</v>
+      </c>
+      <c r="F41" s="359">
         <v>5.1</v>
       </c>
-      <c r="D41" s="356">
-        <v>5.1</v>
-      </c>
-      <c r="E41" s="357">
-        <v>5.1</v>
-      </c>
-      <c r="F41" s="358">
-        <v>4.9</v>
-      </c>
-      <c r="G41" s="359">
-        <v>14.3</v>
-      </c>
-      <c r="H41" s="360">
-        <v>4.4</v>
-      </c>
-      <c r="N41" s="361">
-        <v>141260</v>
-      </c>
-      <c r="O41" s="362">
-        <v>91425</v>
-      </c>
-      <c r="P41" s="363">
-        <v>49835</v>
-      </c>
-      <c r="Q41" s="364">
-        <v>48</v>
-      </c>
-      <c r="R41" s="365">
-        <v>1205</v>
-      </c>
-      <c r="S41" s="366">
-        <v>-1157</v>
-      </c>
-      <c r="T41" s="367">
-        <v>7.52</v>
-      </c>
-      <c r="U41" s="368">
-        <v>7.18</v>
-      </c>
-      <c r="V41" s="369">
-        <v>0.34</v>
-      </c>
-      <c r="W41" s="370">
-        <v>64.72</v>
-      </c>
-      <c r="X41" s="371">
-        <v>8265064</v>
-      </c>
-      <c r="Y41" s="372">
-        <v>5.1</v>
+      <c r="G41" s="360">
+        <v>15.3</v>
+      </c>
+      <c r="H41" s="361">
+        <v>4.6</v>
+      </c>
+      <c r="I41" s="362">
+        <v>47.5</v>
+      </c>
+      <c r="Y41" s="363">
+        <v>5.3</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="373">
+      <c r="A42" s="364">
         <v>36</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="374">
-        <v>5</v>
-      </c>
-      <c r="D42" s="375">
+      <c r="C42" s="365">
         <v>5.1</v>
       </c>
-      <c r="E42" s="376">
+      <c r="D42" s="366">
         <v>5.1</v>
       </c>
-      <c r="F42" s="377">
-        <v>4.8</v>
-      </c>
-      <c r="G42" s="378">
+      <c r="E42" s="367">
+        <v>5.1</v>
+      </c>
+      <c r="F42" s="368">
+        <v>4.9</v>
+      </c>
+      <c r="G42" s="369">
         <v>14.3</v>
       </c>
-      <c r="H42" s="379">
-        <v>4.3</v>
-      </c>
-      <c r="Y42" s="380">
-        <v>5</v>
+      <c r="H42" s="370">
+        <v>4.4</v>
+      </c>
+      <c r="N42" s="371">
+        <v>141260</v>
+      </c>
+      <c r="O42" s="372">
+        <v>91425</v>
+      </c>
+      <c r="P42" s="373">
+        <v>49835</v>
+      </c>
+      <c r="Q42" s="374">
+        <v>48</v>
+      </c>
+      <c r="R42" s="375">
+        <v>1205</v>
+      </c>
+      <c r="S42" s="376">
+        <v>-1157</v>
+      </c>
+      <c r="T42" s="377">
+        <v>7.52</v>
+      </c>
+      <c r="U42" s="378">
+        <v>7.18</v>
+      </c>
+      <c r="V42" s="379">
+        <v>0.34</v>
+      </c>
+      <c r="W42" s="380">
+        <v>64.72</v>
+      </c>
+      <c r="X42" s="381">
+        <v>8265064</v>
+      </c>
+      <c r="Y42" s="382">
+        <v>5.1</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="381">
+      <c r="A43" s="383">
         <v>37</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C43" s="382">
-        <v>4.9</v>
-      </c>
-      <c r="D43" s="383">
+      <c r="C43" s="384">
+        <v>5</v>
+      </c>
+      <c r="D43" s="385">
         <v>5.1</v>
       </c>
-      <c r="E43" s="384">
-        <v>4.9</v>
-      </c>
-      <c r="F43" s="385">
+      <c r="E43" s="386">
+        <v>5.1</v>
+      </c>
+      <c r="F43" s="387">
         <v>4.8</v>
       </c>
-      <c r="G43" s="386">
-        <v>14.2</v>
-      </c>
-      <c r="H43" s="387">
-        <v>4.2</v>
-      </c>
-      <c r="Y43" s="388">
-        <v>4.9</v>
+      <c r="G43" s="388">
+        <v>14.3</v>
+      </c>
+      <c r="H43" s="389">
+        <v>4.3</v>
+      </c>
+      <c r="Y43" s="390">
+        <v>5</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="389">
+      <c r="A44" s="391">
         <v>38</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C44" s="390">
+      <c r="C44" s="392">
         <v>4.9</v>
       </c>
-      <c r="D44" s="391">
-        <v>5</v>
-      </c>
-      <c r="E44" s="392">
-        <v>5</v>
-      </c>
-      <c r="F44" s="393">
+      <c r="D44" s="393">
+        <v>5.1</v>
+      </c>
+      <c r="E44" s="394">
+        <v>4.9</v>
+      </c>
+      <c r="F44" s="395">
         <v>4.8</v>
       </c>
-      <c r="G44" s="394">
-        <v>14.6</v>
-      </c>
-      <c r="H44" s="395">
+      <c r="G44" s="396">
+        <v>14.2</v>
+      </c>
+      <c r="H44" s="397">
         <v>4.2</v>
       </c>
-      <c r="Y44" s="396">
+      <c r="Y44" s="398">
         <v>4.9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="397">
+      <c r="A45" s="399">
         <v>39</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C45" s="398">
-        <v>5.1</v>
-      </c>
-      <c r="D45" s="399">
-        <v>5.3</v>
-      </c>
-      <c r="E45" s="400">
-        <v>5.2</v>
-      </c>
-      <c r="F45" s="401">
-        <v>5</v>
-      </c>
-      <c r="G45" s="402">
-        <v>15.3</v>
-      </c>
-      <c r="H45" s="403">
-        <v>4.3</v>
-      </c>
-      <c r="Y45" s="404">
-        <v>5.1</v>
+      <c r="C45" s="400">
+        <v>4.9</v>
+      </c>
+      <c r="D45" s="401">
+        <v>5</v>
+      </c>
+      <c r="E45" s="402">
+        <v>5</v>
+      </c>
+      <c r="F45" s="403">
+        <v>4.8</v>
+      </c>
+      <c r="G45" s="404">
+        <v>14.6</v>
+      </c>
+      <c r="H45" s="405">
+        <v>4.2</v>
+      </c>
+      <c r="Y45" s="406">
+        <v>4.9</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="405">
+      <c r="A46" s="407">
         <v>40</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C46" s="406">
+      <c r="C46" s="408">
         <v>5.1</v>
       </c>
-      <c r="D46" s="407">
+      <c r="D46" s="409">
+        <v>5.3</v>
+      </c>
+      <c r="E46" s="410">
         <v>5.2</v>
       </c>
-      <c r="E46" s="408">
+      <c r="F46" s="411">
+        <v>5</v>
+      </c>
+      <c r="G46" s="412">
+        <v>15.3</v>
+      </c>
+      <c r="H46" s="413">
+        <v>4.3</v>
+      </c>
+      <c r="Y46" s="414">
         <v>5.1</v>
       </c>
-      <c r="F46" s="409">
-        <v>5</v>
-      </c>
-      <c r="G46" s="410">
-        <v>16.2</v>
-      </c>
-      <c r="H46" s="411">
-        <v>4.2</v>
-      </c>
-      <c r="Y46" s="412">
-        <v>5.1</v>
-      </c>
     </row>
     <row r="47">
-      <c r="A47" s="413">
+      <c r="A47" s="415">
         <v>41</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C47" s="414">
-        <v>5</v>
-      </c>
-      <c r="D47" s="415">
+      <c r="C47" s="416">
+        <v>5.1</v>
+      </c>
+      <c r="D47" s="417">
         <v>5.2</v>
       </c>
-      <c r="E47" s="416">
-        <v>5</v>
-      </c>
-      <c r="F47" s="417">
+      <c r="E47" s="418">
         <v>5.1</v>
       </c>
-      <c r="G47" s="418">
-        <v>15.4</v>
-      </c>
-      <c r="H47" s="419">
+      <c r="F47" s="419">
+        <v>5</v>
+      </c>
+      <c r="G47" s="420">
+        <v>16.2</v>
+      </c>
+      <c r="H47" s="421">
         <v>4.2</v>
       </c>
-      <c r="Y47" s="420">
-        <v>5</v>
+      <c r="Y47" s="422">
+        <v>5.1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="421">
+      <c r="A48" s="423">
         <v>42</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C48" s="422">
-        <v>5</v>
-      </c>
-      <c r="D48" s="423">
+      <c r="C48" s="424">
+        <v>5</v>
+      </c>
+      <c r="D48" s="425">
         <v>5.2</v>
       </c>
-      <c r="E48" s="424">
+      <c r="E48" s="426">
+        <v>5</v>
+      </c>
+      <c r="F48" s="427">
         <v>5.1</v>
       </c>
-      <c r="F48" s="425">
-        <v>5</v>
-      </c>
-      <c r="G48" s="426">
-        <v>13.8</v>
-      </c>
-      <c r="H48" s="427">
-        <v>4.4</v>
-      </c>
-      <c r="Y48" s="428">
+      <c r="G48" s="428">
+        <v>15.4</v>
+      </c>
+      <c r="H48" s="429">
+        <v>4.2</v>
+      </c>
+      <c r="Y48" s="430">
         <v>5</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="429">
+      <c r="A49" s="431">
         <v>43</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C49" s="430">
+      <c r="C49" s="432">
+        <v>5</v>
+      </c>
+      <c r="D49" s="433">
+        <v>5.2</v>
+      </c>
+      <c r="E49" s="434">
         <v>5.1</v>
       </c>
-      <c r="D49" s="431">
-        <v>5.2</v>
-      </c>
-      <c r="E49" s="432">
-        <v>5.1</v>
-      </c>
-      <c r="F49" s="433">
-        <v>5.1</v>
-      </c>
-      <c r="G49" s="434">
-        <v>13.6</v>
-      </c>
-      <c r="H49" s="435">
-        <v>4.6</v>
-      </c>
-      <c r="Y49" s="436">
-        <v>5.1</v>
+      <c r="F49" s="435">
+        <v>5</v>
+      </c>
+      <c r="G49" s="436">
+        <v>13.8</v>
+      </c>
+      <c r="H49" s="437">
+        <v>4.4</v>
+      </c>
+      <c r="Y49" s="438">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="437">
+      <c r="A50" s="439">
         <v>44</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="438">
-        <v>5.3</v>
-      </c>
-      <c r="D50" s="439">
-        <v>5.3</v>
-      </c>
-      <c r="E50" s="440">
-        <v>5.3</v>
-      </c>
-      <c r="F50" s="441">
-        <v>5.4</v>
-      </c>
-      <c r="G50" s="442">
+      <c r="C50" s="440">
+        <v>5.1</v>
+      </c>
+      <c r="D50" s="441">
+        <v>5.2</v>
+      </c>
+      <c r="E50" s="442">
+        <v>5.1</v>
+      </c>
+      <c r="F50" s="443">
+        <v>5.1</v>
+      </c>
+      <c r="G50" s="444">
         <v>13.6</v>
       </c>
-      <c r="H50" s="443">
-        <v>4.8</v>
-      </c>
-      <c r="Y50" s="444">
-        <v>5.3</v>
+      <c r="H50" s="445">
+        <v>4.6</v>
+      </c>
+      <c r="Y50" s="446">
+        <v>5.1</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="445">
+      <c r="A51" s="447">
         <v>45</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="446">
-        <v>5.5</v>
-      </c>
-      <c r="D51" s="447">
-        <v>5.5</v>
-      </c>
-      <c r="E51" s="448">
-        <v>5.7</v>
-      </c>
-      <c r="F51" s="449">
-        <v>5.2</v>
-      </c>
-      <c r="G51" s="450">
-        <v>13.1</v>
-      </c>
-      <c r="H51" s="451">
-        <v>5</v>
-      </c>
-      <c r="Y51" s="452">
-        <v>5.5</v>
+      <c r="C51" s="448">
+        <v>5.3</v>
+      </c>
+      <c r="D51" s="449">
+        <v>5.3</v>
+      </c>
+      <c r="E51" s="450">
+        <v>5.3</v>
+      </c>
+      <c r="F51" s="451">
+        <v>5.4</v>
+      </c>
+      <c r="G51" s="452">
+        <v>13.6</v>
+      </c>
+      <c r="H51" s="453">
+        <v>4.8</v>
+      </c>
+      <c r="Y51" s="454">
+        <v>5.3</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="453">
+      <c r="A52" s="455">
         <v>46</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C52" s="454">
-        <v>5.4</v>
-      </c>
-      <c r="D52" s="455">
-        <v>5.4</v>
-      </c>
-      <c r="E52" s="456">
-        <v>5.6</v>
-      </c>
-      <c r="F52" s="457">
-        <v>5.1</v>
-      </c>
-      <c r="G52" s="458">
-        <v>12.7</v>
-      </c>
-      <c r="H52" s="459">
-        <v>4.9</v>
-      </c>
-      <c r="Y52" s="460">
-        <v>5.4</v>
+      <c r="C52" s="456">
+        <v>5.5</v>
+      </c>
+      <c r="D52" s="457">
+        <v>5.5</v>
+      </c>
+      <c r="E52" s="458">
+        <v>5.7</v>
+      </c>
+      <c r="F52" s="459">
+        <v>5.2</v>
+      </c>
+      <c r="G52" s="460">
+        <v>13.1</v>
+      </c>
+      <c r="H52" s="461">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="462">
+        <v>5.5</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="461">
+      <c r="A53" s="463">
         <v>47</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="462">
-        <v>5.2</v>
-      </c>
-      <c r="D53" s="463">
+      <c r="C53" s="464">
+        <v>5.4</v>
+      </c>
+      <c r="D53" s="465">
+        <v>5.4</v>
+      </c>
+      <c r="E53" s="466">
+        <v>5.6</v>
+      </c>
+      <c r="F53" s="467">
         <v>5.1</v>
       </c>
-      <c r="G53" s="464">
-        <v>12.3</v>
-      </c>
-      <c r="H53" s="465">
-        <v>4.7</v>
-      </c>
-      <c r="N53" s="466">
-        <v>141212</v>
-      </c>
-      <c r="O53" s="467">
-        <v>90220</v>
-      </c>
-      <c r="P53" s="468">
-        <v>50992</v>
-      </c>
-      <c r="Q53" s="469">
-        <v>204</v>
-      </c>
-      <c r="T53" s="470">
-        <v>8.52</v>
-      </c>
-      <c r="U53" s="471">
-        <v>7.07</v>
-      </c>
-      <c r="V53" s="472">
-        <v>1.45</v>
-      </c>
-      <c r="W53" s="473">
-        <v>63.89</v>
-      </c>
-      <c r="X53" s="474">
-        <v>7971991</v>
-      </c>
-      <c r="Y53" s="475">
-        <v>5.2</v>
+      <c r="G53" s="468">
+        <v>12.7</v>
+      </c>
+      <c r="H53" s="469">
+        <v>4.9</v>
+      </c>
+      <c r="Y53" s="470">
+        <v>5.4</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="476">
+      <c r="A54" s="471">
         <v>48</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C54" s="477">
+      <c r="C54" s="472">
         <v>5.2</v>
       </c>
-      <c r="D54" s="478">
+      <c r="D54" s="473">
+        <v>5.1</v>
+      </c>
+      <c r="G54" s="474">
+        <v>12.3</v>
+      </c>
+      <c r="H54" s="475">
+        <v>4.7</v>
+      </c>
+      <c r="N54" s="476">
+        <v>141212</v>
+      </c>
+      <c r="O54" s="477">
+        <v>90220</v>
+      </c>
+      <c r="P54" s="478">
+        <v>50992</v>
+      </c>
+      <c r="Q54" s="479">
+        <v>204</v>
+      </c>
+      <c r="T54" s="480">
+        <v>8.52</v>
+      </c>
+      <c r="U54" s="481">
+        <v>7.07</v>
+      </c>
+      <c r="V54" s="482">
+        <v>1.45</v>
+      </c>
+      <c r="W54" s="483">
+        <v>63.89</v>
+      </c>
+      <c r="X54" s="484">
+        <v>7971991</v>
+      </c>
+      <c r="Y54" s="485">
         <v>5.2</v>
       </c>
-      <c r="G54" s="479">
-        <v>12.8</v>
-      </c>
-      <c r="H54" s="480">
-        <v>4.7</v>
-      </c>
-      <c r="Y54" s="481">
-        <v>5.2</v>
-      </c>
     </row>
     <row r="55">
-      <c r="A55" s="482">
+      <c r="A55" s="486">
         <v>49</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="483">
-        <v>5.3</v>
-      </c>
-      <c r="D55" s="484">
-        <v>5.3</v>
-      </c>
-      <c r="G55" s="485">
-        <v>13.2</v>
-      </c>
-      <c r="H55" s="486">
-        <v>4.8</v>
-      </c>
-      <c r="Y55" s="487">
-        <v>5.3</v>
+      <c r="C55" s="487">
+        <v>5.2</v>
+      </c>
+      <c r="D55" s="488">
+        <v>5.2</v>
+      </c>
+      <c r="G55" s="489">
+        <v>12.8</v>
+      </c>
+      <c r="H55" s="490">
+        <v>4.7</v>
+      </c>
+      <c r="Y55" s="491">
+        <v>5.2</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="488">
+      <c r="A56" s="492">
         <v>50</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="489">
-        <v>5.4</v>
-      </c>
-      <c r="D56" s="490">
-        <v>5.5</v>
-      </c>
-      <c r="G56" s="491">
-        <v>15</v>
-      </c>
-      <c r="H56" s="492">
+      <c r="C56" s="493">
+        <v>5.3</v>
+      </c>
+      <c r="D56" s="494">
+        <v>5.3</v>
+      </c>
+      <c r="G56" s="495">
+        <v>13.2</v>
+      </c>
+      <c r="H56" s="496">
         <v>4.8</v>
       </c>
-      <c r="Y56" s="493">
-        <v>5.4</v>
+      <c r="Y56" s="497">
+        <v>5.3</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="494">
+      <c r="A57" s="498">
         <v>51</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="495">
-        <v>5.6</v>
-      </c>
-      <c r="D57" s="496">
-        <v>5.7</v>
-      </c>
-      <c r="G57" s="497">
-        <v>16.8</v>
-      </c>
-      <c r="H57" s="498">
+      <c r="C57" s="499">
+        <v>5.4</v>
+      </c>
+      <c r="D57" s="500">
+        <v>5.5</v>
+      </c>
+      <c r="G57" s="501">
+        <v>15</v>
+      </c>
+      <c r="H57" s="502">
         <v>4.8</v>
       </c>
-      <c r="Y57" s="499">
-        <v>5.6</v>
+      <c r="Y57" s="503">
+        <v>5.4</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="500">
+      <c r="A58" s="504">
         <v>52</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C58" s="501">
+      <c r="C58" s="505">
+        <v>5.6</v>
+      </c>
+      <c r="D58" s="506">
         <v>5.7</v>
       </c>
-      <c r="D58" s="502">
-        <v>5.8</v>
-      </c>
-      <c r="G58" s="503">
+      <c r="G58" s="507">
         <v>16.8</v>
       </c>
-      <c r="H58" s="504">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="505">
-        <v>5.7</v>
+      <c r="H58" s="508">
+        <v>4.8</v>
+      </c>
+      <c r="Y58" s="509">
+        <v>5.6</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="506">
+      <c r="A59" s="510">
         <v>53</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="507">
+      <c r="C59" s="511">
         <v>5.7</v>
       </c>
-      <c r="D59" s="508">
+      <c r="D59" s="512">
         <v>5.8</v>
       </c>
-      <c r="G59" s="509">
-        <v>15.4</v>
-      </c>
-      <c r="H59" s="510">
-        <v>5.2</v>
-      </c>
-      <c r="Y59" s="511">
+      <c r="G59" s="513">
+        <v>16.8</v>
+      </c>
+      <c r="H59" s="514">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="515">
         <v>5.7</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="512">
+      <c r="A60" s="516">
         <v>54</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="513">
-        <v>5.9</v>
-      </c>
-      <c r="D60" s="514">
-        <v>5.9</v>
-      </c>
-      <c r="G60" s="515">
-        <v>14.8</v>
-      </c>
-      <c r="H60" s="516">
-        <v>5.4</v>
-      </c>
-      <c r="Y60" s="517">
-        <v>5.9</v>
+      <c r="C60" s="517">
+        <v>5.7</v>
+      </c>
+      <c r="D60" s="518">
+        <v>5.8</v>
+      </c>
+      <c r="G60" s="519">
+        <v>15.4</v>
+      </c>
+      <c r="H60" s="520">
+        <v>5.2</v>
+      </c>
+      <c r="Y60" s="521">
+        <v>5.7</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="518">
+      <c r="A61" s="522">
         <v>55</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="519">
-        <v>6</v>
-      </c>
-      <c r="D61" s="520">
-        <v>5.8</v>
-      </c>
-      <c r="G61" s="521">
-        <v>13.8</v>
-      </c>
-      <c r="H61" s="522">
-        <v>5.5</v>
-      </c>
-      <c r="Y61" s="523">
-        <v>6</v>
+      <c r="C61" s="523">
+        <v>5.9</v>
+      </c>
+      <c r="D61" s="524">
+        <v>5.9</v>
+      </c>
+      <c r="G61" s="525">
+        <v>14.8</v>
+      </c>
+      <c r="H61" s="526">
+        <v>5.4</v>
+      </c>
+      <c r="Y61" s="527">
+        <v>5.9</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="524">
+      <c r="A62" s="528">
         <v>56</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="525">
-        <v>5.9</v>
-      </c>
-      <c r="D62" s="526">
-        <v>5.7</v>
-      </c>
-      <c r="G62" s="527">
-        <v>13.3</v>
-      </c>
-      <c r="H62" s="528">
-        <v>5.4</v>
-      </c>
-      <c r="Y62" s="529">
-        <v>5.9</v>
+      <c r="C62" s="529">
+        <v>6</v>
+      </c>
+      <c r="D62" s="530">
+        <v>5.8</v>
+      </c>
+      <c r="G62" s="531">
+        <v>13.8</v>
+      </c>
+      <c r="H62" s="532">
+        <v>5.5</v>
+      </c>
+      <c r="Y62" s="533">
+        <v>6</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="530">
+      <c r="A63" s="534">
         <v>57</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="531">
-        <v>6.2</v>
-      </c>
-      <c r="D63" s="532">
+      <c r="C63" s="535">
+        <v>5.9</v>
+      </c>
+      <c r="D63" s="536">
         <v>5.7</v>
       </c>
-      <c r="G63" s="533">
-        <v>13.6</v>
-      </c>
-      <c r="H63" s="534">
-        <v>5.6</v>
-      </c>
-      <c r="Y63" s="535">
-        <v>6.2</v>
+      <c r="G63" s="537">
+        <v>13.3</v>
+      </c>
+      <c r="H63" s="538">
+        <v>5.4</v>
+      </c>
+      <c r="Y63" s="539">
+        <v>5.9</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="536">
+      <c r="A64" s="540">
         <v>58</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="537">
-        <v>5.3</v>
-      </c>
-      <c r="D64" s="538">
-        <v>5.2</v>
-      </c>
-      <c r="G64" s="539">
-        <v>12.5</v>
-      </c>
-      <c r="H64" s="540">
-        <v>4.7</v>
-      </c>
-      <c r="Y64" s="541">
-        <v>5.3</v>
+      <c r="C64" s="541">
+        <v>6.2</v>
+      </c>
+      <c r="D64" s="542">
+        <v>5.7</v>
+      </c>
+      <c r="G64" s="543">
+        <v>13.6</v>
+      </c>
+      <c r="H64" s="544">
+        <v>5.6</v>
+      </c>
+      <c r="Y64" s="545">
+        <v>6.2</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="542">
+      <c r="A65" s="546">
         <v>59</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="543">
+      <c r="C65" s="547">
+        <v>5.3</v>
+      </c>
+      <c r="D65" s="548">
         <v>5.2</v>
       </c>
-      <c r="D65" s="544">
-        <v>5.2</v>
-      </c>
-      <c r="G65" s="545">
-        <v>12.2</v>
-      </c>
-      <c r="H65" s="546">
+      <c r="G65" s="549">
+        <v>12.5</v>
+      </c>
+      <c r="H65" s="550">
         <v>4.7</v>
       </c>
-      <c r="N65" s="547">
-        <v>141008</v>
-      </c>
-      <c r="O65" s="548">
-        <v>88426</v>
-      </c>
-      <c r="P65" s="549">
-        <v>52582</v>
-      </c>
-      <c r="Q65" s="550">
-        <v>467</v>
-      </c>
-      <c r="R65" s="551">
-        <v>1706</v>
-      </c>
-      <c r="S65" s="552">
-        <v>-1239</v>
-      </c>
-      <c r="T65" s="553">
-        <v>10.41</v>
-      </c>
-      <c r="U65" s="554">
-        <v>7.09</v>
-      </c>
-      <c r="V65" s="555">
-        <v>3.32</v>
-      </c>
-      <c r="W65" s="556">
-        <v>60.6</v>
-      </c>
-      <c r="X65" s="557">
-        <v>7585298</v>
-      </c>
-      <c r="Y65" s="558">
-        <v>5.2</v>
+      <c r="Y65" s="551">
+        <v>5.3</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="559">
+      <c r="A66" s="552">
         <v>60</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="560">
-        <v>5.1</v>
-      </c>
-      <c r="D66" s="561">
-        <v>5.1</v>
-      </c>
-      <c r="G66" s="562">
-        <v>12.5</v>
-      </c>
-      <c r="H66" s="563">
-        <v>4.6</v>
-      </c>
-      <c r="Y66" s="564">
-        <v>5.1</v>
+      <c r="C66" s="553">
+        <v>5.2</v>
+      </c>
+      <c r="D66" s="554">
+        <v>5.2</v>
+      </c>
+      <c r="G66" s="555">
+        <v>12.2</v>
+      </c>
+      <c r="H66" s="556">
+        <v>4.7</v>
+      </c>
+      <c r="N66" s="557">
+        <v>141008</v>
+      </c>
+      <c r="O66" s="558">
+        <v>88426</v>
+      </c>
+      <c r="P66" s="559">
+        <v>52582</v>
+      </c>
+      <c r="Q66" s="560">
+        <v>467</v>
+      </c>
+      <c r="R66" s="561">
+        <v>1706</v>
+      </c>
+      <c r="S66" s="562">
+        <v>-1239</v>
+      </c>
+      <c r="T66" s="563">
+        <v>10.41</v>
+      </c>
+      <c r="U66" s="564">
+        <v>7.09</v>
+      </c>
+      <c r="V66" s="565">
+        <v>3.32</v>
+      </c>
+      <c r="W66" s="566">
+        <v>60.6</v>
+      </c>
+      <c r="X66" s="567">
+        <v>7585298</v>
+      </c>
+      <c r="Y66" s="568">
+        <v>5.2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="565">
+      <c r="A67" s="569">
         <v>61</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C67" s="566">
+      <c r="C67" s="570">
         <v>5.1</v>
       </c>
-      <c r="D67" s="567">
+      <c r="D67" s="571">
         <v>5.1</v>
       </c>
-      <c r="G67" s="568">
-        <v>12.4</v>
-      </c>
-      <c r="H67" s="569">
+      <c r="G67" s="572">
+        <v>12.5</v>
+      </c>
+      <c r="H67" s="573">
         <v>4.6</v>
       </c>
-      <c r="Y67" s="570">
+      <c r="Y67" s="574">
         <v>5.1</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="571">
+      <c r="A68" s="575">
         <v>62</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C68" s="572">
-        <v>5.2</v>
-      </c>
-      <c r="D68" s="573">
-        <v>5.2</v>
-      </c>
-      <c r="G68" s="574">
-        <v>13</v>
-      </c>
-      <c r="H68" s="575">
+      <c r="C68" s="576">
+        <v>5.1</v>
+      </c>
+      <c r="D68" s="577">
+        <v>5.1</v>
+      </c>
+      <c r="G68" s="578">
+        <v>12.4</v>
+      </c>
+      <c r="H68" s="579">
         <v>4.6</v>
       </c>
-      <c r="Y68" s="576">
-        <v>5.2</v>
+      <c r="Y68" s="580">
+        <v>5.1</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="577">
+      <c r="A69" s="581">
         <v>63</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C69" s="578">
+      <c r="C69" s="582">
         <v>5.2</v>
       </c>
-      <c r="D69" s="579">
+      <c r="D69" s="583">
         <v>5.2</v>
       </c>
-      <c r="G69" s="580">
-        <v>13.1</v>
-      </c>
-      <c r="H69" s="581">
-        <v>4.5</v>
-      </c>
-      <c r="Y69" s="582">
+      <c r="G69" s="584">
+        <v>13</v>
+      </c>
+      <c r="H69" s="585">
+        <v>4.6</v>
+      </c>
+      <c r="Y69" s="586">
         <v>5.2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="583">
+      <c r="A70" s="587">
         <v>64</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="584">
-        <v>5.3</v>
-      </c>
-      <c r="D70" s="585">
+      <c r="C70" s="588">
         <v>5.2</v>
       </c>
-      <c r="G70" s="586">
-        <v>13.9</v>
-      </c>
-      <c r="H70" s="587">
-        <v>4.6</v>
-      </c>
-      <c r="Y70" s="588">
-        <v>5.3</v>
+      <c r="D70" s="589">
+        <v>5.2</v>
+      </c>
+      <c r="G70" s="590">
+        <v>13.1</v>
+      </c>
+      <c r="H70" s="591">
+        <v>4.5</v>
+      </c>
+      <c r="Y70" s="592">
+        <v>5.2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="589">
+      <c r="A71" s="593">
         <v>65</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="590">
-        <v>5.1</v>
-      </c>
-      <c r="D71" s="591">
-        <v>5</v>
-      </c>
-      <c r="G71" s="592">
-        <v>11.6</v>
-      </c>
-      <c r="H71" s="593">
+      <c r="C71" s="594">
+        <v>5.3</v>
+      </c>
+      <c r="D71" s="595">
+        <v>5.2</v>
+      </c>
+      <c r="G71" s="596">
+        <v>13.9</v>
+      </c>
+      <c r="H71" s="597">
         <v>4.6</v>
       </c>
-      <c r="Y71" s="594">
-        <v>5.1</v>
+      <c r="Y71" s="598">
+        <v>5.3</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="595">
+      <c r="A72" s="599">
         <v>66</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C72" s="596">
-        <v>5</v>
-      </c>
-      <c r="D72" s="597">
-        <v>5</v>
-      </c>
-      <c r="G72" s="598">
-        <v>10.5</v>
-      </c>
-      <c r="H72" s="599">
-        <v>4.5</v>
-      </c>
-      <c r="Y72" s="600">
-        <v>5</v>
+      <c r="C72" s="600">
+        <v>5.1</v>
+      </c>
+      <c r="D72" s="601">
+        <v>5</v>
+      </c>
+      <c r="G72" s="602">
+        <v>11.6</v>
+      </c>
+      <c r="H72" s="603">
+        <v>4.6</v>
+      </c>
+      <c r="Y72" s="604">
+        <v>5.1</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="601">
+      <c r="A73" s="605">
         <v>67</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C73" s="602">
-        <v>5</v>
-      </c>
-      <c r="D73" s="603">
-        <v>5</v>
-      </c>
-      <c r="G73" s="604">
-        <v>9.9</v>
-      </c>
-      <c r="H73" s="605">
-        <v>4.7</v>
-      </c>
-      <c r="Y73" s="606">
+      <c r="C73" s="606">
+        <v>5</v>
+      </c>
+      <c r="D73" s="607">
+        <v>5</v>
+      </c>
+      <c r="G73" s="608">
+        <v>10.5</v>
+      </c>
+      <c r="H73" s="609">
+        <v>4.5</v>
+      </c>
+      <c r="Y73" s="610">
         <v>5</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="607">
+      <c r="A74" s="611">
         <v>68</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C74" s="608">
-        <v>5.2</v>
-      </c>
-      <c r="D74" s="609">
-        <v>5.1</v>
-      </c>
-      <c r="G74" s="610">
-        <v>11.3</v>
-      </c>
-      <c r="H74" s="611">
-        <v>4.8</v>
-      </c>
-      <c r="Y74" s="612">
-        <v>5.2</v>
+      <c r="C74" s="612">
+        <v>5</v>
+      </c>
+      <c r="D74" s="613">
+        <v>5</v>
+      </c>
+      <c r="G74" s="614">
+        <v>9.9</v>
+      </c>
+      <c r="H74" s="615">
+        <v>4.7</v>
+      </c>
+      <c r="Y74" s="616">
+        <v>5</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="613">
+      <c r="A75" s="617">
         <v>69</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C75" s="614">
-        <v>5.3</v>
-      </c>
-      <c r="D75" s="615">
-        <v>5</v>
-      </c>
-      <c r="G75" s="616">
-        <v>11</v>
-      </c>
-      <c r="H75" s="617">
-        <v>4.9</v>
-      </c>
-      <c r="Y75" s="618">
-        <v>5.3</v>
+      <c r="C75" s="618">
+        <v>5.2</v>
+      </c>
+      <c r="D75" s="619">
+        <v>5.1</v>
+      </c>
+      <c r="G75" s="620">
+        <v>11.3</v>
+      </c>
+      <c r="H75" s="621">
+        <v>4.8</v>
+      </c>
+      <c r="Y75" s="622">
+        <v>5.2</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="619">
+      <c r="A76" s="623">
         <v>70</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C76" s="620">
-        <v>5.1</v>
-      </c>
-      <c r="D76" s="621">
-        <v>4.8</v>
-      </c>
-      <c r="G76" s="622">
-        <v>11.2</v>
-      </c>
-      <c r="H76" s="623">
-        <v>4.6</v>
-      </c>
-      <c r="Y76" s="624">
-        <v>5.1</v>
+      <c r="C76" s="624">
+        <v>5.3</v>
+      </c>
+      <c r="D76" s="625">
+        <v>5</v>
+      </c>
+      <c r="G76" s="626">
+        <v>11</v>
+      </c>
+      <c r="H76" s="627">
+        <v>4.9</v>
+      </c>
+      <c r="Y76" s="628">
+        <v>5.3</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="625">
+      <c r="A77" s="629">
         <v>71</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="626">
-        <v>4.9</v>
-      </c>
-      <c r="D77" s="627">
-        <v>4.7</v>
-      </c>
-      <c r="G77" s="628">
-        <v>10.1</v>
-      </c>
-      <c r="H77" s="629">
-        <v>4.4</v>
-      </c>
-      <c r="N77" s="630">
-        <v>140541</v>
-      </c>
-      <c r="O77" s="631">
-        <v>86433</v>
-      </c>
-      <c r="P77" s="632">
-        <v>54108</v>
-      </c>
-      <c r="Q77" s="633">
-        <v>530</v>
-      </c>
-      <c r="R77" s="634">
-        <v>1790</v>
-      </c>
-      <c r="S77" s="635">
-        <v>-1260</v>
-      </c>
-      <c r="T77" s="636">
-        <v>10.86</v>
-      </c>
-      <c r="U77" s="637">
-        <v>7.08</v>
-      </c>
-      <c r="V77" s="638">
-        <v>3.78</v>
-      </c>
-      <c r="W77" s="639">
-        <v>59.58</v>
-      </c>
-      <c r="X77" s="640">
-        <v>7533087</v>
-      </c>
-      <c r="Y77" s="641">
-        <v>4.9</v>
+      <c r="C77" s="630">
+        <v>5.1</v>
+      </c>
+      <c r="D77" s="631">
+        <v>4.8</v>
+      </c>
+      <c r="G77" s="632">
+        <v>11.2</v>
+      </c>
+      <c r="H77" s="633">
+        <v>4.6</v>
+      </c>
+      <c r="Y77" s="634">
+        <v>5.1</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="642">
+      <c r="A78" s="635">
         <v>72</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="643">
-        <v>4.8</v>
-      </c>
-      <c r="D78" s="644">
+      <c r="C78" s="636">
+        <v>4.9</v>
+      </c>
+      <c r="D78" s="637">
         <v>4.7</v>
       </c>
-      <c r="G78" s="645">
-        <v>10</v>
-      </c>
-      <c r="H78" s="646">
+      <c r="G78" s="638">
+        <v>10.1</v>
+      </c>
+      <c r="H78" s="639">
         <v>4.4</v>
       </c>
-      <c r="Y78" s="647">
-        <v>4.8</v>
+      <c r="N78" s="640">
+        <v>140541</v>
+      </c>
+      <c r="O78" s="641">
+        <v>86433</v>
+      </c>
+      <c r="P78" s="642">
+        <v>54108</v>
+      </c>
+      <c r="Q78" s="643">
+        <v>530</v>
+      </c>
+      <c r="R78" s="644">
+        <v>1790</v>
+      </c>
+      <c r="S78" s="645">
+        <v>-1260</v>
+      </c>
+      <c r="T78" s="646">
+        <v>10.86</v>
+      </c>
+      <c r="U78" s="647">
+        <v>7.08</v>
+      </c>
+      <c r="V78" s="648">
+        <v>3.78</v>
+      </c>
+      <c r="W78" s="649">
+        <v>59.58</v>
+      </c>
+      <c r="X78" s="650">
+        <v>7533087</v>
+      </c>
+      <c r="Y78" s="651">
+        <v>4.9</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="648">
+      <c r="A79" s="652">
         <v>73</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C79" s="649">
-        <v>4.9</v>
-      </c>
-      <c r="D79" s="650">
+      <c r="C79" s="653">
+        <v>4.8</v>
+      </c>
+      <c r="D79" s="654">
         <v>4.7</v>
       </c>
-      <c r="G79" s="651">
-        <v>9.8</v>
-      </c>
-      <c r="H79" s="652">
+      <c r="G79" s="655">
+        <v>10</v>
+      </c>
+      <c r="H79" s="656">
         <v>4.4</v>
       </c>
-      <c r="Y79" s="653">
-        <v>4.9</v>
+      <c r="Y79" s="657">
+        <v>4.8</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="654">
+      <c r="A80" s="658">
         <v>74</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C80" s="655">
+      <c r="C80" s="659">
         <v>4.9</v>
       </c>
-      <c r="D80" s="656">
+      <c r="D80" s="660">
         <v>4.7</v>
       </c>
-      <c r="G80" s="657">
-        <v>11.2</v>
-      </c>
-      <c r="H80" s="658">
-        <v>4.3</v>
-      </c>
-      <c r="Y80" s="659">
+      <c r="G80" s="661">
+        <v>9.8</v>
+      </c>
+      <c r="H80" s="662">
+        <v>4.4</v>
+      </c>
+      <c r="Y80" s="663">
         <v>4.9</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="660">
+      <c r="A81" s="664">
         <v>75</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C81" s="661">
-        <v>5</v>
-      </c>
-      <c r="D81" s="662">
+      <c r="C81" s="665">
         <v>4.9</v>
       </c>
-      <c r="G81" s="663">
-        <v>13.1</v>
-      </c>
-      <c r="H81" s="664">
+      <c r="D81" s="666">
+        <v>4.7</v>
+      </c>
+      <c r="G81" s="667">
+        <v>11.2</v>
+      </c>
+      <c r="H81" s="668">
         <v>4.3</v>
       </c>
-      <c r="Y81" s="665">
-        <v>5</v>
+      <c r="Y81" s="669">
+        <v>4.9</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="666">
+      <c r="A82" s="670">
         <v>76</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C82" s="667">
-        <v>5.1</v>
-      </c>
-      <c r="D82" s="668">
-        <v>5</v>
-      </c>
-      <c r="G82" s="669">
-        <v>13.3</v>
-      </c>
-      <c r="H82" s="670">
-        <v>4.4</v>
-      </c>
-      <c r="Y82" s="671">
-        <v>5.1</v>
+      <c r="C82" s="671">
+        <v>5</v>
+      </c>
+      <c r="D82" s="672">
+        <v>4.9</v>
+      </c>
+      <c r="G82" s="673">
+        <v>13.1</v>
+      </c>
+      <c r="H82" s="674">
+        <v>4.3</v>
+      </c>
+      <c r="Y82" s="675">
+        <v>5</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="672">
+      <c r="A83" s="676">
         <v>77</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C83" s="673">
-        <v>4.8</v>
-      </c>
-      <c r="D83" s="674">
-        <v>4.7</v>
-      </c>
-      <c r="G83" s="675">
-        <v>10</v>
-      </c>
-      <c r="H83" s="676">
+      <c r="C83" s="677">
+        <v>5.1</v>
+      </c>
+      <c r="D83" s="678">
+        <v>5</v>
+      </c>
+      <c r="G83" s="679">
+        <v>13.3</v>
+      </c>
+      <c r="H83" s="680">
         <v>4.4</v>
       </c>
-      <c r="Y83" s="677">
-        <v>4.8</v>
+      <c r="Y83" s="681">
+        <v>5.1</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="678">
+      <c r="A84" s="682">
         <v>78</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="679">
+      <c r="C84" s="683">
         <v>4.8</v>
       </c>
-      <c r="D84" s="680">
+      <c r="D84" s="684">
         <v>4.7</v>
       </c>
-      <c r="G84" s="681">
-        <v>9.6</v>
-      </c>
-      <c r="H84" s="682">
+      <c r="G84" s="685">
+        <v>10</v>
+      </c>
+      <c r="H84" s="686">
         <v>4.4</v>
       </c>
-      <c r="Y84" s="683">
+      <c r="Y84" s="687">
         <v>4.8</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="684">
+      <c r="A85" s="688">
         <v>79</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C85" s="685">
-        <v>4.9</v>
-      </c>
-      <c r="D85" s="686">
+      <c r="C85" s="689">
+        <v>4.8</v>
+      </c>
+      <c r="D85" s="690">
         <v>4.7</v>
       </c>
-      <c r="G85" s="687">
-        <v>10.1</v>
-      </c>
-      <c r="H85" s="688">
+      <c r="G85" s="691">
+        <v>9.6</v>
+      </c>
+      <c r="H85" s="692">
         <v>4.4</v>
       </c>
-      <c r="Y85" s="689">
-        <v>4.9</v>
+      <c r="Y85" s="693">
+        <v>4.8</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="690">
+      <c r="A86" s="694">
         <v>80</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="691">
-        <v>5.1</v>
-      </c>
-      <c r="D86" s="692">
+      <c r="C86" s="695">
         <v>4.9</v>
       </c>
-      <c r="G86" s="693">
-        <v>10.4</v>
-      </c>
-      <c r="H86" s="694">
-        <v>4.6</v>
-      </c>
-      <c r="Y86" s="695">
-        <v>5.1</v>
+      <c r="D86" s="696">
+        <v>4.7</v>
+      </c>
+      <c r="G86" s="697">
+        <v>10.1</v>
+      </c>
+      <c r="H86" s="698">
+        <v>4.4</v>
+      </c>
+      <c r="Y86" s="699">
+        <v>4.9</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="696">
+      <c r="A87" s="700">
         <v>81</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C87" s="697">
-        <v>5</v>
-      </c>
-      <c r="D87" s="698">
-        <v>4.8</v>
-      </c>
-      <c r="G87" s="699">
-        <v>11</v>
-      </c>
-      <c r="H87" s="700">
-        <v>4.5</v>
-      </c>
-      <c r="Y87" s="701">
-        <v>5</v>
+      <c r="C87" s="701">
+        <v>5.1</v>
+      </c>
+      <c r="D87" s="702">
+        <v>4.9</v>
+      </c>
+      <c r="G87" s="703">
+        <v>10.4</v>
+      </c>
+      <c r="H87" s="704">
+        <v>4.6</v>
+      </c>
+      <c r="Y87" s="705">
+        <v>5.1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="702">
+      <c r="A88" s="706">
         <v>82</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="703">
-        <v>5</v>
-      </c>
-      <c r="D88" s="704">
-        <v>4.9</v>
-      </c>
-      <c r="G88" s="705">
-        <v>11.2</v>
-      </c>
-      <c r="H88" s="706">
-        <v>4.4</v>
-      </c>
-      <c r="Y88" s="707">
+      <c r="C88" s="707">
+        <v>5</v>
+      </c>
+      <c r="D88" s="708">
+        <v>4.8</v>
+      </c>
+      <c r="G88" s="709">
+        <v>11</v>
+      </c>
+      <c r="H88" s="710">
+        <v>4.5</v>
+      </c>
+      <c r="Y88" s="711">
         <v>5</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="708">
+      <c r="A89" s="712">
         <v>83</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C89" s="709">
-        <v>5</v>
-      </c>
-      <c r="N89" s="710">
-        <v>140011</v>
-      </c>
-      <c r="O89" s="711">
-        <v>84343</v>
-      </c>
-      <c r="P89" s="712">
-        <v>55668</v>
-      </c>
-      <c r="Q89" s="713">
-        <v>737</v>
-      </c>
-      <c r="R89" s="714">
-        <v>2049</v>
-      </c>
-      <c r="S89" s="715">
-        <v>-1312</v>
-      </c>
-      <c r="T89" s="716">
-        <v>12.64</v>
-      </c>
-      <c r="U89" s="717">
-        <v>7.06</v>
-      </c>
-      <c r="V89" s="718">
-        <v>5.58</v>
-      </c>
-      <c r="W89" s="719">
-        <v>58.52</v>
-      </c>
-      <c r="X89" s="720">
-        <v>7358287</v>
-      </c>
-      <c r="Y89" s="721">
+      <c r="C89" s="713">
+        <v>5</v>
+      </c>
+      <c r="D89" s="714">
+        <v>4.9</v>
+      </c>
+      <c r="G89" s="715">
+        <v>11.2</v>
+      </c>
+      <c r="H89" s="716">
+        <v>4.4</v>
+      </c>
+      <c r="Y89" s="717">
         <v>5</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="722">
+      <c r="A90" s="718">
         <v>84</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C90" s="723">
-        <v>4.9</v>
-      </c>
-      <c r="Y90" s="724">
-        <v>4.9</v>
+      <c r="C90" s="719">
+        <v>5</v>
+      </c>
+      <c r="N90" s="720">
+        <v>140011</v>
+      </c>
+      <c r="O90" s="721">
+        <v>84343</v>
+      </c>
+      <c r="P90" s="722">
+        <v>55668</v>
+      </c>
+      <c r="Q90" s="723">
+        <v>737</v>
+      </c>
+      <c r="R90" s="724">
+        <v>2049</v>
+      </c>
+      <c r="S90" s="725">
+        <v>-1312</v>
+      </c>
+      <c r="T90" s="726">
+        <v>12.64</v>
+      </c>
+      <c r="U90" s="727">
+        <v>7.06</v>
+      </c>
+      <c r="V90" s="728">
+        <v>5.58</v>
+      </c>
+      <c r="W90" s="729">
+        <v>58.52</v>
+      </c>
+      <c r="X90" s="730">
+        <v>7358287</v>
+      </c>
+      <c r="Y90" s="731">
+        <v>5</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="725">
+      <c r="A91" s="732">
         <v>85</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C91" s="726">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="727">
-        <v>5</v>
+      <c r="C91" s="733">
+        <v>4.9</v>
+      </c>
+      <c r="Y91" s="734">
+        <v>4.9</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="728">
+      <c r="A92" s="735">
         <v>86</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C92" s="729">
-        <v>5</v>
-      </c>
-      <c r="Y92" s="730">
+      <c r="C92" s="736">
+        <v>5</v>
+      </c>
+      <c r="Y92" s="737">
         <v>5</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="731">
+      <c r="A93" s="738">
         <v>87</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C93" s="732">
-        <v>5</v>
-      </c>
-      <c r="Y93" s="733">
+      <c r="C93" s="739">
+        <v>5</v>
+      </c>
+      <c r="Y93" s="740">
         <v>5</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="734">
+      <c r="A94" s="741">
         <v>88</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C94" s="735">
-        <v>5.1</v>
-      </c>
-      <c r="Y94" s="736">
-        <v>5.1</v>
+      <c r="C94" s="742">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="743">
+        <v>5</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="737">
+      <c r="A95" s="744">
         <v>89</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C95" s="738">
-        <v>5</v>
-      </c>
-      <c r="D95" s="739">
-        <v>5</v>
-      </c>
-      <c r="Y95" s="740">
-        <v>5</v>
+      <c r="C95" s="745">
+        <v>5.1</v>
+      </c>
+      <c r="Y95" s="746">
+        <v>5.1</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="741">
+      <c r="A96" s="747">
         <v>90</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C96" s="742">
-        <v>5</v>
-      </c>
-      <c r="Y96" s="743">
+      <c r="C96" s="748">
+        <v>5</v>
+      </c>
+      <c r="D96" s="749">
+        <v>5</v>
+      </c>
+      <c r="Y96" s="750">
         <v>5</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="744">
+      <c r="A97" s="751">
         <v>91</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C97" s="745">
-        <v>5</v>
-      </c>
-      <c r="Y97" s="746">
+      <c r="C97" s="752">
+        <v>5</v>
+      </c>
+      <c r="Y97" s="753">
         <v>5</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="747">
+      <c r="A98" s="754">
         <v>92</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D98" s="748">
+      <c r="C98" s="755">
+        <v>5</v>
+      </c>
+      <c r="Y98" s="756">
         <v>5</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="749">
+      <c r="A99" s="757">
         <v>93</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C99" s="750">
-        <v>5</v>
-      </c>
-      <c r="Y99" s="751">
+      <c r="D99" s="758">
         <v>5</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="752">
+      <c r="A100" s="759">
         <v>94</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D100" s="753">
-        <v>5.1</v>
-      </c>
-      <c r="N100" s="754">
-        <v>139232</v>
-      </c>
-      <c r="O100" s="755">
-        <v>81924</v>
-      </c>
-      <c r="P100" s="756">
-        <v>57308</v>
-      </c>
-      <c r="Q100" s="757">
-        <v>809</v>
-      </c>
-      <c r="R100" s="758">
-        <v>2182</v>
-      </c>
-      <c r="S100" s="759">
-        <v>-1373</v>
-      </c>
-      <c r="T100" s="760">
-        <v>13.57</v>
-      </c>
-      <c r="U100" s="761">
-        <v>7.04</v>
-      </c>
-      <c r="V100" s="762">
-        <v>6.53</v>
-      </c>
-      <c r="W100" s="763">
-        <v>57.35</v>
-      </c>
-      <c r="X100" s="764">
-        <v>7041800</v>
+      <c r="C100" s="760">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="761">
+        <v>5</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="765">
+      <c r="A101" s="762">
         <v>95</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C101" s="766">
-        <v>5</v>
-      </c>
-      <c r="Y101" s="767">
-        <v>5</v>
+      <c r="D101" s="763">
+        <v>5.1</v>
+      </c>
+      <c r="N101" s="764">
+        <v>139232</v>
+      </c>
+      <c r="O101" s="765">
+        <v>81924</v>
+      </c>
+      <c r="P101" s="766">
+        <v>57308</v>
+      </c>
+      <c r="Q101" s="767">
+        <v>809</v>
+      </c>
+      <c r="R101" s="768">
+        <v>2182</v>
+      </c>
+      <c r="S101" s="769">
+        <v>-1373</v>
+      </c>
+      <c r="T101" s="770">
+        <v>13.57</v>
+      </c>
+      <c r="U101" s="771">
+        <v>7.04</v>
+      </c>
+      <c r="V101" s="772">
+        <v>6.53</v>
+      </c>
+      <c r="W101" s="773">
+        <v>57.35</v>
+      </c>
+      <c r="X101" s="774">
+        <v>7041800</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="768">
+      <c r="A102" s="775">
         <v>96</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C102" s="769">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="770">
+      <c r="C102" s="776">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="777">
         <v>5</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="771">
+      <c r="A103" s="778">
         <v>97</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C103" s="772">
-        <v>5</v>
-      </c>
-      <c r="D103" s="773">
-        <v>5</v>
-      </c>
-      <c r="Y103" s="774">
+      <c r="C103" s="779">
+        <v>5</v>
+      </c>
+      <c r="Y103" s="780">
         <v>5</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="775">
+      <c r="A104" s="781">
         <v>98</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="776">
-        <v>5.1</v>
-      </c>
-      <c r="Y104" s="777">
-        <v>5.1</v>
+      <c r="C104" s="782">
+        <v>5</v>
+      </c>
+      <c r="D104" s="783">
+        <v>5</v>
+      </c>
+      <c r="Y104" s="784">
+        <v>5</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="778">
+      <c r="A105" s="785">
         <v>99</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C105" s="779">
-        <v>5.2</v>
-      </c>
-      <c r="D105" s="780">
-        <v>5.2</v>
-      </c>
-      <c r="Y105" s="781">
-        <v>5.2</v>
+      <c r="C105" s="786">
+        <v>5.1</v>
+      </c>
+      <c r="Y105" s="787">
+        <v>5.1</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="782">
+      <c r="A106" s="788">
         <v>100</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C106" s="783">
-        <v>5.1</v>
-      </c>
-      <c r="Y106" s="784">
-        <v>5.1</v>
+      <c r="C106" s="789">
+        <v>5.2</v>
+      </c>
+      <c r="D106" s="790">
+        <v>5.2</v>
+      </c>
+      <c r="Y106" s="791">
+        <v>5.2</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="785">
+      <c r="A107" s="792">
         <v>101</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="786">
-        <v>5.12</v>
-      </c>
-      <c r="D107" s="787">
-        <v>5.12</v>
-      </c>
-      <c r="Y107" s="788">
-        <v>5.12</v>
+      <c r="C107" s="793">
+        <v>5.1</v>
+      </c>
+      <c r="Y107" s="794">
+        <v>5.1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="789">
+      <c r="A108" s="795">
         <v>102</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C108" s="790">
-        <v>5.1</v>
-      </c>
-      <c r="Y108" s="791">
-        <v>5.1</v>
+      <c r="C108" s="796">
+        <v>5.12</v>
+      </c>
+      <c r="D108" s="797">
+        <v>5.12</v>
+      </c>
+      <c r="Y108" s="798">
+        <v>5.12</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="792">
+      <c r="A109" s="799">
         <v>103</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C109" s="793">
-        <v>4.99</v>
-      </c>
-      <c r="Y109" s="794">
-        <v>4.99</v>
+      <c r="C109" s="800">
+        <v>5.1</v>
+      </c>
+      <c r="Y109" s="801">
+        <v>5.1</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="795">
+      <c r="A110" s="802">
         <v>104</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="N110" s="796">
-        <v>138326</v>
-      </c>
-      <c r="O110" s="797">
-        <v>79302</v>
-      </c>
-      <c r="P110" s="798">
-        <v>59024</v>
-      </c>
-      <c r="Q110" s="799">
-        <v>680</v>
-      </c>
-      <c r="R110" s="800">
-        <v>2200</v>
-      </c>
-      <c r="S110" s="801">
-        <v>-1520</v>
-      </c>
-      <c r="T110" s="802">
-        <v>11.99</v>
-      </c>
-      <c r="U110" s="803">
-        <v>7.07</v>
-      </c>
-      <c r="V110" s="804">
-        <v>4.93</v>
-      </c>
-      <c r="W110" s="805">
-        <v>56.1</v>
-      </c>
-      <c r="X110" s="806">
-        <v>6808866</v>
+      <c r="C110" s="803">
+        <v>4.99</v>
+      </c>
+      <c r="Y110" s="804">
+        <v>4.99</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="807">
+      <c r="A111" s="805">
         <v>105</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D111" s="808">
-        <v>5</v>
+      <c r="N111" s="806">
+        <v>138326</v>
+      </c>
+      <c r="O111" s="807">
+        <v>79302</v>
+      </c>
+      <c r="P111" s="808">
+        <v>59024</v>
+      </c>
+      <c r="Q111" s="809">
+        <v>680</v>
+      </c>
+      <c r="R111" s="810">
+        <v>2200</v>
+      </c>
+      <c r="S111" s="811">
+        <v>-1520</v>
+      </c>
+      <c r="T111" s="812">
+        <v>11.99</v>
+      </c>
+      <c r="U111" s="813">
+        <v>7.07</v>
+      </c>
+      <c r="V111" s="814">
+        <v>4.93</v>
+      </c>
+      <c r="W111" s="815">
+        <v>56.1</v>
+      </c>
+      <c r="X111" s="816">
+        <v>6808866</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="809">
+      <c r="A112" s="817">
         <v>106</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D112" s="810">
-        <v>5.1</v>
+      <c r="D112" s="818">
+        <v>5</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="811">
+      <c r="A113" s="819">
         <v>107</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D113" s="812">
+      <c r="D113" s="820">
         <v>5.1</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="813">
+      <c r="A114" s="821">
         <v>108</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="N114" s="814">
-        <v>137646</v>
-      </c>
-      <c r="O114" s="815">
-        <v>76738</v>
-      </c>
-      <c r="P114" s="816">
-        <v>60908</v>
-      </c>
-      <c r="Q114" s="817">
-        <v>710</v>
-      </c>
-      <c r="R114" s="818">
-        <v>1805</v>
-      </c>
-      <c r="S114" s="819">
-        <v>-1095</v>
-      </c>
-      <c r="T114" s="820">
-        <v>13.83</v>
-      </c>
-      <c r="U114" s="821">
-        <v>7.12</v>
-      </c>
-      <c r="V114" s="822">
-        <v>6.71</v>
-      </c>
-      <c r="W114" s="823">
-        <v>54.77</v>
-      </c>
-      <c r="X114" s="824">
-        <v>6593671</v>
+      <c r="D114" s="822">
+        <v>5.1</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="825">
+      <c r="A115" s="823">
         <v>109</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="N115" s="826">
-        <v>136726</v>
-      </c>
-      <c r="O115" s="827">
-        <v>74502</v>
-      </c>
-      <c r="P115" s="828">
-        <v>62224</v>
-      </c>
-      <c r="Q115" s="829">
-        <v>668</v>
-      </c>
-      <c r="R115" s="830">
-        <v>1929</v>
-      </c>
-      <c r="S115" s="831">
-        <v>-1261</v>
-      </c>
-      <c r="T115" s="832">
-        <v>13.03</v>
-      </c>
-      <c r="U115" s="833">
-        <v>7.13</v>
-      </c>
-      <c r="V115" s="834">
-        <v>5.9</v>
-      </c>
-      <c r="W115" s="835">
-        <v>53.7</v>
-      </c>
-      <c r="X115" s="836">
-        <v>6387210</v>
+      <c r="N115" s="824">
+        <v>137646</v>
+      </c>
+      <c r="O115" s="825">
+        <v>76738</v>
+      </c>
+      <c r="P115" s="826">
+        <v>60908</v>
+      </c>
+      <c r="Q115" s="827">
+        <v>710</v>
+      </c>
+      <c r="R115" s="828">
+        <v>1805</v>
+      </c>
+      <c r="S115" s="829">
+        <v>-1095</v>
+      </c>
+      <c r="T115" s="830">
+        <v>13.83</v>
+      </c>
+      <c r="U115" s="831">
+        <v>7.12</v>
+      </c>
+      <c r="V115" s="832">
+        <v>6.71</v>
+      </c>
+      <c r="W115" s="833">
+        <v>54.77</v>
+      </c>
+      <c r="X115" s="834">
+        <v>6593671</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="837">
+      <c r="A116" s="835">
         <v>110</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="N116" s="838">
-        <v>135922</v>
-      </c>
-      <c r="O116" s="839">
-        <v>72175</v>
-      </c>
-      <c r="P116" s="840">
-        <v>63747</v>
-      </c>
-      <c r="Q116" s="841">
-        <v>669</v>
-      </c>
-      <c r="R116" s="842">
-        <v>2103</v>
-      </c>
-      <c r="S116" s="843">
-        <v>-1434</v>
-      </c>
-      <c r="T116" s="844">
-        <v>14.57</v>
-      </c>
-      <c r="U116" s="845">
+      <c r="N116" s="836">
+        <v>136726</v>
+      </c>
+      <c r="O116" s="837">
+        <v>74502</v>
+      </c>
+      <c r="P116" s="838">
+        <v>62224</v>
+      </c>
+      <c r="Q116" s="839">
+        <v>668</v>
+      </c>
+      <c r="R116" s="840">
+        <v>1929</v>
+      </c>
+      <c r="S116" s="841">
+        <v>-1261</v>
+      </c>
+      <c r="T116" s="842">
+        <v>13.03</v>
+      </c>
+      <c r="U116" s="843">
         <v>7.13</v>
       </c>
-      <c r="V116" s="846">
-        <v>7.43</v>
-      </c>
-      <c r="W116" s="847">
-        <v>52.57</v>
-      </c>
-      <c r="X116" s="848">
-        <v>6247338</v>
+      <c r="V116" s="844">
+        <v>5.9</v>
+      </c>
+      <c r="W116" s="845">
+        <v>53.7</v>
+      </c>
+      <c r="X116" s="846">
+        <v>6387210</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="849">
+      <c r="A117" s="847">
         <v>111</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N117" s="850">
-        <v>134916</v>
-      </c>
-      <c r="O117" s="851">
-        <v>69927</v>
-      </c>
-      <c r="P117" s="852">
-        <v>64989</v>
-      </c>
-      <c r="Q117" s="853">
-        <v>644</v>
-      </c>
-      <c r="R117" s="854">
-        <v>2100</v>
-      </c>
-      <c r="S117" s="855">
-        <v>-1456</v>
-      </c>
-      <c r="T117" s="856">
-        <v>13.27</v>
-      </c>
-      <c r="U117" s="857">
-        <v>7.14</v>
-      </c>
-      <c r="V117" s="858">
-        <v>6.13</v>
-      </c>
-      <c r="W117" s="859">
-        <v>51.27</v>
-      </c>
-      <c r="X117" s="860">
-        <v>6081565</v>
+      <c r="N117" s="848">
+        <v>135922</v>
+      </c>
+      <c r="O117" s="849">
+        <v>72175</v>
+      </c>
+      <c r="P117" s="850">
+        <v>63747</v>
+      </c>
+      <c r="Q117" s="851">
+        <v>669</v>
+      </c>
+      <c r="R117" s="852">
+        <v>2103</v>
+      </c>
+      <c r="S117" s="853">
+        <v>-1434</v>
+      </c>
+      <c r="T117" s="854">
+        <v>14.57</v>
+      </c>
+      <c r="U117" s="855">
+        <v>7.13</v>
+      </c>
+      <c r="V117" s="856">
+        <v>7.43</v>
+      </c>
+      <c r="W117" s="857">
+        <v>52.57</v>
+      </c>
+      <c r="X117" s="858">
+        <v>6247338</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="861">
+      <c r="A118" s="859">
         <v>112</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N118" s="862">
-        <v>134091</v>
-      </c>
-      <c r="O118" s="863">
-        <v>66978</v>
-      </c>
-      <c r="P118" s="864">
-        <v>67113</v>
-      </c>
-      <c r="Q118" s="865">
-        <v>649</v>
+      <c r="N118" s="860">
+        <v>134916</v>
+      </c>
+      <c r="O118" s="861">
+        <v>69927</v>
+      </c>
+      <c r="P118" s="862">
+        <v>64989</v>
+      </c>
+      <c r="Q118" s="863">
+        <v>644</v>
+      </c>
+      <c r="R118" s="864">
+        <v>2100</v>
+      </c>
+      <c r="S118" s="865">
+        <v>-1456</v>
       </c>
       <c r="T118" s="866">
-        <v>11.9</v>
+        <v>13.27</v>
       </c>
       <c r="U118" s="867">
-        <v>7.11</v>
+        <v>7.14</v>
       </c>
       <c r="V118" s="868">
-        <v>4.79</v>
+        <v>6.13</v>
       </c>
       <c r="W118" s="869">
-        <v>49.95</v>
+        <v>51.27</v>
       </c>
       <c r="X118" s="870">
-        <v>5754245</v>
+        <v>6081565</v>
       </c>
     </row>
     <row r="119">
@@ -5950,31 +5963,31 @@
         <v>178</v>
       </c>
       <c r="N119" s="872">
-        <v>133450</v>
+        <v>134091</v>
       </c>
       <c r="O119" s="873">
-        <v>64512</v>
+        <v>66978</v>
       </c>
       <c r="P119" s="874">
-        <v>68938</v>
+        <v>67113</v>
       </c>
       <c r="Q119" s="875">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="T119" s="876">
-        <v>11.95</v>
+        <v>11.9</v>
       </c>
       <c r="U119" s="877">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="V119" s="878">
-        <v>4.87</v>
+        <v>4.79</v>
       </c>
       <c r="W119" s="879">
-        <v>48.34</v>
+        <v>49.95</v>
       </c>
       <c r="X119" s="880">
-        <v>5311023</v>
+        <v>5754245</v>
       </c>
     </row>
     <row r="120">
@@ -5985,31 +5998,31 @@
         <v>179</v>
       </c>
       <c r="N120" s="882">
-        <v>132802</v>
+        <v>133450</v>
       </c>
       <c r="O120" s="883">
-        <v>62403</v>
+        <v>64512</v>
       </c>
       <c r="P120" s="884">
-        <v>70399</v>
+        <v>68938</v>
       </c>
       <c r="Q120" s="885">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="T120" s="886">
-        <v>12.14</v>
+        <v>11.95</v>
       </c>
       <c r="U120" s="887">
-        <v>7.06</v>
+        <v>7.08</v>
       </c>
       <c r="V120" s="888">
-        <v>5.08</v>
+        <v>4.87</v>
       </c>
       <c r="W120" s="889">
-        <v>46.99</v>
+        <v>48.34</v>
       </c>
       <c r="X120" s="890">
-        <v>5119498</v>
+        <v>5311023</v>
       </c>
     </row>
     <row r="121">
@@ -6020,31 +6033,31 @@
         <v>180</v>
       </c>
       <c r="N121" s="892">
-        <v>132129</v>
+        <v>132802</v>
       </c>
       <c r="O121" s="893">
-        <v>60633</v>
+        <v>62403</v>
       </c>
       <c r="P121" s="894">
-        <v>71496</v>
+        <v>70399</v>
       </c>
       <c r="Q121" s="895">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="T121" s="896">
-        <v>12.1</v>
+        <v>12.14</v>
       </c>
       <c r="U121" s="897">
-        <v>6.93</v>
+        <v>7.06</v>
       </c>
       <c r="V121" s="898">
-        <v>5.17</v>
+        <v>5.08</v>
       </c>
       <c r="W121" s="899">
-        <v>45.89</v>
+        <v>46.99</v>
       </c>
       <c r="X121" s="900">
-        <v>4477907</v>
+        <v>5119498</v>
       </c>
     </row>
     <row r="122">
@@ -6055,31 +6068,31 @@
         <v>181</v>
       </c>
       <c r="N122" s="902">
-        <v>131448</v>
+        <v>132129</v>
       </c>
       <c r="O122" s="903">
-        <v>58288</v>
+        <v>60633</v>
       </c>
       <c r="P122" s="904">
-        <v>73160</v>
+        <v>71496</v>
       </c>
       <c r="Q122" s="905">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="T122" s="906">
-        <v>12.09</v>
+        <v>12.1</v>
       </c>
       <c r="U122" s="907">
-        <v>6.81</v>
+        <v>6.93</v>
       </c>
       <c r="V122" s="908">
-        <v>5.28</v>
+        <v>5.17</v>
       </c>
       <c r="W122" s="909">
-        <v>44.34</v>
+        <v>45.89</v>
       </c>
       <c r="X122" s="910">
-        <v>3774708</v>
+        <v>4477907</v>
       </c>
     </row>
     <row r="123">
@@ -6090,31 +6103,31 @@
         <v>182</v>
       </c>
       <c r="N123" s="912">
-        <v>130756</v>
+        <v>131448</v>
       </c>
       <c r="O123" s="913">
-        <v>56212</v>
+        <v>58288</v>
       </c>
       <c r="P123" s="914">
-        <v>74544</v>
+        <v>73160</v>
       </c>
       <c r="Q123" s="915">
-        <v>768</v>
+        <v>692</v>
       </c>
       <c r="T123" s="916">
-        <v>12.4</v>
+        <v>12.09</v>
       </c>
       <c r="U123" s="917">
-        <v>6.51</v>
+        <v>6.81</v>
       </c>
       <c r="V123" s="918">
-        <v>5.89</v>
+        <v>5.28</v>
       </c>
       <c r="W123" s="919">
-        <v>42.99</v>
+        <v>44.34</v>
       </c>
       <c r="X123" s="920">
-        <v>3067956</v>
+        <v>3774708</v>
       </c>
     </row>
     <row r="124">
@@ -6125,31 +6138,31 @@
         <v>183</v>
       </c>
       <c r="N124" s="922">
-        <v>129988</v>
+        <v>130756</v>
       </c>
       <c r="O124" s="923">
-        <v>54283</v>
+        <v>56212</v>
       </c>
       <c r="P124" s="924">
-        <v>75705</v>
+        <v>74544</v>
       </c>
       <c r="Q124" s="925">
-        <v>761</v>
+        <v>768</v>
       </c>
       <c r="T124" s="926">
-        <v>12.29</v>
+        <v>12.4</v>
       </c>
       <c r="U124" s="927">
-        <v>6.42</v>
+        <v>6.51</v>
       </c>
       <c r="V124" s="928">
-        <v>5.87</v>
+        <v>5.89</v>
       </c>
       <c r="W124" s="929">
-        <v>41.76</v>
+        <v>42.99</v>
       </c>
       <c r="X124" s="930">
-        <v>2391200</v>
+        <v>3067956</v>
       </c>
     </row>
     <row r="125">
@@ -6160,31 +6173,31 @@
         <v>184</v>
       </c>
       <c r="N125" s="932">
-        <v>129227</v>
+        <v>129988</v>
       </c>
       <c r="O125" s="933">
-        <v>52376</v>
+        <v>54283</v>
       </c>
       <c r="P125" s="934">
-        <v>76851</v>
+        <v>75705</v>
       </c>
       <c r="Q125" s="935">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="T125" s="936">
-        <v>12.41</v>
+        <v>12.29</v>
       </c>
       <c r="U125" s="937">
-        <v>6.4</v>
+        <v>6.42</v>
       </c>
       <c r="V125" s="938">
-        <v>6.01</v>
+        <v>5.87</v>
       </c>
       <c r="W125" s="939">
-        <v>40.53</v>
+        <v>41.76</v>
       </c>
       <c r="X125" s="940">
-        <v>1877000</v>
+        <v>2391200</v>
       </c>
     </row>
     <row r="126">
@@ -6195,31 +6208,31 @@
         <v>185</v>
       </c>
       <c r="N126" s="942">
-        <v>128453</v>
+        <v>129227</v>
       </c>
       <c r="O126" s="943">
-        <v>50212</v>
+        <v>52376</v>
       </c>
       <c r="P126" s="944">
-        <v>78241</v>
+        <v>76851</v>
       </c>
       <c r="Q126" s="945">
-        <v>826</v>
+        <v>774</v>
       </c>
       <c r="T126" s="946">
-        <v>12.86</v>
+        <v>12.41</v>
       </c>
       <c r="U126" s="947">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="V126" s="948">
-        <v>6.45</v>
+        <v>6.01</v>
       </c>
       <c r="W126" s="949">
-        <v>39.09</v>
+        <v>40.53</v>
       </c>
       <c r="X126" s="950">
-        <v>1337300</v>
+        <v>1877000</v>
       </c>
     </row>
     <row r="127">
@@ -6230,31 +6243,31 @@
         <v>186</v>
       </c>
       <c r="N127" s="952">
-        <v>127627</v>
+        <v>128453</v>
       </c>
       <c r="O127" s="953">
-        <v>48064</v>
+        <v>50212</v>
       </c>
       <c r="P127" s="954">
-        <v>79563</v>
+        <v>78241</v>
       </c>
       <c r="Q127" s="955">
-        <v>884</v>
+        <v>826</v>
       </c>
       <c r="T127" s="956">
-        <v>13.38</v>
+        <v>12.86</v>
       </c>
       <c r="U127" s="957">
-        <v>6.43</v>
+        <v>6.41</v>
       </c>
       <c r="V127" s="958">
-        <v>6.95</v>
+        <v>6.45</v>
       </c>
       <c r="W127" s="959">
-        <v>37.66</v>
+        <v>39.09</v>
       </c>
       <c r="X127" s="960">
-        <v>1036300</v>
+        <v>1337300</v>
       </c>
     </row>
     <row r="128">
@@ -6265,31 +6278,31 @@
         <v>187</v>
       </c>
       <c r="N128" s="962">
-        <v>126743</v>
+        <v>127627</v>
       </c>
       <c r="O128" s="963">
-        <v>45906</v>
+        <v>48064</v>
       </c>
       <c r="P128" s="964">
-        <v>80837</v>
+        <v>79563</v>
       </c>
       <c r="Q128" s="965">
-        <v>961</v>
+        <v>884</v>
       </c>
       <c r="T128" s="966">
-        <v>14.03</v>
+        <v>13.38</v>
       </c>
       <c r="U128" s="967">
-        <v>6.45</v>
+        <v>6.43</v>
       </c>
       <c r="V128" s="968">
-        <v>7.58</v>
+        <v>6.95</v>
       </c>
       <c r="W128" s="969">
-        <v>36.22</v>
+        <v>37.66</v>
       </c>
       <c r="X128" s="970">
-        <v>949800</v>
+        <v>1036300</v>
       </c>
     </row>
     <row r="129">
@@ -6300,31 +6313,31 @@
         <v>188</v>
       </c>
       <c r="N129" s="972">
-        <v>125786</v>
+        <v>126743</v>
       </c>
       <c r="O129" s="973">
-        <v>43748</v>
+        <v>45906</v>
       </c>
       <c r="P129" s="974">
-        <v>82038</v>
+        <v>80837</v>
       </c>
       <c r="Q129" s="975">
-        <v>1099</v>
+        <v>961</v>
       </c>
       <c r="T129" s="976">
-        <v>14.64</v>
+        <v>14.03</v>
       </c>
       <c r="U129" s="977">
-        <v>6.46</v>
+        <v>6.45</v>
       </c>
       <c r="V129" s="978">
-        <v>8.18</v>
+        <v>7.58</v>
       </c>
       <c r="W129" s="979">
-        <v>34.78</v>
+        <v>36.22</v>
       </c>
       <c r="X129" s="980">
-        <v>847600</v>
+        <v>949800</v>
       </c>
     </row>
     <row r="130">
@@ -6335,31 +6348,31 @@
         <v>189</v>
       </c>
       <c r="N130" s="982">
-        <v>124761</v>
+        <v>125786</v>
       </c>
       <c r="O130" s="983">
-        <v>41608</v>
+        <v>43748</v>
       </c>
       <c r="P130" s="984">
-        <v>83153</v>
+        <v>82038</v>
       </c>
       <c r="Q130" s="985">
-        <v>1184</v>
+        <v>1099</v>
       </c>
       <c r="T130" s="986">
-        <v>15.64</v>
+        <v>14.64</v>
       </c>
       <c r="U130" s="987">
-        <v>6.5</v>
+        <v>6.46</v>
       </c>
       <c r="V130" s="988">
-        <v>9.14</v>
+        <v>8.18</v>
       </c>
       <c r="W130" s="989">
-        <v>33.35</v>
+        <v>34.78</v>
       </c>
       <c r="X130" s="990">
-        <v>830000</v>
+        <v>847600</v>
       </c>
     </row>
     <row r="131">
@@ -6370,31 +6383,31 @@
         <v>190</v>
       </c>
       <c r="N131" s="992">
-        <v>123626</v>
+        <v>124761</v>
       </c>
       <c r="O131" s="993">
-        <v>39449</v>
+        <v>41608</v>
       </c>
       <c r="P131" s="994">
-        <v>84177</v>
+        <v>83153</v>
       </c>
       <c r="Q131" s="995">
-        <v>1237</v>
+        <v>1184</v>
       </c>
       <c r="T131" s="996">
-        <v>16.57</v>
+        <v>15.64</v>
       </c>
       <c r="U131" s="997">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="V131" s="998">
-        <v>10.06</v>
+        <v>9.14</v>
       </c>
       <c r="W131" s="999">
-        <v>31.91</v>
+        <v>33.35</v>
       </c>
       <c r="X131" s="1000">
-        <v>829000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="132">
@@ -6405,31 +6418,31 @@
         <v>191</v>
       </c>
       <c r="N132" s="1002">
-        <v>122389</v>
+        <v>123626</v>
       </c>
       <c r="O132" s="1003">
-        <v>37304</v>
+        <v>39449</v>
       </c>
       <c r="P132" s="1004">
-        <v>85085</v>
+        <v>84177</v>
       </c>
       <c r="Q132" s="1005">
-        <v>1275</v>
+        <v>1237</v>
       </c>
       <c r="T132" s="1006">
-        <v>16.98</v>
+        <v>16.57</v>
       </c>
       <c r="U132" s="1007">
-        <v>6.56</v>
+        <v>6.51</v>
       </c>
       <c r="V132" s="1008">
-        <v>10.42</v>
+        <v>10.06</v>
       </c>
       <c r="W132" s="1009">
-        <v>30.48</v>
+        <v>31.91</v>
       </c>
       <c r="X132" s="1010">
-        <v>839000</v>
+        <v>829000</v>
       </c>
     </row>
     <row r="133">
@@ -6440,31 +6453,31 @@
         <v>192</v>
       </c>
       <c r="N133" s="1012">
-        <v>121121</v>
+        <v>122389</v>
       </c>
       <c r="O133" s="1013">
-        <v>35174</v>
+        <v>37304</v>
       </c>
       <c r="P133" s="1014">
-        <v>85947</v>
+        <v>85085</v>
       </c>
       <c r="Q133" s="1015">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="T133" s="1016">
-        <v>17.12</v>
+        <v>16.98</v>
       </c>
       <c r="U133" s="1017">
-        <v>6.57</v>
+        <v>6.56</v>
       </c>
       <c r="V133" s="1018">
-        <v>10.55</v>
+        <v>10.42</v>
       </c>
       <c r="W133" s="1019">
-        <v>29.04</v>
+        <v>30.48</v>
       </c>
       <c r="X133" s="1020">
-        <v>805000</v>
+        <v>839000</v>
       </c>
     </row>
     <row r="134">
@@ -6475,31 +6488,31 @@
         <v>193</v>
       </c>
       <c r="N134" s="1022">
-        <v>119850</v>
+        <v>121121</v>
       </c>
       <c r="O134" s="1023">
-        <v>34169</v>
+        <v>35174</v>
       </c>
       <c r="P134" s="1024">
-        <v>85681</v>
+        <v>85947</v>
       </c>
       <c r="Q134" s="1025">
-        <v>1344</v>
+        <v>1277</v>
       </c>
       <c r="T134" s="1026">
-        <v>17.7</v>
+        <v>17.12</v>
       </c>
       <c r="U134" s="1027">
-        <v>6.49</v>
+        <v>6.57</v>
       </c>
       <c r="V134" s="1028">
-        <v>11.21</v>
+        <v>10.55</v>
       </c>
       <c r="W134" s="1029">
-        <v>28.51</v>
+        <v>29.04</v>
       </c>
       <c r="X134" s="1030">
-        <v>637000</v>
+        <v>805000</v>
       </c>
     </row>
     <row r="135">
@@ -6510,31 +6523,31 @@
         <v>194</v>
       </c>
       <c r="N135" s="1032">
-        <v>118517</v>
+        <v>119850</v>
       </c>
       <c r="O135" s="1033">
-        <v>33173</v>
+        <v>34169</v>
       </c>
       <c r="P135" s="1034">
-        <v>85344</v>
+        <v>85681</v>
       </c>
       <c r="Q135" s="1035">
-        <v>1357</v>
+        <v>1344</v>
       </c>
       <c r="T135" s="1036">
-        <v>18.09</v>
+        <v>17.7</v>
       </c>
       <c r="U135" s="1037">
-        <v>6.64</v>
+        <v>6.49</v>
       </c>
       <c r="V135" s="1038">
-        <v>11.45</v>
+        <v>11.21</v>
       </c>
       <c r="W135" s="1039">
-        <v>27.99</v>
+        <v>28.51</v>
       </c>
       <c r="X135" s="1040">
-        <v>571000</v>
+        <v>637000</v>
       </c>
     </row>
     <row r="136">
@@ -6545,31 +6558,31 @@
         <v>195</v>
       </c>
       <c r="N136" s="1042">
-        <v>117171</v>
+        <v>118517</v>
       </c>
       <c r="O136" s="1043">
-        <v>32175</v>
+        <v>33173</v>
       </c>
       <c r="P136" s="1044">
-        <v>84996</v>
+        <v>85344</v>
       </c>
       <c r="Q136" s="1045">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="T136" s="1046">
-        <v>18.24</v>
+        <v>18.09</v>
       </c>
       <c r="U136" s="1047">
         <v>6.64</v>
       </c>
       <c r="V136" s="1048">
-        <v>11.6</v>
+        <v>11.45</v>
       </c>
       <c r="W136" s="1049">
-        <v>27.46</v>
+        <v>27.99</v>
       </c>
       <c r="X136" s="1050">
-        <v>604000</v>
+        <v>571000</v>
       </c>
     </row>
     <row r="137">
@@ -6580,31 +6593,31 @@
         <v>196</v>
       </c>
       <c r="N137" s="1052">
-        <v>115823</v>
+        <v>117171</v>
       </c>
       <c r="O137" s="1053">
-        <v>31203</v>
+        <v>32175</v>
       </c>
       <c r="P137" s="1054">
-        <v>84620</v>
+        <v>84996</v>
       </c>
       <c r="Q137" s="1055">
-        <v>1503</v>
+        <v>1359</v>
       </c>
       <c r="T137" s="1056">
-        <v>19.68</v>
+        <v>18.24</v>
       </c>
       <c r="U137" s="1057">
-        <v>6.7</v>
+        <v>6.64</v>
       </c>
       <c r="V137" s="1058">
-        <v>12.98</v>
+        <v>11.6</v>
       </c>
       <c r="W137" s="1059">
-        <v>26.94</v>
+        <v>27.46</v>
       </c>
       <c r="X137" s="1060">
-        <v>614000</v>
+        <v>604000</v>
       </c>
     </row>
     <row r="138">
@@ -6615,28 +6628,28 @@
         <v>197</v>
       </c>
       <c r="N138" s="1062">
-        <v>114333</v>
+        <v>115823</v>
       </c>
       <c r="O138" s="1063">
-        <v>30195</v>
+        <v>31203</v>
       </c>
       <c r="P138" s="1064">
-        <v>84138</v>
+        <v>84620</v>
       </c>
       <c r="Q138" s="1065">
-        <v>1645</v>
+        <v>1503</v>
       </c>
       <c r="T138" s="1066">
-        <v>21.06</v>
+        <v>19.68</v>
       </c>
       <c r="U138" s="1067">
-        <v>6.67</v>
+        <v>6.7</v>
       </c>
       <c r="V138" s="1068">
-        <v>14.39</v>
+        <v>12.98</v>
       </c>
       <c r="W138" s="1069">
-        <v>26.41</v>
+        <v>26.94</v>
       </c>
       <c r="X138" s="1070">
         <v>614000</v>
@@ -6650,31 +6663,31 @@
         <v>198</v>
       </c>
       <c r="N139" s="1072">
-        <v>112704</v>
+        <v>114333</v>
       </c>
       <c r="O139" s="1073">
-        <v>29540</v>
+        <v>30195</v>
       </c>
       <c r="P139" s="1074">
-        <v>83164</v>
+        <v>84138</v>
       </c>
       <c r="Q139" s="1075">
-        <v>1695</v>
+        <v>1645</v>
       </c>
       <c r="T139" s="1076">
-        <v>21.58</v>
+        <v>21.06</v>
       </c>
       <c r="U139" s="1077">
-        <v>6.54</v>
+        <v>6.67</v>
       </c>
       <c r="V139" s="1078">
-        <v>15.04</v>
+        <v>14.39</v>
       </c>
       <c r="W139" s="1079">
-        <v>26.21</v>
+        <v>26.41</v>
       </c>
       <c r="X139" s="1080">
-        <v>576000</v>
+        <v>614000</v>
       </c>
     </row>
     <row r="140">
@@ -6685,31 +6698,31 @@
         <v>199</v>
       </c>
       <c r="N140" s="1082">
-        <v>111026</v>
+        <v>112704</v>
       </c>
       <c r="O140" s="1083">
-        <v>28661</v>
+        <v>29540</v>
       </c>
       <c r="P140" s="1084">
-        <v>82365</v>
+        <v>83164</v>
       </c>
       <c r="Q140" s="1085">
-        <v>1576</v>
+        <v>1695</v>
       </c>
       <c r="T140" s="1086">
-        <v>22.37</v>
+        <v>21.58</v>
       </c>
       <c r="U140" s="1087">
-        <v>6.64</v>
+        <v>6.54</v>
       </c>
       <c r="V140" s="1088">
-        <v>15.73</v>
+        <v>15.04</v>
       </c>
       <c r="W140" s="1089">
-        <v>25.81</v>
+        <v>26.21</v>
       </c>
       <c r="X140" s="1090">
-        <v>553000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="141">
@@ -6720,31 +6733,31 @@
         <v>200</v>
       </c>
       <c r="N141" s="1092">
-        <v>109300</v>
+        <v>111026</v>
       </c>
       <c r="O141" s="1093">
-        <v>27674</v>
+        <v>28661</v>
       </c>
       <c r="P141" s="1094">
-        <v>81626</v>
+        <v>82365</v>
       </c>
       <c r="Q141" s="1095">
-        <v>1816</v>
+        <v>1576</v>
       </c>
       <c r="T141" s="1096">
-        <v>23.33</v>
+        <v>22.37</v>
       </c>
       <c r="U141" s="1097">
-        <v>6.72</v>
+        <v>6.64</v>
       </c>
       <c r="V141" s="1098">
-        <v>16.61</v>
+        <v>15.73</v>
       </c>
       <c r="W141" s="1099">
-        <v>25.32</v>
+        <v>25.81</v>
       </c>
       <c r="X141" s="1100">
-        <v>532000</v>
+        <v>553000</v>
       </c>
     </row>
     <row r="142">
@@ -6755,31 +6768,31 @@
         <v>201</v>
       </c>
       <c r="N142" s="1102">
-        <v>107507</v>
+        <v>109300</v>
       </c>
       <c r="O142" s="1103">
-        <v>26366</v>
+        <v>27674</v>
       </c>
       <c r="P142" s="1104">
-        <v>81141</v>
+        <v>81626</v>
       </c>
       <c r="Q142" s="1105">
-        <v>1674</v>
+        <v>1816</v>
       </c>
       <c r="T142" s="1106">
-        <v>22.43</v>
+        <v>23.33</v>
       </c>
       <c r="U142" s="1107">
-        <v>6.86</v>
+        <v>6.72</v>
       </c>
       <c r="V142" s="1108">
-        <v>15.57</v>
+        <v>16.61</v>
       </c>
       <c r="W142" s="1109">
-        <v>24.52</v>
+        <v>25.32</v>
       </c>
       <c r="X142" s="1110">
-        <v>393000</v>
+        <v>532000</v>
       </c>
     </row>
     <row r="143">
@@ -6790,31 +6803,31 @@
         <v>202</v>
       </c>
       <c r="N143" s="1112">
-        <v>105851</v>
+        <v>107507</v>
       </c>
       <c r="O143" s="1113">
-        <v>25094</v>
+        <v>26366</v>
       </c>
       <c r="P143" s="1114">
-        <v>80757</v>
+        <v>81141</v>
       </c>
       <c r="Q143" s="1115">
-        <v>1509</v>
+        <v>1674</v>
       </c>
       <c r="T143" s="1116">
-        <v>21.04</v>
+        <v>22.43</v>
       </c>
       <c r="U143" s="1117">
-        <v>6.78</v>
+        <v>6.86</v>
       </c>
       <c r="V143" s="1118">
-        <v>14.26</v>
+        <v>15.57</v>
       </c>
       <c r="W143" s="1119">
-        <v>23.71</v>
+        <v>24.52</v>
       </c>
       <c r="X143" s="1120">
-        <v>316000</v>
+        <v>393000</v>
       </c>
     </row>
     <row r="144">
@@ -6825,31 +6838,31 @@
         <v>203</v>
       </c>
       <c r="N144" s="1122">
-        <v>104357</v>
+        <v>105851</v>
       </c>
       <c r="O144" s="1123">
-        <v>24017</v>
+        <v>25094</v>
       </c>
       <c r="P144" s="1124">
-        <v>80340</v>
+        <v>80757</v>
       </c>
       <c r="Q144" s="1125">
-        <v>1365</v>
+        <v>1509</v>
       </c>
       <c r="T144" s="1126">
-        <v>19.9</v>
+        <v>21.04</v>
       </c>
       <c r="U144" s="1127">
-        <v>6.82</v>
+        <v>6.78</v>
       </c>
       <c r="V144" s="1128">
-        <v>13.08</v>
+        <v>14.26</v>
       </c>
       <c r="W144" s="1129">
-        <v>23.01</v>
+        <v>23.71</v>
       </c>
       <c r="X144" s="1130">
-        <v>287000</v>
+        <v>316000</v>
       </c>
     </row>
     <row r="145">
@@ -6860,31 +6873,31 @@
         <v>204</v>
       </c>
       <c r="N145" s="1132">
-        <v>103008</v>
+        <v>104357</v>
       </c>
       <c r="O145" s="1133">
-        <v>22274</v>
+        <v>24017</v>
       </c>
       <c r="P145" s="1134">
-        <v>80734</v>
+        <v>80340</v>
       </c>
       <c r="Q145" s="1135">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="T145" s="1136">
-        <v>20.19</v>
+        <v>19.9</v>
       </c>
       <c r="U145" s="1137">
-        <v>6.9</v>
+        <v>6.82</v>
       </c>
       <c r="V145" s="1138">
-        <v>13.29</v>
+        <v>13.08</v>
       </c>
       <c r="W145" s="1139">
-        <v>21.62</v>
+        <v>23.01</v>
       </c>
       <c r="X145" s="1140">
-        <v>335000</v>
+        <v>287000</v>
       </c>
     </row>
     <row r="146">
@@ -6895,31 +6908,31 @@
         <v>205</v>
       </c>
       <c r="N146" s="1142">
-        <v>101654</v>
+        <v>103008</v>
       </c>
       <c r="O146" s="1143">
-        <v>21480</v>
+        <v>22274</v>
       </c>
       <c r="P146" s="1144">
-        <v>80174</v>
+        <v>80734</v>
       </c>
       <c r="Q146" s="1145">
-        <v>1594</v>
+        <v>1369</v>
       </c>
       <c r="T146" s="1146">
-        <v>22.28</v>
+        <v>20.19</v>
       </c>
       <c r="U146" s="1147">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="V146" s="1148">
-        <v>15.68</v>
+        <v>13.29</v>
       </c>
       <c r="W146" s="1149">
-        <v>21.13</v>
+        <v>21.62</v>
       </c>
       <c r="X146" s="1150">
-        <v>457000</v>
+        <v>335000</v>
       </c>
     </row>
     <row r="147">
@@ -6930,31 +6943,31 @@
         <v>206</v>
       </c>
       <c r="N147" s="1152">
-        <v>100072</v>
+        <v>101654</v>
       </c>
       <c r="O147" s="1153">
-        <v>20171</v>
+        <v>21480</v>
       </c>
       <c r="P147" s="1154">
-        <v>79901</v>
+        <v>80174</v>
       </c>
       <c r="Q147" s="1155">
-        <v>1456</v>
+        <v>1594</v>
       </c>
       <c r="T147" s="1156">
-        <v>20.91</v>
+        <v>22.28</v>
       </c>
       <c r="U147" s="1157">
-        <v>6.36</v>
+        <v>6.6</v>
       </c>
       <c r="V147" s="1158">
-        <v>14.55</v>
+        <v>15.68</v>
       </c>
       <c r="W147" s="1159">
-        <v>20.16</v>
+        <v>21.13</v>
       </c>
       <c r="X147" s="1160">
-        <v>140000</v>
+        <v>457000</v>
       </c>
     </row>
     <row r="148">
@@ -6965,31 +6978,31 @@
         <v>207</v>
       </c>
       <c r="N148" s="1162">
-        <v>98705</v>
+        <v>100072</v>
       </c>
       <c r="O148" s="1163">
-        <v>19140</v>
+        <v>20171</v>
       </c>
       <c r="P148" s="1164">
-        <v>79565</v>
+        <v>79901</v>
       </c>
       <c r="Q148" s="1165">
-        <v>1171</v>
+        <v>1456</v>
       </c>
       <c r="T148" s="1166">
-        <v>18.21</v>
+        <v>20.91</v>
       </c>
       <c r="U148" s="1167">
-        <v>6.34</v>
+        <v>6.36</v>
       </c>
       <c r="V148" s="1168">
-        <v>11.87</v>
+        <v>14.55</v>
       </c>
       <c r="W148" s="1169">
-        <v>19.39</v>
+        <v>20.16</v>
       </c>
       <c r="X148" s="1170">
-        <v>147000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="149">
@@ -7000,31 +7013,31 @@
         <v>208</v>
       </c>
       <c r="N149" s="1172">
-        <v>97542</v>
+        <v>98705</v>
       </c>
       <c r="O149" s="1173">
-        <v>18495</v>
+        <v>19140</v>
       </c>
       <c r="P149" s="1174">
-        <v>79047</v>
+        <v>79565</v>
       </c>
       <c r="Q149" s="1175">
-        <v>1132</v>
+        <v>1171</v>
       </c>
       <c r="T149" s="1176">
-        <v>17.82</v>
+        <v>18.21</v>
       </c>
       <c r="U149" s="1177">
-        <v>6.21</v>
+        <v>6.34</v>
       </c>
       <c r="V149" s="1178">
-        <v>11.61</v>
+        <v>11.87</v>
       </c>
       <c r="W149" s="1179">
-        <v>18.96</v>
+        <v>19.39</v>
       </c>
       <c r="X149" s="1180">
-        <v>85000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="150">
@@ -7035,31 +7048,31 @@
         <v>209</v>
       </c>
       <c r="N150" s="1182">
-        <v>96259</v>
+        <v>97542</v>
       </c>
       <c r="O150" s="1183">
-        <v>17245</v>
+        <v>18495</v>
       </c>
       <c r="P150" s="1184">
-        <v>79014</v>
+        <v>79047</v>
       </c>
       <c r="Q150" s="1185">
-        <v>1155</v>
+        <v>1132</v>
       </c>
       <c r="T150" s="1186">
-        <v>18.25</v>
+        <v>17.82</v>
       </c>
       <c r="U150" s="1187">
-        <v>6.25</v>
+        <v>6.21</v>
       </c>
       <c r="V150" s="1188">
-        <v>12</v>
+        <v>11.61</v>
       </c>
       <c r="W150" s="1189">
-        <v>17.95</v>
+        <v>18.96</v>
       </c>
       <c r="X150" s="1190">
-        <v>165000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="151">
@@ -7070,31 +7083,31 @@
         <v>210</v>
       </c>
       <c r="N151" s="1192">
-        <v>94974</v>
+        <v>96259</v>
       </c>
       <c r="O151" s="1193">
-        <v>16669</v>
+        <v>17245</v>
       </c>
       <c r="P151" s="1194">
-        <v>78305</v>
+        <v>79014</v>
       </c>
       <c r="Q151" s="1195">
-        <v>1151</v>
+        <v>1155</v>
       </c>
       <c r="T151" s="1196">
-        <v>19.03</v>
+        <v>18.25</v>
       </c>
       <c r="U151" s="1197">
-        <v>6.91</v>
+        <v>6.25</v>
       </c>
       <c r="V151" s="1198">
-        <v>12.12</v>
+        <v>12</v>
       </c>
       <c r="W151" s="1199">
-        <v>17.55</v>
+        <v>17.95</v>
       </c>
       <c r="X151" s="1200">
-        <v>194000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="152">
@@ -7105,31 +7118,31 @@
         <v>211</v>
       </c>
       <c r="N152" s="1202">
-        <v>93717</v>
+        <v>94974</v>
       </c>
       <c r="O152" s="1203">
-        <v>16341</v>
+        <v>16669</v>
       </c>
       <c r="P152" s="1204">
-        <v>77376</v>
+        <v>78305</v>
       </c>
       <c r="Q152" s="1205">
-        <v>1192</v>
+        <v>1151</v>
       </c>
       <c r="T152" s="1206">
-        <v>20.01</v>
+        <v>19.03</v>
       </c>
       <c r="U152" s="1207">
-        <v>7.29</v>
+        <v>6.91</v>
       </c>
       <c r="V152" s="1208">
-        <v>12.72</v>
+        <v>12.12</v>
       </c>
       <c r="W152" s="1209">
-        <v>17.44</v>
+        <v>17.55</v>
       </c>
       <c r="X152" s="1210">
-        <v>149000</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="153">
@@ -7140,31 +7153,31 @@
         <v>212</v>
       </c>
       <c r="N153" s="1212">
-        <v>92420</v>
+        <v>93717</v>
       </c>
       <c r="O153" s="1213">
-        <v>16030</v>
+        <v>16341</v>
       </c>
       <c r="P153" s="1214">
-        <v>76390</v>
+        <v>77376</v>
       </c>
       <c r="Q153" s="1215">
-        <v>1458</v>
+        <v>1192</v>
       </c>
       <c r="T153" s="1216">
-        <v>23.13</v>
+        <v>20.01</v>
       </c>
       <c r="U153" s="1217">
-        <v>7.36</v>
+        <v>7.29</v>
       </c>
       <c r="V153" s="1218">
-        <v>15.77</v>
+        <v>12.72</v>
       </c>
       <c r="W153" s="1219">
-        <v>17.34</v>
+        <v>17.44</v>
       </c>
       <c r="X153" s="1220">
-        <v>119000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="154">
@@ -7175,31 +7188,31 @@
         <v>213</v>
       </c>
       <c r="N154" s="1222">
-        <v>90859</v>
+        <v>92420</v>
       </c>
       <c r="O154" s="1223">
-        <v>15595</v>
+        <v>16030</v>
       </c>
       <c r="P154" s="1224">
-        <v>75264</v>
+        <v>76390</v>
       </c>
       <c r="Q154" s="1225">
-        <v>1596</v>
+        <v>1458</v>
       </c>
       <c r="T154" s="1226">
-        <v>24.95</v>
+        <v>23.13</v>
       </c>
       <c r="U154" s="1227">
-        <v>7.38</v>
+        <v>7.36</v>
       </c>
       <c r="V154" s="1228">
-        <v>17.57</v>
+        <v>15.77</v>
       </c>
       <c r="W154" s="1229">
-        <v>17.16</v>
+        <v>17.34</v>
       </c>
       <c r="X154" s="1230">
-        <v>43000</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="155">
@@ -7210,31 +7223,31 @@
         <v>214</v>
       </c>
       <c r="N155" s="1232">
-        <v>89211</v>
+        <v>90859</v>
       </c>
       <c r="O155" s="1233">
-        <v>15345</v>
+        <v>15595</v>
       </c>
       <c r="P155" s="1234">
-        <v>73866</v>
+        <v>75264</v>
       </c>
       <c r="Q155" s="1235">
-        <v>1872</v>
+        <v>1596</v>
       </c>
       <c r="T155" s="1236">
-        <v>28.07</v>
+        <v>24.95</v>
       </c>
       <c r="U155" s="1237">
-        <v>7.08</v>
+        <v>7.38</v>
       </c>
       <c r="V155" s="1238">
-        <v>20.99</v>
+        <v>17.57</v>
       </c>
       <c r="W155" s="1239">
-        <v>17.2</v>
+        <v>17.16</v>
       </c>
       <c r="X155" s="1240">
-        <v>30000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="156">
@@ -7245,31 +7258,31 @@
         <v>215</v>
       </c>
       <c r="N156" s="1242">
-        <v>87177</v>
+        <v>89211</v>
       </c>
       <c r="O156" s="1243">
-        <v>14935</v>
+        <v>15345</v>
       </c>
       <c r="P156" s="1244">
-        <v>72242</v>
+        <v>73866</v>
       </c>
       <c r="Q156" s="1245">
-        <v>1941</v>
+        <v>1872</v>
       </c>
       <c r="T156" s="1246">
-        <v>29.92</v>
+        <v>28.07</v>
       </c>
       <c r="U156" s="1247">
-        <v>7.65</v>
+        <v>7.08</v>
       </c>
       <c r="V156" s="1248">
-        <v>22.27</v>
+        <v>20.99</v>
       </c>
       <c r="W156" s="1249">
-        <v>17.13</v>
+        <v>17.2</v>
       </c>
       <c r="X156" s="1250">
-        <v>17000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="157">
@@ -7280,31 +7293,31 @@
         <v>216</v>
       </c>
       <c r="N157" s="1252">
-        <v>85229</v>
+        <v>87177</v>
       </c>
       <c r="O157" s="1253">
-        <v>14711</v>
+        <v>14935</v>
       </c>
       <c r="P157" s="1254">
-        <v>70518</v>
+        <v>72242</v>
       </c>
       <c r="Q157" s="1255">
-        <v>1994</v>
+        <v>1941</v>
       </c>
       <c r="T157" s="1256">
-        <v>30.74</v>
+        <v>29.92</v>
       </c>
       <c r="U157" s="1257">
-        <v>7.34</v>
+        <v>7.65</v>
       </c>
       <c r="V157" s="1258">
-        <v>23.4</v>
+        <v>22.27</v>
       </c>
       <c r="W157" s="1259">
-        <v>17.26</v>
+        <v>17.13</v>
       </c>
       <c r="X157" s="1260">
-        <v>6000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="158">
@@ -7315,31 +7328,31 @@
         <v>217</v>
       </c>
       <c r="N158" s="1262">
-        <v>82992</v>
+        <v>85229</v>
       </c>
       <c r="O158" s="1263">
-        <v>14424</v>
+        <v>14711</v>
       </c>
       <c r="P158" s="1264">
-        <v>68568</v>
+        <v>70518</v>
       </c>
       <c r="Q158" s="1265">
-        <v>2154</v>
+        <v>1994</v>
       </c>
       <c r="T158" s="1266">
-        <v>33.59</v>
+        <v>30.74</v>
       </c>
       <c r="U158" s="1267">
-        <v>7.64</v>
+        <v>7.34</v>
       </c>
       <c r="V158" s="1268">
-        <v>25.95</v>
+        <v>23.4</v>
       </c>
       <c r="W158" s="1269">
-        <v>17.38</v>
+        <v>17.26</v>
       </c>
       <c r="X158" s="1270">
-        <v>103000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="159">
@@ -7350,661 +7363,696 @@
         <v>218</v>
       </c>
       <c r="N159" s="1272">
-        <v>80671</v>
+        <v>82992</v>
       </c>
       <c r="O159" s="1273">
-        <v>14117</v>
+        <v>14424</v>
       </c>
       <c r="P159" s="1274">
-        <v>66554</v>
-      </c>
-      <c r="T159" s="1275">
-        <v>34.25</v>
-      </c>
-      <c r="U159" s="1276">
-        <v>8.06</v>
-      </c>
-      <c r="V159" s="1277">
-        <v>26.19</v>
-      </c>
-      <c r="W159" s="1278">
-        <v>17.5</v>
-      </c>
-      <c r="X159" s="1279">
-        <v>150000</v>
+        <v>68568</v>
+      </c>
+      <c r="Q159" s="1275">
+        <v>2154</v>
+      </c>
+      <c r="T159" s="1276">
+        <v>33.59</v>
+      </c>
+      <c r="U159" s="1277">
+        <v>7.64</v>
+      </c>
+      <c r="V159" s="1278">
+        <v>25.95</v>
+      </c>
+      <c r="W159" s="1279">
+        <v>17.38</v>
+      </c>
+      <c r="X159" s="1280">
+        <v>103000</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1280">
+      <c r="A160" s="1281">
         <v>154</v>
       </c>
       <c r="B160" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="N160" s="1281">
-        <v>78534</v>
-      </c>
-      <c r="O160" s="1282">
-        <v>13838</v>
-      </c>
-      <c r="P160" s="1283">
-        <v>64696</v>
-      </c>
-      <c r="T160" s="1284">
-        <v>35.75</v>
-      </c>
-      <c r="U160" s="1285">
-        <v>8.25</v>
-      </c>
-      <c r="V160" s="1286">
-        <v>27.5</v>
-      </c>
-      <c r="W160" s="1287">
-        <v>17.62</v>
-      </c>
-      <c r="X160" s="1288">
+      <c r="N160" s="1282">
+        <v>80671</v>
+      </c>
+      <c r="O160" s="1283">
+        <v>14117</v>
+      </c>
+      <c r="P160" s="1284">
+        <v>66554</v>
+      </c>
+      <c r="T160" s="1285">
+        <v>34.25</v>
+      </c>
+      <c r="U160" s="1286">
+        <v>8.06</v>
+      </c>
+      <c r="V160" s="1287">
+        <v>26.19</v>
+      </c>
+      <c r="W160" s="1288">
+        <v>17.5</v>
+      </c>
+      <c r="X160" s="1289">
         <v>150000</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1289">
+      <c r="A161" s="1290">
         <v>155</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="N161" s="1290">
-        <v>76368</v>
-      </c>
-      <c r="O161" s="1291">
-        <v>13548</v>
-      </c>
-      <c r="P161" s="1292">
-        <v>62820</v>
-      </c>
-      <c r="T161" s="1293">
-        <v>34.12</v>
-      </c>
-      <c r="U161" s="1294">
-        <v>8.47</v>
-      </c>
-      <c r="V161" s="1295">
-        <v>25.65</v>
-      </c>
-      <c r="W161" s="1296">
-        <v>17.74</v>
-      </c>
-      <c r="X161" s="1297">
-        <v>125000</v>
+      <c r="N161" s="1291">
+        <v>78534</v>
+      </c>
+      <c r="O161" s="1292">
+        <v>13838</v>
+      </c>
+      <c r="P161" s="1293">
+        <v>64696</v>
+      </c>
+      <c r="T161" s="1294">
+        <v>35.75</v>
+      </c>
+      <c r="U161" s="1295">
+        <v>8.25</v>
+      </c>
+      <c r="V161" s="1296">
+        <v>27.5</v>
+      </c>
+      <c r="W161" s="1297">
+        <v>17.62</v>
+      </c>
+      <c r="X161" s="1298">
+        <v>150000</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1298">
+      <c r="A162" s="1299">
         <v>156</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="N162" s="1299">
-        <v>74542</v>
-      </c>
-      <c r="O162" s="1300">
-        <v>13313</v>
-      </c>
-      <c r="P162" s="1301">
-        <v>61229</v>
-      </c>
-      <c r="T162" s="1302">
-        <v>35.21</v>
-      </c>
-      <c r="U162" s="1303">
-        <v>8.87</v>
-      </c>
-      <c r="V162" s="1304">
-        <v>26.34</v>
-      </c>
-      <c r="W162" s="1305">
-        <v>17.86</v>
-      </c>
-      <c r="X162" s="1306">
-        <v>141000</v>
+      <c r="N162" s="1300">
+        <v>76368</v>
+      </c>
+      <c r="O162" s="1301">
+        <v>13548</v>
+      </c>
+      <c r="P162" s="1302">
+        <v>62820</v>
+      </c>
+      <c r="T162" s="1303">
+        <v>34.12</v>
+      </c>
+      <c r="U162" s="1304">
+        <v>8.47</v>
+      </c>
+      <c r="V162" s="1305">
+        <v>25.65</v>
+      </c>
+      <c r="W162" s="1306">
+        <v>17.74</v>
+      </c>
+      <c r="X162" s="1307">
+        <v>125000</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1307">
+      <c r="A163" s="1308">
         <v>157</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="N163" s="1308">
-        <v>72538</v>
-      </c>
-      <c r="O163" s="1309">
-        <v>13045</v>
-      </c>
-      <c r="P163" s="1310">
-        <v>59493</v>
-      </c>
-      <c r="T163" s="1311">
-        <v>38</v>
-      </c>
-      <c r="U163" s="1312">
-        <v>9.5</v>
-      </c>
-      <c r="V163" s="1313">
-        <v>28.5</v>
-      </c>
-      <c r="W163" s="1314">
-        <v>17.98</v>
-      </c>
-      <c r="X163" s="1315">
-        <v>186000</v>
+      <c r="N163" s="1309">
+        <v>74542</v>
+      </c>
+      <c r="O163" s="1310">
+        <v>13313</v>
+      </c>
+      <c r="P163" s="1311">
+        <v>61229</v>
+      </c>
+      <c r="T163" s="1312">
+        <v>35.21</v>
+      </c>
+      <c r="U163" s="1313">
+        <v>8.87</v>
+      </c>
+      <c r="V163" s="1314">
+        <v>26.34</v>
+      </c>
+      <c r="W163" s="1315">
+        <v>17.86</v>
+      </c>
+      <c r="X163" s="1316">
+        <v>141000</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1316">
+      <c r="A164" s="1317">
         <v>158</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="N164" s="1317">
-        <v>70499</v>
-      </c>
-      <c r="O164" s="1318">
-        <v>12950</v>
-      </c>
-      <c r="P164" s="1319">
-        <v>57549</v>
-      </c>
-      <c r="T164" s="1320">
-        <v>39.34</v>
-      </c>
-      <c r="U164" s="1321">
-        <v>11.56</v>
-      </c>
-      <c r="V164" s="1322">
-        <v>27.78</v>
-      </c>
-      <c r="W164" s="1323">
-        <v>18.37</v>
-      </c>
-      <c r="X164" s="1324">
-        <v>204000</v>
+      <c r="N164" s="1318">
+        <v>72538</v>
+      </c>
+      <c r="O164" s="1319">
+        <v>13045</v>
+      </c>
+      <c r="P164" s="1320">
+        <v>59493</v>
+      </c>
+      <c r="T164" s="1321">
+        <v>38</v>
+      </c>
+      <c r="U164" s="1322">
+        <v>9.5</v>
+      </c>
+      <c r="V164" s="1323">
+        <v>28.5</v>
+      </c>
+      <c r="W164" s="1324">
+        <v>17.98</v>
+      </c>
+      <c r="X164" s="1325">
+        <v>186000</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1325">
+      <c r="A165" s="1326">
         <v>159</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="N165" s="1326">
-        <v>69172</v>
-      </c>
-      <c r="O165" s="1327">
-        <v>11646</v>
-      </c>
-      <c r="P165" s="1328">
-        <v>57526</v>
-      </c>
-      <c r="T165" s="1329">
-        <v>43.6</v>
-      </c>
-      <c r="U165" s="1330">
-        <v>10.1</v>
-      </c>
-      <c r="V165" s="1331">
-        <v>33.5</v>
-      </c>
-      <c r="W165" s="1332">
-        <v>16.84</v>
-      </c>
-      <c r="X165" s="1333">
-        <v>199000</v>
+      <c r="N165" s="1327">
+        <v>70499</v>
+      </c>
+      <c r="O165" s="1328">
+        <v>12950</v>
+      </c>
+      <c r="P165" s="1329">
+        <v>57549</v>
+      </c>
+      <c r="T165" s="1330">
+        <v>39.34</v>
+      </c>
+      <c r="U165" s="1331">
+        <v>11.56</v>
+      </c>
+      <c r="V165" s="1332">
+        <v>27.78</v>
+      </c>
+      <c r="W165" s="1333">
+        <v>18.37</v>
+      </c>
+      <c r="X165" s="1334">
+        <v>204000</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1334">
+      <c r="A166" s="1335">
         <v>160</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="N166" s="1335">
-        <v>67296</v>
-      </c>
-      <c r="O166" s="1336">
-        <v>11659</v>
-      </c>
-      <c r="P166" s="1337">
-        <v>55636</v>
-      </c>
-      <c r="T166" s="1338">
-        <v>37.22</v>
-      </c>
-      <c r="U166" s="1339">
-        <v>10.08</v>
-      </c>
-      <c r="V166" s="1340">
-        <v>27.14</v>
-      </c>
-      <c r="W166" s="1341">
-        <v>17.33</v>
-      </c>
-      <c r="X166" s="1342">
-        <v>177000</v>
+      <c r="N166" s="1336">
+        <v>69172</v>
+      </c>
+      <c r="O166" s="1337">
+        <v>11646</v>
+      </c>
+      <c r="P166" s="1338">
+        <v>57526</v>
+      </c>
+      <c r="T166" s="1339">
+        <v>43.6</v>
+      </c>
+      <c r="U166" s="1340">
+        <v>10.1</v>
+      </c>
+      <c r="V166" s="1341">
+        <v>33.5</v>
+      </c>
+      <c r="W166" s="1342">
+        <v>16.84</v>
+      </c>
+      <c r="X166" s="1343">
+        <v>199000</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1343">
+      <c r="A167" s="1344">
         <v>161</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="N167" s="1344">
-        <v>65859</v>
-      </c>
-      <c r="O167" s="1345">
-        <v>12707</v>
-      </c>
-      <c r="P167" s="1346">
-        <v>53152</v>
-      </c>
-      <c r="T167" s="1347">
-        <v>18.13</v>
-      </c>
-      <c r="U167" s="1348">
-        <v>14.33</v>
-      </c>
-      <c r="V167" s="1349">
-        <v>3.8</v>
-      </c>
-      <c r="W167" s="1350">
-        <v>19.29</v>
-      </c>
-      <c r="X167" s="1351">
-        <v>151000</v>
+      <c r="N167" s="1345">
+        <v>67296</v>
+      </c>
+      <c r="O167" s="1346">
+        <v>11659</v>
+      </c>
+      <c r="P167" s="1347">
+        <v>55636</v>
+      </c>
+      <c r="T167" s="1348">
+        <v>37.22</v>
+      </c>
+      <c r="U167" s="1349">
+        <v>10.08</v>
+      </c>
+      <c r="V167" s="1350">
+        <v>27.14</v>
+      </c>
+      <c r="W167" s="1351">
+        <v>17.33</v>
+      </c>
+      <c r="X167" s="1352">
+        <v>177000</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1352">
+      <c r="A168" s="1353">
         <v>162</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="N168" s="1353">
-        <v>66207</v>
-      </c>
-      <c r="O168" s="1354">
-        <v>13073</v>
-      </c>
-      <c r="P168" s="1355">
-        <v>53134</v>
-      </c>
-      <c r="T168" s="1356">
-        <v>20.86</v>
-      </c>
-      <c r="U168" s="1357">
-        <v>25.43</v>
-      </c>
-      <c r="V168" s="1358">
-        <v>-4.57</v>
-      </c>
-      <c r="W168" s="1359">
-        <v>19.75</v>
-      </c>
-      <c r="X168" s="1360">
-        <v>136000</v>
+      <c r="N168" s="1354">
+        <v>65859</v>
+      </c>
+      <c r="O168" s="1355">
+        <v>12707</v>
+      </c>
+      <c r="P168" s="1356">
+        <v>53152</v>
+      </c>
+      <c r="T168" s="1357">
+        <v>18.13</v>
+      </c>
+      <c r="U168" s="1358">
+        <v>14.33</v>
+      </c>
+      <c r="V168" s="1359">
+        <v>3.8</v>
+      </c>
+      <c r="W168" s="1360">
+        <v>19.29</v>
+      </c>
+      <c r="X168" s="1361">
+        <v>151000</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1361">
+      <c r="A169" s="1362">
         <v>163</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="N169" s="1362">
-        <v>67207</v>
-      </c>
-      <c r="O169" s="1363">
-        <v>12371</v>
-      </c>
-      <c r="P169" s="1364">
-        <v>54836</v>
-      </c>
-      <c r="T169" s="1365">
-        <v>24.78</v>
-      </c>
-      <c r="U169" s="1366">
-        <v>14.59</v>
-      </c>
-      <c r="V169" s="1367">
-        <v>10.19</v>
-      </c>
-      <c r="X169" s="1368">
-        <v>70000</v>
+      <c r="N169" s="1363">
+        <v>66207</v>
+      </c>
+      <c r="O169" s="1364">
+        <v>13073</v>
+      </c>
+      <c r="P169" s="1365">
+        <v>53134</v>
+      </c>
+      <c r="T169" s="1366">
+        <v>20.86</v>
+      </c>
+      <c r="U169" s="1367">
+        <v>25.43</v>
+      </c>
+      <c r="V169" s="1368">
+        <v>-4.57</v>
+      </c>
+      <c r="W169" s="1369">
+        <v>19.75</v>
+      </c>
+      <c r="X169" s="1370">
+        <v>136000</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1369">
+      <c r="A170" s="1371">
         <v>164</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="N170" s="1370">
-        <v>65994</v>
-      </c>
-      <c r="O170" s="1371">
-        <v>10721</v>
-      </c>
-      <c r="P170" s="1372">
-        <v>55273</v>
-      </c>
-      <c r="T170" s="1373">
-        <v>29.22</v>
-      </c>
-      <c r="U170" s="1374">
-        <v>11.98</v>
-      </c>
-      <c r="V170" s="1375">
-        <v>17.24</v>
-      </c>
-      <c r="X170" s="1376">
-        <v>72000</v>
+      <c r="N170" s="1372">
+        <v>67207</v>
+      </c>
+      <c r="O170" s="1373">
+        <v>12371</v>
+      </c>
+      <c r="P170" s="1374">
+        <v>54836</v>
+      </c>
+      <c r="T170" s="1375">
+        <v>24.78</v>
+      </c>
+      <c r="U170" s="1376">
+        <v>14.59</v>
+      </c>
+      <c r="V170" s="1377">
+        <v>10.19</v>
+      </c>
+      <c r="X170" s="1378">
+        <v>70000</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1377">
+      <c r="A171" s="1379">
         <v>165</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="N171" s="1378">
-        <v>64653</v>
-      </c>
-      <c r="O171" s="1379">
-        <v>9949</v>
-      </c>
-      <c r="P171" s="1380">
-        <v>54704</v>
-      </c>
-      <c r="T171" s="1381">
-        <v>34.03</v>
-      </c>
-      <c r="U171" s="1382">
-        <v>10.8</v>
-      </c>
-      <c r="V171" s="1383">
-        <v>23.23</v>
-      </c>
-      <c r="W171" s="1384">
-        <v>15.4</v>
-      </c>
-      <c r="X171" s="1385">
-        <v>56000</v>
+      <c r="N171" s="1380">
+        <v>65994</v>
+      </c>
+      <c r="O171" s="1381">
+        <v>10721</v>
+      </c>
+      <c r="P171" s="1382">
+        <v>55273</v>
+      </c>
+      <c r="T171" s="1383">
+        <v>29.22</v>
+      </c>
+      <c r="U171" s="1384">
+        <v>11.98</v>
+      </c>
+      <c r="V171" s="1385">
+        <v>17.24</v>
+      </c>
+      <c r="X171" s="1386">
+        <v>72000</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1386">
+      <c r="A172" s="1387">
         <v>166</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="N172" s="1387">
-        <v>62828</v>
-      </c>
-      <c r="O172" s="1388">
-        <v>9185</v>
-      </c>
-      <c r="P172" s="1389">
-        <v>53643</v>
-      </c>
-      <c r="T172" s="1390">
-        <v>31.9</v>
-      </c>
-      <c r="U172" s="1391">
-        <v>11.4</v>
-      </c>
-      <c r="V172" s="1392">
-        <v>20.5</v>
-      </c>
-      <c r="X172" s="1393">
-        <v>63000</v>
+      <c r="N172" s="1388">
+        <v>64653</v>
+      </c>
+      <c r="O172" s="1389">
+        <v>9949</v>
+      </c>
+      <c r="P172" s="1390">
+        <v>54704</v>
+      </c>
+      <c r="T172" s="1391">
+        <v>34.03</v>
+      </c>
+      <c r="U172" s="1392">
+        <v>10.8</v>
+      </c>
+      <c r="V172" s="1393">
+        <v>23.23</v>
+      </c>
+      <c r="W172" s="1394">
+        <v>15.4</v>
+      </c>
+      <c r="X172" s="1395">
+        <v>56000</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1394">
+      <c r="A173" s="1396">
         <v>167</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="N173" s="1395">
-        <v>61465</v>
-      </c>
-      <c r="O173" s="1396">
-        <v>8285</v>
-      </c>
-      <c r="P173" s="1397">
-        <v>53180</v>
-      </c>
-      <c r="T173" s="1398">
-        <v>32.6</v>
-      </c>
-      <c r="U173" s="1399">
-        <v>12.28</v>
-      </c>
-      <c r="V173" s="1400">
-        <v>20.32</v>
-      </c>
-      <c r="W173" s="1401">
-        <v>13.48</v>
-      </c>
-      <c r="X173" s="1402">
-        <v>55000</v>
+      <c r="N173" s="1397">
+        <v>62828</v>
+      </c>
+      <c r="O173" s="1398">
+        <v>9185</v>
+      </c>
+      <c r="P173" s="1399">
+        <v>53643</v>
+      </c>
+      <c r="T173" s="1400">
+        <v>31.9</v>
+      </c>
+      <c r="U173" s="1401">
+        <v>11.4</v>
+      </c>
+      <c r="V173" s="1402">
+        <v>20.5</v>
+      </c>
+      <c r="X173" s="1403">
+        <v>63000</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1403">
+      <c r="A174" s="1404">
         <v>168</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="N174" s="1404">
-        <v>60266</v>
-      </c>
-      <c r="O174" s="1405">
-        <v>8249</v>
-      </c>
-      <c r="P174" s="1406">
-        <v>52017</v>
-      </c>
-      <c r="T174" s="1407">
-        <v>37.97</v>
-      </c>
-      <c r="U174" s="1408">
-        <v>13.18</v>
-      </c>
-      <c r="V174" s="1409">
-        <v>24.79</v>
-      </c>
-      <c r="X174" s="1410">
-        <v>47000</v>
+      <c r="N174" s="1405">
+        <v>61465</v>
+      </c>
+      <c r="O174" s="1406">
+        <v>8285</v>
+      </c>
+      <c r="P174" s="1407">
+        <v>53180</v>
+      </c>
+      <c r="T174" s="1408">
+        <v>32.6</v>
+      </c>
+      <c r="U174" s="1409">
+        <v>12.28</v>
+      </c>
+      <c r="V174" s="1410">
+        <v>20.32</v>
+      </c>
+      <c r="W174" s="1411">
+        <v>13.48</v>
+      </c>
+      <c r="X174" s="1412">
+        <v>55000</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1411">
+      <c r="A175" s="1413">
         <v>169</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="N175" s="1412">
-        <v>58796</v>
-      </c>
-      <c r="O175" s="1413">
-        <v>7826</v>
-      </c>
-      <c r="P175" s="1414">
-        <v>50970</v>
-      </c>
-      <c r="T175" s="1415">
-        <v>37</v>
-      </c>
-      <c r="U175" s="1416">
-        <v>14</v>
-      </c>
-      <c r="V175" s="1417">
-        <v>23</v>
-      </c>
-      <c r="W175" s="1418">
-        <v>13.26</v>
-      </c>
-      <c r="X175" s="1419">
-        <v>48000</v>
+      <c r="N175" s="1414">
+        <v>60266</v>
+      </c>
+      <c r="O175" s="1415">
+        <v>8249</v>
+      </c>
+      <c r="P175" s="1416">
+        <v>52017</v>
+      </c>
+      <c r="T175" s="1417">
+        <v>37.97</v>
+      </c>
+      <c r="U175" s="1418">
+        <v>13.18</v>
+      </c>
+      <c r="V175" s="1419">
+        <v>24.79</v>
+      </c>
+      <c r="X175" s="1420">
+        <v>47000</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1420">
+      <c r="A176" s="1421">
         <v>170</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="N176" s="1421">
-        <v>57482</v>
-      </c>
-      <c r="O176" s="1422">
-        <v>7163</v>
-      </c>
-      <c r="P176" s="1423">
-        <v>50319</v>
-      </c>
-      <c r="T176" s="1424">
+      <c r="N176" s="1422">
+        <v>58796</v>
+      </c>
+      <c r="O176" s="1423">
+        <v>7826</v>
+      </c>
+      <c r="P176" s="1424">
+        <v>50970</v>
+      </c>
+      <c r="T176" s="1425">
         <v>37</v>
       </c>
-      <c r="U176" s="1425">
-        <v>17</v>
-      </c>
-      <c r="V176" s="1426">
-        <v>20</v>
-      </c>
-      <c r="W176" s="1427">
-        <v>12.5</v>
-      </c>
-      <c r="X176" s="1428">
-        <v>32000</v>
+      <c r="U176" s="1426">
+        <v>14</v>
+      </c>
+      <c r="V176" s="1427">
+        <v>23</v>
+      </c>
+      <c r="W176" s="1428">
+        <v>13.26</v>
+      </c>
+      <c r="X176" s="1429">
+        <v>48000</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1429">
+      <c r="A177" s="1430">
         <v>171</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="N177" s="1430">
-        <v>56300</v>
-      </c>
-      <c r="O177" s="1431">
-        <v>6632</v>
-      </c>
-      <c r="P177" s="1432">
-        <v>49668</v>
-      </c>
-      <c r="T177" s="1433">
-        <v>37.8</v>
-      </c>
-      <c r="U177" s="1434">
-        <v>17.8</v>
-      </c>
-      <c r="V177" s="1435">
+      <c r="N177" s="1431">
+        <v>57482</v>
+      </c>
+      <c r="O177" s="1432">
+        <v>7163</v>
+      </c>
+      <c r="P177" s="1433">
+        <v>50319</v>
+      </c>
+      <c r="T177" s="1434">
+        <v>37</v>
+      </c>
+      <c r="U177" s="1435">
+        <v>17</v>
+      </c>
+      <c r="V177" s="1436">
         <v>20</v>
       </c>
-      <c r="W177" s="1436">
-        <v>11.78</v>
-      </c>
-      <c r="X177" s="1437">
-        <v>19000</v>
+      <c r="W177" s="1437">
+        <v>12.5</v>
+      </c>
+      <c r="X177" s="1438">
+        <v>32000</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1438">
+      <c r="A178" s="1439">
         <v>172</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="N178" s="1439">
-        <v>55196</v>
-      </c>
-      <c r="O178" s="1440">
-        <v>6169</v>
-      </c>
-      <c r="P178" s="1441">
-        <v>49027</v>
-      </c>
-      <c r="T178" s="1442">
-        <v>37</v>
-      </c>
-      <c r="U178" s="1443">
-        <v>18</v>
-      </c>
-      <c r="V178" s="1444">
-        <v>19</v>
-      </c>
-      <c r="W178" s="1445">
-        <v>11.18</v>
-      </c>
-      <c r="X178" s="1446">
-        <v>18000</v>
+      <c r="N178" s="1440">
+        <v>56300</v>
+      </c>
+      <c r="O178" s="1441">
+        <v>6632</v>
+      </c>
+      <c r="P178" s="1442">
+        <v>49668</v>
+      </c>
+      <c r="T178" s="1443">
+        <v>37.8</v>
+      </c>
+      <c r="U178" s="1444">
+        <v>17.8</v>
+      </c>
+      <c r="V178" s="1445">
+        <v>20</v>
+      </c>
+      <c r="W178" s="1446">
+        <v>11.78</v>
+      </c>
+      <c r="X178" s="1447">
+        <v>19000</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1447">
+      <c r="A179" s="1448">
         <v>173</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="N179" s="1448">
+      <c r="N179" s="1449">
+        <v>55196</v>
+      </c>
+      <c r="O179" s="1450">
+        <v>6169</v>
+      </c>
+      <c r="P179" s="1451">
+        <v>49027</v>
+      </c>
+      <c r="T179" s="1452">
+        <v>37</v>
+      </c>
+      <c r="U179" s="1453">
+        <v>18</v>
+      </c>
+      <c r="V179" s="1454">
+        <v>19</v>
+      </c>
+      <c r="W179" s="1455">
+        <v>11.18</v>
+      </c>
+      <c r="X179" s="1456">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1457">
+        <v>174</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="N180" s="1458">
         <v>54167</v>
       </c>
-      <c r="O179" s="1449">
+      <c r="O180" s="1459">
         <v>5765</v>
       </c>
-      <c r="P179" s="1450">
+      <c r="P180" s="1460">
         <v>48402</v>
       </c>
-      <c r="T179" s="1451">
+      <c r="T180" s="1461">
         <v>36</v>
       </c>
-      <c r="U179" s="1452">
+      <c r="U180" s="1462">
         <v>20</v>
       </c>
-      <c r="V179" s="1453">
+      <c r="V180" s="1463">
         <v>16</v>
       </c>
-      <c r="W179" s="1454">
+      <c r="W180" s="1464">
         <v>10.64</v>
       </c>
-      <c r="X179" s="1455">
+      <c r="X180" s="1465">
         <v>21000</v>
       </c>
     </row>
-    <row r="186" ht="25" customHeight="1">
-      <c r="A186" s="1456" t="s">
-        <v>239</v>
+    <row r="187" ht="25" customHeight="1">
+      <c r="A187" s="1466" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/人口就业.xlsx
+++ b/data/人口就业.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="245">
   <si>
     <t xml:space="preserve">序号</t>
   </si>
@@ -212,7 +212,13 @@
     <t xml:space="preserve">中华人民共和国国家统计局</t>
   </si>
   <si>
+    <t xml:space="preserve">2025-03</t>
+  </si>
+  <si>
     <t xml:space="preserve">2025-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01</t>
   </si>
   <si>
     <t xml:space="preserve">2024-12</t>
@@ -1368,22 +1374,31 @@
         <v>66</v>
       </c>
       <c r="C7" s="10">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D7" s="10">
         <v>5.2</v>
       </c>
       <c r="E7" s="10">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="F7" s="10">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I7" s="10">
-        <v>47.1</v>
+        <v>48.5</v>
       </c>
       <c r="Y7" s="10">
-        <v>5.4</v>
+        <v>5.2</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="AA7" s="10">
+        <v>7.2</v>
+      </c>
+      <c r="AB7" s="10">
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
@@ -1394,58 +1409,31 @@
         <v>67</v>
       </c>
       <c r="C8" s="10">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="D8" s="10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E8" s="10">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="F8" s="10">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="10">
-        <v>49</v>
-      </c>
-      <c r="N8" s="10">
-        <v>140828</v>
-      </c>
-      <c r="O8" s="10">
-        <v>94350</v>
-      </c>
-      <c r="P8" s="10">
-        <v>46478</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>-139</v>
-      </c>
-      <c r="R8" s="10">
-        <v>1083</v>
-      </c>
-      <c r="S8" s="10">
-        <v>-1222</v>
-      </c>
-      <c r="T8" s="10">
-        <v>6.77</v>
-      </c>
-      <c r="U8" s="10">
-        <v>7.76</v>
-      </c>
-      <c r="V8" s="10">
-        <v>-0.99</v>
+        <v>47.1</v>
       </c>
       <c r="Y8" s="10">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="Z8" s="10">
-        <v>15.7</v>
+        <v>16.9</v>
       </c>
       <c r="AA8" s="10">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="AB8" s="10">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="9">
@@ -1456,31 +1444,31 @@
         <v>68</v>
       </c>
       <c r="C9" s="10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D9" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="E9" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="I9" s="10">
+        <v>49.1</v>
+      </c>
+      <c r="Y9" s="10">
         <v>5.2</v>
-      </c>
-      <c r="F9" s="10">
-        <v>4.6</v>
-      </c>
-      <c r="I9" s="10">
-        <v>48.9</v>
-      </c>
-      <c r="Y9" s="10">
-        <v>5</v>
       </c>
       <c r="Z9" s="10">
         <v>16.1</v>
       </c>
       <c r="AA9" s="10">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB9" s="10">
-        <v>3.8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1491,31 +1479,58 @@
         <v>69</v>
       </c>
       <c r="C10" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D10" s="10">
         <v>5</v>
       </c>
       <c r="E10" s="10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="F10" s="10">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I10" s="10">
-        <v>48.6</v>
+        <v>49</v>
+      </c>
+      <c r="N10" s="10">
+        <v>140828</v>
+      </c>
+      <c r="O10" s="10">
+        <v>94350</v>
+      </c>
+      <c r="P10" s="10">
+        <v>46478</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>-139</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1083</v>
+      </c>
+      <c r="S10" s="10">
+        <v>-1222</v>
+      </c>
+      <c r="T10" s="10">
+        <v>6.77</v>
+      </c>
+      <c r="U10" s="10">
+        <v>7.76</v>
+      </c>
+      <c r="V10" s="10">
+        <v>-0.99</v>
       </c>
       <c r="Y10" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z10" s="10">
-        <v>17.1</v>
+        <v>15.7</v>
       </c>
       <c r="AA10" s="10">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AB10" s="10">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="11">
@@ -1526,31 +1541,31 @@
         <v>70</v>
       </c>
       <c r="C11" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="10">
         <v>5.2</v>
       </c>
       <c r="F11" s="10">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I11" s="10">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="Y11" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z11" s="10">
-        <v>17.6</v>
+        <v>16.1</v>
       </c>
       <c r="AA11" s="10">
         <v>6.7</v>
       </c>
       <c r="AB11" s="10">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="12">
@@ -1561,31 +1576,31 @@
         <v>71</v>
       </c>
       <c r="C12" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D12" s="10">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="E12" s="10">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="F12" s="10">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I12" s="10">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="Y12" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Z12" s="10">
-        <v>18.8</v>
+        <v>17.1</v>
       </c>
       <c r="AA12" s="10">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB12" s="10">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="13">
@@ -1596,28 +1611,28 @@
         <v>72</v>
       </c>
       <c r="C13" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="D13" s="10">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="E13" s="10">
         <v>5.2</v>
       </c>
       <c r="F13" s="10">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I13" s="10">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="Y13" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z13" s="10">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="AA13" s="10">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AB13" s="10">
         <v>3.9</v>
@@ -1631,31 +1646,31 @@
         <v>73</v>
       </c>
       <c r="C14" s="10">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D14" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="F14" s="10">
         <v>4.9</v>
       </c>
-      <c r="E14" s="10">
-        <v>5</v>
-      </c>
-      <c r="F14" s="10">
-        <v>4.8</v>
-      </c>
       <c r="I14" s="10">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="Y14" s="10">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="Z14" s="10">
-        <v>13.2</v>
+        <v>18.8</v>
       </c>
       <c r="AA14" s="10">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="AB14" s="10">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="15">
@@ -1666,31 +1681,31 @@
         <v>74</v>
       </c>
       <c r="C15" s="10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D15" s="10">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="E15" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="F15" s="10">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I15" s="10">
         <v>48.7</v>
       </c>
       <c r="Y15" s="10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="Z15" s="10">
-        <v>14.2</v>
+        <v>17.1</v>
       </c>
       <c r="AA15" s="10">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB15" s="10">
-        <v>4</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="16">
@@ -1704,25 +1719,25 @@
         <v>5</v>
       </c>
       <c r="D16" s="10">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E16" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F16" s="10">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I16" s="10">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="Y16" s="10">
         <v>5</v>
       </c>
       <c r="Z16" s="10">
-        <v>14.7</v>
+        <v>13.2</v>
       </c>
       <c r="AA16" s="10">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB16" s="10">
         <v>4</v>
@@ -1736,31 +1751,31 @@
         <v>76</v>
       </c>
       <c r="C17" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="10">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="E17" s="10">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="F17" s="10">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="I17" s="10">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="Y17" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Z17" s="10">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="AA17" s="10">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AB17" s="10">
-        <v>4.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1771,31 +1786,31 @@
         <v>77</v>
       </c>
       <c r="C18" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D18" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="E18" s="10">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="F18" s="10">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I18" s="10">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="Y18" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="Z18" s="10">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="AA18" s="10">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="AB18" s="10">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1809,25 +1824,25 @@
         <v>5.2</v>
       </c>
       <c r="D19" s="10">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="E19" s="10">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="F19" s="10">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="I19" s="10">
-        <v>49</v>
+        <v>48.6</v>
       </c>
       <c r="Y19" s="10">
         <v>5.2</v>
       </c>
       <c r="Z19" s="10">
-        <v>14.6</v>
+        <v>15.3</v>
       </c>
       <c r="AA19" s="10">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AB19" s="10">
         <v>4.1</v>
@@ -1841,64 +1856,31 @@
         <v>79</v>
       </c>
       <c r="C20" s="10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D20" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="E20" s="10">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="F20" s="10">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I20" s="10">
-        <v>49</v>
-      </c>
-      <c r="N20" s="10">
-        <v>140967</v>
-      </c>
-      <c r="O20" s="10">
-        <v>93267</v>
-      </c>
-      <c r="P20" s="10">
-        <v>47700</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>-208</v>
-      </c>
-      <c r="R20" s="10">
-        <v>1196</v>
-      </c>
-      <c r="S20" s="10">
-        <v>-1404</v>
-      </c>
-      <c r="T20" s="10">
-        <v>6.39</v>
-      </c>
-      <c r="U20" s="10">
-        <v>7.87</v>
-      </c>
-      <c r="V20" s="10">
-        <v>-1.48</v>
-      </c>
-      <c r="W20" s="10">
-        <v>66.16</v>
-      </c>
-      <c r="X20" s="10">
-        <v>10470258</v>
+        <v>48</v>
       </c>
       <c r="Y20" s="10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Z20" s="10">
-        <v>14.9</v>
+        <v>15.3</v>
       </c>
       <c r="AA20" s="10">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AB20" s="10">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="21">
@@ -1909,22 +1891,31 @@
         <v>80</v>
       </c>
       <c r="C21" s="10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="D21" s="10">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E21" s="10">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="F21" s="10">
         <v>4.7</v>
       </c>
       <c r="I21" s="10">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="Y21" s="10">
-        <v>5</v>
+        <v>5.2</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="AA21" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="AB21" s="10">
+        <v>4.1</v>
       </c>
     </row>
     <row r="22">
@@ -1935,22 +1926,64 @@
         <v>81</v>
       </c>
       <c r="C22" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D22" s="10">
         <v>5</v>
       </c>
       <c r="E22" s="10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="F22" s="10">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I22" s="10">
-        <v>48.7</v>
+        <v>49</v>
+      </c>
+      <c r="N22" s="10">
+        <v>140967</v>
+      </c>
+      <c r="O22" s="10">
+        <v>93267</v>
+      </c>
+      <c r="P22" s="10">
+        <v>47700</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>-208</v>
+      </c>
+      <c r="R22" s="10">
+        <v>1196</v>
+      </c>
+      <c r="S22" s="10">
+        <v>-1404</v>
+      </c>
+      <c r="T22" s="10">
+        <v>6.39</v>
+      </c>
+      <c r="U22" s="10">
+        <v>7.87</v>
+      </c>
+      <c r="V22" s="10">
+        <v>-1.48</v>
+      </c>
+      <c r="W22" s="10">
+        <v>66.16</v>
+      </c>
+      <c r="X22" s="10">
+        <v>10470258</v>
       </c>
       <c r="Y22" s="10">
-        <v>5</v>
+        <v>5.1</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="AA22" s="10">
+        <v>6.1</v>
+      </c>
+      <c r="AB22" s="10">
+        <v>3.9</v>
       </c>
     </row>
     <row r="23">
@@ -1964,16 +1997,16 @@
         <v>5</v>
       </c>
       <c r="D23" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="E23" s="10">
         <v>5.1</v>
       </c>
       <c r="F23" s="10">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I23" s="10">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="Y23" s="10">
         <v>5</v>
@@ -1987,22 +2020,22 @@
         <v>83</v>
       </c>
       <c r="C24" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D24" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="F24" s="10">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I24" s="10">
         <v>48.7</v>
       </c>
       <c r="Y24" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2013,22 +2046,22 @@
         <v>84</v>
       </c>
       <c r="C25" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="10">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E25" s="10">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="F25" s="10">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="I25" s="10">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="Y25" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
@@ -2042,34 +2075,16 @@
         <v>5.2</v>
       </c>
       <c r="D26" s="10">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="E26" s="10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="F26" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="G26" s="10">
-        <v>21.3</v>
-      </c>
-      <c r="H26" s="10">
-        <v>4.1</v>
+        <v>4.8</v>
       </c>
       <c r="I26" s="10">
         <v>48.7</v>
-      </c>
-      <c r="J26" s="10">
-        <v>4.4</v>
-      </c>
-      <c r="K26" s="10">
-        <v>4.4</v>
-      </c>
-      <c r="L26" s="10">
-        <v>3.9</v>
-      </c>
-      <c r="M26" s="10">
-        <v>3.2</v>
       </c>
       <c r="Y26" s="10">
         <v>5.2</v>
@@ -2083,40 +2098,22 @@
         <v>86</v>
       </c>
       <c r="C27" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="D27" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="E27" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="F27" s="10">
         <v>5.2</v>
       </c>
-      <c r="D27" s="10">
-        <v>5.5</v>
-      </c>
-      <c r="E27" s="10">
-        <v>5.1</v>
-      </c>
-      <c r="F27" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="G27" s="10">
-        <v>20.8</v>
-      </c>
-      <c r="H27" s="10">
-        <v>4.1</v>
-      </c>
       <c r="I27" s="10">
-        <v>48.6</v>
-      </c>
-      <c r="J27" s="10">
-        <v>4.4</v>
-      </c>
-      <c r="K27" s="10">
-        <v>4.4</v>
-      </c>
-      <c r="L27" s="10">
-        <v>4.1</v>
-      </c>
-      <c r="M27" s="10">
-        <v>3.2</v>
+        <v>48.7</v>
       </c>
       <c r="Y27" s="10">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="28">
@@ -2136,28 +2133,28 @@
         <v>5.1</v>
       </c>
       <c r="F28" s="10">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="G28" s="10">
-        <v>20.4</v>
+        <v>21.3</v>
       </c>
       <c r="H28" s="10">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I28" s="10">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="J28" s="10">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="K28" s="10">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L28" s="10">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="M28" s="10">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y28" s="10">
         <v>5.2</v>
@@ -2171,7 +2168,7 @@
         <v>88</v>
       </c>
       <c r="C29" s="10">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D29" s="10">
         <v>5.5</v>
@@ -2180,31 +2177,31 @@
         <v>5.1</v>
       </c>
       <c r="F29" s="10">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="G29" s="10">
-        <v>19.6</v>
+        <v>20.8</v>
       </c>
       <c r="H29" s="10">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="I29" s="10">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="J29" s="10">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="K29" s="10">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L29" s="10">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M29" s="10">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Y29" s="10">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="30">
@@ -2215,40 +2212,40 @@
         <v>89</v>
       </c>
       <c r="C30" s="10">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="D30" s="10">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="E30" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="F30" s="10">
         <v>5.4</v>
       </c>
-      <c r="F30" s="10">
-        <v>5.9</v>
-      </c>
       <c r="G30" s="10">
-        <v>18.1</v>
+        <v>20.4</v>
       </c>
       <c r="H30" s="10">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="I30" s="10">
-        <v>47.9</v>
+        <v>48.8</v>
       </c>
       <c r="J30" s="10">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="K30" s="10">
+        <v>4.6</v>
+      </c>
+      <c r="L30" s="10">
+        <v>4</v>
+      </c>
+      <c r="M30" s="10">
+        <v>3.1</v>
+      </c>
+      <c r="Y30" s="10">
         <v>5.2</v>
-      </c>
-      <c r="L30" s="10">
-        <v>4.1</v>
-      </c>
-      <c r="M30" s="10">
-        <v>3</v>
-      </c>
-      <c r="Y30" s="10">
-        <v>5.6</v>
       </c>
     </row>
     <row r="31">
@@ -2259,28 +2256,40 @@
         <v>90</v>
       </c>
       <c r="C31" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="D31" s="10">
         <v>5.5</v>
       </c>
-      <c r="D31" s="10">
-        <v>5.8</v>
-      </c>
       <c r="E31" s="10">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="F31" s="10">
         <v>5.6</v>
       </c>
       <c r="G31" s="10">
-        <v>17.3</v>
+        <v>19.6</v>
       </c>
       <c r="H31" s="10">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="I31" s="10">
-        <v>47.9</v>
+        <v>48.7</v>
+      </c>
+      <c r="J31" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="K31" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="L31" s="10">
+        <v>4</v>
+      </c>
+      <c r="M31" s="10">
+        <v>3.1</v>
       </c>
       <c r="Y31" s="10">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="32">
@@ -2291,19 +2300,19 @@
         <v>91</v>
       </c>
       <c r="C32" s="10">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="D32" s="10">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="E32" s="10">
         <v>5.4</v>
       </c>
       <c r="F32" s="10">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G32" s="10">
-        <v>16.7</v>
+        <v>18.1</v>
       </c>
       <c r="H32" s="10">
         <v>4.8</v>
@@ -2311,41 +2320,20 @@
       <c r="I32" s="10">
         <v>47.9</v>
       </c>
-      <c r="N32" s="10">
-        <v>141175</v>
-      </c>
-      <c r="O32" s="10">
-        <v>92071</v>
-      </c>
-      <c r="P32" s="10">
-        <v>49104</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>-85</v>
-      </c>
-      <c r="R32" s="10">
-        <v>646</v>
-      </c>
-      <c r="S32" s="10">
-        <v>-731</v>
-      </c>
-      <c r="T32" s="10">
-        <v>6.77</v>
-      </c>
-      <c r="U32" s="10">
-        <v>7.37</v>
-      </c>
-      <c r="V32" s="10">
-        <v>-0.6</v>
-      </c>
-      <c r="W32" s="10">
-        <v>65.22</v>
-      </c>
-      <c r="X32" s="10">
-        <v>9672565</v>
+      <c r="J32" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="K32" s="10">
+        <v>5.2</v>
+      </c>
+      <c r="L32" s="10">
+        <v>4.1</v>
+      </c>
+      <c r="M32" s="10">
+        <v>3</v>
       </c>
       <c r="Y32" s="10">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="33">
@@ -2356,28 +2344,28 @@
         <v>92</v>
       </c>
       <c r="C33" s="10">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="D33" s="10">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="E33" s="10">
+        <v>5.4</v>
+      </c>
+      <c r="F33" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="G33" s="10">
+        <v>17.3</v>
+      </c>
+      <c r="H33" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="I33" s="10">
+        <v>47.9</v>
+      </c>
+      <c r="Y33" s="10">
         <v>5.5</v>
-      </c>
-      <c r="F33" s="10">
-        <v>6.2</v>
-      </c>
-      <c r="G33" s="10">
-        <v>17.1</v>
-      </c>
-      <c r="H33" s="10">
-        <v>5</v>
-      </c>
-      <c r="I33" s="10">
-        <v>47.7</v>
-      </c>
-      <c r="Y33" s="10">
-        <v>5.7</v>
       </c>
     </row>
     <row r="34">
@@ -2391,7 +2379,7 @@
         <v>5.5</v>
       </c>
       <c r="D34" s="10">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="E34" s="10">
         <v>5.4</v>
@@ -2400,13 +2388,46 @@
         <v>5.7</v>
       </c>
       <c r="G34" s="10">
-        <v>17.9</v>
+        <v>16.7</v>
       </c>
       <c r="H34" s="10">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I34" s="10">
         <v>47.9</v>
+      </c>
+      <c r="N34" s="10">
+        <v>141175</v>
+      </c>
+      <c r="O34" s="10">
+        <v>92071</v>
+      </c>
+      <c r="P34" s="10">
+        <v>49104</v>
+      </c>
+      <c r="Q34" s="10">
+        <v>-85</v>
+      </c>
+      <c r="R34" s="10">
+        <v>646</v>
+      </c>
+      <c r="S34" s="10">
+        <v>-731</v>
+      </c>
+      <c r="T34" s="10">
+        <v>6.77</v>
+      </c>
+      <c r="U34" s="10">
+        <v>7.37</v>
+      </c>
+      <c r="V34" s="10">
+        <v>-0.6</v>
+      </c>
+      <c r="W34" s="10">
+        <v>65.22</v>
+      </c>
+      <c r="X34" s="10">
+        <v>9672565</v>
       </c>
       <c r="Y34" s="10">
         <v>5.5</v>
@@ -2420,28 +2441,28 @@
         <v>94</v>
       </c>
       <c r="C35" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="D35" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="E35" s="10">
         <v>5.5</v>
       </c>
-      <c r="D35" s="10">
-        <v>5.8</v>
-      </c>
-      <c r="E35" s="10">
-        <v>5.4</v>
-      </c>
       <c r="F35" s="10">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="G35" s="10">
-        <v>17.9</v>
+        <v>17.1</v>
       </c>
       <c r="H35" s="10">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="I35" s="10">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="Y35" s="10">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="36">
@@ -2452,28 +2473,28 @@
         <v>95</v>
       </c>
       <c r="C36" s="10">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D36" s="10">
+        <v>6</v>
+      </c>
+      <c r="E36" s="10">
         <v>5.4</v>
       </c>
-      <c r="E36" s="10">
-        <v>5.3</v>
-      </c>
       <c r="F36" s="10">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="G36" s="10">
-        <v>18.7</v>
+        <v>17.9</v>
       </c>
       <c r="H36" s="10">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="I36" s="10">
-        <v>48</v>
+        <v>47.9</v>
       </c>
       <c r="Y36" s="10">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="37">
@@ -2484,28 +2505,28 @@
         <v>96</v>
       </c>
       <c r="C37" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="D37" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="E37" s="10">
         <v>5.4</v>
       </c>
-      <c r="D37" s="10">
+      <c r="F37" s="10">
         <v>5.6</v>
       </c>
-      <c r="E37" s="10">
-        <v>5.3</v>
-      </c>
-      <c r="F37" s="10">
+      <c r="G37" s="10">
+        <v>17.9</v>
+      </c>
+      <c r="H37" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="I37" s="10">
+        <v>47.8</v>
+      </c>
+      <c r="Y37" s="10">
         <v>5.5</v>
-      </c>
-      <c r="G37" s="10">
-        <v>19.9</v>
-      </c>
-      <c r="H37" s="10">
-        <v>4.3</v>
-      </c>
-      <c r="I37" s="10">
-        <v>48</v>
-      </c>
-      <c r="Y37" s="10">
-        <v>5.4</v>
       </c>
     </row>
     <row r="38">
@@ -2516,28 +2537,28 @@
         <v>97</v>
       </c>
       <c r="C38" s="10">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="D38" s="10">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="E38" s="10">
         <v>5.3</v>
       </c>
       <c r="F38" s="10">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="G38" s="10">
-        <v>19.3</v>
+        <v>18.7</v>
       </c>
       <c r="H38" s="10">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I38" s="10">
-        <v>47.7</v>
+        <v>48</v>
       </c>
       <c r="Y38" s="10">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="39">
@@ -2548,28 +2569,28 @@
         <v>98</v>
       </c>
       <c r="C39" s="10">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="D39" s="10">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="E39" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="F39" s="10">
         <v>5.5</v>
       </c>
-      <c r="F39" s="10">
-        <v>6.6</v>
-      </c>
       <c r="G39" s="10">
-        <v>18.4</v>
+        <v>19.9</v>
       </c>
       <c r="H39" s="10">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="I39" s="10">
-        <v>47.2</v>
+        <v>48</v>
       </c>
       <c r="Y39" s="10">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="40">
@@ -2580,28 +2601,28 @@
         <v>99</v>
       </c>
       <c r="C40" s="10">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="D40" s="10">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="E40" s="10">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="F40" s="10">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="G40" s="10">
-        <v>18.2</v>
+        <v>19.3</v>
       </c>
       <c r="H40" s="10">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="I40" s="10">
-        <v>46.2</v>
+        <v>47.7</v>
       </c>
       <c r="Y40" s="10">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="41">
@@ -2612,28 +2633,28 @@
         <v>100</v>
       </c>
       <c r="C41" s="10">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="D41" s="10">
-        <v>6</v>
+        <v>6.9</v>
       </c>
       <c r="E41" s="10">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="F41" s="10">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="G41" s="10">
-        <v>16</v>
+        <v>18.4</v>
       </c>
       <c r="H41" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I41" s="10">
-        <v>47.3</v>
+        <v>47.2</v>
       </c>
       <c r="Y41" s="10">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="42">
@@ -2644,28 +2665,28 @@
         <v>101</v>
       </c>
       <c r="C42" s="10">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D42" s="10">
-        <v>5.4</v>
+        <v>6.7</v>
       </c>
       <c r="E42" s="10">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="F42" s="10">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="G42" s="10">
-        <v>15.3</v>
+        <v>18.2</v>
       </c>
       <c r="H42" s="10">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="I42" s="10">
-        <v>46.7</v>
+        <v>46.2</v>
       </c>
       <c r="Y42" s="10">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="43">
@@ -2676,25 +2697,28 @@
         <v>102</v>
       </c>
       <c r="C43" s="10">
-        <v>5.3</v>
+        <v>5.8</v>
+      </c>
+      <c r="D43" s="10">
+        <v>6</v>
       </c>
       <c r="E43" s="10">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="F43" s="10">
-        <v>5.1</v>
+        <v>6.3</v>
       </c>
       <c r="G43" s="10">
-        <v>15.3</v>
+        <v>16</v>
       </c>
       <c r="H43" s="10">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="I43" s="10">
-        <v>47.5</v>
+        <v>47.3</v>
       </c>
       <c r="Y43" s="10">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="44">
@@ -2705,58 +2729,28 @@
         <v>103</v>
       </c>
       <c r="C44" s="10">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D44" s="10">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="E44" s="10">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="F44" s="10">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="G44" s="10">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="H44" s="10">
-        <v>4.4</v>
-      </c>
-      <c r="N44" s="10">
-        <v>141260</v>
-      </c>
-      <c r="O44" s="10">
-        <v>91425</v>
-      </c>
-      <c r="P44" s="10">
-        <v>49835</v>
-      </c>
-      <c r="Q44" s="10">
-        <v>48</v>
-      </c>
-      <c r="R44" s="10">
-        <v>1205</v>
-      </c>
-      <c r="S44" s="10">
-        <v>-1157</v>
-      </c>
-      <c r="T44" s="10">
-        <v>7.52</v>
-      </c>
-      <c r="U44" s="10">
-        <v>7.18</v>
-      </c>
-      <c r="V44" s="10">
-        <v>0.34</v>
-      </c>
-      <c r="W44" s="10">
-        <v>64.72</v>
-      </c>
-      <c r="X44" s="10">
-        <v>8265064</v>
+        <v>4.8</v>
+      </c>
+      <c r="I44" s="10">
+        <v>46.7</v>
       </c>
       <c r="Y44" s="10">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="45">
@@ -2767,25 +2761,25 @@
         <v>104</v>
       </c>
       <c r="C45" s="10">
-        <v>5</v>
-      </c>
-      <c r="D45" s="10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="E45" s="10">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="F45" s="10">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="G45" s="10">
-        <v>14.3</v>
+        <v>15.3</v>
       </c>
       <c r="H45" s="10">
-        <v>4.3</v>
+        <v>4.6</v>
+      </c>
+      <c r="I45" s="10">
+        <v>47.5</v>
       </c>
       <c r="Y45" s="10">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="46">
@@ -2796,25 +2790,58 @@
         <v>105</v>
       </c>
       <c r="C46" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="D46" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="E46" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="F46" s="10">
         <v>4.9</v>
       </c>
-      <c r="D46" s="10">
-        <v>5.1</v>
-      </c>
-      <c r="E46" s="10">
-        <v>4.9</v>
-      </c>
-      <c r="F46" s="10">
-        <v>4.8</v>
-      </c>
       <c r="G46" s="10">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="H46" s="10">
-        <v>4.2</v>
+        <v>4.4</v>
+      </c>
+      <c r="N46" s="10">
+        <v>141260</v>
+      </c>
+      <c r="O46" s="10">
+        <v>91425</v>
+      </c>
+      <c r="P46" s="10">
+        <v>49835</v>
+      </c>
+      <c r="Q46" s="10">
+        <v>48</v>
+      </c>
+      <c r="R46" s="10">
+        <v>1205</v>
+      </c>
+      <c r="S46" s="10">
+        <v>-1157</v>
+      </c>
+      <c r="T46" s="10">
+        <v>7.52</v>
+      </c>
+      <c r="U46" s="10">
+        <v>7.18</v>
+      </c>
+      <c r="V46" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="W46" s="10">
+        <v>64.72</v>
+      </c>
+      <c r="X46" s="10">
+        <v>8265064</v>
       </c>
       <c r="Y46" s="10">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="47">
@@ -2825,25 +2852,25 @@
         <v>106</v>
       </c>
       <c r="C47" s="10">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="D47" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="E47" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="F47" s="10">
         <v>4.8</v>
       </c>
       <c r="G47" s="10">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="H47" s="10">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y47" s="10">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -2854,25 +2881,25 @@
         <v>107</v>
       </c>
       <c r="C48" s="10">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="D48" s="10">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="E48" s="10">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="F48" s="10">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G48" s="10">
-        <v>15.3</v>
+        <v>14.2</v>
       </c>
       <c r="H48" s="10">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y48" s="10">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="49">
@@ -2883,25 +2910,25 @@
         <v>108</v>
       </c>
       <c r="C49" s="10">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="D49" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="E49" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F49" s="10">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G49" s="10">
-        <v>16.2</v>
+        <v>14.6</v>
       </c>
       <c r="H49" s="10">
         <v>4.2</v>
       </c>
       <c r="Y49" s="10">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="50">
@@ -2912,25 +2939,25 @@
         <v>109</v>
       </c>
       <c r="C50" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D50" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="E50" s="10">
         <v>5.2</v>
       </c>
-      <c r="E50" s="10">
-        <v>5</v>
-      </c>
       <c r="F50" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="10">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="H50" s="10">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y50" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="51">
@@ -2941,7 +2968,7 @@
         <v>110</v>
       </c>
       <c r="C51" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D51" s="10">
         <v>5.2</v>
@@ -2953,13 +2980,13 @@
         <v>5</v>
       </c>
       <c r="G51" s="10">
-        <v>13.8</v>
+        <v>16.2</v>
       </c>
       <c r="H51" s="10">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="Y51" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="52">
@@ -2970,25 +2997,25 @@
         <v>111</v>
       </c>
       <c r="C52" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="D52" s="10">
         <v>5.2</v>
       </c>
       <c r="E52" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="F52" s="10">
         <v>5.1</v>
       </c>
       <c r="G52" s="10">
-        <v>13.6</v>
+        <v>15.4</v>
       </c>
       <c r="H52" s="10">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="Y52" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53">
@@ -2999,25 +3026,25 @@
         <v>112</v>
       </c>
       <c r="C53" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D53" s="10">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="E53" s="10">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="F53" s="10">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="G53" s="10">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H53" s="10">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="Y53" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -3028,25 +3055,25 @@
         <v>113</v>
       </c>
       <c r="C54" s="10">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="D54" s="10">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="E54" s="10">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="F54" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G54" s="10">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="H54" s="10">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="Y54" s="10">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="55">
@@ -3057,25 +3084,25 @@
         <v>114</v>
       </c>
       <c r="C55" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="D55" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="E55" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="F55" s="10">
         <v>5.4</v>
       </c>
-      <c r="D55" s="10">
-        <v>5.4</v>
-      </c>
-      <c r="E55" s="10">
-        <v>5.6</v>
-      </c>
-      <c r="F55" s="10">
-        <v>5.1</v>
-      </c>
       <c r="G55" s="10">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="H55" s="10">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y55" s="10">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="56">
@@ -3086,46 +3113,25 @@
         <v>115</v>
       </c>
       <c r="C56" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="D56" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="E56" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="F56" s="10">
         <v>5.2</v>
       </c>
-      <c r="D56" s="10">
-        <v>5.1</v>
-      </c>
       <c r="G56" s="10">
-        <v>12.3</v>
+        <v>13.1</v>
       </c>
       <c r="H56" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="N56" s="10">
-        <v>141212</v>
-      </c>
-      <c r="O56" s="10">
-        <v>90220</v>
-      </c>
-      <c r="P56" s="10">
-        <v>50992</v>
-      </c>
-      <c r="Q56" s="10">
-        <v>204</v>
-      </c>
-      <c r="T56" s="10">
-        <v>8.52</v>
-      </c>
-      <c r="U56" s="10">
-        <v>7.07</v>
-      </c>
-      <c r="V56" s="10">
-        <v>1.45</v>
-      </c>
-      <c r="W56" s="10">
-        <v>63.89</v>
-      </c>
-      <c r="X56" s="10">
-        <v>7971991</v>
+        <v>5</v>
       </c>
       <c r="Y56" s="10">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="57">
@@ -3136,19 +3142,25 @@
         <v>116</v>
       </c>
       <c r="C57" s="10">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="D57" s="10">
-        <v>5.2</v>
+        <v>5.4</v>
+      </c>
+      <c r="E57" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="F57" s="10">
+        <v>5.1</v>
       </c>
       <c r="G57" s="10">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="H57" s="10">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="Y57" s="10">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="58">
@@ -3159,19 +3171,46 @@
         <v>117</v>
       </c>
       <c r="C58" s="10">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D58" s="10">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="G58" s="10">
-        <v>13.2</v>
+        <v>12.3</v>
       </c>
       <c r="H58" s="10">
-        <v>4.8</v>
+        <v>4.7</v>
+      </c>
+      <c r="N58" s="10">
+        <v>141212</v>
+      </c>
+      <c r="O58" s="10">
+        <v>90220</v>
+      </c>
+      <c r="P58" s="10">
+        <v>50992</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>204</v>
+      </c>
+      <c r="T58" s="10">
+        <v>8.52</v>
+      </c>
+      <c r="U58" s="10">
+        <v>7.07</v>
+      </c>
+      <c r="V58" s="10">
+        <v>1.45</v>
+      </c>
+      <c r="W58" s="10">
+        <v>63.89</v>
+      </c>
+      <c r="X58" s="10">
+        <v>7971991</v>
       </c>
       <c r="Y58" s="10">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="59">
@@ -3182,19 +3221,19 @@
         <v>118</v>
       </c>
       <c r="C59" s="10">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="D59" s="10">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="G59" s="10">
-        <v>15</v>
+        <v>12.8</v>
       </c>
       <c r="H59" s="10">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y59" s="10">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="60">
@@ -3205,19 +3244,19 @@
         <v>119</v>
       </c>
       <c r="C60" s="10">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="D60" s="10">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="G60" s="10">
-        <v>16.8</v>
+        <v>13.2</v>
       </c>
       <c r="H60" s="10">
         <v>4.8</v>
       </c>
       <c r="Y60" s="10">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="61">
@@ -3228,19 +3267,19 @@
         <v>120</v>
       </c>
       <c r="C61" s="10">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="D61" s="10">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="G61" s="10">
-        <v>16.8</v>
+        <v>15</v>
       </c>
       <c r="H61" s="10">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="Y61" s="10">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="62">
@@ -3251,19 +3290,19 @@
         <v>121</v>
       </c>
       <c r="C62" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="D62" s="10">
         <v>5.7</v>
       </c>
-      <c r="D62" s="10">
-        <v>5.8</v>
-      </c>
       <c r="G62" s="10">
-        <v>15.4</v>
+        <v>16.8</v>
       </c>
       <c r="H62" s="10">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="Y62" s="10">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="63">
@@ -3274,19 +3313,19 @@
         <v>122</v>
       </c>
       <c r="C63" s="10">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="D63" s="10">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G63" s="10">
-        <v>14.8</v>
+        <v>16.8</v>
       </c>
       <c r="H63" s="10">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Y63" s="10">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="64">
@@ -3297,19 +3336,19 @@
         <v>123</v>
       </c>
       <c r="C64" s="10">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="D64" s="10">
         <v>5.8</v>
       </c>
       <c r="G64" s="10">
-        <v>13.8</v>
+        <v>15.4</v>
       </c>
       <c r="H64" s="10">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="Y64" s="10">
-        <v>6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="65">
@@ -3323,10 +3362,10 @@
         <v>5.9</v>
       </c>
       <c r="D65" s="10">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="G65" s="10">
-        <v>13.3</v>
+        <v>14.8</v>
       </c>
       <c r="H65" s="10">
         <v>5.4</v>
@@ -3343,19 +3382,19 @@
         <v>125</v>
       </c>
       <c r="C66" s="10">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="D66" s="10">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G66" s="10">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="H66" s="10">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y66" s="10">
-        <v>6.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3366,19 +3405,19 @@
         <v>126</v>
       </c>
       <c r="C67" s="10">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="D67" s="10">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G67" s="10">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
       <c r="H67" s="10">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="Y67" s="10">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="68">
@@ -3389,52 +3428,19 @@
         <v>127</v>
       </c>
       <c r="C68" s="10">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="D68" s="10">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="G68" s="10">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="H68" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="N68" s="10">
-        <v>141008</v>
-      </c>
-      <c r="O68" s="10">
-        <v>88426</v>
-      </c>
-      <c r="P68" s="10">
-        <v>52582</v>
-      </c>
-      <c r="Q68" s="10">
-        <v>467</v>
-      </c>
-      <c r="R68" s="10">
-        <v>1706</v>
-      </c>
-      <c r="S68" s="10">
-        <v>-1239</v>
-      </c>
-      <c r="T68" s="10">
-        <v>10.41</v>
-      </c>
-      <c r="U68" s="10">
-        <v>7.09</v>
-      </c>
-      <c r="V68" s="10">
-        <v>3.32</v>
-      </c>
-      <c r="W68" s="10">
-        <v>60.6</v>
-      </c>
-      <c r="X68" s="10">
-        <v>7585298</v>
+        <v>5.6</v>
       </c>
       <c r="Y68" s="10">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="69">
@@ -3445,19 +3451,19 @@
         <v>128</v>
       </c>
       <c r="C69" s="10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="D69" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G69" s="10">
         <v>12.5</v>
       </c>
       <c r="H69" s="10">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y69" s="10">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="70">
@@ -3468,19 +3474,52 @@
         <v>129</v>
       </c>
       <c r="C70" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D70" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G70" s="10">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="H70" s="10">
-        <v>4.6</v>
+        <v>4.7</v>
+      </c>
+      <c r="N70" s="10">
+        <v>141008</v>
+      </c>
+      <c r="O70" s="10">
+        <v>88426</v>
+      </c>
+      <c r="P70" s="10">
+        <v>52582</v>
+      </c>
+      <c r="Q70" s="10">
+        <v>467</v>
+      </c>
+      <c r="R70" s="10">
+        <v>1706</v>
+      </c>
+      <c r="S70" s="10">
+        <v>-1239</v>
+      </c>
+      <c r="T70" s="10">
+        <v>10.41</v>
+      </c>
+      <c r="U70" s="10">
+        <v>7.09</v>
+      </c>
+      <c r="V70" s="10">
+        <v>3.32</v>
+      </c>
+      <c r="W70" s="10">
+        <v>60.6</v>
+      </c>
+      <c r="X70" s="10">
+        <v>7585298</v>
       </c>
       <c r="Y70" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="71">
@@ -3491,19 +3530,19 @@
         <v>130</v>
       </c>
       <c r="C71" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="D71" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G71" s="10">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="H71" s="10">
         <v>4.6</v>
       </c>
       <c r="Y71" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="72">
@@ -3514,19 +3553,19 @@
         <v>131</v>
       </c>
       <c r="C72" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="D72" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="G72" s="10">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="H72" s="10">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y72" s="10">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="73">
@@ -3537,19 +3576,19 @@
         <v>132</v>
       </c>
       <c r="C73" s="10">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="D73" s="10">
         <v>5.2</v>
       </c>
       <c r="G73" s="10">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="H73" s="10">
         <v>4.6</v>
       </c>
       <c r="Y73" s="10">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="74">
@@ -3560,19 +3599,19 @@
         <v>133</v>
       </c>
       <c r="C74" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D74" s="10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G74" s="10">
-        <v>11.6</v>
+        <v>13.1</v>
       </c>
       <c r="H74" s="10">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y74" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="75">
@@ -3583,19 +3622,19 @@
         <v>134</v>
       </c>
       <c r="C75" s="10">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D75" s="10">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G75" s="10">
-        <v>10.5</v>
+        <v>13.9</v>
       </c>
       <c r="H75" s="10">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y75" s="10">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="76">
@@ -3606,19 +3645,19 @@
         <v>135</v>
       </c>
       <c r="C76" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D76" s="10">
         <v>5</v>
       </c>
       <c r="G76" s="10">
-        <v>9.9</v>
+        <v>11.6</v>
       </c>
       <c r="H76" s="10">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y76" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="77">
@@ -3629,19 +3668,19 @@
         <v>136</v>
       </c>
       <c r="C77" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D77" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G77" s="10">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="H77" s="10">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="Y77" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -3652,19 +3691,19 @@
         <v>137</v>
       </c>
       <c r="C78" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="D78" s="10">
         <v>5</v>
       </c>
       <c r="G78" s="10">
-        <v>11</v>
+        <v>9.9</v>
       </c>
       <c r="H78" s="10">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Y78" s="10">
-        <v>5.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -3675,19 +3714,19 @@
         <v>138</v>
       </c>
       <c r="C79" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="D79" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="G79" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="H79" s="10">
         <v>4.8</v>
       </c>
-      <c r="G79" s="10">
-        <v>11.2</v>
-      </c>
-      <c r="H79" s="10">
-        <v>4.6</v>
-      </c>
       <c r="Y79" s="10">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="80">
@@ -3698,52 +3737,19 @@
         <v>139</v>
       </c>
       <c r="C80" s="10">
+        <v>5.3</v>
+      </c>
+      <c r="D80" s="10">
+        <v>5</v>
+      </c>
+      <c r="G80" s="10">
+        <v>11</v>
+      </c>
+      <c r="H80" s="10">
         <v>4.9</v>
       </c>
-      <c r="D80" s="10">
-        <v>4.7</v>
-      </c>
-      <c r="G80" s="10">
-        <v>10.1</v>
-      </c>
-      <c r="H80" s="10">
-        <v>4.4</v>
-      </c>
-      <c r="N80" s="10">
-        <v>140541</v>
-      </c>
-      <c r="O80" s="10">
-        <v>86433</v>
-      </c>
-      <c r="P80" s="10">
-        <v>54108</v>
-      </c>
-      <c r="Q80" s="10">
-        <v>530</v>
-      </c>
-      <c r="R80" s="10">
-        <v>1790</v>
-      </c>
-      <c r="S80" s="10">
-        <v>-1260</v>
-      </c>
-      <c r="T80" s="10">
-        <v>10.86</v>
-      </c>
-      <c r="U80" s="10">
-        <v>7.08</v>
-      </c>
-      <c r="V80" s="10">
-        <v>3.78</v>
-      </c>
-      <c r="W80" s="10">
-        <v>59.58</v>
-      </c>
-      <c r="X80" s="10">
-        <v>7533087</v>
-      </c>
       <c r="Y80" s="10">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="81">
@@ -3754,19 +3760,19 @@
         <v>140</v>
       </c>
       <c r="C81" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="D81" s="10">
         <v>4.8</v>
       </c>
-      <c r="D81" s="10">
-        <v>4.7</v>
-      </c>
       <c r="G81" s="10">
-        <v>10</v>
+        <v>11.2</v>
       </c>
       <c r="H81" s="10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y81" s="10">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="82">
@@ -3783,10 +3789,43 @@
         <v>4.7</v>
       </c>
       <c r="G82" s="10">
-        <v>9.8</v>
+        <v>10.1</v>
       </c>
       <c r="H82" s="10">
         <v>4.4</v>
+      </c>
+      <c r="N82" s="10">
+        <v>140541</v>
+      </c>
+      <c r="O82" s="10">
+        <v>86433</v>
+      </c>
+      <c r="P82" s="10">
+        <v>54108</v>
+      </c>
+      <c r="Q82" s="10">
+        <v>530</v>
+      </c>
+      <c r="R82" s="10">
+        <v>1790</v>
+      </c>
+      <c r="S82" s="10">
+        <v>-1260</v>
+      </c>
+      <c r="T82" s="10">
+        <v>10.86</v>
+      </c>
+      <c r="U82" s="10">
+        <v>7.08</v>
+      </c>
+      <c r="V82" s="10">
+        <v>3.78</v>
+      </c>
+      <c r="W82" s="10">
+        <v>59.58</v>
+      </c>
+      <c r="X82" s="10">
+        <v>7533087</v>
       </c>
       <c r="Y82" s="10">
         <v>4.9</v>
@@ -3800,19 +3839,19 @@
         <v>142</v>
       </c>
       <c r="C83" s="10">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D83" s="10">
         <v>4.7</v>
       </c>
       <c r="G83" s="10">
-        <v>11.2</v>
+        <v>10</v>
       </c>
       <c r="H83" s="10">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y83" s="10">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="84">
@@ -3823,19 +3862,19 @@
         <v>143</v>
       </c>
       <c r="C84" s="10">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D84" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="G84" s="10">
+        <v>9.8</v>
+      </c>
+      <c r="H84" s="10">
+        <v>4.4</v>
+      </c>
+      <c r="Y84" s="10">
         <v>4.9</v>
-      </c>
-      <c r="G84" s="10">
-        <v>13.1</v>
-      </c>
-      <c r="H84" s="10">
-        <v>4.3</v>
-      </c>
-      <c r="Y84" s="10">
-        <v>5</v>
       </c>
     </row>
     <row r="85">
@@ -3846,19 +3885,19 @@
         <v>144</v>
       </c>
       <c r="C85" s="10">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="D85" s="10">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="G85" s="10">
-        <v>13.3</v>
+        <v>11.2</v>
       </c>
       <c r="H85" s="10">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y85" s="10">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="86">
@@ -3869,19 +3908,19 @@
         <v>145</v>
       </c>
       <c r="C86" s="10">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D86" s="10">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="G86" s="10">
-        <v>10</v>
+        <v>13.1</v>
       </c>
       <c r="H86" s="10">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y86" s="10">
-        <v>4.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
@@ -3892,19 +3931,19 @@
         <v>146</v>
       </c>
       <c r="C87" s="10">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D87" s="10">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G87" s="10">
-        <v>9.6</v>
+        <v>13.3</v>
       </c>
       <c r="H87" s="10">
         <v>4.4</v>
       </c>
       <c r="Y87" s="10">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="88">
@@ -3915,19 +3954,19 @@
         <v>147</v>
       </c>
       <c r="C88" s="10">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="D88" s="10">
         <v>4.7</v>
       </c>
       <c r="G88" s="10">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="H88" s="10">
         <v>4.4</v>
       </c>
       <c r="Y88" s="10">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="89">
@@ -3938,19 +3977,19 @@
         <v>148</v>
       </c>
       <c r="C89" s="10">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="D89" s="10">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G89" s="10">
-        <v>10.4</v>
+        <v>9.6</v>
       </c>
       <c r="H89" s="10">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Y89" s="10">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="90">
@@ -3961,19 +4000,19 @@
         <v>149</v>
       </c>
       <c r="C90" s="10">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="D90" s="10">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G90" s="10">
-        <v>11</v>
+        <v>10.1</v>
       </c>
       <c r="H90" s="10">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y90" s="10">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="91">
@@ -3984,19 +4023,19 @@
         <v>150</v>
       </c>
       <c r="C91" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="D91" s="10">
         <v>4.9</v>
       </c>
       <c r="G91" s="10">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="H91" s="10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="Y91" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="92">
@@ -4009,38 +4048,14 @@
       <c r="C92" s="10">
         <v>5</v>
       </c>
-      <c r="N92" s="10">
-        <v>140011</v>
-      </c>
-      <c r="O92" s="10">
-        <v>84343</v>
-      </c>
-      <c r="P92" s="10">
-        <v>55668</v>
-      </c>
-      <c r="Q92" s="10">
-        <v>737</v>
-      </c>
-      <c r="R92" s="10">
-        <v>2049</v>
-      </c>
-      <c r="S92" s="10">
-        <v>-1312</v>
-      </c>
-      <c r="T92" s="10">
-        <v>12.64</v>
-      </c>
-      <c r="U92" s="10">
-        <v>7.06</v>
-      </c>
-      <c r="V92" s="10">
-        <v>5.58</v>
-      </c>
-      <c r="W92" s="10">
-        <v>58.52</v>
-      </c>
-      <c r="X92" s="10">
-        <v>7358287</v>
+      <c r="D92" s="10">
+        <v>4.8</v>
+      </c>
+      <c r="G92" s="10">
+        <v>11</v>
+      </c>
+      <c r="H92" s="10">
+        <v>4.5</v>
       </c>
       <c r="Y92" s="10">
         <v>5</v>
@@ -4054,10 +4069,19 @@
         <v>152</v>
       </c>
       <c r="C93" s="10">
+        <v>5</v>
+      </c>
+      <c r="D93" s="10">
         <v>4.9</v>
       </c>
+      <c r="G93" s="10">
+        <v>11.2</v>
+      </c>
+      <c r="H93" s="10">
+        <v>4.4</v>
+      </c>
       <c r="Y93" s="10">
-        <v>4.9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -4070,6 +4094,39 @@
       <c r="C94" s="10">
         <v>5</v>
       </c>
+      <c r="N94" s="10">
+        <v>140011</v>
+      </c>
+      <c r="O94" s="10">
+        <v>84343</v>
+      </c>
+      <c r="P94" s="10">
+        <v>55668</v>
+      </c>
+      <c r="Q94" s="10">
+        <v>737</v>
+      </c>
+      <c r="R94" s="10">
+        <v>2049</v>
+      </c>
+      <c r="S94" s="10">
+        <v>-1312</v>
+      </c>
+      <c r="T94" s="10">
+        <v>12.64</v>
+      </c>
+      <c r="U94" s="10">
+        <v>7.06</v>
+      </c>
+      <c r="V94" s="10">
+        <v>5.58</v>
+      </c>
+      <c r="W94" s="10">
+        <v>58.52</v>
+      </c>
+      <c r="X94" s="10">
+        <v>7358287</v>
+      </c>
       <c r="Y94" s="10">
         <v>5</v>
       </c>
@@ -4082,10 +4139,10 @@
         <v>154</v>
       </c>
       <c r="C95" s="10">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y95" s="10">
-        <v>5</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="96">
@@ -4110,10 +4167,10 @@
         <v>156</v>
       </c>
       <c r="C97" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y97" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
@@ -4126,9 +4183,6 @@
       <c r="C98" s="10">
         <v>5</v>
       </c>
-      <c r="D98" s="10">
-        <v>5</v>
-      </c>
       <c r="Y98" s="10">
         <v>5</v>
       </c>
@@ -4141,10 +4195,10 @@
         <v>158</v>
       </c>
       <c r="C99" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y99" s="10">
-        <v>5</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="100">
@@ -4157,6 +4211,9 @@
       <c r="C100" s="10">
         <v>5</v>
       </c>
+      <c r="D100" s="10">
+        <v>5</v>
+      </c>
       <c r="Y100" s="10">
         <v>5</v>
       </c>
@@ -4168,7 +4225,10 @@
       <c r="B101" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D101" s="10">
+      <c r="C101" s="10">
+        <v>5</v>
+      </c>
+      <c r="Y101" s="10">
         <v>5</v>
       </c>
     </row>
@@ -4194,40 +4254,7 @@
         <v>162</v>
       </c>
       <c r="D103" s="10">
-        <v>5.1</v>
-      </c>
-      <c r="N103" s="10">
-        <v>139232</v>
-      </c>
-      <c r="O103" s="10">
-        <v>81924</v>
-      </c>
-      <c r="P103" s="10">
-        <v>57308</v>
-      </c>
-      <c r="Q103" s="10">
-        <v>809</v>
-      </c>
-      <c r="R103" s="10">
-        <v>2182</v>
-      </c>
-      <c r="S103" s="10">
-        <v>-1373</v>
-      </c>
-      <c r="T103" s="10">
-        <v>13.57</v>
-      </c>
-      <c r="U103" s="10">
-        <v>7.04</v>
-      </c>
-      <c r="V103" s="10">
-        <v>6.53</v>
-      </c>
-      <c r="W103" s="10">
-        <v>57.35</v>
-      </c>
-      <c r="X103" s="10">
-        <v>7041800</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104">
@@ -4251,11 +4278,41 @@
       <c r="B105" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C105" s="10">
-        <v>5</v>
-      </c>
-      <c r="Y105" s="10">
-        <v>5</v>
+      <c r="D105" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="N105" s="10">
+        <v>139232</v>
+      </c>
+      <c r="O105" s="10">
+        <v>81924</v>
+      </c>
+      <c r="P105" s="10">
+        <v>57308</v>
+      </c>
+      <c r="Q105" s="10">
+        <v>809</v>
+      </c>
+      <c r="R105" s="10">
+        <v>2182</v>
+      </c>
+      <c r="S105" s="10">
+        <v>-1373</v>
+      </c>
+      <c r="T105" s="10">
+        <v>13.57</v>
+      </c>
+      <c r="U105" s="10">
+        <v>7.04</v>
+      </c>
+      <c r="V105" s="10">
+        <v>6.53</v>
+      </c>
+      <c r="W105" s="10">
+        <v>57.35</v>
+      </c>
+      <c r="X105" s="10">
+        <v>7041800</v>
       </c>
     </row>
     <row r="106">
@@ -4268,9 +4325,6 @@
       <c r="C106" s="10">
         <v>5</v>
       </c>
-      <c r="D106" s="10">
-        <v>5</v>
-      </c>
       <c r="Y106" s="10">
         <v>5</v>
       </c>
@@ -4283,10 +4337,10 @@
         <v>166</v>
       </c>
       <c r="C107" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y107" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
@@ -4297,13 +4351,13 @@
         <v>167</v>
       </c>
       <c r="C108" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D108" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y108" s="10">
-        <v>5.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109">
@@ -4328,13 +4382,13 @@
         <v>169</v>
       </c>
       <c r="C110" s="10">
-        <v>5.12</v>
+        <v>5.2</v>
       </c>
       <c r="D110" s="10">
-        <v>5.12</v>
+        <v>5.2</v>
       </c>
       <c r="Y110" s="10">
-        <v>5.12</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="111">
@@ -4359,10 +4413,13 @@
         <v>171</v>
       </c>
       <c r="C112" s="10">
-        <v>4.99</v>
+        <v>5.12</v>
+      </c>
+      <c r="D112" s="10">
+        <v>5.12</v>
       </c>
       <c r="Y112" s="10">
-        <v>4.99</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="113">
@@ -4372,38 +4429,11 @@
       <c r="B113" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="N113" s="10">
-        <v>138326</v>
-      </c>
-      <c r="O113" s="10">
-        <v>79302</v>
-      </c>
-      <c r="P113" s="10">
-        <v>59024</v>
-      </c>
-      <c r="Q113" s="10">
-        <v>680</v>
-      </c>
-      <c r="R113" s="10">
-        <v>2200</v>
-      </c>
-      <c r="S113" s="10">
-        <v>-1520</v>
-      </c>
-      <c r="T113" s="10">
-        <v>11.99</v>
-      </c>
-      <c r="U113" s="10">
-        <v>7.07</v>
-      </c>
-      <c r="V113" s="10">
-        <v>4.93</v>
-      </c>
-      <c r="W113" s="10">
-        <v>56.1</v>
-      </c>
-      <c r="X113" s="10">
-        <v>6808866</v>
+      <c r="C113" s="10">
+        <v>5.1</v>
+      </c>
+      <c r="Y113" s="10">
+        <v>5.1</v>
       </c>
     </row>
     <row r="114">
@@ -4413,8 +4443,11 @@
       <c r="B114" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D114" s="10">
-        <v>5</v>
+      <c r="C114" s="10">
+        <v>4.99</v>
+      </c>
+      <c r="Y114" s="10">
+        <v>4.99</v>
       </c>
     </row>
     <row r="115">
@@ -4424,8 +4457,38 @@
       <c r="B115" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D115" s="10">
-        <v>5.1</v>
+      <c r="N115" s="10">
+        <v>138326</v>
+      </c>
+      <c r="O115" s="10">
+        <v>79302</v>
+      </c>
+      <c r="P115" s="10">
+        <v>59024</v>
+      </c>
+      <c r="Q115" s="10">
+        <v>680</v>
+      </c>
+      <c r="R115" s="10">
+        <v>2200</v>
+      </c>
+      <c r="S115" s="10">
+        <v>-1520</v>
+      </c>
+      <c r="T115" s="10">
+        <v>11.99</v>
+      </c>
+      <c r="U115" s="10">
+        <v>7.07</v>
+      </c>
+      <c r="V115" s="10">
+        <v>4.93</v>
+      </c>
+      <c r="W115" s="10">
+        <v>56.1</v>
+      </c>
+      <c r="X115" s="10">
+        <v>6808866</v>
       </c>
     </row>
     <row r="116">
@@ -4436,7 +4499,7 @@
         <v>175</v>
       </c>
       <c r="D116" s="10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
@@ -4446,38 +4509,8 @@
       <c r="B117" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="N117" s="10">
-        <v>137646</v>
-      </c>
-      <c r="O117" s="10">
-        <v>76738</v>
-      </c>
-      <c r="P117" s="10">
-        <v>60908</v>
-      </c>
-      <c r="Q117" s="10">
-        <v>710</v>
-      </c>
-      <c r="R117" s="10">
-        <v>1805</v>
-      </c>
-      <c r="S117" s="10">
-        <v>-1095</v>
-      </c>
-      <c r="T117" s="10">
-        <v>13.83</v>
-      </c>
-      <c r="U117" s="10">
-        <v>7.12</v>
-      </c>
-      <c r="V117" s="10">
-        <v>6.71</v>
-      </c>
-      <c r="W117" s="10">
-        <v>54.77</v>
-      </c>
-      <c r="X117" s="10">
-        <v>6593671</v>
+      <c r="D117" s="10">
+        <v>5.1</v>
       </c>
     </row>
     <row r="118">
@@ -4487,38 +4520,8 @@
       <c r="B118" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="N118" s="10">
-        <v>136726</v>
-      </c>
-      <c r="O118" s="10">
-        <v>74502</v>
-      </c>
-      <c r="P118" s="10">
-        <v>62224</v>
-      </c>
-      <c r="Q118" s="10">
-        <v>668</v>
-      </c>
-      <c r="R118" s="10">
-        <v>1929</v>
-      </c>
-      <c r="S118" s="10">
-        <v>-1261</v>
-      </c>
-      <c r="T118" s="10">
-        <v>13.03</v>
-      </c>
-      <c r="U118" s="10">
-        <v>7.13</v>
-      </c>
-      <c r="V118" s="10">
-        <v>5.9</v>
-      </c>
-      <c r="W118" s="10">
-        <v>53.7</v>
-      </c>
-      <c r="X118" s="10">
-        <v>6387210</v>
+      <c r="D118" s="10">
+        <v>5.1</v>
       </c>
     </row>
     <row r="119">
@@ -4529,37 +4532,37 @@
         <v>178</v>
       </c>
       <c r="N119" s="10">
-        <v>135922</v>
+        <v>137646</v>
       </c>
       <c r="O119" s="10">
-        <v>72175</v>
+        <v>76738</v>
       </c>
       <c r="P119" s="10">
-        <v>63747</v>
+        <v>60908</v>
       </c>
       <c r="Q119" s="10">
-        <v>669</v>
+        <v>710</v>
       </c>
       <c r="R119" s="10">
-        <v>2103</v>
+        <v>1805</v>
       </c>
       <c r="S119" s="10">
-        <v>-1434</v>
+        <v>-1095</v>
       </c>
       <c r="T119" s="10">
-        <v>14.57</v>
+        <v>13.83</v>
       </c>
       <c r="U119" s="10">
-        <v>7.13</v>
+        <v>7.12</v>
       </c>
       <c r="V119" s="10">
-        <v>7.43</v>
+        <v>6.71</v>
       </c>
       <c r="W119" s="10">
-        <v>52.57</v>
+        <v>54.77</v>
       </c>
       <c r="X119" s="10">
-        <v>6247338</v>
+        <v>6593671</v>
       </c>
     </row>
     <row r="120">
@@ -4570,37 +4573,37 @@
         <v>179</v>
       </c>
       <c r="N120" s="10">
-        <v>134916</v>
+        <v>136726</v>
       </c>
       <c r="O120" s="10">
-        <v>69927</v>
+        <v>74502</v>
       </c>
       <c r="P120" s="10">
-        <v>64989</v>
+        <v>62224</v>
       </c>
       <c r="Q120" s="10">
-        <v>644</v>
+        <v>668</v>
       </c>
       <c r="R120" s="10">
-        <v>2100</v>
+        <v>1929</v>
       </c>
       <c r="S120" s="10">
-        <v>-1456</v>
+        <v>-1261</v>
       </c>
       <c r="T120" s="10">
-        <v>13.27</v>
+        <v>13.03</v>
       </c>
       <c r="U120" s="10">
-        <v>7.14</v>
+        <v>7.13</v>
       </c>
       <c r="V120" s="10">
-        <v>6.13</v>
+        <v>5.9</v>
       </c>
       <c r="W120" s="10">
-        <v>51.27</v>
+        <v>53.7</v>
       </c>
       <c r="X120" s="10">
-        <v>6081565</v>
+        <v>6387210</v>
       </c>
     </row>
     <row r="121">
@@ -4611,31 +4614,37 @@
         <v>180</v>
       </c>
       <c r="N121" s="10">
-        <v>134091</v>
+        <v>135922</v>
       </c>
       <c r="O121" s="10">
-        <v>66978</v>
+        <v>72175</v>
       </c>
       <c r="P121" s="10">
-        <v>67113</v>
+        <v>63747</v>
       </c>
       <c r="Q121" s="10">
-        <v>649</v>
+        <v>669</v>
+      </c>
+      <c r="R121" s="10">
+        <v>2103</v>
+      </c>
+      <c r="S121" s="10">
+        <v>-1434</v>
       </c>
       <c r="T121" s="10">
-        <v>11.9</v>
+        <v>14.57</v>
       </c>
       <c r="U121" s="10">
-        <v>7.11</v>
+        <v>7.13</v>
       </c>
       <c r="V121" s="10">
-        <v>4.79</v>
+        <v>7.43</v>
       </c>
       <c r="W121" s="10">
-        <v>49.95</v>
+        <v>52.57</v>
       </c>
       <c r="X121" s="10">
-        <v>5754245</v>
+        <v>6247338</v>
       </c>
     </row>
     <row r="122">
@@ -4646,31 +4655,37 @@
         <v>181</v>
       </c>
       <c r="N122" s="10">
-        <v>133450</v>
+        <v>134916</v>
       </c>
       <c r="O122" s="10">
-        <v>64512</v>
+        <v>69927</v>
       </c>
       <c r="P122" s="10">
-        <v>68938</v>
+        <v>64989</v>
       </c>
       <c r="Q122" s="10">
-        <v>672</v>
+        <v>644</v>
+      </c>
+      <c r="R122" s="10">
+        <v>2100</v>
+      </c>
+      <c r="S122" s="10">
+        <v>-1456</v>
       </c>
       <c r="T122" s="10">
-        <v>11.95</v>
+        <v>13.27</v>
       </c>
       <c r="U122" s="10">
-        <v>7.08</v>
+        <v>7.14</v>
       </c>
       <c r="V122" s="10">
-        <v>4.87</v>
+        <v>6.13</v>
       </c>
       <c r="W122" s="10">
-        <v>48.34</v>
+        <v>51.27</v>
       </c>
       <c r="X122" s="10">
-        <v>5311023</v>
+        <v>6081565</v>
       </c>
     </row>
     <row r="123">
@@ -4681,31 +4696,31 @@
         <v>182</v>
       </c>
       <c r="N123" s="10">
-        <v>132802</v>
+        <v>134091</v>
       </c>
       <c r="O123" s="10">
-        <v>62403</v>
+        <v>66978</v>
       </c>
       <c r="P123" s="10">
-        <v>70399</v>
+        <v>67113</v>
       </c>
       <c r="Q123" s="10">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="T123" s="10">
-        <v>12.14</v>
+        <v>11.9</v>
       </c>
       <c r="U123" s="10">
-        <v>7.06</v>
+        <v>7.11</v>
       </c>
       <c r="V123" s="10">
-        <v>5.08</v>
+        <v>4.79</v>
       </c>
       <c r="W123" s="10">
-        <v>46.99</v>
+        <v>49.95</v>
       </c>
       <c r="X123" s="10">
-        <v>5119498</v>
+        <v>5754245</v>
       </c>
     </row>
     <row r="124">
@@ -4716,31 +4731,31 @@
         <v>183</v>
       </c>
       <c r="N124" s="10">
-        <v>132129</v>
+        <v>133450</v>
       </c>
       <c r="O124" s="10">
-        <v>60633</v>
+        <v>64512</v>
       </c>
       <c r="P124" s="10">
-        <v>71496</v>
+        <v>68938</v>
       </c>
       <c r="Q124" s="10">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="T124" s="10">
-        <v>12.1</v>
+        <v>11.95</v>
       </c>
       <c r="U124" s="10">
-        <v>6.93</v>
+        <v>7.08</v>
       </c>
       <c r="V124" s="10">
-        <v>5.17</v>
+        <v>4.87</v>
       </c>
       <c r="W124" s="10">
-        <v>45.89</v>
+        <v>48.34</v>
       </c>
       <c r="X124" s="10">
-        <v>4477907</v>
+        <v>5311023</v>
       </c>
     </row>
     <row r="125">
@@ -4751,31 +4766,31 @@
         <v>184</v>
       </c>
       <c r="N125" s="10">
-        <v>131448</v>
+        <v>132802</v>
       </c>
       <c r="O125" s="10">
-        <v>58288</v>
+        <v>62403</v>
       </c>
       <c r="P125" s="10">
-        <v>73160</v>
+        <v>70399</v>
       </c>
       <c r="Q125" s="10">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="T125" s="10">
-        <v>12.09</v>
+        <v>12.14</v>
       </c>
       <c r="U125" s="10">
-        <v>6.81</v>
+        <v>7.06</v>
       </c>
       <c r="V125" s="10">
-        <v>5.28</v>
+        <v>5.08</v>
       </c>
       <c r="W125" s="10">
-        <v>44.34</v>
+        <v>46.99</v>
       </c>
       <c r="X125" s="10">
-        <v>3774708</v>
+        <v>5119498</v>
       </c>
     </row>
     <row r="126">
@@ -4786,31 +4801,31 @@
         <v>185</v>
       </c>
       <c r="N126" s="10">
-        <v>130756</v>
+        <v>132129</v>
       </c>
       <c r="O126" s="10">
-        <v>56212</v>
+        <v>60633</v>
       </c>
       <c r="P126" s="10">
-        <v>74544</v>
+        <v>71496</v>
       </c>
       <c r="Q126" s="10">
-        <v>768</v>
+        <v>681</v>
       </c>
       <c r="T126" s="10">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="U126" s="10">
-        <v>6.51</v>
+        <v>6.93</v>
       </c>
       <c r="V126" s="10">
-        <v>5.89</v>
+        <v>5.17</v>
       </c>
       <c r="W126" s="10">
-        <v>42.99</v>
+        <v>45.89</v>
       </c>
       <c r="X126" s="10">
-        <v>3067956</v>
+        <v>4477907</v>
       </c>
     </row>
     <row r="127">
@@ -4821,31 +4836,31 @@
         <v>186</v>
       </c>
       <c r="N127" s="10">
-        <v>129988</v>
+        <v>131448</v>
       </c>
       <c r="O127" s="10">
-        <v>54283</v>
+        <v>58288</v>
       </c>
       <c r="P127" s="10">
-        <v>75705</v>
+        <v>73160</v>
       </c>
       <c r="Q127" s="10">
-        <v>761</v>
+        <v>692</v>
       </c>
       <c r="T127" s="10">
-        <v>12.29</v>
+        <v>12.09</v>
       </c>
       <c r="U127" s="10">
-        <v>6.42</v>
+        <v>6.81</v>
       </c>
       <c r="V127" s="10">
-        <v>5.87</v>
+        <v>5.28</v>
       </c>
       <c r="W127" s="10">
-        <v>41.76</v>
+        <v>44.34</v>
       </c>
       <c r="X127" s="10">
-        <v>2391200</v>
+        <v>3774708</v>
       </c>
     </row>
     <row r="128">
@@ -4856,31 +4871,31 @@
         <v>187</v>
       </c>
       <c r="N128" s="10">
-        <v>129227</v>
+        <v>130756</v>
       </c>
       <c r="O128" s="10">
-        <v>52376</v>
+        <v>56212</v>
       </c>
       <c r="P128" s="10">
-        <v>76851</v>
+        <v>74544</v>
       </c>
       <c r="Q128" s="10">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="T128" s="10">
-        <v>12.41</v>
+        <v>12.4</v>
       </c>
       <c r="U128" s="10">
-        <v>6.4</v>
+        <v>6.51</v>
       </c>
       <c r="V128" s="10">
-        <v>6.01</v>
+        <v>5.89</v>
       </c>
       <c r="W128" s="10">
-        <v>40.53</v>
+        <v>42.99</v>
       </c>
       <c r="X128" s="10">
-        <v>1877000</v>
+        <v>3067956</v>
       </c>
     </row>
     <row r="129">
@@ -4891,31 +4906,31 @@
         <v>188</v>
       </c>
       <c r="N129" s="10">
-        <v>128453</v>
+        <v>129988</v>
       </c>
       <c r="O129" s="10">
-        <v>50212</v>
+        <v>54283</v>
       </c>
       <c r="P129" s="10">
-        <v>78241</v>
+        <v>75705</v>
       </c>
       <c r="Q129" s="10">
-        <v>826</v>
+        <v>761</v>
       </c>
       <c r="T129" s="10">
-        <v>12.86</v>
+        <v>12.29</v>
       </c>
       <c r="U129" s="10">
-        <v>6.41</v>
+        <v>6.42</v>
       </c>
       <c r="V129" s="10">
-        <v>6.45</v>
+        <v>5.87</v>
       </c>
       <c r="W129" s="10">
-        <v>39.09</v>
+        <v>41.76</v>
       </c>
       <c r="X129" s="10">
-        <v>1337300</v>
+        <v>2391200</v>
       </c>
     </row>
     <row r="130">
@@ -4926,31 +4941,31 @@
         <v>189</v>
       </c>
       <c r="N130" s="10">
-        <v>127627</v>
+        <v>129227</v>
       </c>
       <c r="O130" s="10">
-        <v>48064</v>
+        <v>52376</v>
       </c>
       <c r="P130" s="10">
-        <v>79563</v>
+        <v>76851</v>
       </c>
       <c r="Q130" s="10">
-        <v>884</v>
+        <v>774</v>
       </c>
       <c r="T130" s="10">
-        <v>13.38</v>
+        <v>12.41</v>
       </c>
       <c r="U130" s="10">
-        <v>6.43</v>
+        <v>6.4</v>
       </c>
       <c r="V130" s="10">
-        <v>6.95</v>
+        <v>6.01</v>
       </c>
       <c r="W130" s="10">
-        <v>37.66</v>
+        <v>40.53</v>
       </c>
       <c r="X130" s="10">
-        <v>1036300</v>
+        <v>1877000</v>
       </c>
     </row>
     <row r="131">
@@ -4961,31 +4976,31 @@
         <v>190</v>
       </c>
       <c r="N131" s="10">
-        <v>126743</v>
+        <v>128453</v>
       </c>
       <c r="O131" s="10">
-        <v>45906</v>
+        <v>50212</v>
       </c>
       <c r="P131" s="10">
-        <v>80837</v>
+        <v>78241</v>
       </c>
       <c r="Q131" s="10">
-        <v>961</v>
+        <v>826</v>
       </c>
       <c r="T131" s="10">
-        <v>14.03</v>
+        <v>12.86</v>
       </c>
       <c r="U131" s="10">
+        <v>6.41</v>
+      </c>
+      <c r="V131" s="10">
         <v>6.45</v>
       </c>
-      <c r="V131" s="10">
-        <v>7.58</v>
-      </c>
       <c r="W131" s="10">
-        <v>36.22</v>
+        <v>39.09</v>
       </c>
       <c r="X131" s="10">
-        <v>949800</v>
+        <v>1337300</v>
       </c>
     </row>
     <row r="132">
@@ -4996,31 +5011,31 @@
         <v>191</v>
       </c>
       <c r="N132" s="10">
-        <v>125786</v>
+        <v>127627</v>
       </c>
       <c r="O132" s="10">
-        <v>43748</v>
+        <v>48064</v>
       </c>
       <c r="P132" s="10">
-        <v>82038</v>
+        <v>79563</v>
       </c>
       <c r="Q132" s="10">
-        <v>1099</v>
+        <v>884</v>
       </c>
       <c r="T132" s="10">
-        <v>14.64</v>
+        <v>13.38</v>
       </c>
       <c r="U132" s="10">
-        <v>6.46</v>
+        <v>6.43</v>
       </c>
       <c r="V132" s="10">
-        <v>8.18</v>
+        <v>6.95</v>
       </c>
       <c r="W132" s="10">
-        <v>34.78</v>
+        <v>37.66</v>
       </c>
       <c r="X132" s="10">
-        <v>847600</v>
+        <v>1036300</v>
       </c>
     </row>
     <row r="133">
@@ -5031,31 +5046,31 @@
         <v>192</v>
       </c>
       <c r="N133" s="10">
-        <v>124761</v>
+        <v>126743</v>
       </c>
       <c r="O133" s="10">
-        <v>41608</v>
+        <v>45906</v>
       </c>
       <c r="P133" s="10">
-        <v>83153</v>
+        <v>80837</v>
       </c>
       <c r="Q133" s="10">
-        <v>1184</v>
+        <v>961</v>
       </c>
       <c r="T133" s="10">
-        <v>15.64</v>
+        <v>14.03</v>
       </c>
       <c r="U133" s="10">
-        <v>6.5</v>
+        <v>6.45</v>
       </c>
       <c r="V133" s="10">
-        <v>9.14</v>
+        <v>7.58</v>
       </c>
       <c r="W133" s="10">
-        <v>33.35</v>
+        <v>36.22</v>
       </c>
       <c r="X133" s="10">
-        <v>830000</v>
+        <v>949800</v>
       </c>
     </row>
     <row r="134">
@@ -5066,31 +5081,31 @@
         <v>193</v>
       </c>
       <c r="N134" s="10">
-        <v>123626</v>
+        <v>125786</v>
       </c>
       <c r="O134" s="10">
-        <v>39449</v>
+        <v>43748</v>
       </c>
       <c r="P134" s="10">
-        <v>84177</v>
+        <v>82038</v>
       </c>
       <c r="Q134" s="10">
-        <v>1237</v>
+        <v>1099</v>
       </c>
       <c r="T134" s="10">
-        <v>16.57</v>
+        <v>14.64</v>
       </c>
       <c r="U134" s="10">
-        <v>6.51</v>
+        <v>6.46</v>
       </c>
       <c r="V134" s="10">
-        <v>10.06</v>
+        <v>8.18</v>
       </c>
       <c r="W134" s="10">
-        <v>31.91</v>
+        <v>34.78</v>
       </c>
       <c r="X134" s="10">
-        <v>829000</v>
+        <v>847600</v>
       </c>
     </row>
     <row r="135">
@@ -5101,31 +5116,31 @@
         <v>194</v>
       </c>
       <c r="N135" s="10">
-        <v>122389</v>
+        <v>124761</v>
       </c>
       <c r="O135" s="10">
-        <v>37304</v>
+        <v>41608</v>
       </c>
       <c r="P135" s="10">
-        <v>85085</v>
+        <v>83153</v>
       </c>
       <c r="Q135" s="10">
-        <v>1275</v>
+        <v>1184</v>
       </c>
       <c r="T135" s="10">
-        <v>16.98</v>
+        <v>15.64</v>
       </c>
       <c r="U135" s="10">
-        <v>6.56</v>
+        <v>6.5</v>
       </c>
       <c r="V135" s="10">
-        <v>10.42</v>
+        <v>9.14</v>
       </c>
       <c r="W135" s="10">
-        <v>30.48</v>
+        <v>33.35</v>
       </c>
       <c r="X135" s="10">
-        <v>839000</v>
+        <v>830000</v>
       </c>
     </row>
     <row r="136">
@@ -5136,31 +5151,31 @@
         <v>195</v>
       </c>
       <c r="N136" s="10">
-        <v>121121</v>
+        <v>123626</v>
       </c>
       <c r="O136" s="10">
-        <v>35174</v>
+        <v>39449</v>
       </c>
       <c r="P136" s="10">
-        <v>85947</v>
+        <v>84177</v>
       </c>
       <c r="Q136" s="10">
-        <v>1277</v>
+        <v>1237</v>
       </c>
       <c r="T136" s="10">
-        <v>17.12</v>
+        <v>16.57</v>
       </c>
       <c r="U136" s="10">
-        <v>6.57</v>
+        <v>6.51</v>
       </c>
       <c r="V136" s="10">
-        <v>10.55</v>
+        <v>10.06</v>
       </c>
       <c r="W136" s="10">
-        <v>29.04</v>
+        <v>31.91</v>
       </c>
       <c r="X136" s="10">
-        <v>805000</v>
+        <v>829000</v>
       </c>
     </row>
     <row r="137">
@@ -5171,31 +5186,31 @@
         <v>196</v>
       </c>
       <c r="N137" s="10">
-        <v>119850</v>
+        <v>122389</v>
       </c>
       <c r="O137" s="10">
-        <v>34169</v>
+        <v>37304</v>
       </c>
       <c r="P137" s="10">
-        <v>85681</v>
+        <v>85085</v>
       </c>
       <c r="Q137" s="10">
-        <v>1344</v>
+        <v>1275</v>
       </c>
       <c r="T137" s="10">
-        <v>17.7</v>
+        <v>16.98</v>
       </c>
       <c r="U137" s="10">
-        <v>6.49</v>
+        <v>6.56</v>
       </c>
       <c r="V137" s="10">
-        <v>11.21</v>
+        <v>10.42</v>
       </c>
       <c r="W137" s="10">
-        <v>28.51</v>
+        <v>30.48</v>
       </c>
       <c r="X137" s="10">
-        <v>637000</v>
+        <v>839000</v>
       </c>
     </row>
     <row r="138">
@@ -5206,31 +5221,31 @@
         <v>197</v>
       </c>
       <c r="N138" s="10">
-        <v>118517</v>
+        <v>121121</v>
       </c>
       <c r="O138" s="10">
-        <v>33173</v>
+        <v>35174</v>
       </c>
       <c r="P138" s="10">
-        <v>85344</v>
+        <v>85947</v>
       </c>
       <c r="Q138" s="10">
-        <v>1357</v>
+        <v>1277</v>
       </c>
       <c r="T138" s="10">
-        <v>18.09</v>
+        <v>17.12</v>
       </c>
       <c r="U138" s="10">
-        <v>6.64</v>
+        <v>6.57</v>
       </c>
       <c r="V138" s="10">
-        <v>11.45</v>
+        <v>10.55</v>
       </c>
       <c r="W138" s="10">
-        <v>27.99</v>
+        <v>29.04</v>
       </c>
       <c r="X138" s="10">
-        <v>571000</v>
+        <v>805000</v>
       </c>
     </row>
     <row r="139">
@@ -5241,31 +5256,31 @@
         <v>198</v>
       </c>
       <c r="N139" s="10">
-        <v>117171</v>
+        <v>119850</v>
       </c>
       <c r="O139" s="10">
-        <v>32175</v>
+        <v>34169</v>
       </c>
       <c r="P139" s="10">
-        <v>84996</v>
+        <v>85681</v>
       </c>
       <c r="Q139" s="10">
-        <v>1359</v>
+        <v>1344</v>
       </c>
       <c r="T139" s="10">
-        <v>18.24</v>
+        <v>17.7</v>
       </c>
       <c r="U139" s="10">
-        <v>6.64</v>
+        <v>6.49</v>
       </c>
       <c r="V139" s="10">
-        <v>11.6</v>
+        <v>11.21</v>
       </c>
       <c r="W139" s="10">
-        <v>27.46</v>
+        <v>28.51</v>
       </c>
       <c r="X139" s="10">
-        <v>604000</v>
+        <v>637000</v>
       </c>
     </row>
     <row r="140">
@@ -5276,31 +5291,31 @@
         <v>199</v>
       </c>
       <c r="N140" s="10">
-        <v>115823</v>
+        <v>118517</v>
       </c>
       <c r="O140" s="10">
-        <v>31203</v>
+        <v>33173</v>
       </c>
       <c r="P140" s="10">
-        <v>84620</v>
+        <v>85344</v>
       </c>
       <c r="Q140" s="10">
-        <v>1503</v>
+        <v>1357</v>
       </c>
       <c r="T140" s="10">
-        <v>19.68</v>
+        <v>18.09</v>
       </c>
       <c r="U140" s="10">
-        <v>6.7</v>
+        <v>6.64</v>
       </c>
       <c r="V140" s="10">
-        <v>12.98</v>
+        <v>11.45</v>
       </c>
       <c r="W140" s="10">
-        <v>26.94</v>
+        <v>27.99</v>
       </c>
       <c r="X140" s="10">
-        <v>614000</v>
+        <v>571000</v>
       </c>
     </row>
     <row r="141">
@@ -5311,31 +5326,31 @@
         <v>200</v>
       </c>
       <c r="N141" s="10">
-        <v>114333</v>
+        <v>117171</v>
       </c>
       <c r="O141" s="10">
-        <v>30195</v>
+        <v>32175</v>
       </c>
       <c r="P141" s="10">
-        <v>84138</v>
+        <v>84996</v>
       </c>
       <c r="Q141" s="10">
-        <v>1645</v>
+        <v>1359</v>
       </c>
       <c r="T141" s="10">
-        <v>21.06</v>
+        <v>18.24</v>
       </c>
       <c r="U141" s="10">
-        <v>6.67</v>
+        <v>6.64</v>
       </c>
       <c r="V141" s="10">
-        <v>14.39</v>
+        <v>11.6</v>
       </c>
       <c r="W141" s="10">
-        <v>26.41</v>
+        <v>27.46</v>
       </c>
       <c r="X141" s="10">
-        <v>614000</v>
+        <v>604000</v>
       </c>
     </row>
     <row r="142">
@@ -5346,31 +5361,31 @@
         <v>201</v>
       </c>
       <c r="N142" s="10">
-        <v>112704</v>
+        <v>115823</v>
       </c>
       <c r="O142" s="10">
-        <v>29540</v>
+        <v>31203</v>
       </c>
       <c r="P142" s="10">
-        <v>83164</v>
+        <v>84620</v>
       </c>
       <c r="Q142" s="10">
-        <v>1695</v>
+        <v>1503</v>
       </c>
       <c r="T142" s="10">
-        <v>21.58</v>
+        <v>19.68</v>
       </c>
       <c r="U142" s="10">
-        <v>6.54</v>
+        <v>6.7</v>
       </c>
       <c r="V142" s="10">
-        <v>15.04</v>
+        <v>12.98</v>
       </c>
       <c r="W142" s="10">
-        <v>26.21</v>
+        <v>26.94</v>
       </c>
       <c r="X142" s="10">
-        <v>576000</v>
+        <v>614000</v>
       </c>
     </row>
     <row r="143">
@@ -5381,31 +5396,31 @@
         <v>202</v>
       </c>
       <c r="N143" s="10">
-        <v>111026</v>
+        <v>114333</v>
       </c>
       <c r="O143" s="10">
-        <v>28661</v>
+        <v>30195</v>
       </c>
       <c r="P143" s="10">
-        <v>82365</v>
+        <v>84138</v>
       </c>
       <c r="Q143" s="10">
-        <v>1576</v>
+        <v>1645</v>
       </c>
       <c r="T143" s="10">
-        <v>22.37</v>
+        <v>21.06</v>
       </c>
       <c r="U143" s="10">
-        <v>6.64</v>
+        <v>6.67</v>
       </c>
       <c r="V143" s="10">
-        <v>15.73</v>
+        <v>14.39</v>
       </c>
       <c r="W143" s="10">
-        <v>25.81</v>
+        <v>26.41</v>
       </c>
       <c r="X143" s="10">
-        <v>553000</v>
+        <v>614000</v>
       </c>
     </row>
     <row r="144">
@@ -5416,31 +5431,31 @@
         <v>203</v>
       </c>
       <c r="N144" s="10">
-        <v>109300</v>
+        <v>112704</v>
       </c>
       <c r="O144" s="10">
-        <v>27674</v>
+        <v>29540</v>
       </c>
       <c r="P144" s="10">
-        <v>81626</v>
+        <v>83164</v>
       </c>
       <c r="Q144" s="10">
-        <v>1816</v>
+        <v>1695</v>
       </c>
       <c r="T144" s="10">
-        <v>23.33</v>
+        <v>21.58</v>
       </c>
       <c r="U144" s="10">
-        <v>6.72</v>
+        <v>6.54</v>
       </c>
       <c r="V144" s="10">
-        <v>16.61</v>
+        <v>15.04</v>
       </c>
       <c r="W144" s="10">
-        <v>25.32</v>
+        <v>26.21</v>
       </c>
       <c r="X144" s="10">
-        <v>532000</v>
+        <v>576000</v>
       </c>
     </row>
     <row r="145">
@@ -5451,31 +5466,31 @@
         <v>204</v>
       </c>
       <c r="N145" s="10">
-        <v>107507</v>
+        <v>111026</v>
       </c>
       <c r="O145" s="10">
-        <v>26366</v>
+        <v>28661</v>
       </c>
       <c r="P145" s="10">
-        <v>81141</v>
+        <v>82365</v>
       </c>
       <c r="Q145" s="10">
-        <v>1674</v>
+        <v>1576</v>
       </c>
       <c r="T145" s="10">
-        <v>22.43</v>
+        <v>22.37</v>
       </c>
       <c r="U145" s="10">
-        <v>6.86</v>
+        <v>6.64</v>
       </c>
       <c r="V145" s="10">
-        <v>15.57</v>
+        <v>15.73</v>
       </c>
       <c r="W145" s="10">
-        <v>24.52</v>
+        <v>25.81</v>
       </c>
       <c r="X145" s="10">
-        <v>393000</v>
+        <v>553000</v>
       </c>
     </row>
     <row r="146">
@@ -5486,31 +5501,31 @@
         <v>205</v>
       </c>
       <c r="N146" s="10">
-        <v>105851</v>
+        <v>109300</v>
       </c>
       <c r="O146" s="10">
-        <v>25094</v>
+        <v>27674</v>
       </c>
       <c r="P146" s="10">
-        <v>80757</v>
+        <v>81626</v>
       </c>
       <c r="Q146" s="10">
-        <v>1509</v>
+        <v>1816</v>
       </c>
       <c r="T146" s="10">
-        <v>21.04</v>
+        <v>23.33</v>
       </c>
       <c r="U146" s="10">
-        <v>6.78</v>
+        <v>6.72</v>
       </c>
       <c r="V146" s="10">
-        <v>14.26</v>
+        <v>16.61</v>
       </c>
       <c r="W146" s="10">
-        <v>23.71</v>
+        <v>25.32</v>
       </c>
       <c r="X146" s="10">
-        <v>316000</v>
+        <v>532000</v>
       </c>
     </row>
     <row r="147">
@@ -5521,31 +5536,31 @@
         <v>206</v>
       </c>
       <c r="N147" s="10">
-        <v>104357</v>
+        <v>107507</v>
       </c>
       <c r="O147" s="10">
-        <v>24017</v>
+        <v>26366</v>
       </c>
       <c r="P147" s="10">
-        <v>80340</v>
+        <v>81141</v>
       </c>
       <c r="Q147" s="10">
-        <v>1365</v>
+        <v>1674</v>
       </c>
       <c r="T147" s="10">
-        <v>19.9</v>
+        <v>22.43</v>
       </c>
       <c r="U147" s="10">
-        <v>6.82</v>
+        <v>6.86</v>
       </c>
       <c r="V147" s="10">
-        <v>13.08</v>
+        <v>15.57</v>
       </c>
       <c r="W147" s="10">
-        <v>23.01</v>
+        <v>24.52</v>
       </c>
       <c r="X147" s="10">
-        <v>287000</v>
+        <v>393000</v>
       </c>
     </row>
     <row r="148">
@@ -5556,31 +5571,31 @@
         <v>207</v>
       </c>
       <c r="N148" s="10">
-        <v>103008</v>
+        <v>105851</v>
       </c>
       <c r="O148" s="10">
-        <v>22274</v>
+        <v>25094</v>
       </c>
       <c r="P148" s="10">
-        <v>80734</v>
+        <v>80757</v>
       </c>
       <c r="Q148" s="10">
-        <v>1369</v>
+        <v>1509</v>
       </c>
       <c r="T148" s="10">
-        <v>20.19</v>
+        <v>21.04</v>
       </c>
       <c r="U148" s="10">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="V148" s="10">
-        <v>13.29</v>
+        <v>14.26</v>
       </c>
       <c r="W148" s="10">
-        <v>21.62</v>
+        <v>23.71</v>
       </c>
       <c r="X148" s="10">
-        <v>335000</v>
+        <v>316000</v>
       </c>
     </row>
     <row r="149">
@@ -5591,31 +5606,31 @@
         <v>208</v>
       </c>
       <c r="N149" s="10">
-        <v>101654</v>
+        <v>104357</v>
       </c>
       <c r="O149" s="10">
-        <v>21480</v>
+        <v>24017</v>
       </c>
       <c r="P149" s="10">
-        <v>80174</v>
+        <v>80340</v>
       </c>
       <c r="Q149" s="10">
-        <v>1594</v>
+        <v>1365</v>
       </c>
       <c r="T149" s="10">
-        <v>22.28</v>
+        <v>19.9</v>
       </c>
       <c r="U149" s="10">
-        <v>6.6</v>
+        <v>6.82</v>
       </c>
       <c r="V149" s="10">
-        <v>15.68</v>
+        <v>13.08</v>
       </c>
       <c r="W149" s="10">
-        <v>21.13</v>
+        <v>23.01</v>
       </c>
       <c r="X149" s="10">
-        <v>457000</v>
+        <v>287000</v>
       </c>
     </row>
     <row r="150">
@@ -5626,31 +5641,31 @@
         <v>209</v>
       </c>
       <c r="N150" s="10">
-        <v>100072</v>
+        <v>103008</v>
       </c>
       <c r="O150" s="10">
-        <v>20171</v>
+        <v>22274</v>
       </c>
       <c r="P150" s="10">
-        <v>79901</v>
+        <v>80734</v>
       </c>
       <c r="Q150" s="10">
-        <v>1456</v>
+        <v>1369</v>
       </c>
       <c r="T150" s="10">
-        <v>20.91</v>
+        <v>20.19</v>
       </c>
       <c r="U150" s="10">
-        <v>6.36</v>
+        <v>6.9</v>
       </c>
       <c r="V150" s="10">
-        <v>14.55</v>
+        <v>13.29</v>
       </c>
       <c r="W150" s="10">
-        <v>20.16</v>
+        <v>21.62</v>
       </c>
       <c r="X150" s="10">
-        <v>140000</v>
+        <v>335000</v>
       </c>
     </row>
     <row r="151">
@@ -5661,31 +5676,31 @@
         <v>210</v>
       </c>
       <c r="N151" s="10">
-        <v>98705</v>
+        <v>101654</v>
       </c>
       <c r="O151" s="10">
-        <v>19140</v>
+        <v>21480</v>
       </c>
       <c r="P151" s="10">
-        <v>79565</v>
+        <v>80174</v>
       </c>
       <c r="Q151" s="10">
-        <v>1171</v>
+        <v>1594</v>
       </c>
       <c r="T151" s="10">
-        <v>18.21</v>
+        <v>22.28</v>
       </c>
       <c r="U151" s="10">
-        <v>6.34</v>
+        <v>6.6</v>
       </c>
       <c r="V151" s="10">
-        <v>11.87</v>
+        <v>15.68</v>
       </c>
       <c r="W151" s="10">
-        <v>19.39</v>
+        <v>21.13</v>
       </c>
       <c r="X151" s="10">
-        <v>147000</v>
+        <v>457000</v>
       </c>
     </row>
     <row r="152">
@@ -5696,31 +5711,31 @@
         <v>211</v>
       </c>
       <c r="N152" s="10">
-        <v>97542</v>
+        <v>100072</v>
       </c>
       <c r="O152" s="10">
-        <v>18495</v>
+        <v>20171</v>
       </c>
       <c r="P152" s="10">
-        <v>79047</v>
+        <v>79901</v>
       </c>
       <c r="Q152" s="10">
-        <v>1132</v>
+        <v>1456</v>
       </c>
       <c r="T152" s="10">
-        <v>17.82</v>
+        <v>20.91</v>
       </c>
       <c r="U152" s="10">
-        <v>6.21</v>
+        <v>6.36</v>
       </c>
       <c r="V152" s="10">
-        <v>11.61</v>
+        <v>14.55</v>
       </c>
       <c r="W152" s="10">
-        <v>18.96</v>
+        <v>20.16</v>
       </c>
       <c r="X152" s="10">
-        <v>85000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="153">
@@ -5731,31 +5746,31 @@
         <v>212</v>
       </c>
       <c r="N153" s="10">
-        <v>96259</v>
+        <v>98705</v>
       </c>
       <c r="O153" s="10">
-        <v>17245</v>
+        <v>19140</v>
       </c>
       <c r="P153" s="10">
-        <v>79014</v>
+        <v>79565</v>
       </c>
       <c r="Q153" s="10">
-        <v>1155</v>
+        <v>1171</v>
       </c>
       <c r="T153" s="10">
-        <v>18.25</v>
+        <v>18.21</v>
       </c>
       <c r="U153" s="10">
-        <v>6.25</v>
+        <v>6.34</v>
       </c>
       <c r="V153" s="10">
-        <v>12</v>
+        <v>11.87</v>
       </c>
       <c r="W153" s="10">
-        <v>17.95</v>
+        <v>19.39</v>
       </c>
       <c r="X153" s="10">
-        <v>165000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="154">
@@ -5766,31 +5781,31 @@
         <v>213</v>
       </c>
       <c r="N154" s="10">
-        <v>94974</v>
+        <v>97542</v>
       </c>
       <c r="O154" s="10">
-        <v>16669</v>
+        <v>18495</v>
       </c>
       <c r="P154" s="10">
-        <v>78305</v>
+        <v>79047</v>
       </c>
       <c r="Q154" s="10">
-        <v>1151</v>
+        <v>1132</v>
       </c>
       <c r="T154" s="10">
-        <v>19.03</v>
+        <v>17.82</v>
       </c>
       <c r="U154" s="10">
-        <v>6.91</v>
+        <v>6.21</v>
       </c>
       <c r="V154" s="10">
-        <v>12.12</v>
+        <v>11.61</v>
       </c>
       <c r="W154" s="10">
-        <v>17.55</v>
+        <v>18.96</v>
       </c>
       <c r="X154" s="10">
-        <v>194000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="155">
@@ -5801,31 +5816,31 @@
         <v>214</v>
       </c>
       <c r="N155" s="10">
-        <v>93717</v>
+        <v>96259</v>
       </c>
       <c r="O155" s="10">
-        <v>16341</v>
+        <v>17245</v>
       </c>
       <c r="P155" s="10">
-        <v>77376</v>
+        <v>79014</v>
       </c>
       <c r="Q155" s="10">
-        <v>1192</v>
+        <v>1155</v>
       </c>
       <c r="T155" s="10">
-        <v>20.01</v>
+        <v>18.25</v>
       </c>
       <c r="U155" s="10">
-        <v>7.29</v>
+        <v>6.25</v>
       </c>
       <c r="V155" s="10">
-        <v>12.72</v>
+        <v>12</v>
       </c>
       <c r="W155" s="10">
-        <v>17.44</v>
+        <v>17.95</v>
       </c>
       <c r="X155" s="10">
-        <v>149000</v>
+        <v>165000</v>
       </c>
     </row>
     <row r="156">
@@ -5836,31 +5851,31 @@
         <v>215</v>
       </c>
       <c r="N156" s="10">
-        <v>92420</v>
+        <v>94974</v>
       </c>
       <c r="O156" s="10">
-        <v>16030</v>
+        <v>16669</v>
       </c>
       <c r="P156" s="10">
-        <v>76390</v>
+        <v>78305</v>
       </c>
       <c r="Q156" s="10">
-        <v>1458</v>
+        <v>1151</v>
       </c>
       <c r="T156" s="10">
-        <v>23.13</v>
+        <v>19.03</v>
       </c>
       <c r="U156" s="10">
-        <v>7.36</v>
+        <v>6.91</v>
       </c>
       <c r="V156" s="10">
-        <v>15.77</v>
+        <v>12.12</v>
       </c>
       <c r="W156" s="10">
-        <v>17.34</v>
+        <v>17.55</v>
       </c>
       <c r="X156" s="10">
-        <v>119000</v>
+        <v>194000</v>
       </c>
     </row>
     <row r="157">
@@ -5871,31 +5886,31 @@
         <v>216</v>
       </c>
       <c r="N157" s="10">
-        <v>90859</v>
+        <v>93717</v>
       </c>
       <c r="O157" s="10">
-        <v>15595</v>
+        <v>16341</v>
       </c>
       <c r="P157" s="10">
-        <v>75264</v>
+        <v>77376</v>
       </c>
       <c r="Q157" s="10">
-        <v>1596</v>
+        <v>1192</v>
       </c>
       <c r="T157" s="10">
-        <v>24.95</v>
+        <v>20.01</v>
       </c>
       <c r="U157" s="10">
-        <v>7.38</v>
+        <v>7.29</v>
       </c>
       <c r="V157" s="10">
-        <v>17.57</v>
+        <v>12.72</v>
       </c>
       <c r="W157" s="10">
-        <v>17.16</v>
+        <v>17.44</v>
       </c>
       <c r="X157" s="10">
-        <v>43000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="158">
@@ -5906,31 +5921,31 @@
         <v>217</v>
       </c>
       <c r="N158" s="10">
-        <v>89211</v>
+        <v>92420</v>
       </c>
       <c r="O158" s="10">
-        <v>15345</v>
+        <v>16030</v>
       </c>
       <c r="P158" s="10">
-        <v>73866</v>
+        <v>76390</v>
       </c>
       <c r="Q158" s="10">
-        <v>1872</v>
+        <v>1458</v>
       </c>
       <c r="T158" s="10">
-        <v>28.07</v>
+        <v>23.13</v>
       </c>
       <c r="U158" s="10">
-        <v>7.08</v>
+        <v>7.36</v>
       </c>
       <c r="V158" s="10">
-        <v>20.99</v>
+        <v>15.77</v>
       </c>
       <c r="W158" s="10">
-        <v>17.2</v>
+        <v>17.34</v>
       </c>
       <c r="X158" s="10">
-        <v>30000</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="159">
@@ -5941,31 +5956,31 @@
         <v>218</v>
       </c>
       <c r="N159" s="10">
-        <v>87177</v>
+        <v>90859</v>
       </c>
       <c r="O159" s="10">
-        <v>14935</v>
+        <v>15595</v>
       </c>
       <c r="P159" s="10">
-        <v>72242</v>
+        <v>75264</v>
       </c>
       <c r="Q159" s="10">
-        <v>1941</v>
+        <v>1596</v>
       </c>
       <c r="T159" s="10">
-        <v>29.92</v>
+        <v>24.95</v>
       </c>
       <c r="U159" s="10">
-        <v>7.65</v>
+        <v>7.38</v>
       </c>
       <c r="V159" s="10">
-        <v>22.27</v>
+        <v>17.57</v>
       </c>
       <c r="W159" s="10">
-        <v>17.13</v>
+        <v>17.16</v>
       </c>
       <c r="X159" s="10">
-        <v>17000</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="160">
@@ -5976,31 +5991,31 @@
         <v>219</v>
       </c>
       <c r="N160" s="10">
-        <v>85229</v>
+        <v>89211</v>
       </c>
       <c r="O160" s="10">
-        <v>14711</v>
+        <v>15345</v>
       </c>
       <c r="P160" s="10">
-        <v>70518</v>
+        <v>73866</v>
       </c>
       <c r="Q160" s="10">
-        <v>1994</v>
+        <v>1872</v>
       </c>
       <c r="T160" s="10">
-        <v>30.74</v>
+        <v>28.07</v>
       </c>
       <c r="U160" s="10">
-        <v>7.34</v>
+        <v>7.08</v>
       </c>
       <c r="V160" s="10">
-        <v>23.4</v>
+        <v>20.99</v>
       </c>
       <c r="W160" s="10">
-        <v>17.26</v>
+        <v>17.2</v>
       </c>
       <c r="X160" s="10">
-        <v>6000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="161">
@@ -6011,31 +6026,31 @@
         <v>220</v>
       </c>
       <c r="N161" s="10">
-        <v>82992</v>
+        <v>87177</v>
       </c>
       <c r="O161" s="10">
-        <v>14424</v>
+        <v>14935</v>
       </c>
       <c r="P161" s="10">
-        <v>68568</v>
+        <v>72242</v>
       </c>
       <c r="Q161" s="10">
-        <v>2154</v>
+        <v>1941</v>
       </c>
       <c r="T161" s="10">
-        <v>33.59</v>
+        <v>29.92</v>
       </c>
       <c r="U161" s="10">
-        <v>7.64</v>
+        <v>7.65</v>
       </c>
       <c r="V161" s="10">
-        <v>25.95</v>
+        <v>22.27</v>
       </c>
       <c r="W161" s="10">
-        <v>17.38</v>
+        <v>17.13</v>
       </c>
       <c r="X161" s="10">
-        <v>103000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="162">
@@ -6046,28 +6061,31 @@
         <v>221</v>
       </c>
       <c r="N162" s="10">
-        <v>80671</v>
+        <v>85229</v>
       </c>
       <c r="O162" s="10">
-        <v>14117</v>
+        <v>14711</v>
       </c>
       <c r="P162" s="10">
-        <v>66554</v>
+        <v>70518</v>
+      </c>
+      <c r="Q162" s="10">
+        <v>1994</v>
       </c>
       <c r="T162" s="10">
-        <v>34.25</v>
+        <v>30.74</v>
       </c>
       <c r="U162" s="10">
-        <v>8.06</v>
+        <v>7.34</v>
       </c>
       <c r="V162" s="10">
-        <v>26.19</v>
+        <v>23.4</v>
       </c>
       <c r="W162" s="10">
-        <v>17.5</v>
+        <v>17.26</v>
       </c>
       <c r="X162" s="10">
-        <v>150000</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="163">
@@ -6078,28 +6096,31 @@
         <v>222</v>
       </c>
       <c r="N163" s="10">
-        <v>78534</v>
+        <v>82992</v>
       </c>
       <c r="O163" s="10">
-        <v>13838</v>
+        <v>14424</v>
       </c>
       <c r="P163" s="10">
-        <v>64696</v>
+        <v>68568</v>
+      </c>
+      <c r="Q163" s="10">
+        <v>2154</v>
       </c>
       <c r="T163" s="10">
-        <v>35.75</v>
+        <v>33.59</v>
       </c>
       <c r="U163" s="10">
-        <v>8.25</v>
+        <v>7.64</v>
       </c>
       <c r="V163" s="10">
-        <v>27.5</v>
+        <v>25.95</v>
       </c>
       <c r="W163" s="10">
-        <v>17.62</v>
+        <v>17.38</v>
       </c>
       <c r="X163" s="10">
-        <v>150000</v>
+        <v>103000</v>
       </c>
     </row>
     <row r="164">
@@ -6110,28 +6131,28 @@
         <v>223</v>
       </c>
       <c r="N164" s="10">
-        <v>76368</v>
+        <v>80671</v>
       </c>
       <c r="O164" s="10">
-        <v>13548</v>
+        <v>14117</v>
       </c>
       <c r="P164" s="10">
-        <v>62820</v>
+        <v>66554</v>
       </c>
       <c r="T164" s="10">
-        <v>34.12</v>
+        <v>34.25</v>
       </c>
       <c r="U164" s="10">
-        <v>8.47</v>
+        <v>8.06</v>
       </c>
       <c r="V164" s="10">
-        <v>25.65</v>
+        <v>26.19</v>
       </c>
       <c r="W164" s="10">
-        <v>17.74</v>
+        <v>17.5</v>
       </c>
       <c r="X164" s="10">
-        <v>125000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="165">
@@ -6142,28 +6163,28 @@
         <v>224</v>
       </c>
       <c r="N165" s="10">
-        <v>74542</v>
+        <v>78534</v>
       </c>
       <c r="O165" s="10">
-        <v>13313</v>
+        <v>13838</v>
       </c>
       <c r="P165" s="10">
-        <v>61229</v>
+        <v>64696</v>
       </c>
       <c r="T165" s="10">
-        <v>35.21</v>
+        <v>35.75</v>
       </c>
       <c r="U165" s="10">
-        <v>8.87</v>
+        <v>8.25</v>
       </c>
       <c r="V165" s="10">
-        <v>26.34</v>
+        <v>27.5</v>
       </c>
       <c r="W165" s="10">
-        <v>17.86</v>
+        <v>17.62</v>
       </c>
       <c r="X165" s="10">
-        <v>141000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="166">
@@ -6174,28 +6195,28 @@
         <v>225</v>
       </c>
       <c r="N166" s="10">
-        <v>72538</v>
+        <v>76368</v>
       </c>
       <c r="O166" s="10">
-        <v>13045</v>
+        <v>13548</v>
       </c>
       <c r="P166" s="10">
-        <v>59493</v>
+        <v>62820</v>
       </c>
       <c r="T166" s="10">
-        <v>38</v>
+        <v>34.12</v>
       </c>
       <c r="U166" s="10">
-        <v>9.5</v>
+        <v>8.47</v>
       </c>
       <c r="V166" s="10">
-        <v>28.5</v>
+        <v>25.65</v>
       </c>
       <c r="W166" s="10">
-        <v>17.98</v>
+        <v>17.74</v>
       </c>
       <c r="X166" s="10">
-        <v>186000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="167">
@@ -6206,28 +6227,28 @@
         <v>226</v>
       </c>
       <c r="N167" s="10">
-        <v>70499</v>
+        <v>74542</v>
       </c>
       <c r="O167" s="10">
-        <v>12950</v>
+        <v>13313</v>
       </c>
       <c r="P167" s="10">
-        <v>57549</v>
+        <v>61229</v>
       </c>
       <c r="T167" s="10">
-        <v>39.34</v>
+        <v>35.21</v>
       </c>
       <c r="U167" s="10">
-        <v>11.56</v>
+        <v>8.87</v>
       </c>
       <c r="V167" s="10">
-        <v>27.78</v>
+        <v>26.34</v>
       </c>
       <c r="W167" s="10">
-        <v>18.37</v>
+        <v>17.86</v>
       </c>
       <c r="X167" s="10">
-        <v>204000</v>
+        <v>141000</v>
       </c>
     </row>
     <row r="168">
@@ -6238,28 +6259,28 @@
         <v>227</v>
       </c>
       <c r="N168" s="10">
-        <v>69172</v>
+        <v>72538</v>
       </c>
       <c r="O168" s="10">
-        <v>11646</v>
+        <v>13045</v>
       </c>
       <c r="P168" s="10">
-        <v>57526</v>
+        <v>59493</v>
       </c>
       <c r="T168" s="10">
-        <v>43.6</v>
+        <v>38</v>
       </c>
       <c r="U168" s="10">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="V168" s="10">
-        <v>33.5</v>
+        <v>28.5</v>
       </c>
       <c r="W168" s="10">
-        <v>16.84</v>
+        <v>17.98</v>
       </c>
       <c r="X168" s="10">
-        <v>199000</v>
+        <v>186000</v>
       </c>
     </row>
     <row r="169">
@@ -6270,28 +6291,28 @@
         <v>228</v>
       </c>
       <c r="N169" s="10">
-        <v>67296</v>
+        <v>70499</v>
       </c>
       <c r="O169" s="10">
-        <v>11659</v>
+        <v>12950</v>
       </c>
       <c r="P169" s="10">
-        <v>55636</v>
+        <v>57549</v>
       </c>
       <c r="T169" s="10">
-        <v>37.22</v>
+        <v>39.34</v>
       </c>
       <c r="U169" s="10">
-        <v>10.08</v>
+        <v>11.56</v>
       </c>
       <c r="V169" s="10">
-        <v>27.14</v>
+        <v>27.78</v>
       </c>
       <c r="W169" s="10">
-        <v>17.33</v>
+        <v>18.37</v>
       </c>
       <c r="X169" s="10">
-        <v>177000</v>
+        <v>204000</v>
       </c>
     </row>
     <row r="170">
@@ -6302,28 +6323,28 @@
         <v>229</v>
       </c>
       <c r="N170" s="10">
-        <v>65859</v>
+        <v>69172</v>
       </c>
       <c r="O170" s="10">
-        <v>12707</v>
+        <v>11646</v>
       </c>
       <c r="P170" s="10">
-        <v>53152</v>
+        <v>57526</v>
       </c>
       <c r="T170" s="10">
-        <v>18.13</v>
+        <v>43.6</v>
       </c>
       <c r="U170" s="10">
-        <v>14.33</v>
+        <v>10.1</v>
       </c>
       <c r="V170" s="10">
-        <v>3.8</v>
+        <v>33.5</v>
       </c>
       <c r="W170" s="10">
-        <v>19.29</v>
+        <v>16.84</v>
       </c>
       <c r="X170" s="10">
-        <v>151000</v>
+        <v>199000</v>
       </c>
     </row>
     <row r="171">
@@ -6334,28 +6355,28 @@
         <v>230</v>
       </c>
       <c r="N171" s="10">
-        <v>66207</v>
+        <v>67296</v>
       </c>
       <c r="O171" s="10">
-        <v>13073</v>
+        <v>11659</v>
       </c>
       <c r="P171" s="10">
-        <v>53134</v>
+        <v>55636</v>
       </c>
       <c r="T171" s="10">
-        <v>20.86</v>
+        <v>37.22</v>
       </c>
       <c r="U171" s="10">
-        <v>25.43</v>
+        <v>10.08</v>
       </c>
       <c r="V171" s="10">
-        <v>-4.57</v>
+        <v>27.14</v>
       </c>
       <c r="W171" s="10">
-        <v>19.75</v>
+        <v>17.33</v>
       </c>
       <c r="X171" s="10">
-        <v>136000</v>
+        <v>177000</v>
       </c>
     </row>
     <row r="172">
@@ -6366,25 +6387,28 @@
         <v>231</v>
       </c>
       <c r="N172" s="10">
-        <v>67207</v>
+        <v>65859</v>
       </c>
       <c r="O172" s="10">
-        <v>12371</v>
+        <v>12707</v>
       </c>
       <c r="P172" s="10">
-        <v>54836</v>
+        <v>53152</v>
       </c>
       <c r="T172" s="10">
-        <v>24.78</v>
+        <v>18.13</v>
       </c>
       <c r="U172" s="10">
-        <v>14.59</v>
+        <v>14.33</v>
       </c>
       <c r="V172" s="10">
-        <v>10.19</v>
+        <v>3.8</v>
+      </c>
+      <c r="W172" s="10">
+        <v>19.29</v>
       </c>
       <c r="X172" s="10">
-        <v>70000</v>
+        <v>151000</v>
       </c>
     </row>
     <row r="173">
@@ -6395,25 +6419,28 @@
         <v>232</v>
       </c>
       <c r="N173" s="10">
-        <v>65994</v>
+        <v>66207</v>
       </c>
       <c r="O173" s="10">
-        <v>10721</v>
+        <v>13073</v>
       </c>
       <c r="P173" s="10">
-        <v>55273</v>
+        <v>53134</v>
       </c>
       <c r="T173" s="10">
-        <v>29.22</v>
+        <v>20.86</v>
       </c>
       <c r="U173" s="10">
-        <v>11.98</v>
+        <v>25.43</v>
       </c>
       <c r="V173" s="10">
-        <v>17.24</v>
+        <v>-4.57</v>
+      </c>
+      <c r="W173" s="10">
+        <v>19.75</v>
       </c>
       <c r="X173" s="10">
-        <v>72000</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="174">
@@ -6424,28 +6451,25 @@
         <v>233</v>
       </c>
       <c r="N174" s="10">
-        <v>64653</v>
+        <v>67207</v>
       </c>
       <c r="O174" s="10">
-        <v>9949</v>
+        <v>12371</v>
       </c>
       <c r="P174" s="10">
-        <v>54704</v>
+        <v>54836</v>
       </c>
       <c r="T174" s="10">
-        <v>34.03</v>
+        <v>24.78</v>
       </c>
       <c r="U174" s="10">
-        <v>10.8</v>
+        <v>14.59</v>
       </c>
       <c r="V174" s="10">
-        <v>23.23</v>
-      </c>
-      <c r="W174" s="10">
-        <v>15.4</v>
+        <v>10.19</v>
       </c>
       <c r="X174" s="10">
-        <v>56000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="175">
@@ -6456,25 +6480,25 @@
         <v>234</v>
       </c>
       <c r="N175" s="10">
-        <v>62828</v>
+        <v>65994</v>
       </c>
       <c r="O175" s="10">
-        <v>9185</v>
+        <v>10721</v>
       </c>
       <c r="P175" s="10">
-        <v>53643</v>
+        <v>55273</v>
       </c>
       <c r="T175" s="10">
-        <v>31.9</v>
+        <v>29.22</v>
       </c>
       <c r="U175" s="10">
-        <v>11.4</v>
+        <v>11.98</v>
       </c>
       <c r="V175" s="10">
-        <v>20.5</v>
+        <v>17.24</v>
       </c>
       <c r="X175" s="10">
-        <v>63000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="176">
@@ -6485,28 +6509,28 @@
         <v>235</v>
       </c>
       <c r="N176" s="10">
-        <v>61465</v>
+        <v>64653</v>
       </c>
       <c r="O176" s="10">
-        <v>8285</v>
+        <v>9949</v>
       </c>
       <c r="P176" s="10">
-        <v>53180</v>
+        <v>54704</v>
       </c>
       <c r="T176" s="10">
-        <v>32.6</v>
+        <v>34.03</v>
       </c>
       <c r="U176" s="10">
-        <v>12.28</v>
+        <v>10.8</v>
       </c>
       <c r="V176" s="10">
-        <v>20.32</v>
+        <v>23.23</v>
       </c>
       <c r="W176" s="10">
-        <v>13.48</v>
+        <v>15.4</v>
       </c>
       <c r="X176" s="10">
-        <v>55000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="177">
@@ -6517,25 +6541,25 @@
         <v>236</v>
       </c>
       <c r="N177" s="10">
-        <v>60266</v>
+        <v>62828</v>
       </c>
       <c r="O177" s="10">
-        <v>8249</v>
+        <v>9185</v>
       </c>
       <c r="P177" s="10">
-        <v>52017</v>
+        <v>53643</v>
       </c>
       <c r="T177" s="10">
-        <v>37.97</v>
+        <v>31.9</v>
       </c>
       <c r="U177" s="10">
-        <v>13.18</v>
+        <v>11.4</v>
       </c>
       <c r="V177" s="10">
-        <v>24.79</v>
+        <v>20.5</v>
       </c>
       <c r="X177" s="10">
-        <v>47000</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="178">
@@ -6546,28 +6570,28 @@
         <v>237</v>
       </c>
       <c r="N178" s="10">
-        <v>58796</v>
+        <v>61465</v>
       </c>
       <c r="O178" s="10">
-        <v>7826</v>
+        <v>8285</v>
       </c>
       <c r="P178" s="10">
-        <v>50970</v>
+        <v>53180</v>
       </c>
       <c r="T178" s="10">
-        <v>37</v>
+        <v>32.6</v>
       </c>
       <c r="U178" s="10">
-        <v>14</v>
+        <v>12.28</v>
       </c>
       <c r="V178" s="10">
-        <v>23</v>
+        <v>20.32</v>
       </c>
       <c r="W178" s="10">
-        <v>13.26</v>
+        <v>13.48</v>
       </c>
       <c r="X178" s="10">
-        <v>48000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="179">
@@ -6578,28 +6602,25 @@
         <v>238</v>
       </c>
       <c r="N179" s="10">
-        <v>57482</v>
+        <v>60266</v>
       </c>
       <c r="O179" s="10">
-        <v>7163</v>
+        <v>8249</v>
       </c>
       <c r="P179" s="10">
-        <v>50319</v>
+        <v>52017</v>
       </c>
       <c r="T179" s="10">
-        <v>37</v>
+        <v>37.97</v>
       </c>
       <c r="U179" s="10">
-        <v>17</v>
+        <v>13.18</v>
       </c>
       <c r="V179" s="10">
-        <v>20</v>
-      </c>
-      <c r="W179" s="10">
-        <v>12.5</v>
+        <v>24.79</v>
       </c>
       <c r="X179" s="10">
-        <v>32000</v>
+        <v>47000</v>
       </c>
     </row>
     <row r="180">
@@ -6610,28 +6631,28 @@
         <v>239</v>
       </c>
       <c r="N180" s="10">
-        <v>56300</v>
+        <v>58796</v>
       </c>
       <c r="O180" s="10">
-        <v>6632</v>
+        <v>7826</v>
       </c>
       <c r="P180" s="10">
-        <v>49668</v>
+        <v>50970</v>
       </c>
       <c r="T180" s="10">
-        <v>37.8</v>
+        <v>37</v>
       </c>
       <c r="U180" s="10">
-        <v>17.8</v>
+        <v>14</v>
       </c>
       <c r="V180" s="10">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="W180" s="10">
-        <v>11.78</v>
+        <v>13.26</v>
       </c>
       <c r="X180" s="10">
-        <v>19000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="181">
@@ -6642,28 +6663,28 @@
         <v>240</v>
       </c>
       <c r="N181" s="10">
-        <v>55196</v>
+        <v>57482</v>
       </c>
       <c r="O181" s="10">
-        <v>6169</v>
+        <v>7163</v>
       </c>
       <c r="P181" s="10">
-        <v>49027</v>
+        <v>50319</v>
       </c>
       <c r="T181" s="10">
         <v>37</v>
       </c>
       <c r="U181" s="10">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="V181" s="10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W181" s="10">
-        <v>11.18</v>
+        <v>12.5</v>
       </c>
       <c r="X181" s="10">
-        <v>18000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="182">
@@ -6674,33 +6695,97 @@
         <v>241</v>
       </c>
       <c r="N182" s="10">
+        <v>56300</v>
+      </c>
+      <c r="O182" s="10">
+        <v>6632</v>
+      </c>
+      <c r="P182" s="10">
+        <v>49668</v>
+      </c>
+      <c r="T182" s="10">
+        <v>37.8</v>
+      </c>
+      <c r="U182" s="10">
+        <v>17.8</v>
+      </c>
+      <c r="V182" s="10">
+        <v>20</v>
+      </c>
+      <c r="W182" s="10">
+        <v>11.78</v>
+      </c>
+      <c r="X182" s="10">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="8">
+        <v>177</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="N183" s="10">
+        <v>55196</v>
+      </c>
+      <c r="O183" s="10">
+        <v>6169</v>
+      </c>
+      <c r="P183" s="10">
+        <v>49027</v>
+      </c>
+      <c r="T183" s="10">
+        <v>37</v>
+      </c>
+      <c r="U183" s="10">
+        <v>18</v>
+      </c>
+      <c r="V183" s="10">
+        <v>19</v>
+      </c>
+      <c r="W183" s="10">
+        <v>11.18</v>
+      </c>
+      <c r="X183" s="10">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="8">
+        <v>178</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="N184" s="10">
         <v>54167</v>
       </c>
-      <c r="O182" s="10">
+      <c r="O184" s="10">
         <v>5765</v>
       </c>
-      <c r="P182" s="10">
+      <c r="P184" s="10">
         <v>48402</v>
       </c>
-      <c r="T182" s="10">
+      <c r="T184" s="10">
         <v>36</v>
       </c>
-      <c r="U182" s="10">
+      <c r="U184" s="10">
         <v>20</v>
       </c>
-      <c r="V182" s="10">
+      <c r="V184" s="10">
         <v>16</v>
       </c>
-      <c r="W182" s="10">
+      <c r="W184" s="10">
         <v>10.64</v>
       </c>
-      <c r="X182" s="10">
+      <c r="X184" s="10">
         <v>21000</v>
       </c>
     </row>
-    <row r="189" ht="25" customHeight="1">
-      <c r="A189" s="11" t="s">
-        <v>242</v>
+    <row r="191" ht="25" customHeight="1">
+      <c r="A191" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
